--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Archive" sheetId="4" r:id="rId1"/>
@@ -592,16 +592,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -615,27 +606,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
@@ -659,6 +632,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -667,6 +667,77 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -698,6 +769,146 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -841,146 +1052,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -997,77 +1068,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1091,27 +1091,27 @@
   <tableColumns count="17">
     <tableColumn id="1" name="No."/>
     <tableColumn id="23" name="Economy "/>
-    <tableColumn id="2" name="QualityBonus" dataDxfId="14" dataCellStyle="Porcentaje"/>
-    <tableColumn id="3" name="Product" dataDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="Base price1" dataDxfId="7" dataCellStyle="Moneda"/>
-    <tableColumn id="24" name="Req." dataDxfId="6" dataCellStyle="Millares"/>
-    <tableColumn id="4" name="COGS" dataDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="5" name="QOGS" dataDxfId="4"/>
-    <tableColumn id="18" name="Product2" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Base price2" dataDxfId="12" dataCellStyle="Moneda"/>
-    <tableColumn id="35" name="Req.2" dataDxfId="11" dataCellStyle="Moneda"/>
-    <tableColumn id="19" name="COGS2" dataDxfId="10" dataCellStyle="Moneda"/>
-    <tableColumn id="20" name="Q2" dataDxfId="9"/>
-    <tableColumn id="10" name="p1" dataDxfId="3">
+    <tableColumn id="2" name="QualityBonus" dataDxfId="18" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" name="Product" dataDxfId="17" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Base price1" dataDxfId="16" dataCellStyle="Moneda"/>
+    <tableColumn id="24" name="Req." dataDxfId="15" dataCellStyle="Millares"/>
+    <tableColumn id="4" name="COGS" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="5" name="QOGS" dataDxfId="13"/>
+    <tableColumn id="18" name="Product2" dataDxfId="12" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Base price2" dataDxfId="11" dataCellStyle="Moneda"/>
+    <tableColumn id="35" name="Req.2" dataDxfId="10" dataCellStyle="Moneda"/>
+    <tableColumn id="19" name="COGS2" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="20" name="Q2" dataDxfId="8"/>
+    <tableColumn id="10" name="p1" dataDxfId="7">
       <calculatedColumnFormula>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="p2" dataDxfId="2">
+    <tableColumn id="9" name="p2" dataDxfId="6">
       <calculatedColumnFormula>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="5" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Tabla22[[#This Row],[p1]:[p2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="profit -wages" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="36" name="profit -wages" dataDxfId="4" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1120,20 +1120,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="18" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="17" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="16" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="15" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1406,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -1433,46 +1433,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E2" s="61"/>
-      <c r="F2" s="70" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="38">
         <v>35000</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="13">
         <f>SUMIF(Tabla22[Product],E3,Tabla22[Req.])+SUMIF(Tabla22[Product2],E3,Tabla22[Req.2])</f>
         <v>0</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="51">
         <f>F3/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0</v>
       </c>
@@ -1488,29 +1488,29 @@
         <f>(SUMIF(Tabla22[Product],E3,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E3,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E3)+COUNTIF(Tabla22[Product2],E3))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="36" t="e">
+      <c r="K3" s="33" t="e">
         <f>(SUMIF(Tabla22[Product],E3,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E3,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E3)+COUNTIF(Tabla22[Product2],E3))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="53" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="2">
         <f>SUMIF(Tabla22[Product],E4,Tabla22[Req.])+SUMIF(Tabla22[Product2],E4,Tabla22[Req.2])</f>
         <v>0</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="49">
         <f>F4/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H4" s="42" t="e">
+      <c r="H4" s="39" t="e">
         <f>(SUMIF(Tabla22[Product],E4,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E4,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4))</f>
         <v>#DIV/0!</v>
       </c>
@@ -1526,25 +1526,25 @@
         <f>(SUMIF(Tabla22[Product],E4,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E4,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="53" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="2">
         <f>SUMIF(Tabla22[Product],E5,Tabla22[Req.])+SUMIF(Tabla22[Product2],E5,Tabla22[Req.2])</f>
         <v>3</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="49">
         <f>F5/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="39">
         <f>(SUMIF(Tabla22[Product],E5,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E5,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5))</f>
         <v>2.41E-2</v>
       </c>
@@ -1556,29 +1556,29 @@
         <f>(SUMIF(Tabla22[Product],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5))</f>
         <v>66048.236249999987</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="45">
         <f>(SUMIF(Tabla22[Product],E5,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E5,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5))</f>
         <v>31048.23624999998</v>
       </c>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="53" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="2">
         <f>SUMIF(Tabla22[Product],E6,Tabla22[Req.])+SUMIF(Tabla22[Product2],E6,Tabla22[Req.2])</f>
         <v>16</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="49">
         <f>F6/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <f>(SUMIF(Tabla22[Product],E6,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E6,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6))</f>
         <v>2.5759999999999998E-2</v>
       </c>
@@ -1590,29 +1590,29 @@
         <f>(SUMIF(Tabla22[Product],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6))</f>
         <v>56291.601259999989</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="45">
         <f>(SUMIF(Tabla22[Product],E6,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E6,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6))</f>
         <v>21291.601259999989</v>
       </c>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="53" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="2">
         <f>SUMIF(Tabla22[Product],E7,Tabla22[Req.])+SUMIF(Tabla22[Product2],E7,Tabla22[Req.2])</f>
         <v>2</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="49">
         <f>F7/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="39">
         <f>(SUMIF(Tabla22[Product],E7,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E7,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7))</f>
         <v>1.6500000000000001E-2</v>
       </c>
@@ -1624,129 +1624,129 @@
         <f>(SUMIF(Tabla22[Product],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7))</f>
         <v>28107.612000000008</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="45">
         <f>(SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7))</f>
         <v>-6892.3879999999917</v>
       </c>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <f>SUMIF(Tabla22[Product],E8,Tabla22[Req.])+SUMIF(Tabla22[Product2],E8,Tabla22[Req.2])</f>
         <v>3</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="50">
         <f>F8/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="47">
         <f>(SUMIF(Tabla22[Product],E8,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E8,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8))</f>
         <v>2.2633333333333335E-2</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="41">
         <f>(SUMIF(Tabla22[Product],E8,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E8,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8))</f>
         <v>122046.66666666667</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="41">
         <f>(SUMIF(Tabla22[Product],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8))</f>
         <v>45667.983933333329</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="46">
         <f>(SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8))</f>
         <v>10667.983933333331</v>
       </c>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="59">
         <f>SUM(F3:F8)</f>
         <v>24</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="55">
         <f>SUM(G3:G8)</f>
         <v>4</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="56">
         <f>AVERAGE(Tabla22[QualityBonus])</f>
         <v>2.4216666666666675E-2</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="73">
+      <c r="I9" s="58"/>
+      <c r="J9" s="64">
         <f>AVERAGEIF(Tabla22[TOTAL PROFIT (no wages, no admin costs)],"&gt;0")</f>
         <v>51594.269716666669</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="60">
         <f>AVERAGE(Tabla22[profit -wages])</f>
         <v>16594.269716666658</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
+      <c r="L9" s="65"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="45" t="s">
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="43" t="s">
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="44"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="68"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1794,17 +1794,17 @@
       <c r="O14" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="P14" s="43" t="s">
         <v>70</v>
       </c>
       <c r="Q14" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -1813,7 +1813,7 @@
       <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="39">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1858,15 +1858,15 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>72749.23060000001</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="44">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v>37749.23060000001</v>
       </c>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -1875,7 +1875,7 @@
       <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="39">
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1920,15 +1920,15 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>66612.977999999974</v>
       </c>
-      <c r="Q16" s="54">
+      <c r="Q16" s="45">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v>31612.977999999974</v>
       </c>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -1937,7 +1937,7 @@
       <c r="B17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="39">
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1982,15 +1982,15 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>65483.494499999986</v>
       </c>
-      <c r="Q17" s="54">
+      <c r="Q17" s="45">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v>30483.494499999986</v>
       </c>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -1999,7 +1999,7 @@
       <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="39">
         <v>2.92E-2</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2034,15 +2034,15 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>40465.194000000003</v>
       </c>
-      <c r="Q18" s="54">
+      <c r="Q18" s="45">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v>5465.1940000000031</v>
       </c>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -2051,7 +2051,7 @@
       <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="39">
         <v>2.23E-2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2096,84 +2096,84 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>36147.109199999977</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="Q19" s="45">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v>1147.1091999999771</v>
       </c>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>6</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="47">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="41">
         <v>120391</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="42">
         <v>1</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="41">
         <v>118000</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="36">
         <v>4</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="41">
         <v>41297</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="42">
         <v>2</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="41">
         <v>36500</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="26">
         <v>6</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="31">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
         <v>10336.806000000011</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="26">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
         <v>17770.805999999997</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="40">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>28107.612000000008</v>
       </c>
-      <c r="Q20" s="55">
+      <c r="Q20" s="46">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v>-6892.3879999999917</v>
       </c>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>7</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="42"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
@@ -2196,22 +2196,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="54" t="str">
+      <c r="Q21" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>8</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="42"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
@@ -2234,22 +2234,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="54" t="str">
+      <c r="Q22" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>9</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
@@ -2272,22 +2272,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="54" t="str">
+      <c r="Q23" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>10</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="42"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
@@ -2310,22 +2310,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="54" t="str">
+      <c r="Q24" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>11</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="42"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
@@ -2348,22 +2348,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="54" t="str">
+      <c r="Q25" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>12</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="42"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
@@ -2386,22 +2386,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="54" t="str">
+      <c r="Q26" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>13</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="42"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
@@ -2424,22 +2424,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="54" t="str">
+      <c r="Q27" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>14</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="42"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
@@ -2462,22 +2462,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="54" t="str">
+      <c r="Q28" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>15</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="42"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
@@ -2500,22 +2500,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="54" t="str">
+      <c r="Q29" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>16</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="42"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
@@ -2538,22 +2538,22 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="54" t="str">
+      <c r="Q30" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>17</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="42"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
@@ -2576,21 +2576,21 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="54" t="str">
+      <c r="Q31" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>18</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="42"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
@@ -2613,21 +2613,21 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="54" t="str">
+      <c r="Q32" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>19</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="42"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
@@ -2650,21 +2650,21 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="54" t="str">
+      <c r="Q33" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>20</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="42"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
@@ -2687,21 +2687,21 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="54" t="str">
+      <c r="Q34" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>21</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="42"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
@@ -2724,21 +2724,21 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="54" t="str">
+      <c r="Q35" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>22</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="42"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
@@ -2761,21 +2761,21 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="54" t="str">
+      <c r="Q36" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>23</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="42"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
@@ -2798,7 +2798,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="54" t="str">
+      <c r="Q37" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -2808,7 +2808,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="14"/>
-      <c r="C38" s="42"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
@@ -2831,7 +2831,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="54" t="str">
+      <c r="Q38" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="14"/>
-      <c r="C39" s="42"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
@@ -2864,7 +2864,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="54" t="str">
+      <c r="Q39" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -2874,7 +2874,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="14"/>
-      <c r="C40" s="42"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
@@ -2897,7 +2897,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="54" t="str">
+      <c r="Q40" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -2907,7 +2907,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="42"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
@@ -2930,7 +2930,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="54" t="str">
+      <c r="Q41" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -2940,7 +2940,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="14"/>
-      <c r="C42" s="42"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
@@ -2963,7 +2963,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="54" t="str">
+      <c r="Q42" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -2973,7 +2973,7 @@
         <v>29</v>
       </c>
       <c r="B43" s="14"/>
-      <c r="C43" s="42"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
@@ -2996,7 +2996,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="54" t="str">
+      <c r="Q43" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3006,7 +3006,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="14"/>
-      <c r="C44" s="42"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
@@ -3029,7 +3029,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="54" t="str">
+      <c r="Q44" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3039,7 +3039,7 @@
         <v>31</v>
       </c>
       <c r="B45" s="14"/>
-      <c r="C45" s="42"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
@@ -3062,7 +3062,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="54" t="str">
+      <c r="Q45" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3072,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="14"/>
-      <c r="C46" s="42"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
@@ -3095,7 +3095,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="54" t="str">
+      <c r="Q46" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3105,7 +3105,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="42"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
@@ -3128,7 +3128,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="54" t="str">
+      <c r="Q47" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3138,7 +3138,7 @@
         <v>34</v>
       </c>
       <c r="B48" s="14"/>
-      <c r="C48" s="42"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
@@ -3161,7 +3161,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="54" t="str">
+      <c r="Q48" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3171,7 +3171,7 @@
         <v>35</v>
       </c>
       <c r="B49" s="14"/>
-      <c r="C49" s="42"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
@@ -3194,7 +3194,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="54" t="str">
+      <c r="Q49" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3204,7 +3204,7 @@
         <v>36</v>
       </c>
       <c r="B50" s="14"/>
-      <c r="C50" s="42"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
@@ -3227,7 +3227,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="54" t="str">
+      <c r="Q50" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3237,7 +3237,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="42"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
@@ -3260,7 +3260,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="54" t="str">
+      <c r="Q51" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3270,7 +3270,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="14"/>
-      <c r="C52" s="42"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
@@ -3293,7 +3293,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="54" t="str">
+      <c r="Q52" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3303,7 +3303,7 @@
         <v>39</v>
       </c>
       <c r="B53" s="14"/>
-      <c r="C53" s="42"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
@@ -3326,7 +3326,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="54" t="str">
+      <c r="Q53" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3336,7 +3336,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="14"/>
-      <c r="C54" s="42"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
@@ -3359,7 +3359,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="54" t="str">
+      <c r="Q54" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3369,7 +3369,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="14"/>
-      <c r="C55" s="42"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
@@ -3392,7 +3392,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="54" t="str">
+      <c r="Q55" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3402,7 +3402,7 @@
         <v>42</v>
       </c>
       <c r="B56" s="14"/>
-      <c r="C56" s="42"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
@@ -3425,7 +3425,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="54" t="str">
+      <c r="Q56" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3435,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="B57" s="14"/>
-      <c r="C57" s="42"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
@@ -3458,7 +3458,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="54" t="str">
+      <c r="Q57" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3468,7 +3468,7 @@
         <v>44</v>
       </c>
       <c r="B58" s="14"/>
-      <c r="C58" s="42"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
@@ -3491,7 +3491,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="54" t="str">
+      <c r="Q58" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3501,7 +3501,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="14"/>
-      <c r="C59" s="42"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
@@ -3524,7 +3524,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q59" s="54" t="str">
+      <c r="Q59" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3534,7 +3534,7 @@
         <v>46</v>
       </c>
       <c r="B60" s="14"/>
-      <c r="C60" s="42"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
@@ -3557,7 +3557,7 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="54" t="str">
+      <c r="Q60" s="45" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3567,16 +3567,16 @@
         <v>47</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="39"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="36"/>
       <c r="N61">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
         <v>0</v>
@@ -3585,11 +3585,11 @@
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="P61" s="48">
+      <c r="P61" s="40">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="55" t="str">
+      <c r="Q61" s="46" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
         <v/>
       </c>
@@ -3720,33 +3720,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="U5" s="13"/>
-      <c r="V5" s="26" t="s">
+      <c r="V5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="27"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="73"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -5736,7 +5736,7 @@
       <c r="B25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="30">
         <v>62</v>
       </c>
       <c r="H25" s="16">
@@ -5838,7 +5838,7 @@
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="32">
         <v>2.4E-2</v>
       </c>
       <c r="H26" s="16">
@@ -5944,7 +5944,7 @@
       <c r="D27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="33" t="s">
         <v>41</v>
       </c>
       <c r="H27" s="19">
@@ -6046,13 +6046,13 @@
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="34">
         <v>53</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="34">
         <v>55</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="35">
         <v>57</v>
       </c>
     </row>
@@ -6060,13 +6060,13 @@
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="34">
         <v>2</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="34">
         <v>3</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="35">
         <v>6</v>
       </c>
     </row>
@@ -6087,47 +6087,47 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="73"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="26" t="s">
+      <c r="V30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="27"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="73"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="26">
         <f>C30-C28</f>
         <v>11.975999999999999</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="26">
         <f t="shared" ref="D31:E31" si="8">D30-D28</f>
         <v>11.463999999999999</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="36">
         <f t="shared" si="8"/>
         <v>13.928000000000011</v>
       </c>
@@ -8213,25 +8213,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M19"/>
+  <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -8250,17 +8250,17 @@
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M2" s="8">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>18445</v>
       </c>
@@ -8279,14 +8279,14 @@
       <c r="G3">
         <v>635</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>29891</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>19315</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>29235</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>21002</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>27283</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>22479</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>27783</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>22991</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>25478</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>23336</v>
       </c>
@@ -8486,53 +8486,53 @@
         <v>987</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="28">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
         <v>26263</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <v>13461</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <v>11141</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <v>6447</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="26">
         <v>3054</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <v>1011</v>
       </c>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="30">
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="27">
         <f>SUM(B3:B14)</f>
         <v>293501</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="27">
         <f t="shared" ref="C15:G15" si="0">SUM(C3:C14)</f>
         <v>180219</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="27">
         <f t="shared" si="0"/>
         <v>120435</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>83293</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="27">
         <f t="shared" si="0"/>
         <v>41877</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>11443</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="28">
         <f>SUM(B15:G15)</f>
         <v>730768</v>
       </c>
@@ -8540,28 +8540,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="32">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="29">
         <f>B15/$H$15</f>
         <v>0.40163362380399797</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <f t="shared" ref="C16:G16" si="1">C15/$H$15</f>
         <v>0.24661588903728679</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="29">
         <f t="shared" si="1"/>
         <v>0.16480606704179712</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="29">
         <f t="shared" si="1"/>
         <v>0.11398008670330392</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="29">
         <f t="shared" si="1"/>
         <v>5.7305464935519891E-2</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>1.5658868478094279E-2</v>
       </c>
@@ -8570,28 +8570,28 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="30">
-        <f>B16*$L$2*$L$3</f>
+      <c r="B18" s="27">
+        <f>B16*$M$2*$M$3</f>
         <v>9.6392069712959518</v>
       </c>
-      <c r="C18" s="30">
-        <f t="shared" ref="C18:F18" si="2">C16*$L$2*$L$3</f>
+      <c r="C18" s="27">
+        <f>C16*$M$2*$M$3</f>
         <v>5.9187813368948827</v>
       </c>
-      <c r="D18" s="30">
-        <f t="shared" si="2"/>
+      <c r="D18" s="27">
+        <f>D16*$M$2*$M$3</f>
         <v>3.9553456090031309</v>
       </c>
-      <c r="E18" s="30">
-        <f t="shared" si="2"/>
+      <c r="E18" s="27">
+        <f>E16*$M$2*$M$3</f>
         <v>2.7355220808792939</v>
       </c>
-      <c r="F18" s="30">
-        <f t="shared" si="2"/>
+      <c r="F18" s="27">
+        <f>F16*$M$2*$M$3</f>
         <v>1.3753311584524774</v>
       </c>
-      <c r="G18" s="30">
-        <f t="shared" ref="C18:G18" si="3">G16*14</f>
+      <c r="G18" s="27">
+        <f t="shared" ref="G18" si="2">G16*14</f>
         <v>0.2192241586933199</v>
       </c>
       <c r="H18" t="s">
@@ -8599,28 +8599,28 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="30">
+      <c r="B19" s="27">
         <f>B18/2</f>
         <v>4.8196034856479759</v>
       </c>
-      <c r="C19" s="30">
-        <f t="shared" ref="C19:G19" si="4">C18/2</f>
+      <c r="C19" s="27">
+        <f t="shared" ref="C19:G19" si="3">C18/2</f>
         <v>2.9593906684474414</v>
       </c>
-      <c r="D19" s="30">
-        <f t="shared" si="4"/>
+      <c r="D19" s="27">
+        <f t="shared" si="3"/>
         <v>1.9776728045015655</v>
       </c>
-      <c r="E19" s="30">
-        <f t="shared" si="4"/>
+      <c r="E19" s="27">
+        <f t="shared" si="3"/>
         <v>1.367761040439647</v>
       </c>
-      <c r="F19" s="30">
-        <f t="shared" si="4"/>
+      <c r="F19" s="27">
+        <f t="shared" si="3"/>
         <v>0.68766557922623872</v>
       </c>
-      <c r="G19" s="30">
-        <f t="shared" si="4"/>
+      <c r="G19" s="27">
+        <f t="shared" si="3"/>
         <v>0.10961207934665995</v>
       </c>
       <c r="H19" t="s">

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Archive" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>QualityBonus</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Product2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal </t>
+  </si>
+  <si>
+    <t>Per product type</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -621,17 +627,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,15 +648,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,6 +655,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1083,8 +1096,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A14:Q61" totalsRowShown="0">
-  <autoFilter ref="A14:Q61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A15:Q62" totalsRowShown="0">
+  <autoFilter ref="A15:Q62"/>
   <sortState ref="A6:AN38">
     <sortCondition descending="1" ref="R5:R38"/>
   </sortState>
@@ -1112,7 +1125,7 @@
       <calculatedColumnFormula>SUM(Tabla22[[#This Row],[p1]:[p2]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="36" name="profit -wages" dataDxfId="4" dataCellStyle="Moneda">
-      <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1404,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X61"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1429,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1426,286 +1439,341 @@
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+    </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E2" s="52"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="38">
+        <v>35000</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G3" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H3" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I3" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J3" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="38">
-        <v>35000</v>
-      </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E3" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="13">
-        <f>SUMIF(Tabla22[Product],E3,Tabla22[Req.])+SUMIF(Tabla22[Product2],E3,Tabla22[Req.2])</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="51">
-        <f>F3/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="23" t="e">
-        <f>(SUMIF(Tabla22[Product],E3,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E3,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E3)+COUNTIF(Tabla22[Product2],E3))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="25" t="e">
-        <f>(SUMIF(Tabla22[Product],E3,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E3,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E3)+COUNTIF(Tabla22[Product2],E3))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="25" t="e">
-        <f>(SUMIF(Tabla22[Product],E3,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E3,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E3)+COUNTIF(Tabla22[Product2],E3))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="33" t="e">
-        <f>(SUMIF(Tabla22[Product],E3,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E3,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E3)+COUNTIF(Tabla22[Product2],E3))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
       <c r="W3" s="48"/>
       <c r="X3" s="48"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E4" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2">
+        <v>29</v>
+      </c>
+      <c r="F4" s="13">
         <f>SUMIF(Tabla22[Product],E4,Tabla22[Req.])+SUMIF(Tabla22[Product2],E4,Tabla22[Req.2])</f>
         <v>0</v>
       </c>
-      <c r="G4" s="49">
-        <f>F4/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="39" t="e">
-        <f>(SUMIF(Tabla22[Product],E4,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E4,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="4" t="e">
-        <f>(SUMIF(Tabla22[Product],E4,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E4,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="4" t="e">
-        <f>(SUMIF(Tabla22[Product],E4,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E4,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="15" t="e">
-        <f>(SUMIF(Tabla22[Product],E4,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E4,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
+      <c r="G4" s="51">
+        <f>IFERROR(F4/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <f>IFERROR((SUMIF(Tabla22[Product],E4,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E4,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <f>IFERROR((SUMIF(Tabla22[Product],E4,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E4,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <f>IFERROR((SUMIF(Tabla22[Product],E4,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E4,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="44">
+        <f>IFERROR((SUMIF(Tabla22[Product],E4,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E4,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E4)+COUNTIF(Tabla22[Product2],E4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
       <c r="W4" s="48"/>
       <c r="X4" s="48"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E5" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2">
         <f>SUMIF(Tabla22[Product],E5,Tabla22[Req.])+SUMIF(Tabla22[Product2],E5,Tabla22[Req.2])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="49">
         <f>F5/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="39">
-        <f>(SUMIF(Tabla22[Product],E5,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E5,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5))</f>
-        <v>2.41E-2</v>
+        <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E5,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f>(SUMIF(Tabla22[Product],E5,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E5,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5))</f>
-        <v>84868.5</v>
+        <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E5,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
-        <f>(SUMIF(Tabla22[Product],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5))</f>
-        <v>66048.236249999987</v>
+        <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
+        <v>0</v>
       </c>
       <c r="K5" s="45">
-        <f>(SUMIF(Tabla22[Product],E5,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E5,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5))</f>
-        <v>31048.23624999998</v>
-      </c>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+        <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E5,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
       <c r="W5" s="48"/>
       <c r="X5" s="48"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E6" s="53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2">
         <f>SUMIF(Tabla22[Product],E6,Tabla22[Req.])+SUMIF(Tabla22[Product2],E6,Tabla22[Req.2])</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G6" s="49">
         <f>F6/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>2.6666666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="39">
-        <f>(SUMIF(Tabla22[Product],E6,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E6,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6))</f>
-        <v>2.5759999999999998E-2</v>
+        <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E6,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
+        <v>2.2633333333333335E-2</v>
       </c>
       <c r="I6" s="4">
-        <f>(SUMIF(Tabla22[Product],E6,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E6,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6))</f>
-        <v>61657.8</v>
+        <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E6,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
+        <v>122046.66666666667</v>
       </c>
       <c r="J6" s="4">
-        <f>(SUMIF(Tabla22[Product],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6))</f>
-        <v>56291.601259999989</v>
+        <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
+        <v>45667.983933333329</v>
       </c>
       <c r="K6" s="45">
-        <f>(SUMIF(Tabla22[Product],E6,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E6,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6))</f>
-        <v>21291.601259999989</v>
-      </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
+        <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E6,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
+        <v>10667.983933333331</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
       <c r="W6" s="48"/>
       <c r="X6" s="48"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E7" s="53" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2">
         <f>SUMIF(Tabla22[Product],E7,Tabla22[Req.])+SUMIF(Tabla22[Product2],E7,Tabla22[Req.2])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="49">
         <f>F7/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="39">
-        <f>(SUMIF(Tabla22[Product],E7,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E7,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7))</f>
-        <v>1.6500000000000001E-2</v>
+        <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E7,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
+        <v>2.41E-2</v>
       </c>
       <c r="I7" s="4">
-        <f>(SUMIF(Tabla22[Product],E7,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E7,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7))</f>
-        <v>41297</v>
+        <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E7,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
+        <v>84868.5</v>
       </c>
       <c r="J7" s="4">
-        <f>(SUMIF(Tabla22[Product],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7))</f>
-        <v>28107.612000000008</v>
+        <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
+        <v>66048.236249999987</v>
       </c>
       <c r="K7" s="45">
-        <f>(SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7))</f>
-        <v>-6892.3879999999917</v>
-      </c>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
+        <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
+        <v>31048.23624999998</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
       <c r="W7" s="48"/>
       <c r="X7" s="48"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E8" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="31">
+      <c r="E8" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2">
         <f>SUMIF(Tabla22[Product],E8,Tabla22[Req.])+SUMIF(Tabla22[Product2],E8,Tabla22[Req.2])</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="50">
+        <v>16</v>
+      </c>
+      <c r="G8" s="49">
         <f>F8/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="47">
-        <f>(SUMIF(Tabla22[Product],E8,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E8,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8))</f>
-        <v>2.2633333333333335E-2</v>
-      </c>
-      <c r="I8" s="41">
-        <f>(SUMIF(Tabla22[Product],E8,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E8,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8))</f>
-        <v>122046.66666666667</v>
-      </c>
-      <c r="J8" s="41">
-        <f>(SUMIF(Tabla22[Product],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8))</f>
-        <v>45667.983933333329</v>
-      </c>
-      <c r="K8" s="46">
-        <f>(SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8))</f>
-        <v>10667.983933333331</v>
-      </c>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H8" s="39">
+        <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E8,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
+        <v>2.5759999999999998E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E8,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
+        <v>61657.8</v>
+      </c>
+      <c r="J8" s="4">
+        <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
+        <v>56291.601259999989</v>
+      </c>
+      <c r="K8" s="45">
+        <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
+        <v>21291.601259999989</v>
+      </c>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
       <c r="W8" s="48"/>
       <c r="X8" s="48"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="31">
+        <f>SUMIF(Tabla22[Product],E9,Tabla22[Req.])+SUMIF(Tabla22[Product2],E9,Tabla22[Req.2])</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="50">
+        <f>F9/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H9" s="47">
+        <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E9,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="I9" s="41">
+        <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E9,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
+        <v>41297</v>
+      </c>
+      <c r="J9" s="41">
+        <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
+        <v>28107.612000000008</v>
+      </c>
+      <c r="K9" s="46">
+        <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E9,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
+        <v>-6892.3879999999917</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E10" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="59">
-        <f>SUM(F3:F8)</f>
+      <c r="F10" s="70">
+        <f>SUM(F4:F9)</f>
         <v>24</v>
       </c>
-      <c r="G9" s="55">
-        <f>SUM(G3:G8)</f>
+      <c r="G10" s="50">
+        <f>SUM(G4:G9)</f>
         <v>4</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H10" s="71">
         <f>AVERAGE(Tabla22[QualityBonus])</f>
         <v>2.4216666666666675E-2</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="64">
+      <c r="I10" s="41">
+        <f>SUMPRODUCT(G4:G9,I4:I9)/G10</f>
+        <v>70411.012499999997</v>
+      </c>
+      <c r="J10" s="41">
         <f>AVERAGEIF(Tabla22[TOTAL PROFIT (no wages, no admin costs)],"&gt;0")</f>
         <v>51594.269716666669</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K10" s="72">
         <f>AVERAGE(Tabla22[profit -wages])</f>
         <v>16594.269716666658</v>
       </c>
-      <c r="L9" s="65"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L10" s="56"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
       <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
       <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S11" s="48"/>
@@ -1722,26 +1790,6 @@
       <c r="W12" s="48"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D13" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="66"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="68"/>
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
@@ -1749,57 +1797,26 @@
       <c r="W13" s="48"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>22</v>
-      </c>
+      <c r="D14" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="63"/>
       <c r="S14" s="48"/>
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
@@ -1807,60 +1824,56 @@
       <c r="W14" s="48"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="39">
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="4">
-        <v>124454</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>118000</v>
-      </c>
-      <c r="H15" s="15">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="4">
-        <v>63090</v>
-      </c>
-      <c r="K15" s="5">
-        <v>3</v>
-      </c>
-      <c r="L15" s="4">
-        <v>55000</v>
-      </c>
-      <c r="M15" s="15">
+      <c r="K15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="14">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>20940.445600000006</v>
-      </c>
-      <c r="O15" s="14">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>51808.785000000003</v>
-      </c>
-      <c r="P15" s="24">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>72749.23060000001</v>
-      </c>
-      <c r="Q15" s="44">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
-        <v>37749.23060000001</v>
+      <c r="M15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>22</v>
       </c>
       <c r="S15" s="48"/>
       <c r="T15" s="48"/>
@@ -1870,59 +1883,59 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="39">
-        <v>2.0899999999999998E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4">
-        <v>84382</v>
+        <v>124454</v>
       </c>
       <c r="F16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>80750</v>
+        <v>118000</v>
       </c>
       <c r="H16" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="4">
-        <v>62008</v>
+        <v>63090</v>
       </c>
       <c r="K16" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" s="4">
         <v>55000</v>
       </c>
       <c r="M16" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" s="14">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>17845.502799999987</v>
+        <v>20940.445600000006</v>
       </c>
       <c r="O16" s="14">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>48767.475199999986</v>
-      </c>
-      <c r="P16" s="3">
+        <v>51808.785000000003</v>
+      </c>
+      <c r="P16" s="24">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>66612.977999999974</v>
-      </c>
-      <c r="Q16" s="45">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
-        <v>31612.977999999974</v>
+        <v>72749.23060000001</v>
+      </c>
+      <c r="Q16" s="44">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
+        <v>37749.23060000001</v>
       </c>
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
@@ -1932,25 +1945,25 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="39">
-        <v>2.7300000000000001E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="4">
-        <v>85355</v>
+        <v>84382</v>
       </c>
       <c r="F17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4">
-        <v>81500</v>
+        <v>80750</v>
       </c>
       <c r="H17" s="15">
         <v>3</v>
@@ -1959,7 +1972,7 @@
         <v>59</v>
       </c>
       <c r="J17" s="4">
-        <v>61900</v>
+        <v>62008</v>
       </c>
       <c r="K17" s="5">
         <v>4</v>
@@ -1972,19 +1985,19 @@
       </c>
       <c r="N17" s="14">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>10845.574500000002</v>
+        <v>17845.502799999987</v>
       </c>
       <c r="O17" s="14">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>54637.919999999984</v>
+        <v>48767.475199999986</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>65483.494499999986</v>
+        <v>66612.977999999974</v>
       </c>
       <c r="Q17" s="45">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
-        <v>30483.494499999986</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
+        <v>31612.977999999974</v>
       </c>
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
@@ -1994,49 +2007,59 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="39">
-        <v>2.92E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4">
+        <v>85355</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>81500</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="4">
-        <v>59763</v>
-      </c>
-      <c r="F18" s="5">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="J18" s="4">
+        <v>61900</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4</v>
+      </c>
+      <c r="L18" s="4">
         <v>55000</v>
       </c>
-      <c r="H18" s="15">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="15"/>
+      <c r="M18" s="15">
+        <v>4</v>
+      </c>
       <c r="N18" s="14">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>40465.194000000003</v>
+        <v>10845.574500000002</v>
       </c>
       <c r="O18" s="14">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>54637.919999999984</v>
       </c>
       <c r="P18" s="3">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>40465.194000000003</v>
+        <v>65483.494499999986</v>
       </c>
       <c r="Q18" s="45">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
-        <v>5465.1940000000031</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
+        <v>30483.494499999986</v>
       </c>
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
@@ -2046,59 +2069,49 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="39">
+        <v>2.92E-2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="4">
+        <v>59763</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>55000</v>
+      </c>
+      <c r="H19" s="15">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="39">
-        <v>2.23E-2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="4">
-        <v>121295</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>118000</v>
-      </c>
-      <c r="H19" s="15">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="4">
-        <v>61528</v>
-      </c>
-      <c r="K19" s="5">
-        <v>2</v>
-      </c>
-      <c r="L19" s="4">
-        <v>56000</v>
-      </c>
-      <c r="M19" s="15">
-        <v>4</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="14">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>14114.513999999996</v>
+        <v>40465.194000000003</v>
       </c>
       <c r="O19" s="14">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>22032.595199999982</v>
+        <v>0</v>
       </c>
       <c r="P19" s="3">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>36147.109199999977</v>
+        <v>40465.194000000003</v>
       </c>
       <c r="Q19" s="45">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
-        <v>1147.1091999999771</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
+        <v>5465.1940000000031</v>
       </c>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
@@ -2107,60 +2120,60 @@
       <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>6</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="14">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="47">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="C20" s="39">
+        <v>2.23E-2</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="41">
-        <v>120391</v>
-      </c>
-      <c r="F20" s="42">
+      <c r="E20" s="4">
+        <v>121295</v>
+      </c>
+      <c r="F20" s="5">
         <v>1</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="4">
         <v>118000</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="15">
         <v>4</v>
       </c>
-      <c r="I20" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="41">
-        <v>41297</v>
-      </c>
-      <c r="K20" s="42">
+      <c r="I20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="4">
+        <v>61528</v>
+      </c>
+      <c r="K20" s="5">
         <v>2</v>
       </c>
-      <c r="L20" s="41">
-        <v>36500</v>
-      </c>
-      <c r="M20" s="26">
-        <v>6</v>
-      </c>
-      <c r="N20" s="31">
+      <c r="L20" s="4">
+        <v>56000</v>
+      </c>
+      <c r="M20" s="15">
+        <v>4</v>
+      </c>
+      <c r="N20" s="14">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>10336.806000000011</v>
-      </c>
-      <c r="O20" s="26">
+        <v>14114.513999999996</v>
+      </c>
+      <c r="O20" s="14">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>17770.805999999997</v>
-      </c>
-      <c r="P20" s="40">
+        <v>22032.595199999982</v>
+      </c>
+      <c r="P20" s="3">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>28107.612000000008</v>
-      </c>
-      <c r="Q20" s="46">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
-        <v>-6892.3879999999917</v>
+        <v>36147.109199999977</v>
+      </c>
+      <c r="Q20" s="45">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
+        <v>1147.1091999999771</v>
       </c>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
@@ -2169,36 +2182,60 @@
       <c r="W20" s="48"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>7</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="14">
+      <c r="A21" s="26">
+        <v>6</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="47">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="41">
+        <v>120391</v>
+      </c>
+      <c r="F21" s="42">
+        <v>1</v>
+      </c>
+      <c r="G21" s="41">
+        <v>118000</v>
+      </c>
+      <c r="H21" s="36">
+        <v>4</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="41">
+        <v>41297</v>
+      </c>
+      <c r="K21" s="42">
+        <v>2</v>
+      </c>
+      <c r="L21" s="41">
+        <v>36500</v>
+      </c>
+      <c r="M21" s="26">
+        <v>6</v>
+      </c>
+      <c r="N21" s="31">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="14">
+        <v>10336.806000000011</v>
+      </c>
+      <c r="O21" s="26">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+        <v>17770.805999999997</v>
+      </c>
+      <c r="P21" s="40">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
-        <v/>
+        <v>28107.612000000008</v>
+      </c>
+      <c r="Q21" s="46">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
+        <v>-6892.3879999999917</v>
       </c>
       <c r="S21" s="48"/>
       <c r="T21" s="48"/>
@@ -2208,7 +2245,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="39"/>
@@ -2235,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="S22" s="48"/>
@@ -2246,7 +2283,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="39"/>
@@ -2273,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="S23" s="48"/>
@@ -2284,7 +2321,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="39"/>
@@ -2311,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="S24" s="48"/>
@@ -2322,7 +2359,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="39"/>
@@ -2349,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="S25" s="48"/>
@@ -2360,7 +2397,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="39"/>
@@ -2387,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="S26" s="48"/>
@@ -2398,7 +2435,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="39"/>
@@ -2425,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="S27" s="48"/>
@@ -2436,7 +2473,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="39"/>
@@ -2463,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="S28" s="48"/>
@@ -2474,7 +2511,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="39"/>
@@ -2501,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="S29" s="48"/>
@@ -2512,7 +2549,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="39"/>
@@ -2539,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="S30" s="48"/>
@@ -2550,7 +2587,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="39"/>
@@ -2577,9 +2614,10 @@
         <v>0</v>
       </c>
       <c r="Q31" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
+      <c r="S31" s="48"/>
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
       <c r="V31" s="48"/>
@@ -2587,7 +2625,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="39"/>
@@ -2614,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="T32" s="48"/>
@@ -2624,7 +2662,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="39"/>
@@ -2651,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="T33" s="48"/>
@@ -2661,7 +2699,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="39"/>
@@ -2688,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="T34" s="48"/>
@@ -2698,7 +2736,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="39"/>
@@ -2725,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="T35" s="48"/>
@@ -2735,7 +2773,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="39"/>
@@ -2762,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
       <c r="T36" s="48"/>
@@ -2772,7 +2810,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="39"/>
@@ -2799,13 +2837,17 @@
         <v>0</v>
       </c>
       <c r="Q37" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="39"/>
@@ -2832,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="Q38" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="39"/>
@@ -2865,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="Q39" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="39"/>
@@ -2898,13 +2940,13 @@
         <v>0</v>
       </c>
       <c r="Q40" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="39"/>
@@ -2931,13 +2973,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="39"/>
@@ -2964,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="39"/>
@@ -2997,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="39"/>
@@ -3030,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="39"/>
@@ -3063,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="39"/>
@@ -3096,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="Q46" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="39"/>
@@ -3113,7 +3155,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="5"/>
       <c r="L47" s="4"/>
       <c r="M47" s="15"/>
       <c r="N47" s="14">
@@ -3129,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="Q47" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="39"/>
@@ -3146,7 +3188,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="5"/>
+      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="15"/>
       <c r="N48" s="14">
@@ -3162,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="Q48" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="39"/>
@@ -3179,7 +3221,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="5"/>
       <c r="L49" s="4"/>
       <c r="M49" s="15"/>
       <c r="N49" s="14">
@@ -3195,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="Q49" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="39"/>
@@ -3212,7 +3254,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="5"/>
+      <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="15"/>
       <c r="N50" s="14">
@@ -3228,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="Q50" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="39"/>
@@ -3245,7 +3287,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="K51" s="5"/>
       <c r="L51" s="4"/>
       <c r="M51" s="15"/>
       <c r="N51" s="14">
@@ -3261,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="Q51" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="39"/>
@@ -3278,7 +3320,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="15"/>
       <c r="N52" s="14">
@@ -3294,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="39"/>
@@ -3311,7 +3353,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="K53" s="5"/>
       <c r="L53" s="4"/>
       <c r="M53" s="15"/>
       <c r="N53" s="14">
@@ -3327,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="Q53" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="39"/>
@@ -3344,7 +3386,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="5"/>
+      <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="15"/>
       <c r="N54" s="14">
@@ -3360,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="Q54" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="39"/>
@@ -3377,7 +3419,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="K55" s="5"/>
       <c r="L55" s="4"/>
       <c r="M55" s="15"/>
       <c r="N55" s="14">
@@ -3393,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="Q55" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="39"/>
@@ -3410,7 +3452,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="5"/>
+      <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="15"/>
       <c r="N56" s="14">
@@ -3426,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q56" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="39"/>
@@ -3443,7 +3485,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="3"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="K57" s="5"/>
       <c r="L57" s="4"/>
       <c r="M57" s="15"/>
       <c r="N57" s="14">
@@ -3459,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="Q57" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="39"/>
@@ -3476,7 +3518,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="5"/>
+      <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="15"/>
       <c r="N58" s="14">
@@ -3492,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="Q58" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="39"/>
@@ -3509,7 +3551,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="5"/>
       <c r="L59" s="4"/>
       <c r="M59" s="15"/>
       <c r="N59" s="14">
@@ -3525,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="Q59" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="39"/>
@@ -3542,7 +3584,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="5"/>
+      <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="15"/>
       <c r="N60" s="14">
@@ -3558,50 +3600,84 @@
         <v>0</v>
       </c>
       <c r="Q60" s="45" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="14">
+        <v>46</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="14">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="14">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="45" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>47</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="36"/>
-      <c r="N61">
+      <c r="C62" s="1"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="36"/>
+      <c r="N62">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
         <v>0</v>
       </c>
-      <c r="O61">
+      <c r="O62">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="P61" s="40">
+      <c r="P62" s="40">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="46" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$N$2,"")</f>
+      <c r="Q62" s="46" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$3,"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:M13"/>
+  <mergeCells count="4">
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="F2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F8">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="F4:F9">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3610,7 +3686,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G8">
+  <conditionalFormatting sqref="G4:G9">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H9">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3620,48 +3736,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H8">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I8">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:D61 J59:J61 I15:I58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D62 J60:J62 I16:I59">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3677,7 +3753,7 @@
   <dimension ref="B3:AF54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,33 +3796,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="U5" s="13"/>
-      <c r="V5" s="72" t="s">
+      <c r="V5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="73"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="65"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -6087,33 +6163,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="72" t="s">
+      <c r="I30" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="73"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="65"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="72" t="s">
+      <c r="V30" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="73"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="65"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
@@ -8213,23 +8289,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N19"/>
+  <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -8253,7 +8332,8 @@
       <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="57">
+        <f>Archive!G10</f>
         <v>4</v>
       </c>
       <c r="N2" t="s">
@@ -8283,7 +8363,7 @@
         <v>33</v>
       </c>
       <c r="M3" s="8">
-        <v>6</v>
+        <v>81.914460082202012</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -8571,28 +8651,28 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
-        <f>B16*$M$2*$M$3</f>
-        <v>9.6392069712959518</v>
+        <f t="shared" ref="B18:G18" si="2">B16*$M$2*$M$3</f>
+        <v>131.59840577905092</v>
       </c>
       <c r="C18" s="27">
-        <f>C16*$M$2*$M$3</f>
-        <v>5.9187813368948827</v>
+        <f t="shared" si="2"/>
+        <v>80.805629592726362</v>
       </c>
       <c r="D18" s="27">
-        <f>D16*$M$2*$M$3</f>
-        <v>3.9553456090031309</v>
+        <f t="shared" si="2"/>
+        <v>53.999999999999993</v>
       </c>
       <c r="E18" s="27">
-        <f>E16*$M$2*$M$3</f>
-        <v>2.7355220808792939</v>
+        <f t="shared" si="2"/>
+        <v>37.346469049694853</v>
       </c>
       <c r="F18" s="27">
-        <f>F16*$M$2*$M$3</f>
-        <v>1.3753311584524774</v>
+        <f t="shared" si="2"/>
+        <v>18.776584879810684</v>
       </c>
       <c r="G18" s="27">
-        <f t="shared" ref="G18" si="2">G16*14</f>
-        <v>0.2192241586933199</v>
+        <f t="shared" si="2"/>
+        <v>5.1307510275252204</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
@@ -8601,31 +8681,47 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f>B18/2</f>
-        <v>4.8196034856479759</v>
+        <v>65.799202889525461</v>
       </c>
       <c r="C19" s="27">
-        <f t="shared" ref="C19:G19" si="3">C18/2</f>
-        <v>2.9593906684474414</v>
+        <f t="shared" ref="C19:F19" si="3">C18/2</f>
+        <v>40.402814796363181</v>
       </c>
       <c r="D19" s="27">
         <f t="shared" si="3"/>
-        <v>1.9776728045015655</v>
+        <v>26.999999999999996</v>
       </c>
       <c r="E19" s="27">
         <f t="shared" si="3"/>
-        <v>1.367761040439647</v>
+        <v>18.673234524847427</v>
       </c>
       <c r="F19" s="27">
         <f t="shared" si="3"/>
-        <v>0.68766557922623872</v>
+        <v>9.3882924399053422</v>
       </c>
       <c r="G19" s="27">
-        <f t="shared" si="3"/>
-        <v>0.10961207934665995</v>
+        <f>G18/2</f>
+        <v>2.5653755137626102</v>
       </c>
       <c r="H19" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -279,7 +279,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -672,6 +672,41 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,41 +716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -724,161 +724,6 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -950,6 +795,161 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -972,33 +972,33 @@
   <tableColumns count="19">
     <tableColumn id="1" name="No."/>
     <tableColumn id="23" name="Economy "/>
-    <tableColumn id="2" name="QualityBonus" dataDxfId="11" dataCellStyle="Porcentaje"/>
-    <tableColumn id="3" name="Product" dataDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="Base price1" dataDxfId="10" dataCellStyle="Moneda"/>
-    <tableColumn id="24" name="Req." dataDxfId="9" dataCellStyle="Millares"/>
+    <tableColumn id="2" name="QualityBonus" dataDxfId="15" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" name="Product" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Base price1" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="24" name="Req." dataDxfId="12" dataCellStyle="Millares"/>
     <tableColumn id="4" name="COGS" dataCellStyle="Moneda"/>
     <tableColumn id="5" name="QOGS"/>
-    <tableColumn id="18" name="Product2" dataDxfId="2" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Base price2" dataDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="35" name="Req.2" dataDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="18" name="Product2" dataDxfId="11" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Base price2" dataDxfId="10" dataCellStyle="Moneda"/>
+    <tableColumn id="35" name="Req.2" dataDxfId="9" dataCellStyle="Moneda"/>
     <tableColumn id="19" name="COGS2" dataCellStyle="Moneda"/>
     <tableColumn id="20" name="Q2"/>
-    <tableColumn id="12" name="Order price" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="12" name="Order price" dataDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Bonus" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="p1" dataDxfId="3">
+    <tableColumn id="10" name="p1" dataDxfId="7">
       <calculatedColumnFormula>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="p2" dataDxfId="6">
       <calculatedColumnFormula>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="5" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Tabla22[[#This Row],[p1]:[p2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="profit -wages" dataDxfId="5" dataCellStyle="Moneda">
+    <tableColumn id="36" name="profit -wages" dataDxfId="4" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1007,20 +1007,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="15" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="14" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="13" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="12" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1294,7 +1294,7 @@
   <dimension ref="A2:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,10 +1323,10 @@
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M2" s="46"/>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="46"/>
@@ -1335,22 +1335,22 @@
       <c r="S2" s="46"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-      <c r="N3" s="62" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+      <c r="N3" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="64"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="74"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -1360,48 +1360,48 @@
         <v>35000</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="55" t="s">
         <v>62</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="56" t="s">
         <v>67</v>
       </c>
       <c r="M4" s="50"/>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="55" t="s">
         <v>62</v>
       </c>
       <c r="O4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="59" t="s">
+      <c r="S4" s="56" t="s">
         <v>67</v>
       </c>
       <c r="W4" s="46"/>
       <c r="X4" s="46"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="61" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="49">
@@ -1428,7 +1428,7 @@
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E5,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="61" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="49">
@@ -1459,7 +1459,7 @@
       <c r="X5" s="46"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="61" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="47">
@@ -1486,7 +1486,7 @@
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E6,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="61" t="s">
         <v>60</v>
       </c>
       <c r="N6" s="47">
@@ -1517,7 +1517,7 @@
       <c r="X6" s="46"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="61" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="47">
@@ -1544,7 +1544,7 @@
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
         <v>10667.983933333331</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="61" t="s">
         <v>56</v>
       </c>
       <c r="N7" s="47">
@@ -1575,7 +1575,7 @@
       <c r="X7" s="46"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="61" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="47">
@@ -1602,7 +1602,7 @@
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
         <v>31048.23624999998</v>
       </c>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="61" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="47">
@@ -1636,7 +1636,7 @@
       <c r="B9" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="61" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="47">
@@ -1663,7 +1663,7 @@
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E9,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
         <v>21291.601259999989</v>
       </c>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="61" t="s">
         <v>58</v>
       </c>
       <c r="N9" s="47">
@@ -1694,10 +1694,10 @@
       <c r="X9" s="46"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="62" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="48">
@@ -1724,7 +1724,7 @@
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E10,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
         <v>-6892.3879999999917</v>
       </c>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="62" t="s">
         <v>57</v>
       </c>
       <c r="N10" s="48">
@@ -1755,7 +1755,7 @@
       <c r="X10" s="46"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="51" t="s">
@@ -1769,7 +1769,7 @@
         <f>SUM(G5:G10)</f>
         <v>4</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="57">
         <f>AVERAGE(Tabla22[QualityBonus])</f>
         <v>2.4216666666666675E-2</v>
       </c>
@@ -1781,7 +1781,7 @@
         <f>AVERAGEIF(Tabla22[TOTAL PROFIT (no wages, no admin costs)],"&gt;0")</f>
         <v>51594.269716666669</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="58">
         <f>AVERAGE(Tabla22[profit -wages])</f>
         <v>16594.269716666658</v>
       </c>
@@ -1797,7 +1797,7 @@
         <f>SUM(O5:O10)</f>
         <v>4</v>
       </c>
-      <c r="P11" s="60">
+      <c r="P11" s="57">
         <f>IFERROR(AVERAGEIFS(Tabla22[QualityBonus],Tabla22[[Economy ]],$O$2),0)</f>
         <v>2.4216666666666675E-2</v>
       </c>
@@ -1809,7 +1809,7 @@
         <f>IFERROR(AVERAGEIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[[Economy ]],$O$2),0)</f>
         <v>51594.269716666669</v>
       </c>
-      <c r="S11" s="61">
+      <c r="S11" s="58">
         <f>IFERROR(AVERAGEIFS(Tabla22[profit -wages],Tabla22[[Economy ]],$O$2),0)</f>
         <v>16594.269716666658</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="X11" s="46"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="64" t="s">
         <v>72</v>
       </c>
       <c r="S12" s="46"/>
@@ -1841,26 +1841,26 @@
       <c r="W14" s="46"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72" t="s">
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="72" t="s">
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
       <c r="U15" s="46"/>
@@ -1968,7 +1968,7 @@
       <c r="L17" s="3">
         <v>55000</v>
       </c>
-      <c r="M17" s="76">
+      <c r="M17" s="66">
         <v>5</v>
       </c>
       <c r="N17" s="3">
@@ -2038,7 +2038,7 @@
       <c r="L18" s="3">
         <v>55000</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="66">
         <v>4</v>
       </c>
       <c r="N18" s="3">
@@ -2108,7 +2108,7 @@
       <c r="L19" s="3">
         <v>55000</v>
       </c>
-      <c r="M19" s="76">
+      <c r="M19" s="66">
         <v>4</v>
       </c>
       <c r="N19" s="3">
@@ -2170,7 +2170,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="76"/>
+      <c r="M20" s="66"/>
       <c r="N20" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>179289</v>
@@ -2238,7 +2238,7 @@
       <c r="L21" s="3">
         <v>56000</v>
       </c>
-      <c r="M21" s="76">
+      <c r="M21" s="66">
         <v>4</v>
       </c>
       <c r="N21" s="3">
@@ -2308,7 +2308,7 @@
       <c r="L22" s="39">
         <v>36500</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="67">
         <v>6</v>
       </c>
       <c r="N22" s="39">
@@ -2356,7 +2356,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="76"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2402,7 +2402,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="76"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2448,7 +2448,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="76"/>
+      <c r="M25" s="66"/>
       <c r="N25" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2494,7 +2494,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="4"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="76"/>
+      <c r="M26" s="66"/>
       <c r="N26" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2540,7 +2540,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="4"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="76"/>
+      <c r="M27" s="66"/>
       <c r="N27" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2586,7 +2586,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="4"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="76"/>
+      <c r="M28" s="66"/>
       <c r="N28" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2632,7 +2632,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="76"/>
+      <c r="M29" s="66"/>
       <c r="N29" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2678,7 +2678,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="76"/>
+      <c r="M30" s="66"/>
       <c r="N30" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2724,7 +2724,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="4"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="76"/>
+      <c r="M31" s="66"/>
       <c r="N31" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2770,7 +2770,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="4"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="76"/>
+      <c r="M32" s="66"/>
       <c r="N32" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2816,7 +2816,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="76"/>
+      <c r="M33" s="66"/>
       <c r="N33" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2861,7 +2861,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="76"/>
+      <c r="M34" s="66"/>
       <c r="N34" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2906,7 +2906,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="4"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="76"/>
+      <c r="M35" s="66"/>
       <c r="N35" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2951,7 +2951,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="4"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="76"/>
+      <c r="M36" s="66"/>
       <c r="N36" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -2996,7 +2996,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="4"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="76"/>
+      <c r="M37" s="66"/>
       <c r="N37" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3041,7 +3041,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="4"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="76"/>
+      <c r="M38" s="66"/>
       <c r="N38" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3086,7 +3086,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="76"/>
+      <c r="M39" s="66"/>
       <c r="N39" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3127,7 +3127,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="4"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="76"/>
+      <c r="M40" s="66"/>
       <c r="N40" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3168,7 +3168,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="4"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="76"/>
+      <c r="M41" s="66"/>
       <c r="N41" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3209,7 +3209,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="4"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="76"/>
+      <c r="M42" s="66"/>
       <c r="N42" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3250,7 +3250,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="4"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="76"/>
+      <c r="M43" s="66"/>
       <c r="N43" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3291,7 +3291,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="4"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="76"/>
+      <c r="M44" s="66"/>
       <c r="N44" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3332,7 +3332,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="4"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="76"/>
+      <c r="M45" s="66"/>
       <c r="N45" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3373,7 +3373,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="4"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="76"/>
+      <c r="M46" s="66"/>
       <c r="N46" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3414,7 +3414,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="4"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="76"/>
+      <c r="M47" s="66"/>
       <c r="N47" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3455,7 +3455,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="4"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="76"/>
+      <c r="M48" s="66"/>
       <c r="N48" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3496,7 +3496,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="76"/>
+      <c r="M49" s="66"/>
       <c r="N49" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3537,7 +3537,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="4"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="76"/>
+      <c r="M50" s="66"/>
       <c r="N50" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3578,7 +3578,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="76"/>
+      <c r="M51" s="66"/>
       <c r="N51" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3619,7 +3619,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="4"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="76"/>
+      <c r="M52" s="66"/>
       <c r="N52" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3660,7 +3660,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="76"/>
+      <c r="M53" s="66"/>
       <c r="N53" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3701,7 +3701,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="4"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="76"/>
+      <c r="M54" s="66"/>
       <c r="N54" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3742,7 +3742,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="76"/>
+      <c r="M55" s="66"/>
       <c r="N55" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3783,7 +3783,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="4"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="76"/>
+      <c r="M56" s="66"/>
       <c r="N56" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3824,7 +3824,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="76"/>
+      <c r="M57" s="66"/>
       <c r="N57" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3865,7 +3865,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="4"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="76"/>
+      <c r="M58" s="66"/>
       <c r="N58" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3906,7 +3906,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="76"/>
+      <c r="M59" s="66"/>
       <c r="N59" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3947,7 +3947,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="4"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="76"/>
+      <c r="M60" s="66"/>
       <c r="N60" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -3988,7 +3988,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="76"/>
+      <c r="M61" s="66"/>
       <c r="N61" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -4029,7 +4029,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="4"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="76"/>
+      <c r="M62" s="66"/>
       <c r="N62" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -4070,7 +4070,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="76"/>
+      <c r="M63" s="66"/>
       <c r="N63" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
@@ -4287,33 +4287,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="55"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="54" t="s">
+      <c r="V5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="55"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="76"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -6654,33 +6654,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="54" t="s">
+      <c r="I30" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="55"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="76"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="54" t="s">
+      <c r="V30" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="55"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="76"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
@@ -8793,14 +8793,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -8824,7 +8824,7 @@
       <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="65">
+      <c r="M2" s="59">
         <f>Archive!G11</f>
         <v>4</v>
       </c>
@@ -9226,27 +9226,27 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="75">
+      <c r="B22" s="65">
         <f>1/B21</f>
         <v>3.8987942119447637E-2</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="65">
         <f t="shared" ref="C22:G22" si="5">1/C21</f>
         <v>6.3494970008711626E-2</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="65">
         <f t="shared" si="5"/>
         <v>9.5013907917133725E-2</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E22" s="65">
         <f t="shared" si="5"/>
         <v>0.13738249312667331</v>
       </c>
-      <c r="F22" s="75">
+      <c r="F22" s="65">
         <f t="shared" si="5"/>
         <v>0.27325262077035128</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="65">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>QualityBonus</t>
   </si>
@@ -1294,7 +1294,7 @@
   <dimension ref="A2:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1316,7 @@
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.42578125" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.140625" customWidth="1"/>
   </cols>
@@ -1522,54 +1522,54 @@
       </c>
       <c r="F7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M7)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7" s="47">
         <f>F7/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.5</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="H7" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E7,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>2.2633333333333335E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="I7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E7,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>122046.66666666667</v>
+        <v>122048</v>
       </c>
       <c r="J7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>45667.983933333329</v>
+        <v>274895</v>
       </c>
       <c r="K7" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>10667.983933333331</v>
+        <v>239895</v>
       </c>
       <c r="M7" s="61" t="s">
         <v>56</v>
       </c>
       <c r="N7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O7" s="47">
         <f>IFERROR(N7/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.5</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="P7" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.2633333333333335E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="Q7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>122046.66666666667</v>
+        <v>122048</v>
       </c>
       <c r="R7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>45667.983933333329</v>
+        <v>274895</v>
       </c>
       <c r="S7" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>10667.983933333331</v>
+        <v>239895</v>
       </c>
       <c r="W7" s="46"/>
       <c r="X7" s="46"/>
@@ -1580,54 +1580,54 @@
       </c>
       <c r="F8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M8)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M8)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8" s="47">
         <f>F8/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.5</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="H8" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E8,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>2.41E-2</v>
+        <v>2.0166666666666666E-2</v>
       </c>
       <c r="I8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E8,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>84868.5</v>
+        <v>84120.666666666672</v>
       </c>
       <c r="J8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>66048.236249999987</v>
+        <v>420816.66666666669</v>
       </c>
       <c r="K8" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>31048.23624999998</v>
+        <v>385816.66666666669</v>
       </c>
       <c r="M8" s="61" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O8" s="47">
         <f>IFERROR(N8/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.5</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="P8" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.41E-2</v>
+        <v>2.0166666666666666E-2</v>
       </c>
       <c r="Q8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>84868.5</v>
+        <v>84120.666666666672</v>
       </c>
       <c r="R8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>66048.236249999987</v>
+        <v>420816.66666666669</v>
       </c>
       <c r="S8" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>31048.23624999998</v>
+        <v>385816.66666666669</v>
       </c>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -1641,54 +1641,54 @@
       </c>
       <c r="F9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M9)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M9)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G9" s="47">
         <f>F9/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>2.6666666666666665</v>
+        <v>2.2307692307692308</v>
       </c>
       <c r="H9" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E9,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>2.5759999999999998E-2</v>
+        <v>2.2790909090909094E-2</v>
       </c>
       <c r="I9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E9,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>61657.8</v>
+        <v>61731.63636363636</v>
       </c>
       <c r="J9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>56291.601259999989</v>
+        <v>301603.18181818182</v>
       </c>
       <c r="K9" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E9,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>21291.601259999989</v>
+        <v>266603.18181818182</v>
       </c>
       <c r="M9" s="61" t="s">
         <v>58</v>
       </c>
       <c r="N9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="O9" s="47">
         <f>IFERROR(N9/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>2.6666666666666665</v>
+        <v>2.2307692307692308</v>
       </c>
       <c r="P9" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.5759999999999998E-2</v>
+        <v>2.2790909090909094E-2</v>
       </c>
       <c r="Q9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>61657.8</v>
+        <v>61731.63636363636</v>
       </c>
       <c r="R9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>56291.601259999989</v>
+        <v>301603.18181818182</v>
       </c>
       <c r="S9" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>21291.601259999989</v>
+        <v>266603.18181818182</v>
       </c>
       <c r="W9" s="46"/>
       <c r="X9" s="46"/>
@@ -1702,54 +1702,54 @@
       </c>
       <c r="F10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M10)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G10" s="48">
         <f>F10/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.33333333333333331</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="H10" s="45">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E10,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>1.6500000000000001E-2</v>
+        <v>1.8666666666666668E-2</v>
       </c>
       <c r="I10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E10,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>41297</v>
+        <v>41927.333333333336</v>
       </c>
       <c r="J10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>28107.612000000008</v>
+        <v>250108.66666666666</v>
       </c>
       <c r="K10" s="44">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E10,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>-6892.3879999999917</v>
+        <v>215108.66666666666</v>
       </c>
       <c r="M10" s="62" t="s">
         <v>57</v>
       </c>
       <c r="N10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O10" s="48">
         <f>IFERROR(N10/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="P10" s="45">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>1.6500000000000001E-2</v>
+        <v>1.8666666666666668E-2</v>
       </c>
       <c r="Q10" s="39">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>41297</v>
+        <v>41927.333333333336</v>
       </c>
       <c r="R10" s="39">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>28107.612000000008</v>
+        <v>250108.66666666666</v>
       </c>
       <c r="S10" s="44">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>-6892.3879999999917</v>
+        <v>215108.66666666666</v>
       </c>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F11" s="48">
         <f>SUM(F5:F10)</f>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G11" s="48">
         <f>SUM(G5:G10)</f>
@@ -1771,19 +1771,19 @@
       </c>
       <c r="H11" s="57">
         <f>AVERAGE(Tabla22[QualityBonus])</f>
-        <v>2.4216666666666675E-2</v>
+        <v>2.2100000000000005E-2</v>
       </c>
       <c r="I11" s="39">
         <f>SUMPRODUCT(G5:G10,I5:I10)/G11</f>
-        <v>70411.012499999997</v>
+        <v>69437.386946386949</v>
       </c>
       <c r="J11" s="39">
         <f>AVERAGEIF(Tabla22[TOTAL PROFIT (no wages, no admin costs)],"&gt;0")</f>
-        <v>51594.269716666669</v>
+        <v>277287.69230769231</v>
       </c>
       <c r="K11" s="58">
         <f>AVERAGE(Tabla22[profit -wages])</f>
-        <v>16594.269716666658</v>
+        <v>242287.69230769231</v>
       </c>
       <c r="L11" s="53"/>
       <c r="M11" s="51" t="s">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="N11" s="48">
         <f>SUM(N5:N10)</f>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="O11" s="48">
         <f>SUM(O5:O10)</f>
@@ -1799,19 +1799,19 @@
       </c>
       <c r="P11" s="57">
         <f>IFERROR(AVERAGEIFS(Tabla22[QualityBonus],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>2.4216666666666675E-2</v>
+        <v>2.2100000000000005E-2</v>
       </c>
       <c r="Q11" s="39">
         <f>IFERROR(SUMPRODUCT(Q5:Q10,O5:O10)/O11,0)</f>
-        <v>70411.012499999997</v>
+        <v>69437.386946386949</v>
       </c>
       <c r="R11" s="39">
         <f>IFERROR(AVERAGEIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>51594.269716666669</v>
+        <v>277287.69230769231</v>
       </c>
       <c r="S11" s="58">
         <f>IFERROR(AVERAGEIFS(Tabla22[profit -wages],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>16594.269716666658</v>
+        <v>242287.69230769231</v>
       </c>
       <c r="W11" s="46"/>
       <c r="X11" s="46"/>
@@ -1950,12 +1950,8 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
-        <v>118000</v>
-      </c>
-      <c r="H17" s="13">
-        <v>4</v>
-      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="2" t="s">
         <v>58</v>
       </c>
@@ -1965,35 +1961,31 @@
       <c r="K17" s="4">
         <v>3</v>
       </c>
-      <c r="L17" s="3">
-        <v>55000</v>
-      </c>
-      <c r="M17" s="66">
-        <v>5</v>
-      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>313724</v>
       </c>
       <c r="O17" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>23666.0406</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>20940.445600000006</v>
+        <v>124454</v>
       </c>
       <c r="Q17" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>51808.785000000003</v>
+        <v>189270</v>
       </c>
       <c r="R17" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>72749.23060000001</v>
+        <v>313724</v>
       </c>
       <c r="S17" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>37749.23060000001</v>
+        <v>278724</v>
       </c>
       <c r="U17" s="46"/>
       <c r="V17" s="46"/>
@@ -2020,12 +2012,8 @@
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
-        <v>80750</v>
-      </c>
-      <c r="H18" s="13">
-        <v>3</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="2" t="s">
         <v>58</v>
       </c>
@@ -2035,35 +2023,31 @@
       <c r="K18" s="4">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
-        <v>55000</v>
-      </c>
-      <c r="M18" s="66">
-        <v>4</v>
-      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="66"/>
       <c r="N18" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>416796</v>
       </c>
       <c r="O18" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>10474.620199999998</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>17845.502799999987</v>
+        <v>168764</v>
       </c>
       <c r="Q18" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>48767.475199999986</v>
+        <v>248032</v>
       </c>
       <c r="R18" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>66612.977999999974</v>
+        <v>416796</v>
       </c>
       <c r="S18" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>31612.977999999974</v>
+        <v>381796</v>
       </c>
       <c r="U18" s="46"/>
       <c r="V18" s="46"/>
@@ -2090,12 +2074,8 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="3">
-        <v>81500</v>
-      </c>
-      <c r="H19" s="13">
-        <v>3</v>
-      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="2" t="s">
         <v>58</v>
       </c>
@@ -2105,35 +2085,31 @@
       <c r="K19" s="4">
         <v>4</v>
       </c>
-      <c r="L19" s="3">
-        <v>55000</v>
-      </c>
-      <c r="M19" s="66">
-        <v>4</v>
-      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="66"/>
       <c r="N19" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>332955</v>
       </c>
       <c r="O19" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>13750.0545</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>10845.574500000002</v>
+        <v>85355</v>
       </c>
       <c r="Q19" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>54637.919999999984</v>
+        <v>247600</v>
       </c>
       <c r="R19" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>65483.494499999986</v>
+        <v>332955</v>
       </c>
       <c r="S19" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>30483.494499999986</v>
+        <v>297955</v>
       </c>
       <c r="U19" s="46"/>
       <c r="V19" s="46"/>
@@ -2160,12 +2136,8 @@
       <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H20" s="14">
-        <v>5</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
@@ -2177,11 +2149,11 @@
       </c>
       <c r="O20" s="43">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>8725.398000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" s="13">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>40465.194000000003</v>
+        <v>179289</v>
       </c>
       <c r="Q20" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
@@ -2189,11 +2161,11 @@
       </c>
       <c r="R20" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>40465.194000000003</v>
+        <v>179289</v>
       </c>
       <c r="S20" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>5465.1940000000031</v>
+        <v>144289</v>
       </c>
       <c r="U20" s="46"/>
       <c r="V20" s="46"/>
@@ -2220,12 +2192,8 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="3">
-        <v>118000</v>
-      </c>
-      <c r="H21" s="14">
-        <v>4</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="3" t="s">
         <v>58</v>
       </c>
@@ -2235,35 +2203,31 @@
       <c r="K21" s="4">
         <v>2</v>
       </c>
-      <c r="L21" s="3">
-        <v>56000</v>
-      </c>
-      <c r="M21" s="66">
-        <v>4</v>
-      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="66"/>
       <c r="N21" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>244351</v>
       </c>
       <c r="O21" s="43">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>16307.811600000001</v>
+        <v>0</v>
       </c>
       <c r="P21" s="13">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>14114.513999999996</v>
+        <v>121295</v>
       </c>
       <c r="Q21" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>22032.595199999982</v>
+        <v>123056</v>
       </c>
       <c r="R21" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>36147.109199999977</v>
+        <v>244351</v>
       </c>
       <c r="S21" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>1147.1091999999771</v>
+        <v>209351</v>
       </c>
       <c r="U21" s="46"/>
       <c r="V21" s="46"/>
@@ -2290,12 +2254,8 @@
       <c r="F22" s="40">
         <v>1</v>
       </c>
-      <c r="G22" s="39">
-        <v>118000</v>
-      </c>
-      <c r="H22" s="34">
-        <v>4</v>
-      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="38" t="s">
         <v>57</v>
       </c>
@@ -2305,35 +2265,31 @@
       <c r="K22" s="40">
         <v>2</v>
       </c>
-      <c r="L22" s="39">
-        <v>36500</v>
-      </c>
-      <c r="M22" s="67">
-        <v>6</v>
-      </c>
+      <c r="L22" s="39"/>
+      <c r="M22" s="67"/>
       <c r="N22" s="39">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>202985</v>
       </c>
       <c r="O22" s="44">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>12034.209000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" s="24">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>10336.806000000011</v>
+        <v>120391</v>
       </c>
       <c r="Q22" s="24">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>17770.805999999997</v>
+        <v>82594</v>
       </c>
       <c r="R22" s="38">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>28107.612000000008</v>
+        <v>202985</v>
       </c>
       <c r="S22" s="39">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-6892.3879999999917</v>
+        <v>167985</v>
       </c>
       <c r="U22" s="46"/>
       <c r="V22" s="46"/>
@@ -2345,11 +2301,21 @@
       <c r="A23" s="13">
         <v>7</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="37">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3">
+        <v>59574</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="14"/>
       <c r="I23" s="3"/>
@@ -2359,7 +2325,7 @@
       <c r="M23" s="66"/>
       <c r="N23" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>178722</v>
       </c>
       <c r="O23" s="43">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -2367,7 +2333,7 @@
       </c>
       <c r="P23" s="13">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
+        <v>178722</v>
       </c>
       <c r="Q23" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
@@ -2375,11 +2341,11 @@
       </c>
       <c r="R23" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="str">
+        <v>178722</v>
+      </c>
+      <c r="S23" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>143722</v>
       </c>
       <c r="U23" s="46"/>
       <c r="V23" s="46"/>
@@ -2391,21 +2357,37 @@
       <c r="A24" s="13">
         <v>8</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="37">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3">
+        <v>42425</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
+      <c r="I24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="3">
+        <v>62774</v>
+      </c>
+      <c r="K24" s="4">
+        <v>4</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="66"/>
       <c r="N24" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>463221</v>
       </c>
       <c r="O24" s="43">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -2413,19 +2395,19 @@
       </c>
       <c r="P24" s="13">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
+        <v>212125</v>
       </c>
       <c r="Q24" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>251096</v>
       </c>
       <c r="R24" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="str">
+        <v>463221</v>
+      </c>
+      <c r="S24" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>428221</v>
       </c>
       <c r="U24" s="46"/>
       <c r="V24" s="46"/>
@@ -2437,11 +2419,21 @@
       <c r="A25" s="13">
         <v>9</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="37">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="3">
+        <v>62463</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
@@ -2451,7 +2443,7 @@
       <c r="M25" s="66"/>
       <c r="N25" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>62463</v>
       </c>
       <c r="O25" s="43">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -2459,7 +2451,7 @@
       </c>
       <c r="P25" s="13">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
+        <v>62463</v>
       </c>
       <c r="Q25" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
@@ -2467,11 +2459,11 @@
       </c>
       <c r="R25" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="3" t="str">
+        <v>62463</v>
+      </c>
+      <c r="S25" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>27463</v>
       </c>
       <c r="U25" s="46"/>
       <c r="V25" s="46"/>
@@ -2483,21 +2475,37 @@
       <c r="A26" s="13">
         <v>10</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="37">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="3">
+        <v>63155</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
+      <c r="I26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="3">
+        <v>121803</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="66"/>
       <c r="N26" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>306761</v>
       </c>
       <c r="O26" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -2505,19 +2513,19 @@
       </c>
       <c r="P26" s="1">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
+        <v>63155</v>
       </c>
       <c r="Q26" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>243606</v>
       </c>
       <c r="R26" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="str">
+        <v>306761</v>
+      </c>
+      <c r="S26" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>271761</v>
       </c>
       <c r="U26" s="46"/>
       <c r="V26" s="46"/>
@@ -2529,21 +2537,37 @@
       <c r="A27" s="13">
         <v>11</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="37">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="3">
+        <v>122297</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
+      <c r="I27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="3">
+        <v>62060</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="66"/>
       <c r="N27" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>306654</v>
       </c>
       <c r="O27" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -2551,19 +2575,19 @@
       </c>
       <c r="P27" s="1">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
+        <v>244594</v>
       </c>
       <c r="Q27" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>62060</v>
       </c>
       <c r="R27" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="3" t="str">
+        <v>306654</v>
+      </c>
+      <c r="S27" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>271654</v>
       </c>
       <c r="U27" s="46"/>
       <c r="V27" s="46"/>
@@ -2575,11 +2599,21 @@
       <c r="A28" s="13">
         <v>12</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="37">
+        <v>2.01E-2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="3">
+        <v>42060</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="13"/>
       <c r="I28" s="2"/>
@@ -2589,7 +2623,7 @@
       <c r="M28" s="66"/>
       <c r="N28" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>84120</v>
       </c>
       <c r="O28" s="3">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -2597,7 +2631,7 @@
       </c>
       <c r="P28" s="1">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
+        <v>84120</v>
       </c>
       <c r="Q28" s="13">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
@@ -2605,11 +2639,11 @@
       </c>
       <c r="R28" s="2">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="3" t="str">
+        <v>84120</v>
+      </c>
+      <c r="S28" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>49120</v>
       </c>
       <c r="U28" s="46"/>
       <c r="V28" s="46"/>
@@ -2618,44 +2652,60 @@
       <c r="Y28" s="46"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="24">
         <v>13</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="3">
+      <c r="B29" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="45">
+        <v>1.23E-2</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="39">
+        <v>82625</v>
+      </c>
+      <c r="F29" s="40">
+        <v>4</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="39">
+        <v>60733</v>
+      </c>
+      <c r="K29" s="40">
+        <v>3</v>
+      </c>
+      <c r="L29" s="39"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="39">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
+        <v>512699</v>
+      </c>
+      <c r="O29" s="39">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
         <v>0</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="29">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="13">
+        <v>330500</v>
+      </c>
+      <c r="Q29" s="24">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="2">
+        <v>182199</v>
+      </c>
+      <c r="R29" s="38">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="str">
+        <v>512699</v>
+      </c>
+      <c r="S29" s="39">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>477699</v>
       </c>
       <c r="U29" s="46"/>
       <c r="V29" s="46"/>
@@ -4224,12 +4274,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J61:J63 I17:I60 D17:D63">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J61:J63">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 B17:B63">
       <formula1>$B$10:$B$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D63 I17:I63">
+      <formula1>$E$5:$E$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8783,7 +8836,7 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
   <si>
     <t>QualityBonus</t>
   </si>
@@ -37,13 +37,7 @@
     <t>COGS</t>
   </si>
   <si>
-    <t>QOGS</t>
-  </si>
-  <si>
     <t>Base price2</t>
-  </si>
-  <si>
-    <t>COGS2</t>
   </si>
   <si>
     <t>Req.</t>
@@ -182,9 +176,6 @@
   </si>
   <si>
     <t>Base price1</t>
-  </si>
-  <si>
-    <t>Q2</t>
   </si>
   <si>
     <t>Profit</t>
@@ -355,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -533,9 +524,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -551,9 +540,29 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -566,9 +575,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -579,35 +586,22 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -617,7 +611,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -684,17 +678,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,6 +699,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -724,6 +726,18 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -816,18 +830,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -964,41 +966,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A16:S63" totalsRowShown="0">
-  <autoFilter ref="A16:S63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A16:O63" totalsRowShown="0">
+  <autoFilter ref="A16:O63"/>
   <sortState ref="A17:R63">
     <sortCondition ref="A16:A63"/>
   </sortState>
-  <tableColumns count="19">
+  <tableColumns count="15">
     <tableColumn id="1" name="No."/>
     <tableColumn id="23" name="Economy "/>
     <tableColumn id="2" name="QualityBonus" dataDxfId="15" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" name="Product" dataDxfId="14" dataCellStyle="Moneda"/>
     <tableColumn id="7" name="Base price1" dataDxfId="13" dataCellStyle="Moneda"/>
     <tableColumn id="24" name="Req." dataDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="4" name="COGS" dataCellStyle="Moneda"/>
-    <tableColumn id="5" name="QOGS"/>
     <tableColumn id="18" name="Product2" dataDxfId="11" dataCellStyle="Moneda"/>
     <tableColumn id="8" name="Base price2" dataDxfId="10" dataCellStyle="Moneda"/>
     <tableColumn id="35" name="Req.2" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="19" name="COGS2" dataCellStyle="Moneda"/>
-    <tableColumn id="20" name="Q2"/>
-    <tableColumn id="12" name="Order price" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="12" name="Order price" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Bonus" dataCellStyle="Moneda">
-      <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="p1" dataDxfId="7">
-      <calculatedColumnFormula>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
+    <tableColumn id="10" name="p1" dataDxfId="8">
+      <calculatedColumnFormula>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="p2" dataDxfId="6">
-      <calculatedColumnFormula>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
+    <tableColumn id="9" name="p2" dataDxfId="7">
+      <calculatedColumnFormula>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="5" dataCellStyle="Moneda">
+    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="6" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Tabla22[[#This Row],[p1]:[p2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="profit -wages" dataDxfId="4" dataCellStyle="Moneda">
+    <tableColumn id="36" name="profit -wages" dataDxfId="5" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1007,20 +1005,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="4" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1291,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y63"/>
+  <dimension ref="A2:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1304,7 @@
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
@@ -1321,88 +1319,88 @@
     <col min="20" max="20" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M2" s="46"/>
       <c r="N2" s="54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F3" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="N3" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="74"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F3" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
+      <c r="N3" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="36">
         <v>35000</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="K4" s="56" t="s">
         <v>64</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>67</v>
       </c>
       <c r="M4" s="50"/>
       <c r="N4" s="55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O4" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="S4" s="56" t="s">
         <v>64</v>
-      </c>
-      <c r="Q4" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>67</v>
       </c>
       <c r="W4" s="46"/>
       <c r="X4" s="46"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E5" s="61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="49">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M5)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M5)</f>
@@ -1429,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" s="49">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M5,Tabla22[[Economy ]],$O$2)</f>
@@ -1458,9 +1456,9 @@
       <c r="W5" s="46"/>
       <c r="X5" s="46"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E6" s="61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F6" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M6)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M6)</f>
@@ -1487,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N6" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2)</f>
@@ -1516,309 +1514,309 @@
       <c r="W6" s="46"/>
       <c r="X6" s="46"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E7" s="61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M7)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M7)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G7" s="47">
         <f>F7/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.53846153846153844</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H7" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E7,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>2.0199999999999999E-2</v>
+        <v>2.0749999999999998E-2</v>
       </c>
       <c r="I7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E7,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>122048</v>
+        <v>121343.3</v>
       </c>
       <c r="J7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>274895</v>
+        <v>0</v>
       </c>
       <c r="K7" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>239895</v>
+        <v>0</v>
       </c>
       <c r="M7" s="61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O7" s="47">
         <f>IFERROR(N7/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.53846153846153844</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P7" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.0199999999999999E-2</v>
+        <v>2.0749999999999998E-2</v>
       </c>
       <c r="Q7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>122048</v>
+        <v>121343.3</v>
       </c>
       <c r="R7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>274895</v>
+        <v>0</v>
       </c>
       <c r="S7" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>239895</v>
+        <v>0</v>
       </c>
       <c r="W7" s="46"/>
       <c r="X7" s="46"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E8" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M8)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M8)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G8" s="47">
         <f>F8/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.53846153846153844</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H8" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E8,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>2.0166666666666666E-2</v>
+        <v>2.1049999999999999E-2</v>
       </c>
       <c r="I8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E8,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>84120.666666666672</v>
+        <v>84471.333333333328</v>
       </c>
       <c r="J8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>420816.66666666669</v>
+        <v>0</v>
       </c>
       <c r="K8" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>385816.66666666669</v>
+        <v>0</v>
       </c>
       <c r="M8" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O8" s="47">
         <f>IFERROR(N8/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.53846153846153844</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="P8" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.0166666666666666E-2</v>
+        <v>2.1049999999999999E-2</v>
       </c>
       <c r="Q8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>84120.666666666672</v>
+        <v>84471.333333333328</v>
       </c>
       <c r="R8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>420816.66666666669</v>
+        <v>0</v>
       </c>
       <c r="S8" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>385816.66666666669</v>
+        <v>0</v>
       </c>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M9)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M9)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G9" s="47">
         <f>F9/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>2.2307692307692308</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="H9" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E9,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>2.2790909090909094E-2</v>
+        <v>2.2466666666666666E-2</v>
       </c>
       <c r="I9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E9,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>61731.63636363636</v>
+        <v>61610.866666666669</v>
       </c>
       <c r="J9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>301603.18181818182</v>
+        <v>0</v>
       </c>
       <c r="K9" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E9,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>266603.18181818182</v>
+        <v>0</v>
       </c>
       <c r="M9" s="61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O9" s="47">
         <f>IFERROR(N9/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>2.2307692307692308</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="P9" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.2790909090909094E-2</v>
+        <v>2.2466666666666666E-2</v>
       </c>
       <c r="Q9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>61731.63636363636</v>
+        <v>61610.866666666669</v>
       </c>
       <c r="R9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>301603.18181818182</v>
+        <v>0</v>
       </c>
       <c r="S9" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>266603.18181818182</v>
+        <v>0</v>
       </c>
       <c r="W9" s="46"/>
       <c r="X9" s="46"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M10)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M10)</f>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G10" s="48">
         <f>F10/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.69230769230769229</v>
+        <v>1.1904761904761905</v>
       </c>
       <c r="H10" s="45">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E10,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>1.8666666666666668E-2</v>
+        <v>1.8914285714285713E-2</v>
       </c>
       <c r="I10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E10,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>41927.333333333336</v>
+        <v>41617.428571428572</v>
       </c>
       <c r="J10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>250108.66666666666</v>
+        <v>0</v>
       </c>
       <c r="K10" s="44">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E10,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>215108.66666666666</v>
+        <v>0</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)</f>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O10" s="48">
         <f>IFERROR(N10/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.69230769230769229</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="P10" s="45">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>1.8666666666666668E-2</v>
+        <v>1.8914285714285713E-2</v>
       </c>
       <c r="Q10" s="39">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>41927.333333333336</v>
+        <v>41617.428571428572</v>
       </c>
       <c r="R10" s="39">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>250108.66666666666</v>
+        <v>0</v>
       </c>
       <c r="S10" s="44">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>215108.66666666666</v>
+        <v>0</v>
       </c>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" s="48">
         <f>SUM(F5:F10)</f>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G11" s="48">
         <f>SUM(G5:G10)</f>
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H11" s="57">
         <f>AVERAGE(Tabla22[QualityBonus])</f>
-        <v>2.2100000000000005E-2</v>
+        <v>2.1657142857142857E-2</v>
       </c>
       <c r="I11" s="39">
         <f>SUMPRODUCT(G5:G10,I5:I10)/G11</f>
-        <v>69437.386946386949</v>
-      </c>
-      <c r="J11" s="39">
+        <v>70947.937519623229</v>
+      </c>
+      <c r="J11" s="39" t="e">
         <f>AVERAGEIF(Tabla22[TOTAL PROFIT (no wages, no admin costs)],"&gt;0")</f>
-        <v>277287.69230769231</v>
-      </c>
-      <c r="K11" s="58">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="58" t="e">
         <f>AVERAGE(Tabla22[profit -wages])</f>
-        <v>242287.69230769231</v>
+        <v>#REF!</v>
       </c>
       <c r="L11" s="53"/>
       <c r="M11" s="51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N11" s="48">
         <f>SUM(N5:N10)</f>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="O11" s="48">
         <f>SUM(O5:O10)</f>
-        <v>4</v>
+        <v>3.3703703703703707</v>
       </c>
       <c r="P11" s="57">
         <f>IFERROR(AVERAGEIFS(Tabla22[QualityBonus],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>2.2100000000000005E-2</v>
+        <v>2.1657142857142857E-2</v>
       </c>
       <c r="Q11" s="39">
         <f>IFERROR(SUMPRODUCT(Q5:Q10,O5:O10)/O11,0)</f>
-        <v>69437.386946386949</v>
+        <v>70947.937519623214</v>
       </c>
       <c r="R11" s="39">
         <f>IFERROR(AVERAGEIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>277287.69230769231</v>
+        <v>0</v>
       </c>
       <c r="S11" s="58">
         <f>IFERROR(AVERAGEIFS(Tabla22[profit -wages],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>242287.69230769231</v>
+        <v>0</v>
       </c>
       <c r="W11" s="46"/>
       <c r="X11" s="46"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S12" s="46"/>
       <c r="T12" s="46"/>
@@ -1826,123 +1824,111 @@
       <c r="V12" s="46"/>
       <c r="W12" s="46"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
       <c r="U13" s="46"/>
       <c r="V13" s="46"/>
       <c r="W13" s="46"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S14" s="46"/>
       <c r="T14" s="46"/>
       <c r="U14" s="46"/>
       <c r="V14" s="46"/>
       <c r="W14" s="46"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D15" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
       <c r="U15" s="46"/>
       <c r="V15" s="46"/>
       <c r="W15" s="46"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>55</v>
-      </c>
-      <c r="R16" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="S16" t="s">
-        <v>22</v>
-      </c>
+      <c r="N16" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
       <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>1</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="37">
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3">
         <v>124454</v>
@@ -1950,61 +1936,57 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="3">
         <v>63090</v>
       </c>
-      <c r="K17" s="4">
+      <c r="I17" s="4">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="3">
+      <c r="J17" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>313724</v>
       </c>
-      <c r="O17" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>124454</v>
-      </c>
-      <c r="Q17" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>189270</v>
-      </c>
-      <c r="R17" s="2">
+      <c r="K17" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>313724</v>
-      </c>
-      <c r="S17" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>278724</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
       <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="37">
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="3">
         <v>84382</v>
@@ -2012,61 +1994,57 @@
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3">
         <v>62008</v>
       </c>
-      <c r="K18" s="4">
+      <c r="I18" s="4">
         <v>4</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="3">
+      <c r="J18" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>416796</v>
       </c>
-      <c r="O18" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>168764</v>
-      </c>
-      <c r="Q18" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>248032</v>
-      </c>
-      <c r="R18" s="2">
+      <c r="K18" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L18" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M18" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N18" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>416796</v>
-      </c>
-      <c r="S18" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O18" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>381796</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
       <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="37">
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3">
         <v>85355</v>
@@ -2074,61 +2052,57 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="3">
         <v>61900</v>
       </c>
-      <c r="K19" s="4">
+      <c r="I19" s="4">
         <v>4</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="3">
+      <c r="J19" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>332955</v>
       </c>
-      <c r="O19" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>85355</v>
-      </c>
-      <c r="Q19" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>247600</v>
-      </c>
-      <c r="R19" s="2">
+      <c r="K19" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L19" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M19" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N19" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>332955</v>
-      </c>
-      <c r="S19" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O19" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>297955</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
       <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>4</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="37">
         <v>2.92E-2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3">
         <v>59763</v>
@@ -2137,54 +2111,50 @@
         <v>3</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>179289</v>
       </c>
-      <c r="O20" s="43">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="13">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>179289</v>
-      </c>
-      <c r="Q20" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
+      <c r="K20" s="43" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L20" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M20" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N20" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>179289</v>
-      </c>
-      <c r="S20" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O20" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>144289</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
       <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>5</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="37">
         <v>2.23E-2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E21" s="3">
         <v>121295</v>
@@ -2192,61 +2162,57 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="3">
         <v>61528</v>
       </c>
-      <c r="K21" s="4">
+      <c r="I21" s="4">
         <v>2</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="3">
+      <c r="J21" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>244351</v>
       </c>
-      <c r="O21" s="43">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="13">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>121295</v>
-      </c>
-      <c r="Q21" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>123056</v>
-      </c>
-      <c r="R21" s="2">
+      <c r="K21" s="43" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M21" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N21" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>244351</v>
-      </c>
-      <c r="S21" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O21" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>209351</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
       <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>6</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="45">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E22" s="39">
         <v>120391</v>
@@ -2254,61 +2220,57 @@
       <c r="F22" s="40">
         <v>1</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="39">
+      <c r="G22" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="39">
         <v>41297</v>
       </c>
-      <c r="K22" s="40">
+      <c r="I22" s="40">
         <v>2</v>
       </c>
-      <c r="L22" s="39"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="39">
+      <c r="J22" s="38">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>202985</v>
       </c>
-      <c r="O22" s="44">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="24">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>120391</v>
-      </c>
-      <c r="Q22" s="24">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>82594</v>
-      </c>
-      <c r="R22" s="38">
+      <c r="K22" s="44" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="24" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="24" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N22" s="38" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>202985</v>
-      </c>
-      <c r="S22" s="39">
+        <v>#REF!</v>
+      </c>
+      <c r="O22" s="39" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>167985</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
       <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>7</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="37">
         <v>2.7699999999999999E-2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3">
         <v>59574</v>
@@ -2317,54 +2279,50 @@
         <v>3</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>178722</v>
       </c>
-      <c r="O23" s="43">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="13">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>178722</v>
-      </c>
-      <c r="Q23" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="K23" s="43" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L23" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M23" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N23" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>178722</v>
-      </c>
-      <c r="S23" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O23" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>143722</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
       <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>8</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="37">
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E24" s="3">
         <v>42425</v>
@@ -2372,61 +2330,57 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="3">
         <v>62774</v>
       </c>
-      <c r="K24" s="4">
+      <c r="I24" s="4">
         <v>4</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="3">
+      <c r="J24" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>463221</v>
       </c>
-      <c r="O24" s="43">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="13">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>212125</v>
-      </c>
-      <c r="Q24" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>251096</v>
-      </c>
-      <c r="R24" s="2">
+      <c r="K24" s="43" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L24" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M24" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N24" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>463221</v>
-      </c>
-      <c r="S24" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O24" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>428221</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
       <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>9</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="37">
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3">
         <v>62463</v>
@@ -2435,54 +2389,50 @@
         <v>1</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="3">
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>62463</v>
       </c>
-      <c r="O25" s="43">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="13">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>62463</v>
-      </c>
-      <c r="Q25" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="2">
+      <c r="K25" s="43" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L25" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M25" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N25" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>62463</v>
-      </c>
-      <c r="S25" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O25" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>27463</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
       <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>10</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="37">
         <v>1.35E-2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E26" s="3">
         <v>63155</v>
@@ -2490,61 +2440,57 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="3">
         <v>121803</v>
       </c>
-      <c r="K26" s="4">
+      <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="3">
+      <c r="J26" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>306761</v>
       </c>
-      <c r="O26" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>63155</v>
-      </c>
-      <c r="Q26" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>243606</v>
-      </c>
-      <c r="R26" s="2">
+      <c r="K26" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L26" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M26" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N26" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>306761</v>
-      </c>
-      <c r="S26" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O26" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>271761</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
       <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>11</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="37">
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3">
         <v>122297</v>
@@ -2552,61 +2498,57 @@
       <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="G27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="3">
         <v>62060</v>
       </c>
-      <c r="K27" s="4">
+      <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="3">
+      <c r="J27" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>306654</v>
       </c>
-      <c r="O27" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>244594</v>
-      </c>
-      <c r="Q27" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>62060</v>
-      </c>
-      <c r="R27" s="2">
+      <c r="K27" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L27" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M27" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N27" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>306654</v>
-      </c>
-      <c r="S27" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O27" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>271654</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
       <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>12</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="37">
         <v>2.01E-2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" s="3">
         <v>42060</v>
@@ -2614,55 +2556,51 @@
       <c r="F28" s="4">
         <v>2</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="3">
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>84120</v>
       </c>
-      <c r="O28" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>84120</v>
-      </c>
-      <c r="Q28" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="2">
+      <c r="K28" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L28" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M28" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N28" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>84120</v>
-      </c>
-      <c r="S28" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="O28" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>49120</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
       <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>13</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" s="45">
         <v>1.23E-2</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E29" s="39">
         <v>82625</v>
@@ -2670,663 +2608,743 @@
       <c r="F29" s="40">
         <v>4</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="39">
+      <c r="G29" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="39">
         <v>60733</v>
       </c>
-      <c r="K29" s="40">
+      <c r="I29" s="40">
         <v>3</v>
       </c>
-      <c r="L29" s="39"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="39">
+      <c r="J29" s="38">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>512699</v>
       </c>
-      <c r="O29" s="39">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="29">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>330500</v>
-      </c>
-      <c r="Q29" s="24">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>182199</v>
-      </c>
-      <c r="R29" s="38">
+      <c r="K29" s="39" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L29" s="29" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M29" s="24" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N29" s="38" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>512699</v>
-      </c>
-      <c r="S29" s="39">
+        <v>#REF!</v>
+      </c>
+      <c r="O29" s="39" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>477699</v>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
       <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>14</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="3">
+      <c r="B30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="3">
+        <v>122928</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="3">
+        <v>84564</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
+        <v>660840</v>
+      </c>
+      <c r="K30" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L30" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M30" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N30" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O30" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
       <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>15</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="3">
+      <c r="B31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="37">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="3">
+        <v>41066</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="3">
+        <v>59787</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="2">
+        <v>141919</v>
+      </c>
+      <c r="K31" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L31" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M31" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N31" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O31" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
       <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>16</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="3">
+      <c r="B32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="37">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="3">
+        <v>40811</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="3">
+        <v>119896</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
+        <v>443847</v>
+      </c>
+      <c r="K32" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L32" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M32" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N32" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O32" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
+        <v>#REF!</v>
+      </c>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
       <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>17</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="3">
+      <c r="B33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="37">
+        <v>2.53E-2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="3">
+        <v>122798</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="3">
+        <v>61610</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="2">
+        <v>184408</v>
+      </c>
+      <c r="K33" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L33" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M33" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N33" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O33" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>18</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="3">
+      <c r="B34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="37">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3">
+        <v>86511</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="3">
+        <v>117824</v>
+      </c>
+      <c r="I34" s="4">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="2">
+        <v>526494</v>
+      </c>
+      <c r="K34" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L34" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M34" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N34" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O34" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>19</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="3">
+      <c r="B35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="37">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="3">
+        <v>41738</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="3">
+        <v>119747</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="2">
+        <v>286699</v>
+      </c>
+      <c r="K35" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L35" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M35" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N35" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O35" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>20</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="3">
+      <c r="B36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="37">
+        <v>2.07E-2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="3">
+        <v>41925</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="3">
+        <v>60640</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="2">
+        <v>330905</v>
+      </c>
+      <c r="K36" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L36" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M36" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N36" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O36" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
         <v>21</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="3">
+      <c r="B37" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="45">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="39">
+        <v>83391</v>
+      </c>
+      <c r="F37" s="40">
+        <v>1</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="39">
+        <v>63078</v>
+      </c>
+      <c r="I37" s="40">
+        <v>3</v>
+      </c>
+      <c r="J37" s="38">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="2">
+        <v>272625</v>
+      </c>
+      <c r="K37" s="39" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L37" s="29" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M37" s="24" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N37" s="38" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O37" s="39" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>22</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="C38" s="37"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="3">
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O38" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
+      <c r="K38" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L38" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M38" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N38" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O38" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>23</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="C39" s="37"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="3">
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O39" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="2">
+      <c r="K39" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L39" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M39" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N39" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O39" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>24</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="C40" s="37"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="3">
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O40" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="2">
+      <c r="K40" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L40" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M40" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N40" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O40" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>25</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="C41" s="37"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="3">
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O41" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="2">
+      <c r="K41" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L41" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M41" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N41" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O41" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>26</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="C42" s="37"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="3">
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O42" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="2">
+      <c r="K42" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L42" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M42" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N42" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O42" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>27</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="C43" s="37"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="3">
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O43" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="2">
+      <c r="K43" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L43" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M43" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N43" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O43" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>28</v>
       </c>
@@ -3335,39 +3353,35 @@
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="3">
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O44" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R44" s="2">
+      <c r="K44" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L44" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M44" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N44" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O44" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>29</v>
       </c>
@@ -3376,39 +3390,35 @@
       <c r="D45" s="2"/>
       <c r="E45" s="3"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="3">
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="2">
+      <c r="K45" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L45" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M45" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N45" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O45" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>30</v>
       </c>
@@ -3417,39 +3427,35 @@
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="3">
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O46" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="2">
+      <c r="K46" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L46" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M46" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N46" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O46" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>31</v>
       </c>
@@ -3458,39 +3464,35 @@
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="3">
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O47" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R47" s="2">
+      <c r="K47" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L47" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M47" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N47" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O47" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>32</v>
       </c>
@@ -3499,39 +3501,35 @@
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="3">
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O48" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R48" s="2">
+      <c r="K48" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L48" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M48" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N48" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O48" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>33</v>
       </c>
@@ -3540,39 +3538,35 @@
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="3">
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O49" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R49" s="2">
+      <c r="K49" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L49" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M49" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N49" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S49" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O49" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>34</v>
       </c>
@@ -3581,39 +3575,35 @@
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="3">
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O50" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="2">
+      <c r="K50" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L50" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M50" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N50" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O50" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>35</v>
       </c>
@@ -3622,39 +3612,35 @@
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="3">
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O51" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R51" s="2">
+      <c r="K51" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L51" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M51" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N51" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S51" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O51" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>36</v>
       </c>
@@ -3663,39 +3649,35 @@
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="3">
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O52" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R52" s="2">
+      <c r="K52" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L52" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M52" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N52" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O52" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>37</v>
       </c>
@@ -3704,39 +3686,35 @@
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="3">
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O53" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R53" s="2">
+      <c r="K53" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L53" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M53" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N53" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O53" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>38</v>
       </c>
@@ -3745,39 +3723,35 @@
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="3">
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O54" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P54" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
+      <c r="K54" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L54" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M54" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N54" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O54" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>39</v>
       </c>
@@ -3786,39 +3760,35 @@
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="3">
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O55" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R55" s="2">
+      <c r="K55" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L55" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M55" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N55" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S55" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O55" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>40</v>
       </c>
@@ -3827,39 +3797,35 @@
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="3">
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O56" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P56" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R56" s="2">
+      <c r="K56" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N56" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O56" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>41</v>
       </c>
@@ -3868,39 +3834,35 @@
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="66"/>
-      <c r="N57" s="3">
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O57" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R57" s="2">
+      <c r="K57" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L57" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M57" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N57" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O57" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>42</v>
       </c>
@@ -3909,39 +3871,35 @@
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="66"/>
-      <c r="N58" s="3">
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O58" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P58" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R58" s="2">
+      <c r="K58" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L58" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M58" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N58" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O58" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>43</v>
       </c>
@@ -3950,39 +3908,35 @@
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="3">
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O59" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P59" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R59" s="2">
+      <c r="K59" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L59" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M59" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N59" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O59" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>44</v>
       </c>
@@ -3991,39 +3945,35 @@
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="3">
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O60" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P60" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R60" s="2">
+      <c r="K60" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L60" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M60" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N60" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S60" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O60" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>45</v>
       </c>
@@ -4032,39 +3982,35 @@
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="3">
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O61" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R61" s="2">
+      <c r="K61" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L61" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M61" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N61" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O61" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>46</v>
       </c>
@@ -4073,39 +4019,35 @@
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="66"/>
-      <c r="N62" s="3">
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O62" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P62" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R62" s="2">
+      <c r="K62" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L62" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M62" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N62" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O62" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>47</v>
       </c>
@@ -4114,45 +4056,41 @@
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="66"/>
-      <c r="N63" s="3">
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="O63" s="3">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[QOGS]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Q2]]*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>0</v>
-      </c>
-      <c r="P63" s="1">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+Tabla22[[#This Row],[QOGS]]*Tabla22[[#This Row],[QualityBonus]])-Tabla22[[#This Row],[COGS]])*Tabla22[[#This Row],[Req.]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="13">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Q2]])-Tabla22[[#This Row],[COGS2]])*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="R63" s="2">
+      <c r="K63" s="3" t="e">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L63" s="1" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M63" s="13" t="e">
+        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N63" s="2" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="S63" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O63" s="3" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="N3:S3"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:O15"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G10">
     <cfRule type="colorScale" priority="32">
@@ -4275,13 +4213,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J61:J63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H61:H63">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 B17:B63">
       <formula1>$B$10:$B$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D63 I17:I63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D63 G17:G63">
       <formula1>$E$5:$E$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -4325,7 +4263,7 @@
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9">
         <v>2.7E-2</v>
@@ -4340,37 +4278,37 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="76"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="71"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -4542,16 +4480,16 @@
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
       </c>
       <c r="H8" s="15">
         <v>1.6E-2</v>
@@ -6255,7 +6193,7 @@
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24" s="15">
         <v>3.2000000000000001E-2</v>
@@ -6354,7 +6292,7 @@
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="28">
         <v>62</v>
@@ -6456,7 +6394,7 @@
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="30">
         <v>2.4E-2</v>
@@ -6559,13 +6497,13 @@
     <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>38</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="H27" s="18">
         <v>3.5000000000000003E-2</v>
@@ -6664,7 +6602,7 @@
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="32">
         <v>53</v>
@@ -6678,7 +6616,7 @@
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="32">
         <v>2</v>
@@ -6692,7 +6630,7 @@
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="13">
         <f>$C$25*(1+$C$26*C29)</f>
@@ -6707,37 +6645,37 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="76"/>
+      <c r="I30" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="71"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="W30" s="75"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="76"/>
+      <c r="V30" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="71"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="24">
         <f>C30-C28</f>
@@ -8742,7 +8680,7 @@
     </row>
     <row r="53" spans="8:32" x14ac:dyDescent="0.25">
       <c r="J53" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -8756,7 +8694,7 @@
     </row>
     <row r="54" spans="8:32" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8836,7 +8774,7 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8846,40 +8784,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="59">
         <f>Archive!G11</f>
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -8902,7 +8840,7 @@
         <v>635</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M3" s="7">
         <v>14</v>
@@ -9159,7 +9097,7 @@
         <v>730768</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -9188,65 +9126,65 @@
         <v>1.5658868478094279E-2</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <f t="shared" ref="B18:G18" si="2">B16*$M$2*$M$3</f>
-        <v>22.491482933023885</v>
+        <v>24.365773177442541</v>
       </c>
       <c r="C18" s="25">
         <f t="shared" si="2"/>
-        <v>13.810489786088061</v>
+        <v>14.96136393492873</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="2"/>
-        <v>9.2291397543406397</v>
+        <v>9.9982347338690261</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>6.3828848553850195</v>
+        <v>6.9147919266671041</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="2"/>
-        <v>3.2091060363891137</v>
+        <v>3.4765315394215395</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="2"/>
-        <v>0.87689663477327962</v>
+        <v>0.94997135433771951</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <f>B18/2</f>
-        <v>11.245741466511943</v>
+        <v>12.182886588721271</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" ref="C19:F19" si="3">C18/2</f>
-        <v>6.9052448930440304</v>
+        <v>7.4806819674643652</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="3"/>
-        <v>4.6145698771703199</v>
+        <v>4.999117366934513</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="3"/>
-        <v>3.1914424276925097</v>
+        <v>3.457395963333552</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="3"/>
-        <v>1.6045530181945569</v>
+        <v>1.7382657697107697</v>
       </c>
       <c r="G19" s="25">
         <f>G18/2</f>
-        <v>0.43844831738663981</v>
+        <v>0.47498567716885975</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -9275,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -9304,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
   <si>
     <t>QualityBonus</t>
   </si>
@@ -678,9 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,20 +688,13 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,6 +709,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -726,18 +726,6 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -830,6 +818,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -981,22 +981,22 @@
     <tableColumn id="18" name="Product2" dataDxfId="11" dataCellStyle="Moneda"/>
     <tableColumn id="8" name="Base price2" dataDxfId="10" dataCellStyle="Moneda"/>
     <tableColumn id="35" name="Req.2" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="12" name="Order price" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="12" name="Order price" dataDxfId="8" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Bonus" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="p1" dataDxfId="8">
+    <tableColumn id="10" name="p1" dataDxfId="7">
       <calculatedColumnFormula>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="p2" dataDxfId="7">
+    <tableColumn id="9" name="p2" dataDxfId="6">
       <calculatedColumnFormula>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="6" dataCellStyle="Moneda">
+    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="5" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Tabla22[[#This Row],[p1]:[p2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="profit -wages" dataDxfId="5" dataCellStyle="Moneda">
+    <tableColumn id="36" name="profit -wages" dataDxfId="4" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1005,20 +1005,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="4" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,19 +1462,19 @@
       </c>
       <c r="F6" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M6)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="47">
         <f>F6/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="H6" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E6,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>0</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="I6" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E6,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>0</v>
+        <v>226246</v>
       </c>
       <c r="J6" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
@@ -1489,19 +1489,19 @@
       </c>
       <c r="N6" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="47">
         <f>IFERROR(N6/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="P6" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="Q6" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
+        <v>226246</v>
       </c>
       <c r="R6" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2)),0)</f>
@@ -1520,19 +1520,19 @@
       </c>
       <c r="F7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M7)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M7)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G7" s="47">
         <f>F7/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.8571428571428571</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="H7" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E7,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>2.0749999999999998E-2</v>
+        <v>2.1223076923076921E-2</v>
       </c>
       <c r="I7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E7,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>121343.3</v>
+        <v>120772.92307692308</v>
       </c>
       <c r="J7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
@@ -1547,19 +1547,19 @@
       </c>
       <c r="N7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O7" s="47">
         <f>IFERROR(N7/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="P7" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.0749999999999998E-2</v>
+        <v>2.1223076923076921E-2</v>
       </c>
       <c r="Q7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>121343.3</v>
+        <v>120772.92307692308</v>
       </c>
       <c r="R7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="F8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M8)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M8)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" s="47">
         <f>F8/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.5714285714285714</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="H8" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E8,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>2.1049999999999999E-2</v>
+        <v>2.1871428571428573E-2</v>
       </c>
       <c r="I8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E8,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>84471.333333333328</v>
+        <v>84415.71428571429</v>
       </c>
       <c r="J8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
@@ -1605,19 +1605,19 @@
       </c>
       <c r="N8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O8" s="47">
         <f>IFERROR(N8/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.44444444444444442</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="P8" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.1049999999999999E-2</v>
+        <v>2.1871428571428573E-2</v>
       </c>
       <c r="Q8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>84471.333333333328</v>
+        <v>84415.71428571429</v>
       </c>
       <c r="R8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
@@ -1639,19 +1639,19 @@
       </c>
       <c r="F9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M9)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M9)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G9" s="47">
         <f>F9/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>1.7142857142857142</v>
+        <v>1.5294117647058822</v>
       </c>
       <c r="H9" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E9,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>2.2466666666666666E-2</v>
+        <v>2.1836363636363636E-2</v>
       </c>
       <c r="I9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E9,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>61610.866666666669</v>
+        <v>61717.36363636364</v>
       </c>
       <c r="J9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="N9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="O9" s="47">
         <f>IFERROR(N9/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>1.3333333333333333</v>
+        <v>1.5294117647058822</v>
       </c>
       <c r="P9" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.2466666666666666E-2</v>
+        <v>2.1836363636363636E-2</v>
       </c>
       <c r="Q9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>61610.866666666669</v>
+        <v>61717.36363636364</v>
       </c>
       <c r="R9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
@@ -1700,19 +1700,19 @@
       </c>
       <c r="F10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M10)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M10)</f>
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G10" s="48">
         <f>F10/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>1.1904761904761905</v>
+        <v>1.9411764705882353</v>
       </c>
       <c r="H10" s="45">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E10,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>1.8914285714285713E-2</v>
+        <v>2.148235294117647E-2</v>
       </c>
       <c r="I10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E10,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>41617.428571428572</v>
+        <v>41505.352941176468</v>
       </c>
       <c r="J10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
@@ -1727,19 +1727,19 @@
       </c>
       <c r="N10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)</f>
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="O10" s="48">
         <f>IFERROR(N10/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.92592592592592593</v>
+        <v>1.9411764705882353</v>
       </c>
       <c r="P10" s="45">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>1.8914285714285713E-2</v>
+        <v>2.148235294117647E-2</v>
       </c>
       <c r="Q10" s="39">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>41617.428571428572</v>
+        <v>41505.352941176468</v>
       </c>
       <c r="R10" s="39">
         <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
@@ -1761,19 +1761,19 @@
       </c>
       <c r="F11" s="48">
         <f>SUM(F5:F10)</f>
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="G11" s="48">
         <f>SUM(G5:G10)</f>
-        <v>4.333333333333333</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="H11" s="57">
         <f>AVERAGE(Tabla22[QualityBonus])</f>
-        <v>2.1657142857142857E-2</v>
+        <v>2.207058823529412E-2</v>
       </c>
       <c r="I11" s="39">
         <f>SUMPRODUCT(G5:G10,I5:I10)/G11</f>
-        <v>70947.937519623229</v>
+        <v>66791.918715108419</v>
       </c>
       <c r="J11" s="39" t="e">
         <f>AVERAGEIF(Tabla22[TOTAL PROFIT (no wages, no admin costs)],"&gt;0")</f>
@@ -1789,19 +1789,19 @@
       </c>
       <c r="N11" s="48">
         <f>SUM(N5:N10)</f>
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="O11" s="48">
         <f>SUM(O5:O10)</f>
-        <v>3.3703703703703707</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="P11" s="57">
         <f>IFERROR(AVERAGEIFS(Tabla22[QualityBonus],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>2.1657142857142857E-2</v>
+        <v>2.207058823529412E-2</v>
       </c>
       <c r="Q11" s="39">
         <f>IFERROR(SUMPRODUCT(Q5:Q10,O5:O10)/O11,0)</f>
-        <v>70947.937519623214</v>
+        <v>66791.918715108419</v>
       </c>
       <c r="R11" s="39">
         <f>IFERROR(AVERAGEIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[[Economy ]],$O$2),0)</f>
@@ -1839,24 +1839,24 @@
       <c r="W14" s="46"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="76" t="s">
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="77" t="s">
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="79"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="76"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
       <c r="S15" s="46"/>
@@ -1893,7 +1893,7 @@
       <c r="I16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="66" t="s">
         <v>72</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -3113,16 +3113,30 @@
       <c r="B38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
+      <c r="C38" s="37">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3">
+        <v>62248</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="3">
+        <v>41091</v>
+      </c>
+      <c r="I38" s="4">
+        <v>4</v>
+      </c>
       <c r="J38" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>288860</v>
       </c>
       <c r="K38" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3140,9 +3154,9 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O38" s="3" t="str">
+      <c r="O38" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="R38" s="46"/>
       <c r="S38" s="46"/>
@@ -3156,16 +3170,30 @@
       <c r="B39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
+      <c r="C39" s="37">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="3">
+        <v>63084</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="3">
+        <v>40499</v>
+      </c>
+      <c r="I39" s="4">
+        <v>5</v>
+      </c>
       <c r="J39" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>391747</v>
       </c>
       <c r="K39" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3183,9 +3211,9 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O39" s="3" t="str">
+      <c r="O39" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3195,16 +3223,30 @@
       <c r="B40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
+      <c r="C40" s="37">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="3">
+        <v>226246</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="3">
+        <v>40077</v>
+      </c>
+      <c r="I40" s="4">
+        <v>5</v>
+      </c>
       <c r="J40" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>652877</v>
       </c>
       <c r="K40" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3222,9 +3264,9 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O40" s="3" t="str">
+      <c r="O40" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3234,16 +3276,30 @@
       <c r="B41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
+      <c r="C41" s="37">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42129</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="3">
+        <v>84082</v>
+      </c>
+      <c r="I41" s="4">
+        <v>3</v>
+      </c>
       <c r="J41" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>378633</v>
       </c>
       <c r="K41" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3261,9 +3317,9 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O41" s="3" t="str">
+      <c r="O41" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3273,16 +3329,30 @@
       <c r="B42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
+      <c r="C42" s="37">
+        <v>2.81E-2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="3">
+        <v>41691</v>
+      </c>
+      <c r="F42" s="4">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="3">
+        <v>59925</v>
+      </c>
+      <c r="I42" s="4">
+        <v>3</v>
+      </c>
       <c r="J42" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>388230</v>
       </c>
       <c r="K42" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3300,9 +3370,9 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O42" s="3" t="str">
+      <c r="O42" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3312,16 +3382,24 @@
       <c r="B43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
+      <c r="C43" s="37">
+        <v>2.53E-2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="3">
+        <v>42580</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="4"/>
       <c r="J43" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>170320</v>
       </c>
       <c r="K43" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3339,26 +3417,42 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O43" s="3" t="str">
+      <c r="O43" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>28</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
+      <c r="B44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="37">
+        <v>1.17E-2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="3">
+        <v>41608</v>
+      </c>
+      <c r="F44" s="4">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="3">
+        <v>62343</v>
+      </c>
+      <c r="I44" s="4">
+        <v>4</v>
+      </c>
       <c r="J44" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>457412</v>
       </c>
       <c r="K44" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3376,26 +3470,36 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O44" s="3" t="str">
+      <c r="O44" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>29</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
+      <c r="B45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="37">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="3">
+        <v>42445</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="4"/>
       <c r="J45" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>212225</v>
       </c>
       <c r="K45" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3413,26 +3517,42 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O45" s="3" t="str">
+      <c r="O45" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>30</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
+      <c r="B46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="37">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="3">
+        <v>41129</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="3">
+        <v>121638</v>
+      </c>
+      <c r="I46" s="4">
+        <v>3</v>
+      </c>
       <c r="J46" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>447172</v>
       </c>
       <c r="K46" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3450,26 +3570,42 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O46" s="3" t="str">
+      <c r="O46" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>31</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
+      <c r="B47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="37">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="3">
+        <v>60948</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="3">
+        <v>41020</v>
+      </c>
+      <c r="I47" s="4">
+        <v>3</v>
+      </c>
       <c r="J47" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>184008</v>
       </c>
       <c r="K47" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3487,26 +3623,42 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O47" s="3" t="str">
+      <c r="O47" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>32</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
+      <c r="B48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="37">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="3">
+        <v>117745</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="3">
+        <v>62072</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2</v>
+      </c>
       <c r="J48" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>477379</v>
       </c>
       <c r="K48" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3524,26 +3676,36 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O48" s="3" t="str">
+      <c r="O48" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>33</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
+      <c r="B49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="37">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="3">
+        <v>62999</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
+        <v>62999</v>
       </c>
       <c r="K49" s="3" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
@@ -3561,46 +3723,56 @@
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O49" s="3" t="str">
+      <c r="O49" s="3" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+      <c r="A50" s="24">
         <v>34</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="2">
+      <c r="B50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="45">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="39">
+        <v>117232</v>
+      </c>
+      <c r="F50" s="40">
+        <v>1</v>
+      </c>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="38">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="3" t="e">
+        <v>117232</v>
+      </c>
+      <c r="K50" s="39" t="e">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
         <v>#REF!</v>
       </c>
-      <c r="L50" s="1" t="e">
+      <c r="L50" s="29" t="e">
         <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
         <v>#REF!</v>
       </c>
-      <c r="M50" s="13" t="e">
+      <c r="M50" s="24" t="e">
         <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
         <v>#REF!</v>
       </c>
-      <c r="N50" s="2" t="e">
+      <c r="N50" s="38" t="e">
         <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
         <v>#REF!</v>
       </c>
-      <c r="O50" s="3" t="str">
+      <c r="O50" s="39" t="e">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -4278,33 +4450,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="70" t="s">
+      <c r="V5" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="71"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="78"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -6645,33 +6817,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="70" t="s">
+      <c r="I30" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="71"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="78"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="70" t="s">
+      <c r="V30" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="70"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="71"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="78"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
@@ -8784,14 +8956,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -8817,7 +8989,7 @@
       </c>
       <c r="M2" s="59">
         <f>Archive!G11</f>
-        <v>4.333333333333333</v>
+        <v>4.7058823529411766</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -9132,27 +9304,27 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <f t="shared" ref="B18:G18" si="2">B16*$M$2*$M$3</f>
-        <v>24.365773177442541</v>
+        <v>26.460568156498692</v>
       </c>
       <c r="C18" s="25">
         <f t="shared" si="2"/>
-        <v>14.96136393492873</v>
+        <v>16.247635042456544</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="2"/>
-        <v>9.9982347338690261</v>
+        <v>10.857811475694868</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>6.9147919266671041</v>
+        <v>7.5092763004529637</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="2"/>
-        <v>3.4765315394215395</v>
+        <v>3.7754188663401345</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="2"/>
-        <v>0.94997135433771951</v>
+        <v>1.0316430997332702</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -9161,27 +9333,27 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <f>B18/2</f>
-        <v>12.182886588721271</v>
+        <v>13.230284078249346</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" ref="C19:F19" si="3">C18/2</f>
-        <v>7.4806819674643652</v>
+        <v>8.1238175212282719</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="3"/>
-        <v>4.999117366934513</v>
+        <v>5.4289057378474341</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="3"/>
-        <v>3.457395963333552</v>
+        <v>3.7546381502264818</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="3"/>
-        <v>1.7382657697107697</v>
+        <v>1.8877094331700672</v>
       </c>
       <c r="G19" s="25">
         <f>G18/2</f>
-        <v>0.47498567716885975</v>
+        <v>0.51582154986663509</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="82">
   <si>
     <t>QualityBonus</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Order price</t>
   </si>
   <si>
-    <t>Bonus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg base price (non weighted) </t>
   </si>
   <si>
@@ -261,18 +258,34 @@
   <si>
     <t>Proportional price of bfr</t>
   </si>
+  <si>
+    <t>Goods sold</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Bonus1</t>
+  </si>
+  <si>
+    <t>Bonus2</t>
+  </si>
+  <si>
+    <t>Prob</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +310,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,7 +631,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -679,15 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,6 +729,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -725,7 +748,247 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -779,84 +1042,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -954,6 +1139,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFABAB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -966,37 +1156,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A16:O63" totalsRowShown="0">
-  <autoFilter ref="A16:O63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A16:P101" totalsRowShown="0">
+  <autoFilter ref="A16:P101"/>
   <sortState ref="A17:R63">
     <sortCondition ref="A16:A63"/>
   </sortState>
-  <tableColumns count="15">
+  <tableColumns count="16">
     <tableColumn id="1" name="No."/>
     <tableColumn id="23" name="Economy "/>
-    <tableColumn id="2" name="QualityBonus" dataDxfId="15" dataCellStyle="Porcentaje"/>
-    <tableColumn id="3" name="Product" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="Base price1" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="24" name="Req." dataDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="18" name="Product2" dataDxfId="11" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Base price2" dataDxfId="10" dataCellStyle="Moneda"/>
-    <tableColumn id="35" name="Req.2" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="12" name="Order price" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="2" name="QualityBonus" dataDxfId="24" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" name="Product" dataDxfId="23" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Base price1" dataDxfId="22" dataCellStyle="Moneda"/>
+    <tableColumn id="24" name="Req." dataDxfId="21" dataCellStyle="Millares"/>
+    <tableColumn id="18" name="Product2" dataDxfId="20" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Base price2" dataDxfId="15" dataCellStyle="Moneda"/>
+    <tableColumn id="35" name="Req.2" dataDxfId="14" dataCellStyle="Millares"/>
+    <tableColumn id="12" name="Order price" dataDxfId="10" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Bonus" dataCellStyle="Moneda">
-      <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</calculatedColumnFormula>
+    <tableColumn id="4" name="Bonus1" dataDxfId="13" dataCellStyle="Moneda">
+      <calculatedColumnFormula>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="p1" dataDxfId="7">
-      <calculatedColumnFormula>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
+    <tableColumn id="11" name="Bonus2" dataCellStyle="Moneda">
+      <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="p2" dataDxfId="6">
-      <calculatedColumnFormula>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
+    <tableColumn id="10" name="p1" dataDxfId="9" dataCellStyle="Moneda">
+      <calculatedColumnFormula>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="5" dataCellStyle="Moneda">
-      <calculatedColumnFormula>SUM(Tabla22[[#This Row],[p1]:[p2]])</calculatedColumnFormula>
+    <tableColumn id="9" name="p2" dataCellStyle="Moneda">
+      <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="profit -wages" dataDxfId="4" dataCellStyle="Moneda">
+    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="8" dataCellStyle="Moneda">
+      <calculatedColumnFormula>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="36" name="profit -wages" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1005,20 +1198,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4">
+  <autoFilter ref="R17:T23"/>
+  <sortState ref="T18:V23">
+    <sortCondition ref="T17:T23"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Goods sold" dataDxfId="7"/>
+    <tableColumn id="2" name="COGS" dataDxfId="6"/>
+    <tableColumn id="3" name="Q" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="19" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="18" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="17" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="16" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1289,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X63"/>
+  <dimension ref="A2:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,20 +1514,20 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.42578125" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M2" s="46"/>
       <c r="N2" s="54" t="s">
         <v>70</v>
@@ -1332,30 +1540,33 @@
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F3" s="67" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F3" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
-      <c r="N3" s="67" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="N3" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="36">
-        <v>35000</v>
+        <v>37400</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="55" t="s">
@@ -1364,334 +1575,380 @@
       <c r="G4" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="55" t="s">
-        <v>74</v>
-      </c>
       <c r="J4" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="L4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="54"/>
+      <c r="O4" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="P4" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="Q4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="55" t="s">
+      <c r="S4" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="56" t="s">
+      <c r="U4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E5" s="61" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="49">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M5)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M5)</f>
-        <v>0</v>
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N5)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N5)</f>
+        <v>4</v>
       </c>
       <c r="G5" s="47">
         <f>F5/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="H5" s="81">
+        <f>G5/$G$11</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="I5" s="22">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E5,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="J5" s="23">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E5,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
+        <v>835083</v>
+      </c>
+      <c r="K5" s="23">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="42">
+        <v>250346.85399999999</v>
+      </c>
+      <c r="L5" s="42">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E5,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="61" t="s">
+        <v>212946.85399999999</v>
+      </c>
+      <c r="N5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="49">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M5,Tabla22[[Economy ]],$O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="47">
-        <f>IFERROR(N5/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="22">
-        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="23">
-        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="23">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="42">
+      <c r="O5" s="49">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)</f>
+        <v>4</v>
+      </c>
+      <c r="P5" s="47">
+        <f>IFERROR(O5/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
+        <v>4.7058823529411764E-2</v>
+      </c>
+      <c r="Q5" s="37">
+        <f>P5/$P$11</f>
+        <v>1.1235955056179777E-2</v>
+      </c>
+      <c r="R5" s="22">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="S5" s="23">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>835083</v>
+      </c>
+      <c r="T5" s="23">
+        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>250346.85399999999</v>
+      </c>
+      <c r="U5" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>212946.85399999999</v>
+      </c>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E6" s="61" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="47">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M6)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M6)</f>
-        <v>2</v>
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N6)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N6)</f>
+        <v>9</v>
       </c>
       <c r="G6" s="47">
         <f>F6/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="H6" s="37">
+        <v>0.11842105263157894</v>
+      </c>
+      <c r="H6" s="81">
+        <f t="shared" ref="H6:H10" si="0">G6/$G$11</f>
+        <v>2.5280898876404494E-2</v>
+      </c>
+      <c r="I6" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E6,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="I6" s="3">
+        <v>1.9949999999999999E-2</v>
+      </c>
+      <c r="J6" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E6,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>226246</v>
-      </c>
-      <c r="J6" s="3">
+        <v>226108</v>
+      </c>
+      <c r="K6" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="43">
+        <v>54273.788524999996</v>
+      </c>
+      <c r="L6" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E6,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="61" t="s">
+        <v>16873.788525000004</v>
+      </c>
+      <c r="N6" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="47">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2)</f>
-        <v>2</v>
-      </c>
       <c r="O6" s="47">
-        <f>IFERROR(N6/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="P6" s="37">
-        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="Q6" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>226246</v>
-      </c>
-      <c r="R6" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="43">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)</f>
+        <v>9</v>
+      </c>
+      <c r="P6" s="47">
+        <f>IFERROR(O6/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="Q6" s="37">
+        <f t="shared" ref="Q6:Q10" si="1">P6/$P$11</f>
+        <v>2.5280898876404497E-2</v>
+      </c>
+      <c r="R6" s="37">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>1.9949999999999999E-2</v>
+      </c>
+      <c r="S6" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>226108</v>
+      </c>
+      <c r="T6" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>54273.788524999996</v>
+      </c>
+      <c r="U6" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16873.788525000004</v>
+      </c>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E7" s="61" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="47">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M7)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M7)</f>
-        <v>25</v>
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N7)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N7)</f>
+        <v>40</v>
       </c>
       <c r="G7" s="47">
         <f>F7/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.73529411764705888</v>
-      </c>
-      <c r="H7" s="37">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="H7" s="81">
+        <f t="shared" si="0"/>
+        <v>0.11235955056179775</v>
+      </c>
+      <c r="I7" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E7,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>2.1223076923076921E-2</v>
-      </c>
-      <c r="I7" s="3">
+        <v>2.0739999999999998E-2</v>
+      </c>
+      <c r="J7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E7,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>120772.92307692308</v>
-      </c>
-      <c r="J7" s="3">
+        <v>120382.25</v>
+      </c>
+      <c r="K7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="43">
+        <v>53608.653904999999</v>
+      </c>
+      <c r="L7" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="61" t="s">
+        <v>16208.653905000003</v>
+      </c>
+      <c r="N7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="47">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)</f>
-        <v>25</v>
-      </c>
       <c r="O7" s="47">
-        <f>IFERROR(N7/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.73529411764705888</v>
-      </c>
-      <c r="P7" s="37">
-        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.1223076923076921E-2</v>
-      </c>
-      <c r="Q7" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>120772.92307692308</v>
-      </c>
-      <c r="R7" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="43">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)</f>
+        <v>40</v>
+      </c>
+      <c r="P7" s="47">
+        <f>IFERROR(O7/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="Q7" s="37">
+        <f t="shared" si="1"/>
+        <v>0.11235955056179776</v>
+      </c>
+      <c r="R7" s="37">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>2.0739999999999998E-2</v>
+      </c>
+      <c r="S7" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>120382.25</v>
+      </c>
+      <c r="T7" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>53608.653904999999</v>
+      </c>
+      <c r="U7" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16208.653905000003</v>
+      </c>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E8" s="61" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="47">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M8)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M8)</f>
-        <v>15</v>
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N8)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N8)</f>
+        <v>36</v>
       </c>
       <c r="G8" s="47">
         <f>F8/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.44117647058823528</v>
-      </c>
-      <c r="H8" s="37">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="H8" s="81">
+        <f t="shared" si="0"/>
+        <v>0.10112359550561797</v>
+      </c>
+      <c r="I8" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E8,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>2.1871428571428573E-2</v>
-      </c>
-      <c r="I8" s="3">
+        <v>2.1626666666666669E-2</v>
+      </c>
+      <c r="J8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E8,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>84415.71428571429</v>
-      </c>
-      <c r="J8" s="3">
+        <v>84606.2</v>
+      </c>
+      <c r="K8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="43">
+        <v>64241.802946666678</v>
+      </c>
+      <c r="L8" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="61" t="s">
+        <v>26841.802946666667</v>
+      </c>
+      <c r="N8" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="47">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)</f>
-        <v>15</v>
-      </c>
       <c r="O8" s="47">
-        <f>IFERROR(N8/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.44117647058823528</v>
-      </c>
-      <c r="P8" s="37">
-        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.1871428571428573E-2</v>
-      </c>
-      <c r="Q8" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>84415.71428571429</v>
-      </c>
-      <c r="R8" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="43">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)</f>
+        <v>36</v>
+      </c>
+      <c r="P8" s="47">
+        <f>IFERROR(O8/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
+        <v>0.42352941176470588</v>
+      </c>
+      <c r="Q8" s="37">
+        <f t="shared" si="1"/>
+        <v>0.10112359550561799</v>
+      </c>
+      <c r="R8" s="37">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>2.1626666666666669E-2</v>
+      </c>
+      <c r="S8" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>84606.2</v>
+      </c>
+      <c r="T8" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>64241.802946666678</v>
+      </c>
+      <c r="U8" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>26841.802946666667</v>
+      </c>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="47">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M9)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M9)</f>
-        <v>52</v>
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N9)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N9)</f>
+        <v>105</v>
       </c>
       <c r="G9" s="47">
         <f>F9/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>1.5294117647058822</v>
-      </c>
-      <c r="H9" s="37">
+        <v>1.381578947368421</v>
+      </c>
+      <c r="H9" s="81">
+        <f t="shared" si="0"/>
+        <v>0.2949438202247191</v>
+      </c>
+      <c r="I9" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E9,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>2.1836363636363636E-2</v>
-      </c>
-      <c r="I9" s="3">
+        <v>2.1419999999999998E-2</v>
+      </c>
+      <c r="J9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E9,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>61717.36363636364</v>
-      </c>
-      <c r="J9" s="3">
+        <v>61455.022222222222</v>
+      </c>
+      <c r="K9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="43">
+        <v>52889.740973333341</v>
+      </c>
+      <c r="L9" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E9,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="61" t="s">
+        <v>15489.740973333337</v>
+      </c>
+      <c r="N9" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="47">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)</f>
-        <v>52</v>
-      </c>
       <c r="O9" s="47">
-        <f>IFERROR(N9/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>1.5294117647058822</v>
-      </c>
-      <c r="P9" s="37">
-        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.1836363636363636E-2</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>61717.36363636364</v>
-      </c>
-      <c r="R9" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="43">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)</f>
+        <v>105</v>
+      </c>
+      <c r="P9" s="47">
+        <f>IFERROR(O9/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="Q9" s="37">
+        <f t="shared" si="1"/>
+        <v>0.29494382022471916</v>
+      </c>
+      <c r="R9" s="37">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>2.1419999999999998E-2</v>
+      </c>
+      <c r="S9" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>61455.022222222222</v>
+      </c>
+      <c r="T9" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>52889.740973333341</v>
+      </c>
+      <c r="U9" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15489.740973333337</v>
+      </c>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
         <v>68</v>
       </c>
@@ -1699,60 +1956,68 @@
         <v>54</v>
       </c>
       <c r="F10" s="48">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M10)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M10)</f>
-        <v>66</v>
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N10)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N10)</f>
+        <v>162</v>
       </c>
       <c r="G10" s="48">
         <f>F10/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>1.9411764705882353</v>
-      </c>
-      <c r="H10" s="45">
+        <v>2.1315789473684212</v>
+      </c>
+      <c r="H10" s="81">
+        <f t="shared" si="0"/>
+        <v>0.45505617977528096</v>
+      </c>
+      <c r="I10" s="45">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E10,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>2.148235294117647E-2</v>
-      </c>
-      <c r="I10" s="39">
+        <v>2.1131111111111107E-2</v>
+      </c>
+      <c r="J10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E10,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>41505.352941176468</v>
-      </c>
-      <c r="J10" s="39">
+        <v>41497.755555555559</v>
+      </c>
+      <c r="K10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="44">
+        <v>68111.238277777782</v>
+      </c>
+      <c r="L10" s="44">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E10,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="62" t="s">
+        <v>30711.238277777771</v>
+      </c>
+      <c r="N10" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="48">
-        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)</f>
-        <v>66</v>
-      </c>
       <c r="O10" s="48">
-        <f>IFERROR(N10/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>1.9411764705882353</v>
-      </c>
-      <c r="P10" s="45">
-        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.148235294117647E-2</v>
-      </c>
-      <c r="Q10" s="39">
-        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>41505.352941176468</v>
-      </c>
-      <c r="R10" s="39">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],M10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],M10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="44">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)</f>
+        <v>162</v>
+      </c>
+      <c r="P10" s="48">
+        <f>IFERROR(O10/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
+        <v>1.9058823529411764</v>
+      </c>
+      <c r="Q10" s="45">
+        <f t="shared" si="1"/>
+        <v>0.45505617977528096</v>
+      </c>
+      <c r="R10" s="45">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>2.1131111111111107E-2</v>
+      </c>
+      <c r="S10" s="39">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>41497.755555555559</v>
+      </c>
+      <c r="T10" s="39">
+        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
+        <v>68111.238277777782</v>
+      </c>
+      <c r="U10" s="44">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>30711.238277777771</v>
+      </c>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="63" t="s">
         <v>13</v>
       </c>
@@ -1761,60 +2026,68 @@
       </c>
       <c r="F11" s="48">
         <f>SUM(F5:F10)</f>
-        <v>160</v>
+        <v>356</v>
       </c>
       <c r="G11" s="48">
         <f>SUM(G5:G10)</f>
-        <v>4.7058823529411766</v>
-      </c>
-      <c r="H11" s="57">
+        <v>4.6842105263157894</v>
+      </c>
+      <c r="H11" s="82">
+        <f>SUM(H5:H10)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="57">
         <f>AVERAGE(Tabla22[QualityBonus])</f>
-        <v>2.207058823529412E-2</v>
-      </c>
-      <c r="I11" s="39">
-        <f>SUMPRODUCT(G5:G10,I5:I10)/G11</f>
-        <v>66791.918715108419</v>
-      </c>
-      <c r="J11" s="39" t="e">
+        <v>2.1505263157894743E-2</v>
+      </c>
+      <c r="J11" s="39">
+        <f>SUMPRODUCT(G5:G10,J5:J10)/G11</f>
+        <v>74190.536329588023</v>
+      </c>
+      <c r="K11" s="39">
         <f>AVERAGEIF(Tabla22[TOTAL PROFIT (no wages, no admin costs)],"&gt;0")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="58" t="e">
+        <v>58336.130084210527</v>
+      </c>
+      <c r="L11" s="58">
         <f>AVERAGE(Tabla22[profit -wages])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="53"/>
-      <c r="M11" s="51" t="s">
+        <v>20936.130084210534</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="51" t="s">
         <v>62</v>
-      </c>
-      <c r="N11" s="48">
-        <f>SUM(N5:N10)</f>
-        <v>160</v>
       </c>
       <c r="O11" s="48">
         <f>SUM(O5:O10)</f>
-        <v>4.7058823529411766</v>
-      </c>
-      <c r="P11" s="57">
+        <v>356</v>
+      </c>
+      <c r="P11" s="48">
+        <f>SUM(P5:P10)</f>
+        <v>4.1882352941176464</v>
+      </c>
+      <c r="Q11" s="82">
+        <f>SUM(Q5:Q10)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="R11" s="57">
         <f>IFERROR(AVERAGEIFS(Tabla22[QualityBonus],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>2.207058823529412E-2</v>
-      </c>
-      <c r="Q11" s="39">
-        <f>IFERROR(SUMPRODUCT(Q5:Q10,O5:O10)/O11,0)</f>
-        <v>66791.918715108419</v>
-      </c>
-      <c r="R11" s="39">
+        <v>2.1505263157894743E-2</v>
+      </c>
+      <c r="S11" s="39">
+        <f>IFERROR(SUMPRODUCT(S5:S10,P5:P10)/P11,0)</f>
+        <v>74190.536329588023</v>
+      </c>
+      <c r="T11" s="39">
         <f>IFERROR(AVERAGEIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[[Economy ]],$O$2),0)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="58">
+      <c r="U11" s="58">
         <f>IFERROR(AVERAGEIFS(Tabla22[profit -wages],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>20936.130084210534</v>
+      </c>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="64" t="s">
         <v>69</v>
       </c>
@@ -1824,48 +2097,49 @@
       <c r="V12" s="46"/>
       <c r="W12" s="46"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L13" s="53"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
       <c r="U13" s="46"/>
       <c r="V13" s="46"/>
       <c r="W13" s="46"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S14" s="46"/>
       <c r="T14" s="46"/>
       <c r="U14" s="46"/>
       <c r="V14" s="46"/>
       <c r="W14" s="46"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D15" s="70" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D15" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73" t="s">
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="74" t="s">
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="76"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
       <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
       <c r="U15" s="46"/>
       <c r="V15" s="46"/>
       <c r="W15" s="46"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1884,7 +2158,7 @@
       <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="66" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="13" t="s">
@@ -1897,27 +2171,30 @@
         <v>72</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="41" t="s">
+      <c r="O16" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="46"/>
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
       <c r="U16" s="46"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="46"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>1</v>
       </c>
@@ -1949,33 +2226,43 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>313724</v>
       </c>
-      <c r="K17" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O17" s="3" t="e">
+      <c r="K17" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>21729.668400000002</v>
+      </c>
+      <c r="L17" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>27538.785</v>
+      </c>
+      <c r="M17" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>5454</v>
+      </c>
+      <c r="N17" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>24270</v>
+      </c>
+      <c r="O17" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>78992.453399999999</v>
+      </c>
+      <c r="P17" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
+        <v>41592.453399999999</v>
+      </c>
+      <c r="R17" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="S17" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="80" t="s">
+        <v>78</v>
+      </c>
       <c r="U17" s="46"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="46"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>2</v>
       </c>
@@ -2007,33 +2294,43 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>416796</v>
       </c>
-      <c r="K18" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M18" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N18" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O18" s="3" t="e">
+      <c r="K18" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>14108.670399999999</v>
+      </c>
+      <c r="L18" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>25919.343999999997</v>
+      </c>
+      <c r="M18" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>4764</v>
+      </c>
+      <c r="N18" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>28032</v>
+      </c>
+      <c r="O18" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>72824.0144</v>
+      </c>
+      <c r="P18" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
+        <v>35424.0144</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="79">
+        <v>858000</v>
+      </c>
+      <c r="T18" s="79">
+        <v>6</v>
+      </c>
       <c r="U18" s="46"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="46"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>3</v>
       </c>
@@ -2065,33 +2362,43 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>332955</v>
       </c>
-      <c r="K19" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L19" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M19" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N19" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O19" s="3" t="e">
+      <c r="K19" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>9320.7659999999996</v>
+      </c>
+      <c r="L19" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>33797.4</v>
+      </c>
+      <c r="M19" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>3355</v>
+      </c>
+      <c r="N19" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>27600</v>
+      </c>
+      <c r="O19" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>74073.165999999997</v>
+      </c>
+      <c r="P19" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
+        <v>36673.165999999997</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="79">
+        <v>238000</v>
+      </c>
+      <c r="T19" s="79">
+        <v>4</v>
+      </c>
       <c r="U19" s="46"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="46"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>4</v>
       </c>
@@ -2110,40 +2417,50 @@
       <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
       <c r="J20" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>179289</v>
       </c>
-      <c r="K20" s="43" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M20" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N20" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O20" s="3" t="e">
+      <c r="K20" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>26176.193999999996</v>
+      </c>
+      <c r="L20" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>14289</v>
+      </c>
+      <c r="N20" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>40465.193999999996</v>
+      </c>
+      <c r="P20" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
+        <v>3065.1939999999959</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="S20" s="79">
+        <v>82000</v>
+      </c>
+      <c r="T20" s="79">
+        <v>4</v>
+      </c>
       <c r="U20" s="46"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="46"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>5</v>
       </c>
@@ -2162,7 +2479,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H21" s="3">
@@ -2175,33 +2492,43 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>244351</v>
       </c>
-      <c r="K21" s="43" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M21" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N21" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O21" s="3" t="e">
+      <c r="K21" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>16229.271000000001</v>
+      </c>
+      <c r="L21" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>13720.744000000001</v>
+      </c>
+      <c r="M21" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>2295</v>
+      </c>
+      <c r="N21" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>13056</v>
+      </c>
+      <c r="O21" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>45301.014999999999</v>
+      </c>
+      <c r="P21" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
+        <v>7901.0149999999994</v>
+      </c>
+      <c r="R21" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="79">
+        <v>55000</v>
+      </c>
+      <c r="T21" s="79">
+        <v>5</v>
+      </c>
       <c r="U21" s="46"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="46"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>6</v>
       </c>
@@ -2233,33 +2560,43 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>202985</v>
       </c>
-      <c r="K22" s="44" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" s="24" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M22" s="24" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N22" s="38" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O22" s="39" t="e">
+      <c r="K22" s="39">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>11918.709000000001</v>
+      </c>
+      <c r="L22" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>8176.8060000000005</v>
+      </c>
+      <c r="M22" s="38">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>1391</v>
+      </c>
+      <c r="N22" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>8394</v>
+      </c>
+      <c r="O22" s="38">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>29880.514999999999</v>
+      </c>
+      <c r="P22" s="39">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
+        <v>-7519.4850000000006</v>
+      </c>
+      <c r="R22" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" s="79">
+        <v>37100</v>
+      </c>
+      <c r="T22" s="79">
+        <v>6</v>
+      </c>
       <c r="U22" s="46"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="46"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>7</v>
       </c>
@@ -2278,40 +2615,50 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="J23" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>178722</v>
       </c>
-      <c r="K23" s="43" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L23" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M23" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N23" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O23" s="3" t="e">
+      <c r="K23" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>24752.996999999999</v>
+      </c>
+      <c r="L23" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>13722</v>
+      </c>
+      <c r="N23" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>38474.997000000003</v>
+      </c>
+      <c r="P23" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
+        <v>1074.997000000003</v>
+      </c>
+      <c r="R23" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="S23" s="79">
+        <v>119000</v>
+      </c>
+      <c r="T23" s="79">
+        <v>6</v>
+      </c>
       <c r="U23" s="46"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="46"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>8</v>
       </c>
@@ -2330,7 +2677,7 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="3">
@@ -2343,33 +2690,37 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>463221</v>
       </c>
-      <c r="K24" s="43" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L24" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M24" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N24" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O24" s="3" t="e">
+      <c r="K24" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>24691.350000000002</v>
+      </c>
+      <c r="L24" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>24356.312000000002</v>
+      </c>
+      <c r="M24" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>26625</v>
+      </c>
+      <c r="N24" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>31096</v>
+      </c>
+      <c r="O24" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>106768.66200000001</v>
+      </c>
+      <c r="P24" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q24" s="46"/>
+        <v>69368.662000000011</v>
+      </c>
       <c r="R24" s="46"/>
       <c r="S24" s="46"/>
       <c r="T24" s="46"/>
       <c r="U24" s="46"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="46"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>9</v>
       </c>
@@ -2388,40 +2739,44 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="4"/>
       <c r="J25" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>62463</v>
       </c>
-      <c r="K25" s="43" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M25" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N25" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O25" s="3" t="e">
+      <c r="K25" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>9182.0609999999997</v>
+      </c>
+      <c r="L25" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>7463</v>
+      </c>
+      <c r="N25" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>16645.061000000002</v>
+      </c>
+      <c r="P25" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q25" s="46"/>
+        <v>-20754.938999999998</v>
+      </c>
       <c r="R25" s="46"/>
       <c r="S25" s="46"/>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="46"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>10</v>
       </c>
@@ -2440,7 +2795,7 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="3">
@@ -2453,33 +2808,37 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>306761</v>
       </c>
-      <c r="K26" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L26" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M26" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N26" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O26" s="3" t="e">
+      <c r="K26" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>4262.9625000000005</v>
+      </c>
+      <c r="L26" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>19732.085999999999</v>
+      </c>
+      <c r="M26" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>8155</v>
+      </c>
+      <c r="N26" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>5606</v>
+      </c>
+      <c r="O26" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>37756.048500000004</v>
+      </c>
+      <c r="P26" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q26" s="46"/>
+        <v>356.04850000000442</v>
+      </c>
       <c r="R26" s="46"/>
       <c r="S26" s="46"/>
       <c r="T26" s="46"/>
       <c r="U26" s="46"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="46"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>11</v>
       </c>
@@ -2511,33 +2870,37 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>306654</v>
       </c>
-      <c r="K27" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L27" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M27" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N27" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O27" s="3" t="e">
+      <c r="K27" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>28764.254399999998</v>
+      </c>
+      <c r="L27" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>6081.88</v>
+      </c>
+      <c r="M27" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>6594</v>
+      </c>
+      <c r="N27" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>7060</v>
+      </c>
+      <c r="O27" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>48500.134399999995</v>
+      </c>
+      <c r="P27" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q27" s="46"/>
+        <v>11100.134399999995</v>
+      </c>
       <c r="R27" s="46"/>
       <c r="S27" s="46"/>
       <c r="T27" s="46"/>
       <c r="U27" s="46"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="46"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>12</v>
       </c>
@@ -2563,33 +2926,37 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>84120</v>
       </c>
-      <c r="K28" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M28" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N28" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O28" s="3" t="e">
+      <c r="K28" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>10144.871999999999</v>
+      </c>
+      <c r="L28" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>9920</v>
+      </c>
+      <c r="N28" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>20064.871999999999</v>
+      </c>
+      <c r="P28" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q28" s="46"/>
+        <v>-17335.128000000001</v>
+      </c>
       <c r="R28" s="46"/>
       <c r="S28" s="46"/>
       <c r="T28" s="46"/>
       <c r="U28" s="46"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="46"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>13</v>
       </c>
@@ -2621,33 +2988,37 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>512699</v>
       </c>
-      <c r="K29" s="39" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L29" s="29" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M29" s="24" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N29" s="38" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O29" s="39" t="e">
+      <c r="K29" s="39">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>16260.6</v>
+      </c>
+      <c r="L29" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>11205.238499999999</v>
+      </c>
+      <c r="M29" s="38">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>2500</v>
+      </c>
+      <c r="N29" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>17199</v>
+      </c>
+      <c r="O29" s="38">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>47164.838499999998</v>
+      </c>
+      <c r="P29" s="39">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q29" s="46"/>
+        <v>9764.838499999998</v>
+      </c>
       <c r="R29" s="46"/>
       <c r="S29" s="46"/>
       <c r="T29" s="46"/>
       <c r="U29" s="46"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="46"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>14</v>
       </c>
@@ -2679,33 +3050,37 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>660840</v>
       </c>
-      <c r="K30" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L30" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M30" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N30" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O30" s="3" t="e">
+      <c r="K30" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>70806.528000000006</v>
+      </c>
+      <c r="L30" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>16236.288</v>
+      </c>
+      <c r="M30" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>15712</v>
+      </c>
+      <c r="N30" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>5128</v>
+      </c>
+      <c r="O30" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>107882.81600000001</v>
+      </c>
+      <c r="P30" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q30" s="46"/>
+        <v>70482.816000000006</v>
+      </c>
       <c r="R30" s="46"/>
       <c r="S30" s="46"/>
       <c r="T30" s="46"/>
       <c r="U30" s="46"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="46"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>15</v>
       </c>
@@ -2737,33 +3112,37 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>141919</v>
       </c>
-      <c r="K31" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L31" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M31" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N31" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O31" s="3" t="e">
+      <c r="K31" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>6554.1336000000001</v>
+      </c>
+      <c r="L31" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>3975.8354999999997</v>
+      </c>
+      <c r="M31" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>7932</v>
+      </c>
+      <c r="N31" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>4787</v>
+      </c>
+      <c r="O31" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>23248.969100000002</v>
+      </c>
+      <c r="P31" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q31" s="46"/>
+        <v>-14151.030899999998</v>
+      </c>
       <c r="R31" s="46"/>
       <c r="S31" s="46"/>
       <c r="T31" s="46"/>
       <c r="U31" s="46"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="46"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>16</v>
       </c>
@@ -2795,33 +3174,37 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>443847</v>
       </c>
-      <c r="K32" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L32" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M32" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N32" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O32" s="3" t="e">
+      <c r="K32" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>23384.703000000001</v>
+      </c>
+      <c r="L32" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>27480.163199999999</v>
+      </c>
+      <c r="M32" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>18555</v>
+      </c>
+      <c r="N32" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>1792</v>
+      </c>
+      <c r="O32" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>71211.866200000004</v>
+      </c>
+      <c r="P32" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q32" s="46"/>
+        <v>33811.866200000004</v>
+      </c>
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
       <c r="T32" s="46"/>
       <c r="U32" s="46"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" s="46"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>17</v>
       </c>
@@ -2853,32 +3236,36 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>184408</v>
       </c>
-      <c r="K33" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L33" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M33" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N33" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O33" s="3" t="e">
+      <c r="K33" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>18640.736399999998</v>
+      </c>
+      <c r="L33" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>7793.665</v>
+      </c>
+      <c r="M33" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>3798</v>
+      </c>
+      <c r="N33" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>6610</v>
+      </c>
+      <c r="O33" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>36842.401400000002</v>
+      </c>
+      <c r="P33" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R33" s="46"/>
+        <v>-557.59859999999753</v>
+      </c>
       <c r="S33" s="46"/>
       <c r="T33" s="46"/>
       <c r="U33" s="46"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33" s="46"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>18</v>
       </c>
@@ -2910,32 +3297,36 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>526494</v>
       </c>
-      <c r="K34" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L34" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M34" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N34" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O34" s="3" t="e">
+      <c r="K34" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>10242.902400000001</v>
+      </c>
+      <c r="L34" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>31388.313600000001</v>
+      </c>
+      <c r="M34" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>9022</v>
+      </c>
+      <c r="N34" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-3528</v>
+      </c>
+      <c r="O34" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>47125.216</v>
+      </c>
+      <c r="P34" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R34" s="46"/>
+        <v>9725.2160000000003</v>
+      </c>
       <c r="S34" s="46"/>
       <c r="T34" s="46"/>
       <c r="U34" s="46"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" s="46"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>19</v>
       </c>
@@ -2967,32 +3358,36 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>286699</v>
       </c>
-      <c r="K35" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L35" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M35" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N35" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O35" s="3" t="e">
+      <c r="K35" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>23339.889600000002</v>
+      </c>
+      <c r="L35" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>16740.6306</v>
+      </c>
+      <c r="M35" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>18552</v>
+      </c>
+      <c r="N35" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>747</v>
+      </c>
+      <c r="O35" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>59379.520199999999</v>
+      </c>
+      <c r="P35" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R35" s="46"/>
+        <v>21979.520199999999</v>
+      </c>
       <c r="S35" s="46"/>
       <c r="T35" s="46"/>
       <c r="U35" s="46"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" s="46"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>20</v>
       </c>
@@ -3024,32 +3419,36 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>330905</v>
       </c>
-      <c r="K36" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L36" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M36" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N36" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O36" s="3" t="e">
+      <c r="K36" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>26035.424999999999</v>
+      </c>
+      <c r="L36" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>12552.48</v>
+      </c>
+      <c r="M36" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>24125</v>
+      </c>
+      <c r="N36" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>11280</v>
+      </c>
+      <c r="O36" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>73992.904999999999</v>
+      </c>
+      <c r="P36" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R36" s="46"/>
+        <v>36592.904999999999</v>
+      </c>
       <c r="S36" s="46"/>
       <c r="T36" s="46"/>
       <c r="U36" s="46"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36" s="46"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>21</v>
       </c>
@@ -3081,32 +3480,36 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>272625</v>
       </c>
-      <c r="K37" s="39" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L37" s="29" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M37" s="24" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N37" s="38" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O37" s="39" t="e">
+      <c r="K37" s="39">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>9006.2279999999992</v>
+      </c>
+      <c r="L37" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>25546.59</v>
+      </c>
+      <c r="M37" s="38">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>1391</v>
+      </c>
+      <c r="N37" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>24234</v>
+      </c>
+      <c r="O37" s="38">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>60177.817999999999</v>
+      </c>
+      <c r="P37" s="39">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R37" s="46"/>
+        <v>22777.817999999999</v>
+      </c>
       <c r="S37" s="46"/>
       <c r="T37" s="46"/>
       <c r="U37" s="46"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37" s="46"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>22</v>
       </c>
@@ -3138,32 +3541,36 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>288860</v>
       </c>
-      <c r="K38" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L38" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M38" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N38" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O38" s="3" t="e">
+      <c r="K38" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>7967.7440000000006</v>
+      </c>
+      <c r="L38" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>12623.155200000001</v>
+      </c>
+      <c r="M38" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>14496</v>
+      </c>
+      <c r="N38" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>15964</v>
+      </c>
+      <c r="O38" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>51050.8992</v>
+      </c>
+      <c r="P38" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R38" s="46"/>
+        <v>13650.8992</v>
+      </c>
       <c r="S38" s="46"/>
       <c r="T38" s="46"/>
       <c r="U38" s="46"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38" s="46"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>23</v>
       </c>
@@ -3195,28 +3602,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>391747</v>
       </c>
-      <c r="K39" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L39" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M39" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N39" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O39" s="3" t="e">
+      <c r="K39" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>25170.516000000003</v>
+      </c>
+      <c r="L39" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>32318.201999999997</v>
+      </c>
+      <c r="M39" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>24252</v>
+      </c>
+      <c r="N39" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>16995</v>
+      </c>
+      <c r="O39" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>98735.717999999993</v>
+      </c>
+      <c r="P39" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61335.717999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>24</v>
       </c>
@@ -3248,28 +3659,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>652877</v>
       </c>
-      <c r="K40" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L40" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M40" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N40" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O40" s="3" t="e">
+      <c r="K40" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>42172.254400000005</v>
+      </c>
+      <c r="L40" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>28013.823</v>
+      </c>
+      <c r="M40" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>-23508</v>
+      </c>
+      <c r="N40" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>14885</v>
+      </c>
+      <c r="O40" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>61563.077400000009</v>
+      </c>
+      <c r="P40" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24163.077400000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>25</v>
       </c>
@@ -3301,28 +3716,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>378633</v>
       </c>
-      <c r="K41" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L41" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M41" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N41" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O41" s="3" t="e">
+      <c r="K41" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>20323.029600000002</v>
+      </c>
+      <c r="L41" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>27040.771199999999</v>
+      </c>
+      <c r="M41" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>15087</v>
+      </c>
+      <c r="N41" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>6246</v>
+      </c>
+      <c r="O41" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>68696.800799999997</v>
+      </c>
+      <c r="P41" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>31296.800799999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>26</v>
       </c>
@@ -3354,28 +3773,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>388230</v>
       </c>
-      <c r="K42" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L42" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M42" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N42" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O42" s="3" t="e">
+      <c r="K42" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>35145.512999999999</v>
+      </c>
+      <c r="L42" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>25258.387500000001</v>
+      </c>
+      <c r="M42" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>22955</v>
+      </c>
+      <c r="N42" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>14775</v>
+      </c>
+      <c r="O42" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>98133.900500000003</v>
+      </c>
+      <c r="P42" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>60733.900500000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>27</v>
       </c>
@@ -3401,28 +3824,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>170320</v>
       </c>
-      <c r="K43" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L43" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M43" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N43" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O43" s="3" t="e">
+      <c r="K43" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>25854.575999999997</v>
+      </c>
+      <c r="L43" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>21920</v>
+      </c>
+      <c r="N43" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>47774.576000000001</v>
+      </c>
+      <c r="P43" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <v>10374.576000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>28</v>
       </c>
@@ -3454,28 +3881,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>457412</v>
       </c>
-      <c r="K44" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L44" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M44" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N44" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O44" s="3" t="e">
+      <c r="K44" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>14604.408000000001</v>
+      </c>
+      <c r="L44" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>14588.262000000001</v>
+      </c>
+      <c r="M44" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>22540</v>
+      </c>
+      <c r="N44" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>29372</v>
+      </c>
+      <c r="O44" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>81104.67</v>
+      </c>
+      <c r="P44" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v>43704.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>29</v>
       </c>
@@ -3501,28 +3932,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>212225</v>
       </c>
-      <c r="K45" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L45" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M45" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N45" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O45" s="3" t="e">
+      <c r="K45" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>33107.1</v>
+      </c>
+      <c r="L45" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>26725</v>
+      </c>
+      <c r="N45" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>59832.1</v>
+      </c>
+      <c r="P45" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>22432.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>30</v>
       </c>
@@ -3554,28 +3989,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>447172</v>
       </c>
-      <c r="K46" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L46" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M46" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N46" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O46" s="3" t="e">
+      <c r="K46" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>11154.184799999999</v>
+      </c>
+      <c r="L46" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>49482.338399999993</v>
+      </c>
+      <c r="M46" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>8058</v>
+      </c>
+      <c r="N46" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>7914</v>
+      </c>
+      <c r="O46" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>76608.523199999996</v>
+      </c>
+      <c r="P46" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>39208.523199999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>31</v>
       </c>
@@ -3607,28 +4046,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>184008</v>
       </c>
-      <c r="K47" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L47" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M47" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N47" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O47" s="3" t="e">
+      <c r="K47" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>9020.3040000000019</v>
+      </c>
+      <c r="L47" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>21855.456000000002</v>
+      </c>
+      <c r="M47" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>5948</v>
+      </c>
+      <c r="N47" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>11760</v>
+      </c>
+      <c r="O47" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>48583.76</v>
+      </c>
+      <c r="P47" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>11183.760000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>32</v>
       </c>
@@ -3660,28 +4103,32 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>477379</v>
       </c>
-      <c r="K48" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L48" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M48" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N48" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O48" s="3" t="e">
+      <c r="K48" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>37301.615999999995</v>
+      </c>
+      <c r="L48" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>10924.672</v>
+      </c>
+      <c r="M48" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>-3765</v>
+      </c>
+      <c r="N48" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>14144</v>
+      </c>
+      <c r="O48" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>58605.287999999993</v>
+      </c>
+      <c r="P48" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21205.287999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>33</v>
       </c>
@@ -3702,33 +4149,37 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>62999</v>
       </c>
-      <c r="K49" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L49" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M49" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N49" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O49" s="3" t="e">
+      <c r="K49" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>5354.915</v>
+      </c>
+      <c r="L49" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>7999</v>
+      </c>
+      <c r="N49" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>13353.915000000001</v>
+      </c>
+      <c r="P49" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-24046.084999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>34</v>
       </c>
@@ -3754,528 +4205,2735 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>117232</v>
       </c>
-      <c r="K50" s="39" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L50" s="29" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M50" s="24" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N50" s="38" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O50" s="39" t="e">
+      <c r="K50" s="39">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>19835.654399999999</v>
+      </c>
+      <c r="L50" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="38">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>-1768</v>
+      </c>
+      <c r="N50" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="38">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>18067.654399999999</v>
+      </c>
+      <c r="P50" s="39">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-19332.345600000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>35</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="B51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="37">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="3">
+        <v>82956</v>
+      </c>
+      <c r="F51" s="4">
+        <v>4</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="3">
+        <v>42566</v>
+      </c>
+      <c r="I51" s="4">
+        <v>5</v>
+      </c>
       <c r="J51" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L51" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M51" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N51" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O51" s="3" t="str">
+        <v>544654</v>
+      </c>
+      <c r="K51" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>35173.343999999997</v>
+      </c>
+      <c r="L51" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>33839.97</v>
+      </c>
+      <c r="M51" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>3824</v>
+      </c>
+      <c r="N51" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>27330</v>
+      </c>
+      <c r="O51" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>100167.314</v>
+      </c>
+      <c r="P51" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62767.313999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>36</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
+      <c r="B52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="37">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="3">
+        <v>42329</v>
+      </c>
+      <c r="F52" s="4">
+        <v>4</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
       <c r="I52" s="4"/>
       <c r="J52" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>169316</v>
+      </c>
+      <c r="K52" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>26413.295999999998</v>
+      </c>
+      <c r="L52" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L52" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M52" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N52" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O52" s="3" t="str">
+      <c r="M52" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>20916</v>
+      </c>
+      <c r="N52" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>47329.296000000002</v>
+      </c>
+      <c r="P52" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9929.2960000000021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>37</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="B53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="37">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="3">
+        <v>41309</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="3">
+        <v>118549</v>
+      </c>
+      <c r="I53" s="4">
+        <v>3</v>
+      </c>
       <c r="J53" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L53" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M53" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N53" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O53" s="3" t="str">
+        <v>438265</v>
+      </c>
+      <c r="K53" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>12045.704399999999</v>
+      </c>
+      <c r="L53" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>51853.332599999994</v>
+      </c>
+      <c r="M53" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>8418</v>
+      </c>
+      <c r="N53" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-1353</v>
+      </c>
+      <c r="O53" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>70964.036999999997</v>
+      </c>
+      <c r="P53" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33564.036999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>38</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
+      <c r="B54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="37">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3">
+        <v>41700</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="3">
+        <v>86334</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
       <c r="J54" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L54" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M54" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N54" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O54" s="3" t="str">
+        <v>211434</v>
+      </c>
+      <c r="K54" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>12610.079999999998</v>
+      </c>
+      <c r="L54" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>5801.6448</v>
+      </c>
+      <c r="M54" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>13800</v>
+      </c>
+      <c r="N54" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>4334</v>
+      </c>
+      <c r="O54" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>36545.724799999996</v>
+      </c>
+      <c r="P54" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-854.27520000000368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>39</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
+      <c r="B55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="37">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="3">
+        <v>41268</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>82536</v>
+      </c>
+      <c r="K55" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>11538.532800000001</v>
+      </c>
+      <c r="L55" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L55" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M55" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N55" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O55" s="3" t="str">
+      <c r="M55" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>8336</v>
+      </c>
+      <c r="N55" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>19874.532800000001</v>
+      </c>
+      <c r="P55" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-17525.467199999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>40</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
+      <c r="B56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="37">
+        <v>2.18E-2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3">
+        <v>85536</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" s="3">
+        <v>42025</v>
+      </c>
+      <c r="I56" s="4">
+        <v>5</v>
+      </c>
       <c r="J56" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N56" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O56" s="3" t="str">
+        <v>552269</v>
+      </c>
+      <c r="K56" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>29834.9568</v>
+      </c>
+      <c r="L56" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>27484.35</v>
+      </c>
+      <c r="M56" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>14144</v>
+      </c>
+      <c r="N56" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>24625</v>
+      </c>
+      <c r="O56" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>96088.306799999991</v>
+      </c>
+      <c r="P56" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58688.306799999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>41</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="B57" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="37">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="3">
+        <v>61103</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="3">
+        <v>42071</v>
+      </c>
+      <c r="I57" s="4">
+        <v>2</v>
+      </c>
       <c r="J57" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>206348</v>
+      </c>
+      <c r="K57" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>12098.394</v>
+      </c>
+      <c r="L57" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>9996.0696000000007</v>
+      </c>
+      <c r="M57" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>12206</v>
+      </c>
+      <c r="N57" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>9942</v>
+      </c>
+      <c r="O57" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>44242.463600000003</v>
+      </c>
+      <c r="P57" s="3">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>6842.4636000000028</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <v>42</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="45">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="39">
+        <v>39994</v>
+      </c>
+      <c r="F58" s="40">
+        <v>2</v>
+      </c>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="38">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>79988</v>
+      </c>
+      <c r="K58" s="39">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>4895.2656000000006</v>
+      </c>
+      <c r="L58" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L57" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M57" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N57" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O57" s="3" t="str">
+      <c r="M58" s="38">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>5788</v>
+      </c>
+      <c r="N58" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="38">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>10683.265600000001</v>
+      </c>
+      <c r="P58" s="39">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>42</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="2">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L58" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M58" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N58" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O58" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-26716.734400000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>43</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="B59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="37">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="3">
+        <v>41087</v>
+      </c>
+      <c r="F59" s="4">
+        <v>4</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="3">
+        <v>118450</v>
+      </c>
+      <c r="I59" s="4">
+        <v>3</v>
+      </c>
       <c r="J59" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L59" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M59" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N59" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O59" s="3" t="str">
+        <v>519698</v>
+      </c>
+      <c r="K59" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>22482.806400000001</v>
+      </c>
+      <c r="L59" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>48611.880000000005</v>
+      </c>
+      <c r="M59" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>15948</v>
+      </c>
+      <c r="N59" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-1650</v>
+      </c>
+      <c r="O59" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>85392.686400000006</v>
+      </c>
+      <c r="P59" s="3">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47992.686400000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>44</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
+      <c r="B60" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="37">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="3">
+        <v>40290</v>
+      </c>
+      <c r="F60" s="4">
+        <v>5</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="3"/>
       <c r="I60" s="4"/>
       <c r="J60" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>201450</v>
+      </c>
+      <c r="K60" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>21031.379999999997</v>
+      </c>
+      <c r="L60" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L60" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M60" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N60" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O60" s="3" t="str">
+      <c r="M60" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>15950</v>
+      </c>
+      <c r="N60" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>36981.379999999997</v>
+      </c>
+      <c r="P60" s="3">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-418.62000000000262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>45</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="37">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="3">
+        <v>61156</v>
+      </c>
+      <c r="F61" s="4">
+        <v>3</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>183468</v>
+      </c>
+      <c r="K61" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>26602.86</v>
+      </c>
+      <c r="L61" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>18468</v>
+      </c>
+      <c r="N61" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>45070.86</v>
+      </c>
+      <c r="P61" s="3">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>7670.8600000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>46</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="37">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="3">
+        <v>40841</v>
+      </c>
+      <c r="F62" s="4">
+        <v>3</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="3">
+        <v>85277</v>
+      </c>
+      <c r="I62" s="4">
+        <v>4</v>
+      </c>
+      <c r="J62" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>463631</v>
+      </c>
+      <c r="K62" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>11247.6114</v>
+      </c>
+      <c r="L62" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>20875.809600000001</v>
+      </c>
+      <c r="M62" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>11223</v>
+      </c>
+      <c r="N62" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>13108</v>
+      </c>
+      <c r="O62" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>56454.421000000002</v>
+      </c>
+      <c r="P62" s="3">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>19054.421000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>47</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="37">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="3">
+        <v>62292</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>124584</v>
+      </c>
+      <c r="K63" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>13019.028</v>
+      </c>
+      <c r="L63" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>14584</v>
+      </c>
+      <c r="N63" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>27603.027999999998</v>
+      </c>
+      <c r="P63" s="3">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-9796.9720000000016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>48</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="77">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="78">
+        <v>62770</v>
+      </c>
+      <c r="F64" s="5">
+        <v>4</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="3">
+        <v>84716</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>335796</v>
+      </c>
+      <c r="K64" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>32640.400000000001</v>
+      </c>
+      <c r="L64" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>8810.4639999999999</v>
+      </c>
+      <c r="M64" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>31080</v>
+      </c>
+      <c r="N64" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>2716</v>
+      </c>
+      <c r="O64" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>75246.864000000001</v>
+      </c>
+      <c r="P64" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>37846.864000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>49</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="77">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="78">
+        <v>42582</v>
+      </c>
+      <c r="F65" s="5">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H65" s="3">
+        <v>62487</v>
+      </c>
+      <c r="I65" s="5">
+        <v>2</v>
+      </c>
+      <c r="J65" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>337884</v>
+      </c>
+      <c r="K65" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>21844.565999999999</v>
+      </c>
+      <c r="L65" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>10685.277</v>
+      </c>
+      <c r="M65" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>27410</v>
+      </c>
+      <c r="N65" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>14974</v>
+      </c>
+      <c r="O65" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>74913.842999999993</v>
+      </c>
+      <c r="P65" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>37513.842999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>50</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="77">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="78">
+        <v>59416</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>118832</v>
+      </c>
+      <c r="K66" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>6060.4320000000007</v>
+      </c>
+      <c r="L66" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>8832</v>
+      </c>
+      <c r="N66" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>14892.432000000001</v>
+      </c>
+      <c r="P66" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-22507.567999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>51</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="77">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="78">
+        <v>42602</v>
+      </c>
+      <c r="F67" s="5">
+        <v>5</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>213010</v>
+      </c>
+      <c r="K67" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>34635.425999999999</v>
+      </c>
+      <c r="L67" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>27510</v>
+      </c>
+      <c r="N67" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>62145.425999999999</v>
+      </c>
+      <c r="P67" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>24745.425999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>52</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="77">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="78">
+        <v>825825</v>
+      </c>
+      <c r="F68" s="5">
+        <v>3</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H68" s="3">
+        <v>40101</v>
+      </c>
+      <c r="I68" s="5">
+        <v>5</v>
+      </c>
+      <c r="J68" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>2677980</v>
+      </c>
+      <c r="K68" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>437026.58999999997</v>
+      </c>
+      <c r="L68" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>35369.082000000002</v>
+      </c>
+      <c r="M68" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>-96525</v>
+      </c>
+      <c r="N68" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>15005</v>
+      </c>
+      <c r="O68" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>390875.67199999996</v>
+      </c>
+      <c r="P68" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>353475.67199999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>53</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="77">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="78">
+        <v>61467</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>61467</v>
+      </c>
+      <c r="K69" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>9097.1160000000018</v>
+      </c>
+      <c r="L69" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>6467</v>
+      </c>
+      <c r="N69" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>15564.116000000002</v>
+      </c>
+      <c r="P69" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-21835.883999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>54</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="77">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="78">
+        <v>119307</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" s="3">
+        <v>42570</v>
+      </c>
+      <c r="I70" s="5">
+        <v>3</v>
+      </c>
+      <c r="J70" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>247017</v>
+      </c>
+      <c r="K70" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>13672.582199999999</v>
+      </c>
+      <c r="L70" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>14635.565999999999</v>
+      </c>
+      <c r="M70" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>307</v>
+      </c>
+      <c r="N70" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>16410</v>
+      </c>
+      <c r="O70" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>45025.148199999996</v>
+      </c>
+      <c r="P70" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>7625.148199999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>55</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="77">
+        <v>1.61E-2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="3">
+        <v>61283</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>61283</v>
+      </c>
+      <c r="K71" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>4933.2815000000001</v>
+      </c>
+      <c r="L71" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>6283</v>
+      </c>
+      <c r="N71" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>11216.281500000001</v>
+      </c>
+      <c r="P71" s="3">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-26183.718499999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="24">
+        <v>56</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="45">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="39">
+        <v>84255</v>
+      </c>
+      <c r="F72" s="40">
+        <v>1</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" s="39">
+        <v>59249</v>
+      </c>
+      <c r="I72" s="40">
+        <v>1</v>
+      </c>
+      <c r="J72" s="38">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>143504</v>
+      </c>
+      <c r="K72" s="39">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>7380.7379999999994</v>
+      </c>
+      <c r="L72" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>6487.7654999999995</v>
+      </c>
+      <c r="M72" s="38">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>2255</v>
+      </c>
+      <c r="N72" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>4249</v>
+      </c>
+      <c r="O72" s="38">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>20372.503499999999</v>
+      </c>
+      <c r="P72" s="39">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-17027.496500000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>57</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="77">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="78">
+        <v>62381</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H73" s="3">
+        <v>41862</v>
+      </c>
+      <c r="I73" s="5">
+        <v>3</v>
+      </c>
+      <c r="J73" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>250348</v>
+      </c>
+      <c r="K73" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>9856.1980000000021</v>
+      </c>
+      <c r="L73" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>11905.552800000001</v>
+      </c>
+      <c r="M73" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>14762</v>
+      </c>
+      <c r="N73" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>14286</v>
+      </c>
+      <c r="O73" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>50809.750800000002</v>
+      </c>
+      <c r="P73" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>13409.750800000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>58</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="77">
+        <v>1.21E-2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="78">
+        <v>40404</v>
+      </c>
+      <c r="F74" s="5">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" s="3">
+        <v>121380</v>
+      </c>
+      <c r="I74" s="5">
+        <v>2</v>
+      </c>
+      <c r="J74" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>323568</v>
+      </c>
+      <c r="K74" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>5866.6607999999997</v>
+      </c>
+      <c r="L74" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>17624.376</v>
+      </c>
+      <c r="M74" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>6608</v>
+      </c>
+      <c r="N74" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>4760</v>
+      </c>
+      <c r="O74" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>34859.036800000002</v>
+      </c>
+      <c r="P74" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-2540.9631999999983</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>59</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="77">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="78">
+        <v>62536</v>
+      </c>
+      <c r="F75" s="5">
+        <v>4</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="3">
+        <v>41912</v>
+      </c>
+      <c r="I75" s="5">
+        <v>2</v>
+      </c>
+      <c r="J75" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>333968</v>
+      </c>
+      <c r="K75" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>14508.351999999999</v>
+      </c>
+      <c r="L75" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>5834.1503999999995</v>
+      </c>
+      <c r="M75" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>30144</v>
+      </c>
+      <c r="N75" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>9624</v>
+      </c>
+      <c r="O75" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>60110.502399999998</v>
+      </c>
+      <c r="P75" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>22710.502399999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>60</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="77">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="78">
+        <v>40580</v>
+      </c>
+      <c r="F76" s="5">
+        <v>4</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" s="3">
+        <v>59385</v>
+      </c>
+      <c r="I76" s="5">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>221705</v>
+      </c>
+      <c r="K76" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>19770.575999999997</v>
+      </c>
+      <c r="L76" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>6027.5774999999994</v>
+      </c>
+      <c r="M76" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>13920</v>
+      </c>
+      <c r="N76" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>4385</v>
+      </c>
+      <c r="O76" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>44103.1535</v>
+      </c>
+      <c r="P76" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>6703.1535000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>61</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="77">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="78">
+        <v>222195</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="78">
+        <v>117614</v>
+      </c>
+      <c r="I77" s="5">
+        <v>3</v>
+      </c>
+      <c r="J77" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>575037</v>
+      </c>
+      <c r="K77" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>19730.916000000001</v>
+      </c>
+      <c r="L77" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>46998.554400000001</v>
+      </c>
+      <c r="M77" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>-15805</v>
+      </c>
+      <c r="N77" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-4158</v>
+      </c>
+      <c r="O77" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>46766.470400000006</v>
+      </c>
+      <c r="P77" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>9366.4704000000056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>62</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="77">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="78">
+        <v>120518</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" s="78">
+        <v>40446</v>
+      </c>
+      <c r="I78" s="5">
+        <v>3</v>
+      </c>
+      <c r="J78" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>241856</v>
+      </c>
+      <c r="K78" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>15402.2004</v>
+      </c>
+      <c r="L78" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>15506.9964</v>
+      </c>
+      <c r="M78" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>1518</v>
+      </c>
+      <c r="N78" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>10038</v>
+      </c>
+      <c r="O78" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>42465.196799999998</v>
+      </c>
+      <c r="P78" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>5065.1967999999979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
+        <v>63</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="77">
+        <v>2.75E-2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="78">
+        <v>40932</v>
+      </c>
+      <c r="F79" s="5">
+        <v>2</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="78">
+        <v>59663</v>
+      </c>
+      <c r="I79" s="5">
+        <v>4</v>
+      </c>
+      <c r="J79" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>320516</v>
+      </c>
+      <c r="K79" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>13507.560000000001</v>
+      </c>
+      <c r="L79" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>32814.65</v>
+      </c>
+      <c r="M79" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>7664</v>
+      </c>
+      <c r="N79" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>18652</v>
+      </c>
+      <c r="O79" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>72638.210000000006</v>
+      </c>
+      <c r="P79" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>35238.210000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>64</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="77">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="78">
+        <v>40605</v>
+      </c>
+      <c r="F80" s="5">
+        <v>3</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="78">
+        <v>62919</v>
+      </c>
+      <c r="I80" s="5">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>184734</v>
+      </c>
+      <c r="K80" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>14910.156000000003</v>
+      </c>
+      <c r="L80" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>6417.7380000000003</v>
+      </c>
+      <c r="M80" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>10515</v>
+      </c>
+      <c r="N80" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>7919</v>
+      </c>
+      <c r="O80" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>39761.894</v>
+      </c>
+      <c r="P80" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>2361.8940000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>65</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="77">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="78">
+        <v>41913</v>
+      </c>
+      <c r="F81" s="5">
+        <v>2</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" s="78">
+        <v>59770</v>
+      </c>
+      <c r="I81" s="5">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>143596</v>
+      </c>
+      <c r="K81" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>9908.2332000000006</v>
+      </c>
+      <c r="L81" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>5887.3449999999993</v>
+      </c>
+      <c r="M81" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>9626</v>
+      </c>
+      <c r="N81" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>4770</v>
+      </c>
+      <c r="O81" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>30191.5782</v>
+      </c>
+      <c r="P81" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-7208.4218000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>66</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="77">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="78">
+        <v>59654</v>
+      </c>
+      <c r="F82" s="5">
+        <v>4</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" s="78">
+        <v>42145</v>
+      </c>
+      <c r="I82" s="5">
+        <v>3</v>
+      </c>
+      <c r="J82" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>365051</v>
+      </c>
+      <c r="K82" s="78">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>30662.155999999999</v>
+      </c>
+      <c r="L82" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>19496.277000000002</v>
+      </c>
+      <c r="M82" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>18616</v>
+      </c>
+      <c r="N82" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>15135</v>
+      </c>
+      <c r="O82" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>83909.433000000005</v>
+      </c>
+      <c r="P82" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>46509.433000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
+        <v>67</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="77">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="78">
+        <v>42232</v>
+      </c>
+      <c r="F83" s="5">
+        <v>3</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" s="78">
+        <v>61628</v>
+      </c>
+      <c r="I83" s="5">
+        <v>4</v>
+      </c>
+      <c r="J83" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>373208</v>
+      </c>
+      <c r="K83" s="78">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>17636.083199999997</v>
+      </c>
+      <c r="L83" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>28595.392</v>
+      </c>
+      <c r="M83" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>15396</v>
+      </c>
+      <c r="N83" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>26512</v>
+      </c>
+      <c r="O83" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>88139.475200000001</v>
+      </c>
+      <c r="P83" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>50739.475200000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>68</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="77">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="78">
+        <v>61156</v>
+      </c>
+      <c r="F84" s="5">
+        <v>2</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>122312</v>
+      </c>
+      <c r="K84" s="78">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>17123.68</v>
+      </c>
+      <c r="L84" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>12312</v>
+      </c>
+      <c r="N84" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>29435.68</v>
+      </c>
+      <c r="P84" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-7964.32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>69</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="77">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="78">
+        <v>85384</v>
+      </c>
+      <c r="F85" s="5">
+        <v>3</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="78">
+        <v>61275</v>
+      </c>
+      <c r="I85" s="5">
+        <v>2</v>
+      </c>
+      <c r="J85" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>378702</v>
+      </c>
+      <c r="K85" s="78">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>28484.102399999996</v>
+      </c>
+      <c r="L85" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>17034.45</v>
+      </c>
+      <c r="M85" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>10152</v>
+      </c>
+      <c r="N85" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>12550</v>
+      </c>
+      <c r="O85" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>68220.5524</v>
+      </c>
+      <c r="P85" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>30820.5524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>70</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="77">
+        <v>2.98E-2</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="78">
+        <v>42066</v>
+      </c>
+      <c r="F86" s="5">
+        <v>5</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>210330</v>
+      </c>
+      <c r="K86" s="78">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>37607.004000000001</v>
+      </c>
+      <c r="L86" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>24830</v>
+      </c>
+      <c r="N86" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>62437.004000000001</v>
+      </c>
+      <c r="P86" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>25037.004000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>71</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="77">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="78">
+        <v>42607</v>
+      </c>
+      <c r="F87" s="5">
+        <v>5</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" s="78">
+        <v>59386</v>
+      </c>
+      <c r="I87" s="5">
+        <v>3</v>
+      </c>
+      <c r="J87" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>391193</v>
+      </c>
+      <c r="K87" s="78">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>29910.113999999998</v>
+      </c>
+      <c r="L87" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>20844.486000000001</v>
+      </c>
+      <c r="M87" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>27535</v>
+      </c>
+      <c r="N87" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>13158</v>
+      </c>
+      <c r="O87" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>91447.6</v>
+      </c>
+      <c r="P87" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>54047.600000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>72</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="77">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="78">
+        <v>121779</v>
+      </c>
+      <c r="F88" s="5">
+        <v>2</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="78"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>243558</v>
+      </c>
+      <c r="K88" s="78">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>24989.050800000001</v>
+      </c>
+      <c r="L88" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>5558</v>
+      </c>
+      <c r="N88" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>30547.050800000001</v>
+      </c>
+      <c r="P88" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-6852.9491999999991</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>73</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="77">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" s="78">
+        <v>228495</v>
+      </c>
+      <c r="F89" s="5">
+        <v>3</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H89" s="78">
+        <v>62131</v>
+      </c>
+      <c r="I89" s="5">
+        <v>3</v>
+      </c>
+      <c r="J89" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>871878</v>
+      </c>
+      <c r="K89" s="78">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>49080.726000000002</v>
+      </c>
+      <c r="L89" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>16682.173500000001</v>
+      </c>
+      <c r="M89" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>-28515</v>
+      </c>
+      <c r="N89" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>21393</v>
+      </c>
+      <c r="O89" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>58640.8995</v>
+      </c>
+      <c r="P89" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>21240.8995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>74</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="77">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="78">
+        <v>40769</v>
+      </c>
+      <c r="F90" s="5">
+        <v>4</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" s="78">
+        <v>844341</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>1007417</v>
+      </c>
+      <c r="K90" s="78">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>17612.207999999999</v>
+      </c>
+      <c r="L90" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>91188.827999999994</v>
+      </c>
+      <c r="M90" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>14676</v>
+      </c>
+      <c r="N90" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-13659</v>
+      </c>
+      <c r="O90" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>109818.03599999999</v>
+      </c>
+      <c r="P90" s="78">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>72418.035999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
+        <v>75</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="37">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="3">
+        <v>62189</v>
+      </c>
+      <c r="F91" s="4">
+        <v>3</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H91" s="3">
+        <v>227496</v>
+      </c>
+      <c r="I91" s="4">
+        <v>3</v>
+      </c>
+      <c r="J91" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>869055</v>
+      </c>
+      <c r="K91" s="3">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>15298.494000000002</v>
+      </c>
+      <c r="L91" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>44771.212800000001</v>
+      </c>
+      <c r="M91" s="2">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>21567</v>
+      </c>
+      <c r="N91" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-31512</v>
+      </c>
+      <c r="O91" s="2">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>50124.7068</v>
+      </c>
+      <c r="P91" s="3">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>12724.7068</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="24">
+        <v>76</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="45">
+        <v>1.52E-2</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="39">
+        <v>62398</v>
+      </c>
+      <c r="F92" s="40">
+        <v>1</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="39">
+        <v>83725</v>
+      </c>
+      <c r="I92" s="40">
+        <v>3</v>
+      </c>
+      <c r="J92" s="38">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>313573</v>
+      </c>
+      <c r="K92" s="39">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>4742.2479999999996</v>
+      </c>
+      <c r="L92" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>15271.44</v>
+      </c>
+      <c r="M92" s="38">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>7398</v>
+      </c>
+      <c r="N92" s="39">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>5175</v>
+      </c>
+      <c r="O92" s="38">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>32586.688000000002</v>
+      </c>
+      <c r="P92" s="39">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>-4813.3119999999981</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>77</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="77"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="78"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="78"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="78" t="e">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L93" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="2" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N93" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O93" s="2" t="e">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P93" s="78" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>45</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
+        <v>78</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="77"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="78"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="78"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K61" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L61" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M61" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N61" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O61" s="3" t="str">
+      <c r="K94" s="78" t="e">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L94" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="2" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N94" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="2" t="e">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P94" s="78" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>46</v>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="13">
+        <v>79</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="77"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="78"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="78"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L62" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M62" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N62" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O62" s="3" t="str">
+      <c r="K95" s="78" t="e">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L95" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="2" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N95" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O95" s="2" t="e">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P95" s="78" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>47</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
+        <v>80</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="77"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="78"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="78"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K63" s="3" t="e">
-        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[QualityBonus]]*#REF!+Tabla22[[#This Row],[Base price2]]*#REF!*Tabla22[[#This Row],[QualityBonus]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L63" s="1" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]*(1+#REF!*Tabla22[[#This Row],[QualityBonus]])-#REF!)*Tabla22[[#This Row],[Req.]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M63" s="13" t="e">
-        <f>(Tabla22[[#This Row],[Base price2]]*(1+Tabla22[[#This Row],[QualityBonus]]*#REF!)-#REF!)*Tabla22[[#This Row],[Req.2]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N63" s="2" t="e">
-        <f>SUM(Tabla22[[#This Row],[p1]:[p2]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O63" s="3" t="str">
+      <c r="K96" s="78" t="e">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L96" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="2" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N96" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O96" s="2" t="e">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P96" s="78" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="13">
+        <v>81</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="77"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="78"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="78"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="78" t="e">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L97" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="2" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N97" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O97" s="2" t="e">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P97" s="78" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
+        <v>82</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="77"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="78"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="78"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="78" t="e">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L98" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="2" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N98" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="2" t="e">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P98" s="78" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="13">
+        <v>83</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="77"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="78"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="78"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="78" t="e">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L99" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="2" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N99" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O99" s="2" t="e">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P99" s="78" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
+        <v>84</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="78"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="78" t="e">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L100" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="2" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N100" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O100" s="2" t="e">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P100" s="78" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="13">
+        <v>85</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="77"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="78"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="78" t="e">
+        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L101" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="2" t="e">
+        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N101" s="3">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O101" s="2" t="e">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P101" s="78" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="N3:S3"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:O15"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="N3:U3"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:G10">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H10">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="G5:H10">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4285,7 +6943,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J10">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L10">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4304,8 +6982,58 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J10">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="P5:Q10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F10">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4315,7 +7043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O10">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4324,8 +7052,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P10">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="P17:P101">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H10">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4335,46 +7068,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q10">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R10">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F10">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4384,20 +7077,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H61:H63">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 B17:B63">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 B17:B101">
       <formula1>$B$10:$B$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D63 G17:G63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D101 G17:G101">
       <formula1>$E$5:$E$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4450,33 +7141,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="77" t="s">
+      <c r="V5" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="78"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="75"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -6817,33 +9508,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="77" t="s">
+      <c r="I30" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="78"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="75"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="77" t="s">
+      <c r="V30" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="78"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="75"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
@@ -8946,7 +11637,7 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8956,14 +11647,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -8989,7 +11680,7 @@
       </c>
       <c r="M2" s="59">
         <f>Archive!G11</f>
-        <v>4.7058823529411766</v>
+        <v>4.6842105263157894</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -9304,27 +11995,27 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <f t="shared" ref="B18:G18" si="2">B16*$M$2*$M$3</f>
-        <v>26.460568156498692</v>
+        <v>26.338710276830604</v>
       </c>
       <c r="C18" s="25">
         <f t="shared" si="2"/>
-        <v>16.247635042456544</v>
+        <v>16.172810407392596</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="2"/>
-        <v>10.857811475694868</v>
+        <v>10.807808396530485</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>7.5092763004529637</v>
+        <v>7.4746941069640354</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="2"/>
-        <v>3.7754188663401345</v>
+        <v>3.7580320689293574</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="2"/>
-        <v>1.0316430997332702</v>
+        <v>1.0268921117739722</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -9333,27 +12024,27 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <f>B18/2</f>
-        <v>13.230284078249346</v>
+        <v>13.169355138415302</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" ref="C19:F19" si="3">C18/2</f>
-        <v>8.1238175212282719</v>
+        <v>8.0864052036962981</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="3"/>
-        <v>5.4289057378474341</v>
+        <v>5.4039041982652423</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="3"/>
-        <v>3.7546381502264818</v>
+        <v>3.7373470534820177</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="3"/>
-        <v>1.8877094331700672</v>
+        <v>1.8790160344646787</v>
       </c>
       <c r="G19" s="25">
         <f>G18/2</f>
-        <v>0.51582154986663509</v>
+        <v>0.51344605588698611</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -9385,7 +12076,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -9414,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="82">
   <si>
     <t>QualityBonus</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Avg profit-w</t>
   </si>
   <si>
-    <t>TOTAL PROFIT (no wages, no admin costs)</t>
-  </si>
-  <si>
     <t>Product2</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>Prob</t>
+  </si>
+  <si>
+    <t>P_T</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -604,26 +604,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -631,7 +611,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -711,15 +691,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,6 +702,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -741,6 +713,13 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -748,7 +727,48 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -906,18 +926,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -936,23 +944,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1156,41 +1147,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A16:P101" totalsRowShown="0">
-  <autoFilter ref="A16:P101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A16:P104" totalsRowShown="0">
+  <autoFilter ref="A16:P104"/>
   <sortState ref="A17:R63">
     <sortCondition ref="A16:A63"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" name="No."/>
     <tableColumn id="23" name="Economy "/>
-    <tableColumn id="2" name="QualityBonus" dataDxfId="24" dataCellStyle="Porcentaje"/>
-    <tableColumn id="3" name="Product" dataDxfId="23" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="Base price1" dataDxfId="22" dataCellStyle="Moneda"/>
-    <tableColumn id="24" name="Req." dataDxfId="21" dataCellStyle="Millares"/>
-    <tableColumn id="18" name="Product2" dataDxfId="20" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Base price2" dataDxfId="15" dataCellStyle="Moneda"/>
-    <tableColumn id="35" name="Req.2" dataDxfId="14" dataCellStyle="Millares"/>
-    <tableColumn id="12" name="Order price" dataDxfId="10" dataCellStyle="Moneda">
+    <tableColumn id="2" name="QualityBonus" dataDxfId="25" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" name="Product" dataDxfId="24" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Base price1" dataDxfId="23" dataCellStyle="Moneda"/>
+    <tableColumn id="24" name="Req." dataDxfId="22" dataCellStyle="Millares"/>
+    <tableColumn id="18" name="Product2" dataDxfId="21" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Base price2" dataDxfId="16" dataCellStyle="Moneda"/>
+    <tableColumn id="35" name="Req.2" dataDxfId="15" dataCellStyle="Millares"/>
+    <tableColumn id="12" name="Order price" dataDxfId="12" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Bonus1" dataDxfId="13" dataCellStyle="Moneda">
-      <calculatedColumnFormula>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
+    <tableColumn id="4" name="Bonus1" dataDxfId="2" dataCellStyle="Moneda">
+      <calculatedColumnFormula>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Bonus2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="p1" dataDxfId="9" dataCellStyle="Moneda">
-      <calculatedColumnFormula>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</calculatedColumnFormula>
+    <tableColumn id="10" name="p1" dataDxfId="1" dataCellStyle="Moneda">
+      <calculatedColumnFormula>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="p2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="TOTAL PROFIT (no wages, no admin costs)" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="30" name="P_T" dataDxfId="11" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="36" name="profit -wages" dataCellStyle="Moneda">
-      <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1198,35 +1189,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7">
   <autoFilter ref="R17:T23"/>
   <sortState ref="T18:V23">
     <sortCondition ref="T17:T23"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Goods sold" dataDxfId="7"/>
-    <tableColumn id="2" name="COGS" dataDxfId="6"/>
-    <tableColumn id="3" name="Q" dataDxfId="5"/>
+    <tableColumn id="1" name="Goods sold" dataDxfId="10"/>
+    <tableColumn id="2" name="COGS" dataDxfId="9"/>
+    <tableColumn id="3" name="Q" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="19" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="20" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="18" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="19" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="17" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="18" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="16" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="17" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1497,27 +1488,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z101"/>
+  <dimension ref="A2:Z104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1530,7 +1521,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M2" s="46"/>
       <c r="N2" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O2" s="60" t="s">
         <v>13</v>
@@ -1541,32 +1532,32 @@
       <c r="S2" s="46"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F3" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="N3" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
+      <c r="F3" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="N3" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="36">
-        <v>37400</v>
+        <v>43000</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="55" t="s">
@@ -1576,13 +1567,13 @@
         <v>60</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>61</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="55" t="s">
         <v>63</v>
@@ -1598,13 +1589,13 @@
         <v>60</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R4" s="55" t="s">
         <v>61</v>
       </c>
       <c r="S4" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T4" s="55" t="s">
         <v>63</v>
@@ -1627,7 +1618,7 @@
         <f>F5/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="79">
         <f>G5/$G$11</f>
         <v>1.1235955056179775E-2</v>
       </c>
@@ -1640,12 +1631,12 @@
         <v>835083</v>
       </c>
       <c r="K5" s="23">
-        <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E5,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[P_T])+SUMIF(Tabla22[Product2],E5,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
         <v>250346.85399999999</v>
       </c>
       <c r="L5" s="42">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E5,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>212946.85399999999</v>
+        <v>207346.85399999999</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>27</v>
@@ -1656,7 +1647,7 @@
       </c>
       <c r="P5" s="47">
         <f>IFERROR(O5/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>4.7058823529411764E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="Q5" s="37">
         <f>P5/$P$11</f>
@@ -1671,12 +1662,12 @@
         <v>835083</v>
       </c>
       <c r="T5" s="23">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>250346.85399999999</v>
       </c>
       <c r="U5" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>212946.85399999999</v>
+        <v>207346.85399999999</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="46"/>
@@ -1693,7 +1684,7 @@
         <f>F6/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0.11842105263157894</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="79">
         <f t="shared" ref="H6:H10" si="0">G6/$G$11</f>
         <v>2.5280898876404494E-2</v>
       </c>
@@ -1706,12 +1697,12 @@
         <v>226108</v>
       </c>
       <c r="K6" s="3">
-        <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E6,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[P_T])+SUMIF(Tabla22[Product2],E6,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
         <v>54273.788524999996</v>
       </c>
       <c r="L6" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E6,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>16873.788525000004</v>
+        <v>11273.788525000004</v>
       </c>
       <c r="N6" s="61" t="s">
         <v>57</v>
@@ -1722,11 +1713,11 @@
       </c>
       <c r="P6" s="47">
         <f>IFERROR(O6/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.10588235294117647</v>
+        <v>0.10227272727272728</v>
       </c>
       <c r="Q6" s="37">
         <f t="shared" ref="Q6:Q10" si="1">P6/$P$11</f>
-        <v>2.5280898876404497E-2</v>
+        <v>2.5280898876404501E-2</v>
       </c>
       <c r="R6" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
@@ -1737,12 +1728,12 @@
         <v>226108</v>
       </c>
       <c r="T6" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>54273.788524999996</v>
       </c>
       <c r="U6" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>16873.788525000004</v>
+        <v>11273.788525000004</v>
       </c>
       <c r="Y6" s="46"/>
       <c r="Z6" s="46"/>
@@ -1759,7 +1750,7 @@
         <f>F7/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="79">
         <f t="shared" si="0"/>
         <v>0.11235955056179775</v>
       </c>
@@ -1772,12 +1763,12 @@
         <v>120382.25</v>
       </c>
       <c r="K7" s="3">
-        <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E7,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[P_T])+SUMIF(Tabla22[Product2],E7,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
         <v>53608.653904999999</v>
       </c>
       <c r="L7" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>16208.653905000003</v>
+        <v>10608.653905000001</v>
       </c>
       <c r="N7" s="61" t="s">
         <v>53</v>
@@ -1788,7 +1779,7 @@
       </c>
       <c r="P7" s="47">
         <f>IFERROR(O7/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.47058823529411764</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="Q7" s="37">
         <f t="shared" si="1"/>
@@ -1803,12 +1794,12 @@
         <v>120382.25</v>
       </c>
       <c r="T7" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>53608.653904999999</v>
       </c>
       <c r="U7" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>16208.653905000003</v>
+        <v>10608.653905000001</v>
       </c>
       <c r="Y7" s="46"/>
       <c r="Z7" s="46"/>
@@ -1825,7 +1816,7 @@
         <f>F8/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="79">
         <f t="shared" si="0"/>
         <v>0.10112359550561797</v>
       </c>
@@ -1838,12 +1829,12 @@
         <v>84606.2</v>
       </c>
       <c r="K8" s="3">
-        <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E8,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[P_T])+SUMIF(Tabla22[Product2],E8,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
         <v>64241.802946666678</v>
       </c>
       <c r="L8" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>26841.802946666667</v>
+        <v>21241.802946666667</v>
       </c>
       <c r="N8" s="61" t="s">
         <v>58</v>
@@ -1854,11 +1845,11 @@
       </c>
       <c r="P8" s="47">
         <f>IFERROR(O8/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.42352941176470588</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.10112359550561799</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="R8" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
@@ -1869,19 +1860,19 @@
         <v>84606.2</v>
       </c>
       <c r="T8" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>64241.802946666678</v>
       </c>
       <c r="U8" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>26841.802946666667</v>
+        <v>21241.802946666667</v>
       </c>
       <c r="Y8" s="46"/>
       <c r="Z8" s="46"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>55</v>
@@ -1894,7 +1885,7 @@
         <f>F9/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>1.381578947368421</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="79">
         <f t="shared" si="0"/>
         <v>0.2949438202247191</v>
       </c>
@@ -1907,12 +1898,12 @@
         <v>61455.022222222222</v>
       </c>
       <c r="K9" s="3">
-        <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E9,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[P_T])+SUMIF(Tabla22[Product2],E9,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
         <v>52889.740973333341</v>
       </c>
       <c r="L9" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E9,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>15489.740973333337</v>
+        <v>9889.7409733333334</v>
       </c>
       <c r="N9" s="61" t="s">
         <v>55</v>
@@ -1923,11 +1914,11 @@
       </c>
       <c r="P9" s="47">
         <f>IFERROR(O9/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>1.2352941176470589</v>
+        <v>1.1931818181818181</v>
       </c>
       <c r="Q9" s="37">
         <f t="shared" si="1"/>
-        <v>0.29494382022471916</v>
+        <v>0.2949438202247191</v>
       </c>
       <c r="R9" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
@@ -1938,19 +1929,19 @@
         <v>61455.022222222222</v>
       </c>
       <c r="T9" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>52889.740973333341</v>
       </c>
       <c r="U9" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>15489.740973333337</v>
+        <v>9889.7409733333334</v>
       </c>
       <c r="Y9" s="46"/>
       <c r="Z9" s="46"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>54</v>
@@ -1963,7 +1954,7 @@
         <f>F10/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>2.1315789473684212</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="79">
         <f t="shared" si="0"/>
         <v>0.45505617977528096</v>
       </c>
@@ -1976,12 +1967,12 @@
         <v>41497.755555555559</v>
       </c>
       <c r="K10" s="39">
-        <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)])+SUMIF(Tabla22[Product2],E10,Tabla22[TOTAL PROFIT (no wages, no admin costs)]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[P_T])+SUMIF(Tabla22[Product2],E10,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
         <v>68111.238277777782</v>
       </c>
       <c r="L10" s="44">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E10,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>30711.238277777771</v>
+        <v>25111.238277777775</v>
       </c>
       <c r="N10" s="62" t="s">
         <v>54</v>
@@ -1992,7 +1983,7 @@
       </c>
       <c r="P10" s="48">
         <f>IFERROR(O10/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>1.9058823529411764</v>
+        <v>1.8409090909090908</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="1"/>
@@ -2007,12 +1998,12 @@
         <v>41497.755555555559</v>
       </c>
       <c r="T10" s="39">
-        <f>IFERROR((SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>68111.238277777782</v>
       </c>
       <c r="U10" s="44">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>30711.238277777771</v>
+        <v>25111.238277777775</v>
       </c>
       <c r="Y10" s="46"/>
       <c r="Z10" s="46"/>
@@ -2032,7 +2023,7 @@
         <f>SUM(G5:G10)</f>
         <v>4.6842105263157894</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="80">
         <f>SUM(H5:H10)</f>
         <v>1</v>
       </c>
@@ -2045,12 +2036,12 @@
         <v>74190.536329588023</v>
       </c>
       <c r="K11" s="39">
-        <f>AVERAGEIF(Tabla22[TOTAL PROFIT (no wages, no admin costs)],"&gt;0")</f>
+        <f>AVERAGEIF(Tabla22[P_T],"&gt;0")</f>
         <v>58336.130084210527</v>
       </c>
       <c r="L11" s="58">
         <f>AVERAGE(Tabla22[profit -wages])</f>
-        <v>20936.130084210534</v>
+        <v>15336.130084210532</v>
       </c>
       <c r="M11" s="53"/>
       <c r="N11" s="51" t="s">
@@ -2062,9 +2053,9 @@
       </c>
       <c r="P11" s="48">
         <f>SUM(P5:P10)</f>
-        <v>4.1882352941176464</v>
-      </c>
-      <c r="Q11" s="82">
+        <v>4.045454545454545</v>
+      </c>
+      <c r="Q11" s="80">
         <f>SUM(Q5:Q10)</f>
         <v>1.0000000000000002</v>
       </c>
@@ -2077,19 +2068,19 @@
         <v>74190.536329588023</v>
       </c>
       <c r="T11" s="39">
-        <f>IFERROR(AVERAGEIFS(Tabla22[TOTAL PROFIT (no wages, no admin costs)],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0</v>
+        <f>IFERROR(AVERAGEIFS(Tabla22[P_T],Tabla22[[Economy ]],$O$2),0)</f>
+        <v>50381.203254545457</v>
       </c>
       <c r="U11" s="58">
         <f>IFERROR(AVERAGEIFS(Tabla22[profit -wages],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>20936.130084210534</v>
+        <v>15336.130084210532</v>
       </c>
       <c r="Y11" s="46"/>
       <c r="Z11" s="46"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S12" s="46"/>
       <c r="T12" s="46"/>
@@ -2123,15 +2114,15 @@
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="69"/>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="46"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
@@ -2159,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>3</v>
@@ -2168,13 +2159,13 @@
         <v>5</v>
       </c>
       <c r="J16" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>51</v>
@@ -2183,7 +2174,7 @@
         <v>52</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s">
         <v>20</v>
@@ -2227,7 +2218,7 @@
         <v>313724</v>
       </c>
       <c r="K17" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21729.668400000002</v>
       </c>
       <c r="L17" s="3">
@@ -2235,7 +2226,7 @@
         <v>27538.785</v>
       </c>
       <c r="M17" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5454</v>
       </c>
       <c r="N17" s="3">
@@ -2247,17 +2238,17 @@
         <v>78992.453399999999</v>
       </c>
       <c r="P17" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>41592.453399999999</v>
-      </c>
-      <c r="R17" s="80" t="s">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>35992.453399999999</v>
+      </c>
+      <c r="R17" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="78" t="s">
         <v>77</v>
-      </c>
-      <c r="S17" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="80" t="s">
-        <v>78</v>
       </c>
       <c r="U17" s="46"/>
       <c r="V17" s="46"/>
@@ -2295,7 +2286,7 @@
         <v>416796</v>
       </c>
       <c r="K18" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14108.670399999999</v>
       </c>
       <c r="L18" s="3">
@@ -2303,7 +2294,7 @@
         <v>25919.343999999997</v>
       </c>
       <c r="M18" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4764</v>
       </c>
       <c r="N18" s="3">
@@ -2315,16 +2306,16 @@
         <v>72824.0144</v>
       </c>
       <c r="P18" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>35424.0144</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>29824.0144</v>
       </c>
       <c r="R18" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="79">
+      <c r="S18" s="77">
         <v>858000</v>
       </c>
-      <c r="T18" s="79">
+      <c r="T18" s="77">
         <v>6</v>
       </c>
       <c r="U18" s="46"/>
@@ -2363,7 +2354,7 @@
         <v>332955</v>
       </c>
       <c r="K19" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9320.7659999999996</v>
       </c>
       <c r="L19" s="3">
@@ -2371,7 +2362,7 @@
         <v>33797.4</v>
       </c>
       <c r="M19" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>3355</v>
       </c>
       <c r="N19" s="3">
@@ -2383,16 +2374,16 @@
         <v>74073.165999999997</v>
       </c>
       <c r="P19" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>36673.165999999997</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>31073.165999999997</v>
       </c>
       <c r="R19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="79">
+      <c r="S19" s="77">
         <v>238000</v>
       </c>
-      <c r="T19" s="79">
+      <c r="T19" s="77">
         <v>4</v>
       </c>
       <c r="U19" s="46"/>
@@ -2425,7 +2416,7 @@
         <v>179289</v>
       </c>
       <c r="K20" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26176.193999999996</v>
       </c>
       <c r="L20" s="3">
@@ -2433,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14289</v>
       </c>
       <c r="N20" s="3">
@@ -2445,16 +2436,16 @@
         <v>40465.193999999996</v>
       </c>
       <c r="P20" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>3065.1939999999959</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-2534.8060000000041</v>
       </c>
       <c r="R20" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="79">
+      <c r="S20" s="77">
         <v>82000</v>
       </c>
-      <c r="T20" s="79">
+      <c r="T20" s="77">
         <v>4</v>
       </c>
       <c r="U20" s="46"/>
@@ -2493,7 +2484,7 @@
         <v>244351</v>
       </c>
       <c r="K21" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>16229.271000000001</v>
       </c>
       <c r="L21" s="3">
@@ -2501,7 +2492,7 @@
         <v>13720.744000000001</v>
       </c>
       <c r="M21" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>2295</v>
       </c>
       <c r="N21" s="3">
@@ -2513,16 +2504,16 @@
         <v>45301.014999999999</v>
       </c>
       <c r="P21" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>7901.0149999999994</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>2301.0149999999994</v>
       </c>
       <c r="R21" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="79">
+      <c r="S21" s="77">
         <v>55000</v>
       </c>
-      <c r="T21" s="79">
+      <c r="T21" s="77">
         <v>5</v>
       </c>
       <c r="U21" s="46"/>
@@ -2561,7 +2552,7 @@
         <v>202985</v>
       </c>
       <c r="K22" s="39">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11918.709000000001</v>
       </c>
       <c r="L22" s="39">
@@ -2569,7 +2560,7 @@
         <v>8176.8060000000005</v>
       </c>
       <c r="M22" s="38">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>1391</v>
       </c>
       <c r="N22" s="39">
@@ -2581,16 +2572,16 @@
         <v>29880.514999999999</v>
       </c>
       <c r="P22" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-7519.4850000000006</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-13119.485000000001</v>
       </c>
       <c r="R22" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="79">
+      <c r="S22" s="77">
         <v>37100</v>
       </c>
-      <c r="T22" s="79">
+      <c r="T22" s="77">
         <v>6</v>
       </c>
       <c r="U22" s="46"/>
@@ -2623,7 +2614,7 @@
         <v>178722</v>
       </c>
       <c r="K23" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24752.996999999999</v>
       </c>
       <c r="L23" s="3">
@@ -2631,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13722</v>
       </c>
       <c r="N23" s="3">
@@ -2643,16 +2634,16 @@
         <v>38474.997000000003</v>
       </c>
       <c r="P23" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>1074.997000000003</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-4525.002999999997</v>
       </c>
       <c r="R23" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="79">
+      <c r="S23" s="77">
         <v>119000</v>
       </c>
-      <c r="T23" s="79">
+      <c r="T23" s="77">
         <v>6</v>
       </c>
       <c r="U23" s="46"/>
@@ -2691,7 +2682,7 @@
         <v>463221</v>
       </c>
       <c r="K24" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24691.350000000002</v>
       </c>
       <c r="L24" s="3">
@@ -2699,7 +2690,7 @@
         <v>24356.312000000002</v>
       </c>
       <c r="M24" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26625</v>
       </c>
       <c r="N24" s="3">
@@ -2711,8 +2702,8 @@
         <v>106768.66200000001</v>
       </c>
       <c r="P24" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>69368.662000000011</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>63768.662000000011</v>
       </c>
       <c r="R24" s="46"/>
       <c r="S24" s="46"/>
@@ -2747,7 +2738,7 @@
         <v>62463</v>
       </c>
       <c r="K25" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9182.0609999999997</v>
       </c>
       <c r="L25" s="3">
@@ -2755,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7463</v>
       </c>
       <c r="N25" s="3">
@@ -2767,8 +2758,8 @@
         <v>16645.061000000002</v>
       </c>
       <c r="P25" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-20754.938999999998</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-26354.938999999998</v>
       </c>
       <c r="R25" s="46"/>
       <c r="S25" s="46"/>
@@ -2809,7 +2800,7 @@
         <v>306761</v>
       </c>
       <c r="K26" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4262.9625000000005</v>
       </c>
       <c r="L26" s="3">
@@ -2817,7 +2808,7 @@
         <v>19732.085999999999</v>
       </c>
       <c r="M26" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8155</v>
       </c>
       <c r="N26" s="3">
@@ -2829,8 +2820,8 @@
         <v>37756.048500000004</v>
       </c>
       <c r="P26" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>356.04850000000442</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-5243.9514999999956</v>
       </c>
       <c r="R26" s="46"/>
       <c r="S26" s="46"/>
@@ -2871,7 +2862,7 @@
         <v>306654</v>
       </c>
       <c r="K27" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>28764.254399999998</v>
       </c>
       <c r="L27" s="3">
@@ -2879,7 +2870,7 @@
         <v>6081.88</v>
       </c>
       <c r="M27" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6594</v>
       </c>
       <c r="N27" s="3">
@@ -2891,8 +2882,8 @@
         <v>48500.134399999995</v>
       </c>
       <c r="P27" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>11100.134399999995</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>5500.1343999999954</v>
       </c>
       <c r="R27" s="46"/>
       <c r="S27" s="46"/>
@@ -2927,7 +2918,7 @@
         <v>84120</v>
       </c>
       <c r="K28" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>10144.871999999999</v>
       </c>
       <c r="L28" s="3">
@@ -2935,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9920</v>
       </c>
       <c r="N28" s="3">
@@ -2947,8 +2938,8 @@
         <v>20064.871999999999</v>
       </c>
       <c r="P28" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-17335.128000000001</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-22935.128000000001</v>
       </c>
       <c r="R28" s="46"/>
       <c r="S28" s="46"/>
@@ -2989,7 +2980,7 @@
         <v>512699</v>
       </c>
       <c r="K29" s="39">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>16260.6</v>
       </c>
       <c r="L29" s="39">
@@ -2997,7 +2988,7 @@
         <v>11205.238499999999</v>
       </c>
       <c r="M29" s="38">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>2500</v>
       </c>
       <c r="N29" s="39">
@@ -3009,8 +3000,8 @@
         <v>47164.838499999998</v>
       </c>
       <c r="P29" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>9764.838499999998</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>4164.838499999998</v>
       </c>
       <c r="R29" s="46"/>
       <c r="S29" s="46"/>
@@ -3051,7 +3042,7 @@
         <v>660840</v>
       </c>
       <c r="K30" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>70806.528000000006</v>
       </c>
       <c r="L30" s="3">
@@ -3059,7 +3050,7 @@
         <v>16236.288</v>
       </c>
       <c r="M30" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15712</v>
       </c>
       <c r="N30" s="3">
@@ -3071,8 +3062,8 @@
         <v>107882.81600000001</v>
       </c>
       <c r="P30" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>70482.816000000006</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>64882.816000000006</v>
       </c>
       <c r="R30" s="46"/>
       <c r="S30" s="46"/>
@@ -3113,7 +3104,7 @@
         <v>141919</v>
       </c>
       <c r="K31" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6554.1336000000001</v>
       </c>
       <c r="L31" s="3">
@@ -3121,7 +3112,7 @@
         <v>3975.8354999999997</v>
       </c>
       <c r="M31" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7932</v>
       </c>
       <c r="N31" s="3">
@@ -3133,8 +3124,8 @@
         <v>23248.969100000002</v>
       </c>
       <c r="P31" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-14151.030899999998</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-19751.030899999998</v>
       </c>
       <c r="R31" s="46"/>
       <c r="S31" s="46"/>
@@ -3175,7 +3166,7 @@
         <v>443847</v>
       </c>
       <c r="K32" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>23384.703000000001</v>
       </c>
       <c r="L32" s="3">
@@ -3183,7 +3174,7 @@
         <v>27480.163199999999</v>
       </c>
       <c r="M32" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18555</v>
       </c>
       <c r="N32" s="3">
@@ -3195,8 +3186,8 @@
         <v>71211.866200000004</v>
       </c>
       <c r="P32" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>33811.866200000004</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>28211.866200000004</v>
       </c>
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
@@ -3237,7 +3228,7 @@
         <v>184408</v>
       </c>
       <c r="K33" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18640.736399999998</v>
       </c>
       <c r="L33" s="3">
@@ -3245,7 +3236,7 @@
         <v>7793.665</v>
       </c>
       <c r="M33" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>3798</v>
       </c>
       <c r="N33" s="3">
@@ -3257,8 +3248,8 @@
         <v>36842.401400000002</v>
       </c>
       <c r="P33" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-557.59859999999753</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-6157.5985999999975</v>
       </c>
       <c r="S33" s="46"/>
       <c r="T33" s="46"/>
@@ -3298,7 +3289,7 @@
         <v>526494</v>
       </c>
       <c r="K34" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>10242.902400000001</v>
       </c>
       <c r="L34" s="3">
@@ -3306,7 +3297,7 @@
         <v>31388.313600000001</v>
       </c>
       <c r="M34" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9022</v>
       </c>
       <c r="N34" s="3">
@@ -3318,8 +3309,8 @@
         <v>47125.216</v>
       </c>
       <c r="P34" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>9725.2160000000003</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>4125.2160000000003</v>
       </c>
       <c r="S34" s="46"/>
       <c r="T34" s="46"/>
@@ -3359,7 +3350,7 @@
         <v>286699</v>
       </c>
       <c r="K35" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>23339.889600000002</v>
       </c>
       <c r="L35" s="3">
@@ -3367,7 +3358,7 @@
         <v>16740.6306</v>
       </c>
       <c r="M35" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18552</v>
       </c>
       <c r="N35" s="3">
@@ -3379,8 +3370,8 @@
         <v>59379.520199999999</v>
       </c>
       <c r="P35" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>21979.520199999999</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>16379.520199999999</v>
       </c>
       <c r="S35" s="46"/>
       <c r="T35" s="46"/>
@@ -3420,7 +3411,7 @@
         <v>330905</v>
       </c>
       <c r="K36" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26035.424999999999</v>
       </c>
       <c r="L36" s="3">
@@ -3428,7 +3419,7 @@
         <v>12552.48</v>
       </c>
       <c r="M36" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24125</v>
       </c>
       <c r="N36" s="3">
@@ -3440,8 +3431,8 @@
         <v>73992.904999999999</v>
       </c>
       <c r="P36" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>36592.904999999999</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>30992.904999999999</v>
       </c>
       <c r="S36" s="46"/>
       <c r="T36" s="46"/>
@@ -3481,7 +3472,7 @@
         <v>272625</v>
       </c>
       <c r="K37" s="39">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9006.2279999999992</v>
       </c>
       <c r="L37" s="39">
@@ -3489,7 +3480,7 @@
         <v>25546.59</v>
       </c>
       <c r="M37" s="38">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>1391</v>
       </c>
       <c r="N37" s="39">
@@ -3501,8 +3492,8 @@
         <v>60177.817999999999</v>
       </c>
       <c r="P37" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>22777.817999999999</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>17177.817999999999</v>
       </c>
       <c r="S37" s="46"/>
       <c r="T37" s="46"/>
@@ -3542,7 +3533,7 @@
         <v>288860</v>
       </c>
       <c r="K38" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7967.7440000000006</v>
       </c>
       <c r="L38" s="3">
@@ -3550,7 +3541,7 @@
         <v>12623.155200000001</v>
       </c>
       <c r="M38" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14496</v>
       </c>
       <c r="N38" s="3">
@@ -3562,8 +3553,8 @@
         <v>51050.8992</v>
       </c>
       <c r="P38" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>13650.8992</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>8050.8991999999998</v>
       </c>
       <c r="S38" s="46"/>
       <c r="T38" s="46"/>
@@ -3603,7 +3594,7 @@
         <v>391747</v>
       </c>
       <c r="K39" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>25170.516000000003</v>
       </c>
       <c r="L39" s="3">
@@ -3611,7 +3602,7 @@
         <v>32318.201999999997</v>
       </c>
       <c r="M39" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24252</v>
       </c>
       <c r="N39" s="3">
@@ -3623,8 +3614,8 @@
         <v>98735.717999999993</v>
       </c>
       <c r="P39" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>61335.717999999993</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>55735.717999999993</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -3660,7 +3651,7 @@
         <v>652877</v>
       </c>
       <c r="K40" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>42172.254400000005</v>
       </c>
       <c r="L40" s="3">
@@ -3668,7 +3659,7 @@
         <v>28013.823</v>
       </c>
       <c r="M40" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-23508</v>
       </c>
       <c r="N40" s="3">
@@ -3680,8 +3671,8 @@
         <v>61563.077400000009</v>
       </c>
       <c r="P40" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>24163.077400000009</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>18563.077400000009</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -3717,7 +3708,7 @@
         <v>378633</v>
       </c>
       <c r="K41" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>20323.029600000002</v>
       </c>
       <c r="L41" s="3">
@@ -3725,7 +3716,7 @@
         <v>27040.771199999999</v>
       </c>
       <c r="M41" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15087</v>
       </c>
       <c r="N41" s="3">
@@ -3737,8 +3728,8 @@
         <v>68696.800799999997</v>
       </c>
       <c r="P41" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>31296.800799999997</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>25696.800799999997</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3774,7 +3765,7 @@
         <v>388230</v>
       </c>
       <c r="K42" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>35145.512999999999</v>
       </c>
       <c r="L42" s="3">
@@ -3782,7 +3773,7 @@
         <v>25258.387500000001</v>
       </c>
       <c r="M42" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>22955</v>
       </c>
       <c r="N42" s="3">
@@ -3794,8 +3785,8 @@
         <v>98133.900500000003</v>
       </c>
       <c r="P42" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>60733.900500000003</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>55133.900500000003</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -3825,7 +3816,7 @@
         <v>170320</v>
       </c>
       <c r="K43" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>25854.575999999997</v>
       </c>
       <c r="L43" s="3">
@@ -3833,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21920</v>
       </c>
       <c r="N43" s="3">
@@ -3845,8 +3836,8 @@
         <v>47774.576000000001</v>
       </c>
       <c r="P43" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>10374.576000000001</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>4774.5760000000009</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -3882,7 +3873,7 @@
         <v>457412</v>
       </c>
       <c r="K44" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14604.408000000001</v>
       </c>
       <c r="L44" s="3">
@@ -3890,7 +3881,7 @@
         <v>14588.262000000001</v>
       </c>
       <c r="M44" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>22540</v>
       </c>
       <c r="N44" s="3">
@@ -3902,8 +3893,8 @@
         <v>81104.67</v>
       </c>
       <c r="P44" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>43704.67</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>38104.67</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3933,7 +3924,7 @@
         <v>212225</v>
       </c>
       <c r="K45" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>33107.1</v>
       </c>
       <c r="L45" s="3">
@@ -3941,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26725</v>
       </c>
       <c r="N45" s="3">
@@ -3953,8 +3944,8 @@
         <v>59832.1</v>
       </c>
       <c r="P45" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>22432.1</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>16832.099999999999</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3990,7 +3981,7 @@
         <v>447172</v>
       </c>
       <c r="K46" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11154.184799999999</v>
       </c>
       <c r="L46" s="3">
@@ -3998,7 +3989,7 @@
         <v>49482.338399999993</v>
       </c>
       <c r="M46" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8058</v>
       </c>
       <c r="N46" s="3">
@@ -4010,8 +4001,8 @@
         <v>76608.523199999996</v>
       </c>
       <c r="P46" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>39208.523199999996</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>33608.523199999996</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -4047,7 +4038,7 @@
         <v>184008</v>
       </c>
       <c r="K47" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9020.3040000000019</v>
       </c>
       <c r="L47" s="3">
@@ -4055,7 +4046,7 @@
         <v>21855.456000000002</v>
       </c>
       <c r="M47" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5948</v>
       </c>
       <c r="N47" s="3">
@@ -4067,8 +4058,8 @@
         <v>48583.76</v>
       </c>
       <c r="P47" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>11183.760000000002</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>5583.760000000002</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -4104,7 +4095,7 @@
         <v>477379</v>
       </c>
       <c r="K48" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>37301.615999999995</v>
       </c>
       <c r="L48" s="3">
@@ -4112,7 +4103,7 @@
         <v>10924.672</v>
       </c>
       <c r="M48" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-3765</v>
       </c>
       <c r="N48" s="3">
@@ -4124,8 +4115,8 @@
         <v>58605.287999999993</v>
       </c>
       <c r="P48" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>21205.287999999993</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>15605.287999999993</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -4155,7 +4146,7 @@
         <v>62999</v>
       </c>
       <c r="K49" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5354.915</v>
       </c>
       <c r="L49" s="3">
@@ -4163,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7999</v>
       </c>
       <c r="N49" s="3">
@@ -4175,8 +4166,8 @@
         <v>13353.915000000001</v>
       </c>
       <c r="P49" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-24046.084999999999</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-29646.084999999999</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4206,7 +4197,7 @@
         <v>117232</v>
       </c>
       <c r="K50" s="39">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>19835.654399999999</v>
       </c>
       <c r="L50" s="39">
@@ -4214,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="38">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-1768</v>
       </c>
       <c r="N50" s="39">
@@ -4226,8 +4217,8 @@
         <v>18067.654399999999</v>
       </c>
       <c r="P50" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-19332.345600000001</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-24932.345600000001</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -4263,7 +4254,7 @@
         <v>544654</v>
       </c>
       <c r="K51" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>35173.343999999997</v>
       </c>
       <c r="L51" s="3">
@@ -4271,7 +4262,7 @@
         <v>33839.97</v>
       </c>
       <c r="M51" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>3824</v>
       </c>
       <c r="N51" s="3">
@@ -4283,8 +4274,8 @@
         <v>100167.314</v>
       </c>
       <c r="P51" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>62767.313999999998</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>57167.313999999998</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4314,7 +4305,7 @@
         <v>169316</v>
       </c>
       <c r="K52" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26413.295999999998</v>
       </c>
       <c r="L52" s="3">
@@ -4322,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>20916</v>
       </c>
       <c r="N52" s="3">
@@ -4334,8 +4325,8 @@
         <v>47329.296000000002</v>
       </c>
       <c r="P52" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>9929.2960000000021</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>4329.2960000000021</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -4371,7 +4362,7 @@
         <v>438265</v>
       </c>
       <c r="K53" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12045.704399999999</v>
       </c>
       <c r="L53" s="3">
@@ -4379,7 +4370,7 @@
         <v>51853.332599999994</v>
       </c>
       <c r="M53" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8418</v>
       </c>
       <c r="N53" s="3">
@@ -4391,8 +4382,8 @@
         <v>70964.036999999997</v>
       </c>
       <c r="P53" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>33564.036999999997</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>27964.036999999997</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -4428,7 +4419,7 @@
         <v>211434</v>
       </c>
       <c r="K54" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12610.079999999998</v>
       </c>
       <c r="L54" s="3">
@@ -4436,7 +4427,7 @@
         <v>5801.6448</v>
       </c>
       <c r="M54" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13800</v>
       </c>
       <c r="N54" s="3">
@@ -4448,8 +4439,8 @@
         <v>36545.724799999996</v>
       </c>
       <c r="P54" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-854.27520000000368</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-6454.2752000000037</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -4479,7 +4470,7 @@
         <v>82536</v>
       </c>
       <c r="K55" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11538.532800000001</v>
       </c>
       <c r="L55" s="3">
@@ -4487,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8336</v>
       </c>
       <c r="N55" s="3">
@@ -4499,8 +4490,8 @@
         <v>19874.532800000001</v>
       </c>
       <c r="P55" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-17525.467199999999</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-23125.467199999999</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -4536,7 +4527,7 @@
         <v>552269</v>
       </c>
       <c r="K56" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>29834.9568</v>
       </c>
       <c r="L56" s="3">
@@ -4544,7 +4535,7 @@
         <v>27484.35</v>
       </c>
       <c r="M56" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14144</v>
       </c>
       <c r="N56" s="3">
@@ -4556,8 +4547,8 @@
         <v>96088.306799999991</v>
       </c>
       <c r="P56" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>58688.306799999991</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>53088.306799999991</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -4593,7 +4584,7 @@
         <v>206348</v>
       </c>
       <c r="K57" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12098.394</v>
       </c>
       <c r="L57" s="3">
@@ -4601,7 +4592,7 @@
         <v>9996.0696000000007</v>
       </c>
       <c r="M57" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12206</v>
       </c>
       <c r="N57" s="3">
@@ -4613,8 +4604,8 @@
         <v>44242.463600000003</v>
       </c>
       <c r="P57" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>6842.4636000000028</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>1242.4636000000028</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -4644,7 +4635,7 @@
         <v>79988</v>
       </c>
       <c r="K58" s="39">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4895.2656000000006</v>
       </c>
       <c r="L58" s="39">
@@ -4652,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="38">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5788</v>
       </c>
       <c r="N58" s="39">
@@ -4664,8 +4655,8 @@
         <v>10683.265600000001</v>
       </c>
       <c r="P58" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-26716.734400000001</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-32316.734400000001</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -4701,7 +4692,7 @@
         <v>519698</v>
       </c>
       <c r="K59" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>22482.806400000001</v>
       </c>
       <c r="L59" s="3">
@@ -4709,7 +4700,7 @@
         <v>48611.880000000005</v>
       </c>
       <c r="M59" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15948</v>
       </c>
       <c r="N59" s="3">
@@ -4721,8 +4712,8 @@
         <v>85392.686400000006</v>
       </c>
       <c r="P59" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>47992.686400000006</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>42392.686400000006</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -4752,7 +4743,7 @@
         <v>201450</v>
       </c>
       <c r="K60" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21031.379999999997</v>
       </c>
       <c r="L60" s="3">
@@ -4760,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15950</v>
       </c>
       <c r="N60" s="3">
@@ -4772,8 +4763,8 @@
         <v>36981.379999999997</v>
       </c>
       <c r="P60" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-418.62000000000262</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-6018.6200000000026</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -4803,7 +4794,7 @@
         <v>183468</v>
       </c>
       <c r="K61" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26602.86</v>
       </c>
       <c r="L61" s="3">
@@ -4811,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18468</v>
       </c>
       <c r="N61" s="3">
@@ -4823,8 +4814,8 @@
         <v>45070.86</v>
       </c>
       <c r="P61" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>7670.8600000000006</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>2070.8600000000006</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -4860,7 +4851,7 @@
         <v>463631</v>
       </c>
       <c r="K62" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11247.6114</v>
       </c>
       <c r="L62" s="3">
@@ -4868,7 +4859,7 @@
         <v>20875.809600000001</v>
       </c>
       <c r="M62" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11223</v>
       </c>
       <c r="N62" s="3">
@@ -4880,8 +4871,8 @@
         <v>56454.421000000002</v>
       </c>
       <c r="P62" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>19054.421000000002</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>13454.421000000002</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -4911,7 +4902,7 @@
         <v>124584</v>
       </c>
       <c r="K63" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13019.028</v>
       </c>
       <c r="L63" s="3">
@@ -4919,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14584</v>
       </c>
       <c r="N63" s="3">
@@ -4931,8 +4922,8 @@
         <v>27603.027999999998</v>
       </c>
       <c r="P63" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-9796.9720000000016</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-15396.972000000002</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -4942,13 +4933,13 @@
       <c r="B64" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="77">
+      <c r="C64" s="74">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="78">
+      <c r="E64" s="75">
         <v>62770</v>
       </c>
       <c r="F64" s="5">
@@ -4968,7 +4959,7 @@
         <v>335796</v>
       </c>
       <c r="K64" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>32640.400000000001</v>
       </c>
       <c r="L64" s="3">
@@ -4976,7 +4967,7 @@
         <v>8810.4639999999999</v>
       </c>
       <c r="M64" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>31080</v>
       </c>
       <c r="N64" s="3">
@@ -4987,9 +4978,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>75246.864000000001</v>
       </c>
-      <c r="P64" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>37846.864000000001</v>
+      <c r="P64" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>32246.864000000001</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -4999,13 +4990,13 @@
       <c r="B65" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="77">
+      <c r="C65" s="74">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="78">
+      <c r="E65" s="75">
         <v>42582</v>
       </c>
       <c r="F65" s="5">
@@ -5025,7 +5016,7 @@
         <v>337884</v>
       </c>
       <c r="K65" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21844.565999999999</v>
       </c>
       <c r="L65" s="3">
@@ -5033,7 +5024,7 @@
         <v>10685.277</v>
       </c>
       <c r="M65" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>27410</v>
       </c>
       <c r="N65" s="3">
@@ -5044,9 +5035,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>74913.842999999993</v>
       </c>
-      <c r="P65" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>37513.842999999993</v>
+      <c r="P65" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>31913.842999999993</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -5056,13 +5047,13 @@
       <c r="B66" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="77">
+      <c r="C66" s="74">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="78">
+      <c r="E66" s="75">
         <v>59416</v>
       </c>
       <c r="F66" s="5">
@@ -5076,7 +5067,7 @@
         <v>118832</v>
       </c>
       <c r="K66" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6060.4320000000007</v>
       </c>
       <c r="L66" s="3">
@@ -5084,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8832</v>
       </c>
       <c r="N66" s="3">
@@ -5095,9 +5086,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>14892.432000000001</v>
       </c>
-      <c r="P66" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-22507.567999999999</v>
+      <c r="P66" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-28107.567999999999</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -5107,13 +5098,13 @@
       <c r="B67" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="77">
+      <c r="C67" s="74">
         <v>2.7099999999999999E-2</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="78">
+      <c r="E67" s="75">
         <v>42602</v>
       </c>
       <c r="F67" s="5">
@@ -5127,7 +5118,7 @@
         <v>213010</v>
       </c>
       <c r="K67" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>34635.425999999999</v>
       </c>
       <c r="L67" s="3">
@@ -5135,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>27510</v>
       </c>
       <c r="N67" s="3">
@@ -5146,9 +5137,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>62145.425999999999</v>
       </c>
-      <c r="P67" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>24745.425999999999</v>
+      <c r="P67" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>19145.425999999999</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5158,13 +5149,13 @@
       <c r="B68" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="77">
+      <c r="C68" s="74">
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="78">
+      <c r="E68" s="75">
         <v>825825</v>
       </c>
       <c r="F68" s="5">
@@ -5184,7 +5175,7 @@
         <v>2677980</v>
       </c>
       <c r="K68" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>437026.58999999997</v>
       </c>
       <c r="L68" s="3">
@@ -5192,7 +5183,7 @@
         <v>35369.082000000002</v>
       </c>
       <c r="M68" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-96525</v>
       </c>
       <c r="N68" s="3">
@@ -5203,9 +5194,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>390875.67199999996</v>
       </c>
-      <c r="P68" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>353475.67199999996</v>
+      <c r="P68" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>347875.67199999996</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -5215,13 +5206,13 @@
       <c r="B69" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="77">
+      <c r="C69" s="74">
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="78">
+      <c r="E69" s="75">
         <v>61467</v>
       </c>
       <c r="F69" s="5">
@@ -5235,7 +5226,7 @@
         <v>61467</v>
       </c>
       <c r="K69" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9097.1160000000018</v>
       </c>
       <c r="L69" s="3">
@@ -5243,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6467</v>
       </c>
       <c r="N69" s="3">
@@ -5254,9 +5245,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>15564.116000000002</v>
       </c>
-      <c r="P69" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-21835.883999999998</v>
+      <c r="P69" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-27435.883999999998</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -5266,13 +5257,13 @@
       <c r="B70" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="77">
+      <c r="C70" s="74">
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="78">
+      <c r="E70" s="75">
         <v>119307</v>
       </c>
       <c r="F70" s="5">
@@ -5292,7 +5283,7 @@
         <v>247017</v>
       </c>
       <c r="K70" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13672.582199999999</v>
       </c>
       <c r="L70" s="3">
@@ -5300,7 +5291,7 @@
         <v>14635.565999999999</v>
       </c>
       <c r="M70" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>307</v>
       </c>
       <c r="N70" s="3">
@@ -5311,9 +5302,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>45025.148199999996</v>
       </c>
-      <c r="P70" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>7625.148199999996</v>
+      <c r="P70" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>2025.148199999996</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -5323,7 +5314,7 @@
       <c r="B71" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="77">
+      <c r="C71" s="74">
         <v>1.61E-2</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -5343,7 +5334,7 @@
         <v>61283</v>
       </c>
       <c r="K71" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4933.2815000000001</v>
       </c>
       <c r="L71" s="3">
@@ -5351,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6283</v>
       </c>
       <c r="N71" s="3">
@@ -5363,8 +5354,8 @@
         <v>11216.281500000001</v>
       </c>
       <c r="P71" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-26183.718499999999</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-31783.718499999999</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -5400,7 +5391,7 @@
         <v>143504</v>
       </c>
       <c r="K72" s="39">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7380.7379999999994</v>
       </c>
       <c r="L72" s="39">
@@ -5408,7 +5399,7 @@
         <v>6487.7654999999995</v>
       </c>
       <c r="M72" s="38">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>2255</v>
       </c>
       <c r="N72" s="39">
@@ -5420,8 +5411,8 @@
         <v>20372.503499999999</v>
       </c>
       <c r="P72" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-17027.496500000001</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-22627.496500000001</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -5431,13 +5422,13 @@
       <c r="B73" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="77">
+      <c r="C73" s="74">
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="78">
+      <c r="E73" s="75">
         <v>62381</v>
       </c>
       <c r="F73" s="5">
@@ -5457,7 +5448,7 @@
         <v>250348</v>
       </c>
       <c r="K73" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9856.1980000000021</v>
       </c>
       <c r="L73" s="3">
@@ -5465,7 +5456,7 @@
         <v>11905.552800000001</v>
       </c>
       <c r="M73" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14762</v>
       </c>
       <c r="N73" s="3">
@@ -5476,9 +5467,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>50809.750800000002</v>
       </c>
-      <c r="P73" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>13409.750800000002</v>
+      <c r="P73" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>7809.7508000000016</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -5488,13 +5479,13 @@
       <c r="B74" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="77">
+      <c r="C74" s="74">
         <v>1.21E-2</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="78">
+      <c r="E74" s="75">
         <v>40404</v>
       </c>
       <c r="F74" s="5">
@@ -5514,7 +5505,7 @@
         <v>323568</v>
       </c>
       <c r="K74" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5866.6607999999997</v>
       </c>
       <c r="L74" s="3">
@@ -5522,7 +5513,7 @@
         <v>17624.376</v>
       </c>
       <c r="M74" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6608</v>
       </c>
       <c r="N74" s="3">
@@ -5533,9 +5524,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>34859.036800000002</v>
       </c>
-      <c r="P74" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-2540.9631999999983</v>
+      <c r="P74" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-8140.9631999999983</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5545,13 +5536,13 @@
       <c r="B75" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="77">
+      <c r="C75" s="74">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="78">
+      <c r="E75" s="75">
         <v>62536</v>
       </c>
       <c r="F75" s="5">
@@ -5571,7 +5562,7 @@
         <v>333968</v>
       </c>
       <c r="K75" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14508.351999999999</v>
       </c>
       <c r="L75" s="3">
@@ -5579,7 +5570,7 @@
         <v>5834.1503999999995</v>
       </c>
       <c r="M75" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>30144</v>
       </c>
       <c r="N75" s="3">
@@ -5590,9 +5581,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>60110.502399999998</v>
       </c>
-      <c r="P75" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>22710.502399999998</v>
+      <c r="P75" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>17110.502399999998</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -5602,13 +5593,13 @@
       <c r="B76" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="77">
+      <c r="C76" s="74">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="78">
+      <c r="E76" s="75">
         <v>40580</v>
       </c>
       <c r="F76" s="5">
@@ -5628,7 +5619,7 @@
         <v>221705</v>
       </c>
       <c r="K76" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>19770.575999999997</v>
       </c>
       <c r="L76" s="3">
@@ -5636,7 +5627,7 @@
         <v>6027.5774999999994</v>
       </c>
       <c r="M76" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13920</v>
       </c>
       <c r="N76" s="3">
@@ -5647,9 +5638,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>44103.1535</v>
       </c>
-      <c r="P76" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>6703.1535000000003</v>
+      <c r="P76" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>1103.1535000000003</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -5659,13 +5650,13 @@
       <c r="B77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="77">
+      <c r="C77" s="74">
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="78">
+      <c r="E77" s="75">
         <v>222195</v>
       </c>
       <c r="F77" s="5">
@@ -5674,7 +5665,7 @@
       <c r="G77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H77" s="78">
+      <c r="H77" s="75">
         <v>117614</v>
       </c>
       <c r="I77" s="5">
@@ -5685,7 +5676,7 @@
         <v>575037</v>
       </c>
       <c r="K77" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>19730.916000000001</v>
       </c>
       <c r="L77" s="3">
@@ -5693,7 +5684,7 @@
         <v>46998.554400000001</v>
       </c>
       <c r="M77" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-15805</v>
       </c>
       <c r="N77" s="3">
@@ -5704,9 +5695,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>46766.470400000006</v>
       </c>
-      <c r="P77" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>9366.4704000000056</v>
+      <c r="P77" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>3766.4704000000056</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -5716,13 +5707,13 @@
       <c r="B78" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="77">
+      <c r="C78" s="74">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E78" s="78">
+      <c r="E78" s="75">
         <v>120518</v>
       </c>
       <c r="F78" s="5">
@@ -5731,7 +5722,7 @@
       <c r="G78" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H78" s="78">
+      <c r="H78" s="75">
         <v>40446</v>
       </c>
       <c r="I78" s="5">
@@ -5742,7 +5733,7 @@
         <v>241856</v>
       </c>
       <c r="K78" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15402.2004</v>
       </c>
       <c r="L78" s="3">
@@ -5750,7 +5741,7 @@
         <v>15506.9964</v>
       </c>
       <c r="M78" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>1518</v>
       </c>
       <c r="N78" s="3">
@@ -5761,9 +5752,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>42465.196799999998</v>
       </c>
-      <c r="P78" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>5065.1967999999979</v>
+      <c r="P78" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-534.80320000000211</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -5773,13 +5764,13 @@
       <c r="B79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="77">
+      <c r="C79" s="74">
         <v>2.75E-2</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="78">
+      <c r="E79" s="75">
         <v>40932</v>
       </c>
       <c r="F79" s="5">
@@ -5788,7 +5779,7 @@
       <c r="G79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H79" s="78">
+      <c r="H79" s="75">
         <v>59663</v>
       </c>
       <c r="I79" s="5">
@@ -5799,7 +5790,7 @@
         <v>320516</v>
       </c>
       <c r="K79" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13507.560000000001</v>
       </c>
       <c r="L79" s="3">
@@ -5807,7 +5798,7 @@
         <v>32814.65</v>
       </c>
       <c r="M79" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7664</v>
       </c>
       <c r="N79" s="3">
@@ -5818,9 +5809,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>72638.210000000006</v>
       </c>
-      <c r="P79" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>35238.210000000006</v>
+      <c r="P79" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>29638.210000000006</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5830,13 +5821,13 @@
       <c r="B80" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="77">
+      <c r="C80" s="74">
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="78">
+      <c r="E80" s="75">
         <v>40605</v>
       </c>
       <c r="F80" s="5">
@@ -5845,7 +5836,7 @@
       <c r="G80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="78">
+      <c r="H80" s="75">
         <v>62919</v>
       </c>
       <c r="I80" s="5">
@@ -5856,7 +5847,7 @@
         <v>184734</v>
       </c>
       <c r="K80" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14910.156000000003</v>
       </c>
       <c r="L80" s="3">
@@ -5864,7 +5855,7 @@
         <v>6417.7380000000003</v>
       </c>
       <c r="M80" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>10515</v>
       </c>
       <c r="N80" s="3">
@@ -5875,9 +5866,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>39761.894</v>
       </c>
-      <c r="P80" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>2361.8940000000002</v>
+      <c r="P80" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-3238.1059999999998</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5887,13 +5878,13 @@
       <c r="B81" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="77">
+      <c r="C81" s="74">
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="78">
+      <c r="E81" s="75">
         <v>41913</v>
       </c>
       <c r="F81" s="5">
@@ -5902,7 +5893,7 @@
       <c r="G81" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H81" s="78">
+      <c r="H81" s="75">
         <v>59770</v>
       </c>
       <c r="I81" s="5">
@@ -5913,7 +5904,7 @@
         <v>143596</v>
       </c>
       <c r="K81" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9908.2332000000006</v>
       </c>
       <c r="L81" s="3">
@@ -5921,7 +5912,7 @@
         <v>5887.3449999999993</v>
       </c>
       <c r="M81" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9626</v>
       </c>
       <c r="N81" s="3">
@@ -5932,9 +5923,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>30191.5782</v>
       </c>
-      <c r="P81" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-7208.4218000000001</v>
+      <c r="P81" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-12808.4218</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5944,13 +5935,13 @@
       <c r="B82" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="77">
+      <c r="C82" s="74">
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="78">
+      <c r="E82" s="75">
         <v>59654</v>
       </c>
       <c r="F82" s="5">
@@ -5959,7 +5950,7 @@
       <c r="G82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H82" s="78">
+      <c r="H82" s="75">
         <v>42145</v>
       </c>
       <c r="I82" s="5">
@@ -5969,8 +5960,8 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>365051</v>
       </c>
-      <c r="K82" s="78">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+      <c r="K82" s="75">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>30662.155999999999</v>
       </c>
       <c r="L82" s="3">
@@ -5978,7 +5969,7 @@
         <v>19496.277000000002</v>
       </c>
       <c r="M82" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18616</v>
       </c>
       <c r="N82" s="3">
@@ -5989,9 +5980,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>83909.433000000005</v>
       </c>
-      <c r="P82" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>46509.433000000005</v>
+      <c r="P82" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>40909.433000000005</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -6001,13 +5992,13 @@
       <c r="B83" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="77">
+      <c r="C83" s="74">
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E83" s="78">
+      <c r="E83" s="75">
         <v>42232</v>
       </c>
       <c r="F83" s="5">
@@ -6016,7 +6007,7 @@
       <c r="G83" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H83" s="78">
+      <c r="H83" s="75">
         <v>61628</v>
       </c>
       <c r="I83" s="5">
@@ -6026,8 +6017,8 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>373208</v>
       </c>
-      <c r="K83" s="78">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+      <c r="K83" s="75">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>17636.083199999997</v>
       </c>
       <c r="L83" s="3">
@@ -6035,7 +6026,7 @@
         <v>28595.392</v>
       </c>
       <c r="M83" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15396</v>
       </c>
       <c r="N83" s="3">
@@ -6046,9 +6037,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>88139.475200000001</v>
       </c>
-      <c r="P83" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>50739.475200000001</v>
+      <c r="P83" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>45139.475200000001</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -6058,27 +6049,27 @@
       <c r="B84" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="77">
+      <c r="C84" s="74">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="78">
+      <c r="E84" s="75">
         <v>61156</v>
       </c>
       <c r="F84" s="5">
         <v>2</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="78"/>
+      <c r="H84" s="75"/>
       <c r="I84" s="5"/>
       <c r="J84" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>122312</v>
       </c>
-      <c r="K84" s="78">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+      <c r="K84" s="75">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>17123.68</v>
       </c>
       <c r="L84" s="3">
@@ -6086,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12312</v>
       </c>
       <c r="N84" s="3">
@@ -6097,9 +6088,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>29435.68</v>
       </c>
-      <c r="P84" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-7964.32</v>
+      <c r="P84" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-13564.32</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -6109,13 +6100,13 @@
       <c r="B85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="77">
+      <c r="C85" s="74">
         <v>2.7799999999999998E-2</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="78">
+      <c r="E85" s="75">
         <v>85384</v>
       </c>
       <c r="F85" s="5">
@@ -6124,7 +6115,7 @@
       <c r="G85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="78">
+      <c r="H85" s="75">
         <v>61275</v>
       </c>
       <c r="I85" s="5">
@@ -6134,8 +6125,8 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>378702</v>
       </c>
-      <c r="K85" s="78">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+      <c r="K85" s="75">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>28484.102399999996</v>
       </c>
       <c r="L85" s="3">
@@ -6143,7 +6134,7 @@
         <v>17034.45</v>
       </c>
       <c r="M85" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>10152</v>
       </c>
       <c r="N85" s="3">
@@ -6154,9 +6145,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>68220.5524</v>
       </c>
-      <c r="P85" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>30820.5524</v>
+      <c r="P85" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>25220.5524</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -6166,27 +6157,27 @@
       <c r="B86" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="77">
+      <c r="C86" s="74">
         <v>2.98E-2</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="78">
+      <c r="E86" s="75">
         <v>42066</v>
       </c>
       <c r="F86" s="5">
         <v>5</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="78"/>
+      <c r="H86" s="75"/>
       <c r="I86" s="5"/>
       <c r="J86" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>210330</v>
       </c>
-      <c r="K86" s="78">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+      <c r="K86" s="75">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>37607.004000000001</v>
       </c>
       <c r="L86" s="3">
@@ -6194,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24830</v>
       </c>
       <c r="N86" s="3">
@@ -6205,9 +6196,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>62437.004000000001</v>
       </c>
-      <c r="P86" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>25037.004000000001</v>
+      <c r="P86" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>19437.004000000001</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -6217,13 +6208,13 @@
       <c r="B87" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="77">
+      <c r="C87" s="74">
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="78">
+      <c r="E87" s="75">
         <v>42607</v>
       </c>
       <c r="F87" s="5">
@@ -6232,7 +6223,7 @@
       <c r="G87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H87" s="78">
+      <c r="H87" s="75">
         <v>59386</v>
       </c>
       <c r="I87" s="5">
@@ -6242,8 +6233,8 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>391193</v>
       </c>
-      <c r="K87" s="78">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+      <c r="K87" s="75">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>29910.113999999998</v>
       </c>
       <c r="L87" s="3">
@@ -6251,7 +6242,7 @@
         <v>20844.486000000001</v>
       </c>
       <c r="M87" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>27535</v>
       </c>
       <c r="N87" s="3">
@@ -6262,9 +6253,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>91447.6</v>
       </c>
-      <c r="P87" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>54047.600000000006</v>
+      <c r="P87" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>48447.600000000006</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -6274,27 +6265,27 @@
       <c r="B88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="77">
+      <c r="C88" s="74">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="78">
+      <c r="E88" s="75">
         <v>121779</v>
       </c>
       <c r="F88" s="5">
         <v>2</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="78"/>
+      <c r="H88" s="75"/>
       <c r="I88" s="5"/>
       <c r="J88" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>243558</v>
       </c>
-      <c r="K88" s="78">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+      <c r="K88" s="75">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24989.050800000001</v>
       </c>
       <c r="L88" s="3">
@@ -6302,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5558</v>
       </c>
       <c r="N88" s="3">
@@ -6313,9 +6304,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>30547.050800000001</v>
       </c>
-      <c r="P88" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-6852.9491999999991</v>
+      <c r="P88" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-12452.949199999999</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -6325,13 +6316,13 @@
       <c r="B89" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="77">
+      <c r="C89" s="74">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E89" s="78">
+      <c r="E89" s="75">
         <v>228495</v>
       </c>
       <c r="F89" s="5">
@@ -6340,7 +6331,7 @@
       <c r="G89" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H89" s="78">
+      <c r="H89" s="75">
         <v>62131</v>
       </c>
       <c r="I89" s="5">
@@ -6350,8 +6341,8 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>871878</v>
       </c>
-      <c r="K89" s="78">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+      <c r="K89" s="75">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>49080.726000000002</v>
       </c>
       <c r="L89" s="3">
@@ -6359,7 +6350,7 @@
         <v>16682.173500000001</v>
       </c>
       <c r="M89" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-28515</v>
       </c>
       <c r="N89" s="3">
@@ -6370,9 +6361,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>58640.8995</v>
       </c>
-      <c r="P89" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>21240.8995</v>
+      <c r="P89" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>15640.8995</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -6382,13 +6373,13 @@
       <c r="B90" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="77">
+      <c r="C90" s="74">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E90" s="78">
+      <c r="E90" s="75">
         <v>40769</v>
       </c>
       <c r="F90" s="5">
@@ -6397,7 +6388,7 @@
       <c r="G90" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="78">
+      <c r="H90" s="75">
         <v>844341</v>
       </c>
       <c r="I90" s="5">
@@ -6407,8 +6398,8 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>1007417</v>
       </c>
-      <c r="K90" s="78">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+      <c r="K90" s="75">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>17612.207999999999</v>
       </c>
       <c r="L90" s="3">
@@ -6416,7 +6407,7 @@
         <v>91188.827999999994</v>
       </c>
       <c r="M90" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14676</v>
       </c>
       <c r="N90" s="3">
@@ -6427,9 +6418,9 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>109818.03599999999</v>
       </c>
-      <c r="P90" s="78">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>72418.035999999993</v>
+      <c r="P90" s="75">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>66818.035999999993</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -6465,7 +6456,7 @@
         <v>869055</v>
       </c>
       <c r="K91" s="3">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15298.494000000002</v>
       </c>
       <c r="L91" s="3">
@@ -6473,7 +6464,7 @@
         <v>44771.212800000001</v>
       </c>
       <c r="M91" s="2">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21567</v>
       </c>
       <c r="N91" s="3">
@@ -6485,8 +6476,8 @@
         <v>50124.7068</v>
       </c>
       <c r="P91" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>12724.7068</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>7124.7067999999999</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -6522,7 +6513,7 @@
         <v>313573</v>
       </c>
       <c r="K92" s="39">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4742.2479999999996</v>
       </c>
       <c r="L92" s="39">
@@ -6530,7 +6521,7 @@
         <v>15271.44</v>
       </c>
       <c r="M92" s="38">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7398</v>
       </c>
       <c r="N92" s="39">
@@ -6542,8 +6533,8 @@
         <v>32586.688000000002</v>
       </c>
       <c r="P92" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
-        <v>-4813.3119999999981</v>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v>-10413.311999999998</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -6553,38 +6544,38 @@
       <c r="B93" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="77"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="78"/>
+      <c r="E93" s="75"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="78"/>
+      <c r="H93" s="75"/>
       <c r="I93" s="5"/>
       <c r="J93" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K93" s="78" t="e">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="K93" s="3">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="L93" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M93" s="2" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="M93" s="85">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="N93" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O93" s="2" t="e">
+      <c r="O93" s="2">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P93" s="78" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P93" s="3" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6595,38 +6586,38 @@
       <c r="B94" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="77"/>
+      <c r="C94" s="74"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="78"/>
+      <c r="E94" s="75"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="78"/>
+      <c r="H94" s="75"/>
       <c r="I94" s="5"/>
       <c r="J94" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K94" s="78" t="e">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="K94" s="3">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M94" s="2" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="M94" s="2">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O94" s="2" t="e">
+      <c r="O94" s="2">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P94" s="78" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6637,38 +6628,38 @@
       <c r="B95" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="77"/>
+      <c r="C95" s="74"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="78"/>
+      <c r="E95" s="75"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="78"/>
+      <c r="H95" s="75"/>
       <c r="I95" s="5"/>
       <c r="J95" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K95" s="78" t="e">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="K95" s="3">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="L95" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M95" s="2" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="M95" s="2">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="N95" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O95" s="2" t="e">
+      <c r="O95" s="2">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P95" s="78" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P95" s="3" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6679,38 +6670,38 @@
       <c r="B96" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="77"/>
+      <c r="C96" s="74"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="78"/>
+      <c r="E96" s="75"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="78"/>
+      <c r="H96" s="75"/>
       <c r="I96" s="5"/>
       <c r="J96" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K96" s="78" t="e">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="K96" s="3">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M96" s="2" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="M96" s="2">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O96" s="2" t="e">
+      <c r="O96" s="2">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P96" s="78" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P96" s="3" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6721,38 +6712,38 @@
       <c r="B97" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="77"/>
+      <c r="C97" s="74"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="78"/>
+      <c r="E97" s="75"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="78"/>
+      <c r="H97" s="75"/>
       <c r="I97" s="5"/>
       <c r="J97" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K97" s="78" t="e">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="K97" s="3">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="L97" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M97" s="2" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="M97" s="2">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="N97" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O97" s="2" t="e">
+      <c r="O97" s="2">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P97" s="78" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P97" s="3" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6763,38 +6754,38 @@
       <c r="B98" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="77"/>
+      <c r="C98" s="74"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="78"/>
+      <c r="E98" s="75"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="78"/>
+      <c r="H98" s="75"/>
       <c r="I98" s="5"/>
       <c r="J98" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K98" s="78" t="e">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="K98" s="3">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="L98" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M98" s="2" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="M98" s="2">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="N98" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O98" s="2" t="e">
+      <c r="O98" s="2">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P98" s="78" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P98" s="3" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6805,38 +6796,38 @@
       <c r="B99" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="77"/>
+      <c r="C99" s="74"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="78"/>
+      <c r="E99" s="75"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="78"/>
+      <c r="H99" s="75"/>
       <c r="I99" s="5"/>
       <c r="J99" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K99" s="78" t="e">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="K99" s="3">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="L99" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M99" s="2" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="M99" s="2">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="N99" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O99" s="2" t="e">
+      <c r="O99" s="2">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P99" s="78" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P99" s="3" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6847,38 +6838,38 @@
       <c r="B100" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="77"/>
+      <c r="C100" s="74"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="78"/>
+      <c r="E100" s="75"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="78"/>
+      <c r="H100" s="75"/>
       <c r="I100" s="5"/>
       <c r="J100" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K100" s="78" t="e">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="K100" s="3">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M100" s="2" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="M100" s="2">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O100" s="2" t="e">
+      <c r="O100" s="2">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P100" s="78" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6889,38 +6880,164 @@
       <c r="B101" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="77"/>
+      <c r="C101" s="74"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="78"/>
+      <c r="E101" s="75"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="78"/>
+      <c r="H101" s="75"/>
       <c r="I101" s="5"/>
       <c r="J101" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K101" s="78" t="e">
-        <f>LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="K101" s="3">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M101" s="2" t="e">
-        <f>(Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]]</f>
-        <v>#N/A</v>
+      <c r="M101" s="2">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O101" s="2" t="e">
+      <c r="O101" s="2">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P101" s="78" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[TOTAL PROFIT (no wages, no admin costs)]]-$C$4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
+        <v>86</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="74"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="75"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="75"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="75">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="76">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="75">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O102" s="76">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P102" s="75" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="13">
+        <v>87</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="74"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="75"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="75">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="76">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="75">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O103" s="76">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P103" s="75" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
+        <v>88</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="74"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="75"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="2">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="75">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="76">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="75">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O104" s="76">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P104" s="75" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6928,9 +7045,9 @@
   <mergeCells count="5">
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:O15"/>
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="N3:U3"/>
+    <mergeCell ref="J15:P15"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:H10">
     <cfRule type="colorScale" priority="35">
@@ -7052,8 +7169,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P101">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="P17:P104">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7078,10 +7195,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 B17:B101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 B17:B104">
       <formula1>$B$10:$B$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D101 G17:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D104 G17:G104">
       <formula1>$E$5:$E$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -7141,33 +7258,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="74" t="s">
+      <c r="V5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="75"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="72"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -9508,33 +9625,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="74" t="s">
+      <c r="I30" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="75"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="72"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="74" t="s">
+      <c r="V30" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="74"/>
-      <c r="AF30" s="75"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="72"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
@@ -11647,14 +11764,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -12076,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -12105,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -16,6 +16,10 @@
     <sheet name="BonusPrice" sheetId="2" r:id="rId2"/>
     <sheet name="Expected sold units" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">Archive!$P$17:$P$104</definedName>
+    <definedName name="_xlchart.1" hidden="1">Archive!$P$17:$P$104</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -271,7 +275,7 @@
     <t>Prob</t>
   </si>
   <si>
-    <t>P_T</t>
+    <t>No wages</t>
   </si>
 </sst>
 </file>
@@ -283,7 +287,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -679,6 +683,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,22 +703,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,7 +715,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -727,29 +731,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="21">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -771,33 +770,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -811,17 +798,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -901,6 +881,30 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -914,6 +918,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -924,61 +929,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -999,22 +949,16 @@
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1032,7 +976,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1128,6 +1072,16 @@
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1155,33 +1109,33 @@
   <tableColumns count="16">
     <tableColumn id="1" name="No."/>
     <tableColumn id="23" name="Economy "/>
-    <tableColumn id="2" name="QualityBonus" dataDxfId="25" dataCellStyle="Porcentaje"/>
-    <tableColumn id="3" name="Product" dataDxfId="24" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="Base price1" dataDxfId="23" dataCellStyle="Moneda"/>
-    <tableColumn id="24" name="Req." dataDxfId="22" dataCellStyle="Millares"/>
-    <tableColumn id="18" name="Product2" dataDxfId="21" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Base price2" dataDxfId="16" dataCellStyle="Moneda"/>
-    <tableColumn id="35" name="Req.2" dataDxfId="15" dataCellStyle="Millares"/>
+    <tableColumn id="2" name="QualityBonus" dataDxfId="19" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" name="Product" dataDxfId="18" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Base price1" dataDxfId="17" dataCellStyle="Moneda"/>
+    <tableColumn id="24" name="Req." dataDxfId="16" dataCellStyle="Millares"/>
+    <tableColumn id="18" name="Product2" dataDxfId="15" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Base price2" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="35" name="Req.2" dataDxfId="13" dataCellStyle="Millares"/>
     <tableColumn id="12" name="Order price" dataDxfId="12" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Bonus1" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Bonus1" dataDxfId="11" dataCellStyle="Moneda">
       <calculatedColumnFormula>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Bonus2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="p1" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="10" name="p1" dataDxfId="10" dataCellStyle="Moneda">
       <calculatedColumnFormula>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="p2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="P_T" dataDxfId="11" dataCellStyle="Moneda">
+    <tableColumn id="30" name="No wages" dataDxfId="9" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="36" name="profit -wages" dataCellStyle="Moneda">
-      <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1189,35 +1143,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
   <autoFilter ref="R17:T23"/>
   <sortState ref="T18:V23">
     <sortCondition ref="T17:T23"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Goods sold" dataDxfId="10"/>
-    <tableColumn id="2" name="COGS" dataDxfId="9"/>
-    <tableColumn id="3" name="Q" dataDxfId="8"/>
+    <tableColumn id="1" name="Goods sold" dataDxfId="6"/>
+    <tableColumn id="2" name="COGS" dataDxfId="5"/>
+    <tableColumn id="3" name="Q" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="20" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="19" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="18" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="17" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1490,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,25 +1486,25 @@
       <c r="S2" s="46"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="N3" s="81" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="N3" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -1618,7 +1572,7 @@
         <f>F5/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="72">
         <f>G5/$G$11</f>
         <v>1.1235955056179775E-2</v>
       </c>
@@ -1631,7 +1585,7 @@
         <v>835083</v>
       </c>
       <c r="K5" s="23">
-        <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[P_T])+SUMIF(Tabla22[Product2],E5,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[No wages])+SUMIF(Tabla22[Product2],E5,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
         <v>250346.85399999999</v>
       </c>
       <c r="L5" s="42">
@@ -1662,7 +1616,7 @@
         <v>835083</v>
       </c>
       <c r="T5" s="23">
-        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>250346.85399999999</v>
       </c>
       <c r="U5" s="42">
@@ -1684,7 +1638,7 @@
         <f>F6/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0.11842105263157894</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="72">
         <f t="shared" ref="H6:H10" si="0">G6/$G$11</f>
         <v>2.5280898876404494E-2</v>
       </c>
@@ -1697,7 +1651,7 @@
         <v>226108</v>
       </c>
       <c r="K6" s="3">
-        <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[P_T])+SUMIF(Tabla22[Product2],E6,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[No wages])+SUMIF(Tabla22[Product2],E6,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
         <v>54273.788524999996</v>
       </c>
       <c r="L6" s="43">
@@ -1728,7 +1682,7 @@
         <v>226108</v>
       </c>
       <c r="T6" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>54273.788524999996</v>
       </c>
       <c r="U6" s="43">
@@ -1750,7 +1704,7 @@
         <f>F7/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="72">
         <f t="shared" si="0"/>
         <v>0.11235955056179775</v>
       </c>
@@ -1763,7 +1717,7 @@
         <v>120382.25</v>
       </c>
       <c r="K7" s="3">
-        <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[P_T])+SUMIF(Tabla22[Product2],E7,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[No wages])+SUMIF(Tabla22[Product2],E7,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
         <v>53608.653904999999</v>
       </c>
       <c r="L7" s="43">
@@ -1794,7 +1748,7 @@
         <v>120382.25</v>
       </c>
       <c r="T7" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>53608.653904999999</v>
       </c>
       <c r="U7" s="43">
@@ -1816,7 +1770,7 @@
         <f>F8/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="72">
         <f t="shared" si="0"/>
         <v>0.10112359550561797</v>
       </c>
@@ -1829,7 +1783,7 @@
         <v>84606.2</v>
       </c>
       <c r="K8" s="3">
-        <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[P_T])+SUMIF(Tabla22[Product2],E8,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[No wages])+SUMIF(Tabla22[Product2],E8,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
         <v>64241.802946666678</v>
       </c>
       <c r="L8" s="43">
@@ -1860,7 +1814,7 @@
         <v>84606.2</v>
       </c>
       <c r="T8" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>64241.802946666678</v>
       </c>
       <c r="U8" s="43">
@@ -1885,7 +1839,7 @@
         <f>F9/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>1.381578947368421</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="72">
         <f t="shared" si="0"/>
         <v>0.2949438202247191</v>
       </c>
@@ -1898,7 +1852,7 @@
         <v>61455.022222222222</v>
       </c>
       <c r="K9" s="3">
-        <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[P_T])+SUMIF(Tabla22[Product2],E9,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[No wages])+SUMIF(Tabla22[Product2],E9,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
         <v>52889.740973333341</v>
       </c>
       <c r="L9" s="43">
@@ -1929,7 +1883,7 @@
         <v>61455.022222222222</v>
       </c>
       <c r="T9" s="3">
-        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>52889.740973333341</v>
       </c>
       <c r="U9" s="43">
@@ -1954,7 +1908,7 @@
         <f>F10/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
         <v>2.1315789473684212</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="72">
         <f t="shared" si="0"/>
         <v>0.45505617977528096</v>
       </c>
@@ -1967,7 +1921,7 @@
         <v>41497.755555555559</v>
       </c>
       <c r="K10" s="39">
-        <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[P_T])+SUMIF(Tabla22[Product2],E10,Tabla22[P_T]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
+        <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[No wages])+SUMIF(Tabla22[Product2],E10,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
         <v>68111.238277777782</v>
       </c>
       <c r="L10" s="44">
@@ -1998,7 +1952,7 @@
         <v>41497.755555555559</v>
       </c>
       <c r="T10" s="39">
-        <f>IFERROR((SUMIFS(Tabla22[P_T],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[P_T],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
         <v>68111.238277777782</v>
       </c>
       <c r="U10" s="44">
@@ -2023,7 +1977,7 @@
         <f>SUM(G5:G10)</f>
         <v>4.6842105263157894</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="73">
         <f>SUM(H5:H10)</f>
         <v>1</v>
       </c>
@@ -2036,7 +1990,7 @@
         <v>74190.536329588023</v>
       </c>
       <c r="K11" s="39">
-        <f>AVERAGEIF(Tabla22[P_T],"&gt;0")</f>
+        <f>AVERAGEIF(Tabla22[No wages],"&gt;0")</f>
         <v>58336.130084210527</v>
       </c>
       <c r="L11" s="58">
@@ -2055,7 +2009,7 @@
         <f>SUM(P5:P10)</f>
         <v>4.045454545454545</v>
       </c>
-      <c r="Q11" s="80">
+      <c r="Q11" s="73">
         <f>SUM(Q5:Q10)</f>
         <v>1.0000000000000002</v>
       </c>
@@ -2068,7 +2022,7 @@
         <v>74190.536329588023</v>
       </c>
       <c r="T11" s="39">
-        <f>IFERROR(AVERAGEIFS(Tabla22[P_T],Tabla22[[Economy ]],$O$2),0)</f>
+        <f>IFERROR(AVERAGEIFS(Tabla22[No wages],Tabla22[[Economy ]],$O$2),0)</f>
         <v>50381.203254545457</v>
       </c>
       <c r="U11" s="58">
@@ -2104,25 +2058,25 @@
       <c r="W14" s="46"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70" t="s">
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="83" t="s">
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
@@ -2238,16 +2192,16 @@
         <v>78992.453399999999</v>
       </c>
       <c r="P17" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>35992.453399999999</v>
       </c>
-      <c r="R17" s="78" t="s">
+      <c r="R17" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="S17" s="78" t="s">
+      <c r="S17" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="78" t="s">
+      <c r="T17" s="71" t="s">
         <v>77</v>
       </c>
       <c r="U17" s="46"/>
@@ -2306,16 +2260,16 @@
         <v>72824.0144</v>
       </c>
       <c r="P18" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>29824.0144</v>
       </c>
       <c r="R18" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="77">
+      <c r="S18" s="70">
         <v>858000</v>
       </c>
-      <c r="T18" s="77">
+      <c r="T18" s="70">
         <v>6</v>
       </c>
       <c r="U18" s="46"/>
@@ -2374,16 +2328,16 @@
         <v>74073.165999999997</v>
       </c>
       <c r="P19" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>31073.165999999997</v>
       </c>
       <c r="R19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="77">
+      <c r="S19" s="70">
         <v>238000</v>
       </c>
-      <c r="T19" s="77">
+      <c r="T19" s="70">
         <v>4</v>
       </c>
       <c r="U19" s="46"/>
@@ -2436,16 +2390,16 @@
         <v>40465.193999999996</v>
       </c>
       <c r="P20" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-2534.8060000000041</v>
       </c>
       <c r="R20" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="77">
+      <c r="S20" s="70">
         <v>82000</v>
       </c>
-      <c r="T20" s="77">
+      <c r="T20" s="70">
         <v>4</v>
       </c>
       <c r="U20" s="46"/>
@@ -2504,16 +2458,16 @@
         <v>45301.014999999999</v>
       </c>
       <c r="P21" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>2301.0149999999994</v>
       </c>
       <c r="R21" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="77">
+      <c r="S21" s="70">
         <v>55000</v>
       </c>
-      <c r="T21" s="77">
+      <c r="T21" s="70">
         <v>5</v>
       </c>
       <c r="U21" s="46"/>
@@ -2572,16 +2526,16 @@
         <v>29880.514999999999</v>
       </c>
       <c r="P22" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-13119.485000000001</v>
       </c>
       <c r="R22" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="77">
+      <c r="S22" s="70">
         <v>37100</v>
       </c>
-      <c r="T22" s="77">
+      <c r="T22" s="70">
         <v>6</v>
       </c>
       <c r="U22" s="46"/>
@@ -2634,16 +2588,16 @@
         <v>38474.997000000003</v>
       </c>
       <c r="P23" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-4525.002999999997</v>
       </c>
       <c r="R23" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="77">
+      <c r="S23" s="70">
         <v>119000</v>
       </c>
-      <c r="T23" s="77">
+      <c r="T23" s="70">
         <v>6</v>
       </c>
       <c r="U23" s="46"/>
@@ -2702,7 +2656,7 @@
         <v>106768.66200000001</v>
       </c>
       <c r="P24" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>63768.662000000011</v>
       </c>
       <c r="R24" s="46"/>
@@ -2758,7 +2712,7 @@
         <v>16645.061000000002</v>
       </c>
       <c r="P25" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-26354.938999999998</v>
       </c>
       <c r="R25" s="46"/>
@@ -2820,7 +2774,7 @@
         <v>37756.048500000004</v>
       </c>
       <c r="P26" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-5243.9514999999956</v>
       </c>
       <c r="R26" s="46"/>
@@ -2882,7 +2836,7 @@
         <v>48500.134399999995</v>
       </c>
       <c r="P27" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>5500.1343999999954</v>
       </c>
       <c r="R27" s="46"/>
@@ -2938,7 +2892,7 @@
         <v>20064.871999999999</v>
       </c>
       <c r="P28" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-22935.128000000001</v>
       </c>
       <c r="R28" s="46"/>
@@ -3000,7 +2954,7 @@
         <v>47164.838499999998</v>
       </c>
       <c r="P29" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>4164.838499999998</v>
       </c>
       <c r="R29" s="46"/>
@@ -3062,7 +3016,7 @@
         <v>107882.81600000001</v>
       </c>
       <c r="P30" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>64882.816000000006</v>
       </c>
       <c r="R30" s="46"/>
@@ -3124,7 +3078,7 @@
         <v>23248.969100000002</v>
       </c>
       <c r="P31" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-19751.030899999998</v>
       </c>
       <c r="R31" s="46"/>
@@ -3186,7 +3140,7 @@
         <v>71211.866200000004</v>
       </c>
       <c r="P32" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>28211.866200000004</v>
       </c>
       <c r="R32" s="46"/>
@@ -3248,7 +3202,7 @@
         <v>36842.401400000002</v>
       </c>
       <c r="P33" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-6157.5985999999975</v>
       </c>
       <c r="S33" s="46"/>
@@ -3309,7 +3263,7 @@
         <v>47125.216</v>
       </c>
       <c r="P34" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>4125.2160000000003</v>
       </c>
       <c r="S34" s="46"/>
@@ -3370,7 +3324,7 @@
         <v>59379.520199999999</v>
       </c>
       <c r="P35" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>16379.520199999999</v>
       </c>
       <c r="S35" s="46"/>
@@ -3431,7 +3385,7 @@
         <v>73992.904999999999</v>
       </c>
       <c r="P36" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>30992.904999999999</v>
       </c>
       <c r="S36" s="46"/>
@@ -3492,7 +3446,7 @@
         <v>60177.817999999999</v>
       </c>
       <c r="P37" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>17177.817999999999</v>
       </c>
       <c r="S37" s="46"/>
@@ -3553,7 +3507,7 @@
         <v>51050.8992</v>
       </c>
       <c r="P38" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>8050.8991999999998</v>
       </c>
       <c r="S38" s="46"/>
@@ -3614,7 +3568,7 @@
         <v>98735.717999999993</v>
       </c>
       <c r="P39" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>55735.717999999993</v>
       </c>
     </row>
@@ -3671,7 +3625,7 @@
         <v>61563.077400000009</v>
       </c>
       <c r="P40" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>18563.077400000009</v>
       </c>
     </row>
@@ -3728,7 +3682,7 @@
         <v>68696.800799999997</v>
       </c>
       <c r="P41" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>25696.800799999997</v>
       </c>
     </row>
@@ -3785,7 +3739,7 @@
         <v>98133.900500000003</v>
       </c>
       <c r="P42" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>55133.900500000003</v>
       </c>
     </row>
@@ -3836,7 +3790,7 @@
         <v>47774.576000000001</v>
       </c>
       <c r="P43" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>4774.5760000000009</v>
       </c>
     </row>
@@ -3893,7 +3847,7 @@
         <v>81104.67</v>
       </c>
       <c r="P44" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>38104.67</v>
       </c>
     </row>
@@ -3944,7 +3898,7 @@
         <v>59832.1</v>
       </c>
       <c r="P45" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>16832.099999999999</v>
       </c>
     </row>
@@ -4001,7 +3955,7 @@
         <v>76608.523199999996</v>
       </c>
       <c r="P46" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>33608.523199999996</v>
       </c>
     </row>
@@ -4058,7 +4012,7 @@
         <v>48583.76</v>
       </c>
       <c r="P47" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>5583.760000000002</v>
       </c>
     </row>
@@ -4115,7 +4069,7 @@
         <v>58605.287999999993</v>
       </c>
       <c r="P48" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>15605.287999999993</v>
       </c>
     </row>
@@ -4166,7 +4120,7 @@
         <v>13353.915000000001</v>
       </c>
       <c r="P49" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-29646.084999999999</v>
       </c>
     </row>
@@ -4217,7 +4171,7 @@
         <v>18067.654399999999</v>
       </c>
       <c r="P50" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-24932.345600000001</v>
       </c>
     </row>
@@ -4274,7 +4228,7 @@
         <v>100167.314</v>
       </c>
       <c r="P51" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>57167.313999999998</v>
       </c>
     </row>
@@ -4325,7 +4279,7 @@
         <v>47329.296000000002</v>
       </c>
       <c r="P52" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>4329.2960000000021</v>
       </c>
     </row>
@@ -4382,7 +4336,7 @@
         <v>70964.036999999997</v>
       </c>
       <c r="P53" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>27964.036999999997</v>
       </c>
     </row>
@@ -4439,7 +4393,7 @@
         <v>36545.724799999996</v>
       </c>
       <c r="P54" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-6454.2752000000037</v>
       </c>
     </row>
@@ -4490,7 +4444,7 @@
         <v>19874.532800000001</v>
       </c>
       <c r="P55" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-23125.467199999999</v>
       </c>
     </row>
@@ -4547,7 +4501,7 @@
         <v>96088.306799999991</v>
       </c>
       <c r="P56" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>53088.306799999991</v>
       </c>
     </row>
@@ -4604,7 +4558,7 @@
         <v>44242.463600000003</v>
       </c>
       <c r="P57" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>1242.4636000000028</v>
       </c>
     </row>
@@ -4655,7 +4609,7 @@
         <v>10683.265600000001</v>
       </c>
       <c r="P58" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-32316.734400000001</v>
       </c>
     </row>
@@ -4712,7 +4666,7 @@
         <v>85392.686400000006</v>
       </c>
       <c r="P59" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>42392.686400000006</v>
       </c>
     </row>
@@ -4763,7 +4717,7 @@
         <v>36981.379999999997</v>
       </c>
       <c r="P60" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-6018.6200000000026</v>
       </c>
     </row>
@@ -4814,7 +4768,7 @@
         <v>45070.86</v>
       </c>
       <c r="P61" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>2070.8600000000006</v>
       </c>
     </row>
@@ -4871,7 +4825,7 @@
         <v>56454.421000000002</v>
       </c>
       <c r="P62" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>13454.421000000002</v>
       </c>
     </row>
@@ -4922,7 +4876,7 @@
         <v>27603.027999999998</v>
       </c>
       <c r="P63" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-15396.972000000002</v>
       </c>
     </row>
@@ -4933,13 +4887,13 @@
       <c r="B64" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C64" s="67">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="75">
+      <c r="E64" s="68">
         <v>62770</v>
       </c>
       <c r="F64" s="5">
@@ -4978,8 +4932,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>75246.864000000001</v>
       </c>
-      <c r="P64" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P64" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>32246.864000000001</v>
       </c>
     </row>
@@ -4990,13 +4944,13 @@
       <c r="B65" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="67">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="75">
+      <c r="E65" s="68">
         <v>42582</v>
       </c>
       <c r="F65" s="5">
@@ -5035,8 +4989,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>74913.842999999993</v>
       </c>
-      <c r="P65" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P65" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>31913.842999999993</v>
       </c>
     </row>
@@ -5047,13 +5001,13 @@
       <c r="B66" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C66" s="67">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="75">
+      <c r="E66" s="68">
         <v>59416</v>
       </c>
       <c r="F66" s="5">
@@ -5086,8 +5040,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>14892.432000000001</v>
       </c>
-      <c r="P66" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P66" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-28107.567999999999</v>
       </c>
     </row>
@@ -5098,13 +5052,13 @@
       <c r="B67" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="67">
         <v>2.7099999999999999E-2</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="75">
+      <c r="E67" s="68">
         <v>42602</v>
       </c>
       <c r="F67" s="5">
@@ -5137,8 +5091,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>62145.425999999999</v>
       </c>
-      <c r="P67" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P67" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>19145.425999999999</v>
       </c>
     </row>
@@ -5149,13 +5103,13 @@
       <c r="B68" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="67">
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="75">
+      <c r="E68" s="68">
         <v>825825</v>
       </c>
       <c r="F68" s="5">
@@ -5194,8 +5148,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>390875.67199999996</v>
       </c>
-      <c r="P68" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P68" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>347875.67199999996</v>
       </c>
     </row>
@@ -5206,13 +5160,13 @@
       <c r="B69" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="67">
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="75">
+      <c r="E69" s="68">
         <v>61467</v>
       </c>
       <c r="F69" s="5">
@@ -5245,8 +5199,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>15564.116000000002</v>
       </c>
-      <c r="P69" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P69" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-27435.883999999998</v>
       </c>
     </row>
@@ -5257,13 +5211,13 @@
       <c r="B70" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C70" s="67">
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="75">
+      <c r="E70" s="68">
         <v>119307</v>
       </c>
       <c r="F70" s="5">
@@ -5302,8 +5256,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>45025.148199999996</v>
       </c>
-      <c r="P70" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P70" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>2025.148199999996</v>
       </c>
     </row>
@@ -5314,7 +5268,7 @@
       <c r="B71" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="74">
+      <c r="C71" s="67">
         <v>1.61E-2</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -5354,7 +5308,7 @@
         <v>11216.281500000001</v>
       </c>
       <c r="P71" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-31783.718499999999</v>
       </c>
     </row>
@@ -5411,7 +5365,7 @@
         <v>20372.503499999999</v>
       </c>
       <c r="P72" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-22627.496500000001</v>
       </c>
     </row>
@@ -5422,13 +5376,13 @@
       <c r="B73" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="74">
+      <c r="C73" s="67">
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="75">
+      <c r="E73" s="68">
         <v>62381</v>
       </c>
       <c r="F73" s="5">
@@ -5467,8 +5421,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>50809.750800000002</v>
       </c>
-      <c r="P73" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P73" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>7809.7508000000016</v>
       </c>
     </row>
@@ -5479,13 +5433,13 @@
       <c r="B74" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="74">
+      <c r="C74" s="67">
         <v>1.21E-2</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="75">
+      <c r="E74" s="68">
         <v>40404</v>
       </c>
       <c r="F74" s="5">
@@ -5524,8 +5478,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>34859.036800000002</v>
       </c>
-      <c r="P74" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P74" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-8140.9631999999983</v>
       </c>
     </row>
@@ -5536,13 +5490,13 @@
       <c r="B75" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="74">
+      <c r="C75" s="67">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="75">
+      <c r="E75" s="68">
         <v>62536</v>
       </c>
       <c r="F75" s="5">
@@ -5581,8 +5535,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>60110.502399999998</v>
       </c>
-      <c r="P75" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P75" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>17110.502399999998</v>
       </c>
     </row>
@@ -5593,13 +5547,13 @@
       <c r="B76" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="74">
+      <c r="C76" s="67">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="75">
+      <c r="E76" s="68">
         <v>40580</v>
       </c>
       <c r="F76" s="5">
@@ -5638,8 +5592,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>44103.1535</v>
       </c>
-      <c r="P76" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P76" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>1103.1535000000003</v>
       </c>
     </row>
@@ -5650,13 +5604,13 @@
       <c r="B77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="74">
+      <c r="C77" s="67">
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="75">
+      <c r="E77" s="68">
         <v>222195</v>
       </c>
       <c r="F77" s="5">
@@ -5665,7 +5619,7 @@
       <c r="G77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H77" s="75">
+      <c r="H77" s="68">
         <v>117614</v>
       </c>
       <c r="I77" s="5">
@@ -5695,8 +5649,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>46766.470400000006</v>
       </c>
-      <c r="P77" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P77" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>3766.4704000000056</v>
       </c>
     </row>
@@ -5707,13 +5661,13 @@
       <c r="B78" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="74">
+      <c r="C78" s="67">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E78" s="75">
+      <c r="E78" s="68">
         <v>120518</v>
       </c>
       <c r="F78" s="5">
@@ -5722,7 +5676,7 @@
       <c r="G78" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H78" s="75">
+      <c r="H78" s="68">
         <v>40446</v>
       </c>
       <c r="I78" s="5">
@@ -5752,8 +5706,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>42465.196799999998</v>
       </c>
-      <c r="P78" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P78" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-534.80320000000211</v>
       </c>
     </row>
@@ -5764,13 +5718,13 @@
       <c r="B79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="74">
+      <c r="C79" s="67">
         <v>2.75E-2</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="75">
+      <c r="E79" s="68">
         <v>40932</v>
       </c>
       <c r="F79" s="5">
@@ -5779,7 +5733,7 @@
       <c r="G79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H79" s="75">
+      <c r="H79" s="68">
         <v>59663</v>
       </c>
       <c r="I79" s="5">
@@ -5809,8 +5763,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>72638.210000000006</v>
       </c>
-      <c r="P79" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P79" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>29638.210000000006</v>
       </c>
     </row>
@@ -5821,13 +5775,13 @@
       <c r="B80" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="74">
+      <c r="C80" s="67">
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="75">
+      <c r="E80" s="68">
         <v>40605</v>
       </c>
       <c r="F80" s="5">
@@ -5836,7 +5790,7 @@
       <c r="G80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="75">
+      <c r="H80" s="68">
         <v>62919</v>
       </c>
       <c r="I80" s="5">
@@ -5866,8 +5820,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>39761.894</v>
       </c>
-      <c r="P80" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P80" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-3238.1059999999998</v>
       </c>
     </row>
@@ -5878,13 +5832,13 @@
       <c r="B81" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="74">
+      <c r="C81" s="67">
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="75">
+      <c r="E81" s="68">
         <v>41913</v>
       </c>
       <c r="F81" s="5">
@@ -5893,7 +5847,7 @@
       <c r="G81" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H81" s="75">
+      <c r="H81" s="68">
         <v>59770</v>
       </c>
       <c r="I81" s="5">
@@ -5923,8 +5877,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>30191.5782</v>
       </c>
-      <c r="P81" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P81" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-12808.4218</v>
       </c>
     </row>
@@ -5935,13 +5889,13 @@
       <c r="B82" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="74">
+      <c r="C82" s="67">
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="75">
+      <c r="E82" s="68">
         <v>59654</v>
       </c>
       <c r="F82" s="5">
@@ -5950,7 +5904,7 @@
       <c r="G82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H82" s="75">
+      <c r="H82" s="68">
         <v>42145</v>
       </c>
       <c r="I82" s="5">
@@ -5960,7 +5914,7 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>365051</v>
       </c>
-      <c r="K82" s="75">
+      <c r="K82" s="68">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>30662.155999999999</v>
       </c>
@@ -5980,8 +5934,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>83909.433000000005</v>
       </c>
-      <c r="P82" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P82" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>40909.433000000005</v>
       </c>
     </row>
@@ -5992,13 +5946,13 @@
       <c r="B83" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="74">
+      <c r="C83" s="67">
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E83" s="75">
+      <c r="E83" s="68">
         <v>42232</v>
       </c>
       <c r="F83" s="5">
@@ -6007,7 +5961,7 @@
       <c r="G83" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H83" s="75">
+      <c r="H83" s="68">
         <v>61628</v>
       </c>
       <c r="I83" s="5">
@@ -6017,7 +5971,7 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>373208</v>
       </c>
-      <c r="K83" s="75">
+      <c r="K83" s="68">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>17636.083199999997</v>
       </c>
@@ -6037,8 +5991,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>88139.475200000001</v>
       </c>
-      <c r="P83" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P83" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>45139.475200000001</v>
       </c>
     </row>
@@ -6049,26 +6003,26 @@
       <c r="B84" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="74">
+      <c r="C84" s="67">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="75">
+      <c r="E84" s="68">
         <v>61156</v>
       </c>
       <c r="F84" s="5">
         <v>2</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="75"/>
+      <c r="H84" s="68"/>
       <c r="I84" s="5"/>
       <c r="J84" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>122312</v>
       </c>
-      <c r="K84" s="75">
+      <c r="K84" s="68">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>17123.68</v>
       </c>
@@ -6088,8 +6042,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>29435.68</v>
       </c>
-      <c r="P84" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P84" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-13564.32</v>
       </c>
     </row>
@@ -6100,13 +6054,13 @@
       <c r="B85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="74">
+      <c r="C85" s="67">
         <v>2.7799999999999998E-2</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="75">
+      <c r="E85" s="68">
         <v>85384</v>
       </c>
       <c r="F85" s="5">
@@ -6115,7 +6069,7 @@
       <c r="G85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="75">
+      <c r="H85" s="68">
         <v>61275</v>
       </c>
       <c r="I85" s="5">
@@ -6125,7 +6079,7 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>378702</v>
       </c>
-      <c r="K85" s="75">
+      <c r="K85" s="68">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>28484.102399999996</v>
       </c>
@@ -6145,8 +6099,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>68220.5524</v>
       </c>
-      <c r="P85" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P85" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>25220.5524</v>
       </c>
     </row>
@@ -6157,26 +6111,26 @@
       <c r="B86" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="74">
+      <c r="C86" s="67">
         <v>2.98E-2</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="75">
+      <c r="E86" s="68">
         <v>42066</v>
       </c>
       <c r="F86" s="5">
         <v>5</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="75"/>
+      <c r="H86" s="68"/>
       <c r="I86" s="5"/>
       <c r="J86" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>210330</v>
       </c>
-      <c r="K86" s="75">
+      <c r="K86" s="68">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>37607.004000000001</v>
       </c>
@@ -6196,8 +6150,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>62437.004000000001</v>
       </c>
-      <c r="P86" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P86" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>19437.004000000001</v>
       </c>
     </row>
@@ -6208,13 +6162,13 @@
       <c r="B87" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="74">
+      <c r="C87" s="67">
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="75">
+      <c r="E87" s="68">
         <v>42607</v>
       </c>
       <c r="F87" s="5">
@@ -6223,7 +6177,7 @@
       <c r="G87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H87" s="75">
+      <c r="H87" s="68">
         <v>59386</v>
       </c>
       <c r="I87" s="5">
@@ -6233,7 +6187,7 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>391193</v>
       </c>
-      <c r="K87" s="75">
+      <c r="K87" s="68">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>29910.113999999998</v>
       </c>
@@ -6253,8 +6207,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>91447.6</v>
       </c>
-      <c r="P87" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P87" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>48447.600000000006</v>
       </c>
     </row>
@@ -6265,26 +6219,26 @@
       <c r="B88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="74">
+      <c r="C88" s="67">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="75">
+      <c r="E88" s="68">
         <v>121779</v>
       </c>
       <c r="F88" s="5">
         <v>2</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="75"/>
+      <c r="H88" s="68"/>
       <c r="I88" s="5"/>
       <c r="J88" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>243558</v>
       </c>
-      <c r="K88" s="75">
+      <c r="K88" s="68">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24989.050800000001</v>
       </c>
@@ -6304,8 +6258,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>30547.050800000001</v>
       </c>
-      <c r="P88" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P88" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-12452.949199999999</v>
       </c>
     </row>
@@ -6316,13 +6270,13 @@
       <c r="B89" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="74">
+      <c r="C89" s="67">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E89" s="75">
+      <c r="E89" s="68">
         <v>228495</v>
       </c>
       <c r="F89" s="5">
@@ -6331,7 +6285,7 @@
       <c r="G89" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H89" s="75">
+      <c r="H89" s="68">
         <v>62131</v>
       </c>
       <c r="I89" s="5">
@@ -6341,7 +6295,7 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>871878</v>
       </c>
-      <c r="K89" s="75">
+      <c r="K89" s="68">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>49080.726000000002</v>
       </c>
@@ -6361,8 +6315,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>58640.8995</v>
       </c>
-      <c r="P89" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P89" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>15640.8995</v>
       </c>
     </row>
@@ -6373,13 +6327,13 @@
       <c r="B90" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="74">
+      <c r="C90" s="67">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E90" s="75">
+      <c r="E90" s="68">
         <v>40769</v>
       </c>
       <c r="F90" s="5">
@@ -6388,7 +6342,7 @@
       <c r="G90" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="75">
+      <c r="H90" s="68">
         <v>844341</v>
       </c>
       <c r="I90" s="5">
@@ -6398,7 +6352,7 @@
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>1007417</v>
       </c>
-      <c r="K90" s="75">
+      <c r="K90" s="68">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>17612.207999999999</v>
       </c>
@@ -6418,8 +6372,8 @@
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>109818.03599999999</v>
       </c>
-      <c r="P90" s="75">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P90" s="68">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>66818.035999999993</v>
       </c>
     </row>
@@ -6476,7 +6430,7 @@
         <v>50124.7068</v>
       </c>
       <c r="P91" s="3">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>7124.7067999999999</v>
       </c>
     </row>
@@ -6533,7 +6487,7 @@
         <v>32586.688000000002</v>
       </c>
       <c r="P92" s="39">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-10413.311999999998</v>
       </c>
     </row>
@@ -6544,11 +6498,11 @@
       <c r="B93" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="74"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="75"/>
+      <c r="E93" s="68"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="75"/>
+      <c r="H93" s="68"/>
       <c r="I93" s="5"/>
       <c r="J93" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6562,7 +6516,7 @@
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M93" s="85">
+      <c r="M93" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>0</v>
       </c>
@@ -6575,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="P93" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6586,11 +6540,11 @@
       <c r="B94" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="74"/>
+      <c r="C94" s="67"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="75"/>
+      <c r="E94" s="68"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="75"/>
+      <c r="H94" s="68"/>
       <c r="I94" s="5"/>
       <c r="J94" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6617,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6628,11 +6582,11 @@
       <c r="B95" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="74"/>
+      <c r="C95" s="67"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="75"/>
+      <c r="E95" s="68"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="75"/>
+      <c r="H95" s="68"/>
       <c r="I95" s="5"/>
       <c r="J95" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6659,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6670,11 +6624,11 @@
       <c r="B96" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="74"/>
+      <c r="C96" s="67"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="75"/>
+      <c r="E96" s="68"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="75"/>
+      <c r="H96" s="68"/>
       <c r="I96" s="5"/>
       <c r="J96" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6701,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6712,11 +6666,11 @@
       <c r="B97" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="74"/>
+      <c r="C97" s="67"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="75"/>
+      <c r="E97" s="68"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="75"/>
+      <c r="H97" s="68"/>
       <c r="I97" s="5"/>
       <c r="J97" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6743,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6754,11 +6708,11 @@
       <c r="B98" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="74"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="75"/>
+      <c r="E98" s="68"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="75"/>
+      <c r="H98" s="68"/>
       <c r="I98" s="5"/>
       <c r="J98" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6785,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="P98" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6796,11 +6750,11 @@
       <c r="B99" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="74"/>
+      <c r="C99" s="67"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="75"/>
+      <c r="E99" s="68"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="75"/>
+      <c r="H99" s="68"/>
       <c r="I99" s="5"/>
       <c r="J99" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6827,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6838,11 +6792,11 @@
       <c r="B100" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="74"/>
+      <c r="C100" s="67"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="75"/>
+      <c r="E100" s="68"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="75"/>
+      <c r="H100" s="68"/>
       <c r="I100" s="5"/>
       <c r="J100" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6869,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6880,11 +6834,11 @@
       <c r="B101" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="74"/>
+      <c r="C101" s="67"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="75"/>
+      <c r="E101" s="68"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="75"/>
+      <c r="H101" s="68"/>
       <c r="I101" s="5"/>
       <c r="J101" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6911,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="3" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6922,11 +6876,11 @@
       <c r="B102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="74"/>
+      <c r="C102" s="67"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="75"/>
+      <c r="E102" s="68"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="75"/>
+      <c r="H102" s="68"/>
       <c r="I102" s="5"/>
       <c r="J102" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6936,24 +6890,24 @@
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>0</v>
       </c>
-      <c r="L102" s="75">
+      <c r="L102" s="68">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M102" s="76">
+      <c r="M102" s="69">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>0</v>
       </c>
-      <c r="N102" s="75">
+      <c r="N102" s="68">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O102" s="76">
+      <c r="O102" s="69">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="P102" s="75" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P102" s="68" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -6964,11 +6918,11 @@
       <c r="B103" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="74"/>
+      <c r="C103" s="67"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="75"/>
+      <c r="E103" s="68"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="75"/>
+      <c r="H103" s="68"/>
       <c r="I103" s="5"/>
       <c r="J103" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -6978,24 +6932,24 @@
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>0</v>
       </c>
-      <c r="L103" s="75">
+      <c r="L103" s="68">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M103" s="76">
+      <c r="M103" s="69">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>0</v>
       </c>
-      <c r="N103" s="75">
+      <c r="N103" s="68">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O103" s="76">
+      <c r="O103" s="69">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="P103" s="75" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P103" s="68" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -7006,11 +6960,11 @@
       <c r="B104" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="74"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="75"/>
+      <c r="E104" s="68"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="75"/>
+      <c r="H104" s="68"/>
       <c r="I104" s="5"/>
       <c r="J104" s="2">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
@@ -7020,24 +6974,24 @@
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>0</v>
       </c>
-      <c r="L104" s="75">
+      <c r="L104" s="68">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M104" s="76">
+      <c r="M104" s="69">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>0</v>
       </c>
-      <c r="N104" s="75">
+      <c r="N104" s="68">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O104" s="76">
+      <c r="O104" s="69">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="P104" s="75" t="str">
-        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[P_T]]-$C$4,"")</f>
+      <c r="P104" s="68" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
@@ -7170,7 +7124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P104">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7258,33 +7212,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="71" t="s">
+      <c r="V5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="72"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="84"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -9625,33 +9579,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="71" t="s">
+      <c r="I30" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="72"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="84"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="71" t="s">
+      <c r="V30" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="72"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="83"/>
+      <c r="AF30" s="84"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
@@ -11764,14 +11718,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -16,10 +16,6 @@
     <sheet name="BonusPrice" sheetId="2" r:id="rId2"/>
     <sheet name="Expected sold units" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Archive!$P$17:$P$104</definedName>
-    <definedName name="_xlchart.1" hidden="1">Archive!$P$17:$P$104</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="82">
   <si>
     <t>QualityBonus</t>
   </si>
@@ -282,12 +278,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -615,7 +612,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -684,13 +681,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,6 +718,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -731,7 +732,153 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -905,156 +1052,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1071,16 +1068,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1101,40 +1088,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A16:P104" totalsRowShown="0">
-  <autoFilter ref="A16:P104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla22" displayName="Tabla22" ref="A16:P136" totalsRowShown="0">
+  <autoFilter ref="A16:P136"/>
   <sortState ref="A17:R63">
     <sortCondition ref="A16:A63"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" name="No."/>
     <tableColumn id="23" name="Economy "/>
-    <tableColumn id="2" name="QualityBonus" dataDxfId="19" dataCellStyle="Porcentaje"/>
-    <tableColumn id="3" name="Product" dataDxfId="18" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="Base price1" dataDxfId="17" dataCellStyle="Moneda"/>
-    <tableColumn id="24" name="Req." dataDxfId="16" dataCellStyle="Millares"/>
-    <tableColumn id="18" name="Product2" dataDxfId="15" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Base price2" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="35" name="Req.2" dataDxfId="13" dataCellStyle="Millares"/>
-    <tableColumn id="12" name="Order price" dataDxfId="12" dataCellStyle="Moneda">
+    <tableColumn id="2" name="QualityBonus" dataDxfId="23" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" name="Product" dataDxfId="12" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Base price1" dataDxfId="10" dataCellStyle="Moneda"/>
+    <tableColumn id="24" name="Req." dataDxfId="11" dataCellStyle="Millares"/>
+    <tableColumn id="18" name="Product2" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Base price2" dataDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="35" name="Req.2" dataDxfId="8" dataCellStyle="Millares"/>
+    <tableColumn id="12" name="Order price" dataDxfId="6" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Bonus1" dataDxfId="11" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Bonus1" dataDxfId="5" dataCellStyle="Moneda">
       <calculatedColumnFormula>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Bonus2" dataCellStyle="Moneda">
+    <tableColumn id="11" name="Bonus2" dataDxfId="4" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="p1" dataDxfId="10" dataCellStyle="Moneda">
+    <tableColumn id="10" name="p1" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="p2" dataCellStyle="Moneda">
+    <tableColumn id="9" name="p2" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="No wages" dataDxfId="9" dataCellStyle="Moneda">
+    <tableColumn id="30" name="No wages" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="profit -wages" dataCellStyle="Moneda">
+    <tableColumn id="36" name="profit -wages" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1143,35 +1130,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21">
   <autoFilter ref="R17:T23"/>
   <sortState ref="T18:V23">
     <sortCondition ref="T17:T23"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Goods sold" dataDxfId="6"/>
-    <tableColumn id="2" name="COGS" dataDxfId="5"/>
-    <tableColumn id="3" name="Q" dataDxfId="4"/>
+    <tableColumn id="1" name="Goods sold" dataDxfId="20"/>
+    <tableColumn id="2" name="COGS" dataDxfId="19"/>
+    <tableColumn id="3" name="Q" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="17" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="16" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="15" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="14" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1442,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z104"/>
+  <dimension ref="A2:AD136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,50 +1450,66 @@
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M2" s="46"/>
       <c r="N2" s="54" t="s">
         <v>69</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F3" s="79" t="s">
+      <c r="W2" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="F3" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="N3" s="79" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="N3" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="W3" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>21</v>
       </c>
@@ -1557,106 +1560,155 @@
       <c r="U4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W4" s="54"/>
+      <c r="X4" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E5" s="61" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="49">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N5)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="47">
         <f>F5/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="H5" s="72">
+        <v>4.2735042735042736E-2</v>
+      </c>
+      <c r="H5" s="70">
         <f>G5/$G$11</f>
-        <v>1.1235955056179775E-2</v>
+        <v>9.3109869646182501E-3</v>
       </c>
       <c r="I5" s="22">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E5,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>2.3699999999999999E-2</v>
+        <v>2.4566666666666667E-2</v>
       </c>
       <c r="J5" s="23">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E5,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>835083</v>
+        <v>842215</v>
       </c>
       <c r="K5" s="23">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[No wages])+SUMIF(Tabla22[Product2],E5,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>250346.85399999999</v>
+        <v>141346.09093333335</v>
       </c>
       <c r="L5" s="42">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E5,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>207346.85399999999</v>
+        <v>98346.090933333326</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="49">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P5" s="47">
         <f>IFERROR(O5/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>4.5454545454545456E-2</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="37">
         <f>P5/$P$11</f>
-        <v>1.1235955056179777E-2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="22">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.3699999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="23">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>835083</v>
+        <v>0</v>
       </c>
       <c r="T5" s="23">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>250346.85399999999</v>
+        <v>0</v>
       </c>
       <c r="U5" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>207346.85399999999</v>
-      </c>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W5" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="49">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2)</f>
+        <v>5</v>
+      </c>
+      <c r="Y5" s="47">
+        <f>IFERROR(X5/COUNTIF(Tabla22[[Economy ]],$X$2),0)</f>
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="Z5" s="37">
+        <f>Y5/$Y$11</f>
+        <v>1.1389521640091119E-2</v>
+      </c>
+      <c r="AA5" s="22">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>2.4566666666666667E-2</v>
+      </c>
+      <c r="AB5" s="23">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>842215</v>
+      </c>
+      <c r="AC5" s="23">
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>141346.09093333335</v>
+      </c>
+      <c r="AD5" s="42">
+        <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>98346.090933333326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E6" s="61" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N6)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N6)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G6" s="47">
         <f>F6/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.11842105263157894</v>
-      </c>
-      <c r="H6" s="72">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H6" s="70">
         <f t="shared" ref="H6:H10" si="0">G6/$G$11</f>
-        <v>2.5280898876404494E-2</v>
+        <v>4.8417132216014895E-2</v>
       </c>
       <c r="I6" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E6,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>1.9949999999999999E-2</v>
+        <v>2.0309090909090909E-2</v>
       </c>
       <c r="J6" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E6,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>226108</v>
+        <v>221517.63636363635</v>
       </c>
       <c r="K6" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[No wages])+SUMIF(Tabla22[Product2],E6,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>54273.788524999996</v>
+        <v>36796.328018181819</v>
       </c>
       <c r="L6" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E6,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>11273.788525000004</v>
+        <v>-6203.67198181818</v>
       </c>
       <c r="N6" s="61" t="s">
         <v>57</v>
@@ -1667,164 +1719,251 @@
       </c>
       <c r="P6" s="47">
         <f>IFERROR(O6/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.10227272727272728</v>
+        <v>0.375</v>
       </c>
       <c r="Q6" s="37">
         <f t="shared" ref="Q6:Q10" si="1">P6/$P$11</f>
-        <v>2.5280898876404501E-2</v>
+        <v>9.1836734693877556E-2</v>
       </c>
       <c r="R6" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>1.9949999999999999E-2</v>
+        <v>2.0125000000000001E-2</v>
       </c>
       <c r="S6" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>226108</v>
+        <v>212891</v>
       </c>
       <c r="T6" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>54273.788524999996</v>
+        <v>-771.24330000000009</v>
       </c>
       <c r="U6" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>11273.788525000004</v>
-      </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-43771.243300000002</v>
+      </c>
+      <c r="W6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="47">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2)</f>
+        <v>17</v>
+      </c>
+      <c r="Y6" s="47">
+        <f>IFERROR(X6/COUNTIF(Tabla22[[Economy ]],$X$2),0)</f>
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="Z6" s="37">
+        <f t="shared" ref="Z6:Z10" si="2">Y6/$Y$11</f>
+        <v>3.8724373576309805E-2</v>
+      </c>
+      <c r="AA6" s="37">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>2.0414285714285715E-2</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>226447.14285714287</v>
+      </c>
+      <c r="AC6" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>58263.511628571432</v>
+      </c>
+      <c r="AD6" s="43">
+        <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>15263.511628571432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E7" s="61" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N7)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N7)</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G7" s="47">
         <f>F7/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="H7" s="72">
-        <f t="shared" si="0"/>
-        <v>0.11235955056179775</v>
+        <v>0.47008547008547008</v>
+      </c>
+      <c r="H7" s="70">
+        <f t="shared" si="0"/>
+        <v>0.10242085661080075</v>
       </c>
       <c r="I7" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E7,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>2.0739999999999998E-2</v>
+        <v>2.0123076923076924E-2</v>
       </c>
       <c r="J7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E7,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>120382.25</v>
+        <v>119872.07692307692</v>
       </c>
       <c r="K7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[No wages])+SUMIF(Tabla22[Product2],E7,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>53608.653904999999</v>
+        <v>53445.121115384616</v>
       </c>
       <c r="L7" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>10608.653905000001</v>
+        <v>10445.121115384614</v>
       </c>
       <c r="N7" s="61" t="s">
         <v>53</v>
       </c>
       <c r="O7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="P7" s="47">
         <f>IFERROR(O7/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.45454545454545453</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q7" s="37">
         <f t="shared" si="1"/>
-        <v>0.11235955056179776</v>
+        <v>4.0816326530612249E-2</v>
       </c>
       <c r="R7" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.0739999999999998E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="S7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>120382.25</v>
+        <v>110700</v>
       </c>
       <c r="T7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>53608.653904999999</v>
+        <v>29853.747199999998</v>
       </c>
       <c r="U7" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>10608.653905000001</v>
-      </c>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-13146.252800000002</v>
+      </c>
+      <c r="W7" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="47">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2)</f>
+        <v>51</v>
+      </c>
+      <c r="Y7" s="47">
+        <f>IFERROR(X7/COUNTIF(Tabla22[[Economy ]],$X$2),0)</f>
+        <v>0.53125</v>
+      </c>
+      <c r="Z7" s="37">
+        <f t="shared" si="2"/>
+        <v>0.11617312072892939</v>
+      </c>
+      <c r="AA7" s="37">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>2.0375999999999998E-2</v>
+      </c>
+      <c r="AB7" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>120238.96</v>
+      </c>
+      <c r="AC7" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>54388.776072000008</v>
+      </c>
+      <c r="AD7" s="43">
+        <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>11388.776072000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E8" s="61" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N8)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N8)</f>
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G8" s="47">
         <f>F8/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>0.47368421052631576</v>
-      </c>
-      <c r="H8" s="72">
-        <f t="shared" si="0"/>
-        <v>0.10112359550561797</v>
+        <v>0.57264957264957261</v>
+      </c>
+      <c r="H8" s="70">
+        <f t="shared" si="0"/>
+        <v>0.12476722532588455</v>
       </c>
       <c r="I8" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E8,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>2.1626666666666669E-2</v>
+        <v>2.0549999999999999E-2</v>
       </c>
       <c r="J8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E8,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>84606.2</v>
+        <v>83340.2</v>
       </c>
       <c r="K8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[No wages])+SUMIF(Tabla22[Product2],E8,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>64241.802946666678</v>
+        <v>48706.66442666667</v>
       </c>
       <c r="L8" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>21241.802946666667</v>
+        <v>5706.6644266666663</v>
       </c>
       <c r="N8" s="61" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)</f>
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="P8" s="47">
         <f>IFERROR(O8/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>0.40909090909090912</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.101123595505618</v>
+        <v>0.17346938775510207</v>
       </c>
       <c r="R8" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.1626666666666669E-2</v>
+        <v>1.9724999999999999E-2</v>
       </c>
       <c r="S8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>84606.2</v>
+        <v>80230.125</v>
       </c>
       <c r="T8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>64241.802946666678</v>
+        <v>19861.094900000004</v>
       </c>
       <c r="U8" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>21241.802946666667</v>
-      </c>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-23138.905099999996</v>
+      </c>
+      <c r="W8" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" s="47">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2)</f>
+        <v>50</v>
+      </c>
+      <c r="Y8" s="47">
+        <f>IFERROR(X8/COUNTIF(Tabla22[[Economy ]],$X$2),0)</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="Z8" s="37">
+        <f t="shared" si="2"/>
+        <v>0.11389521640091119</v>
+      </c>
+      <c r="AA8" s="37">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>2.085E-2</v>
+      </c>
+      <c r="AB8" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>84471.136363636368</v>
+      </c>
+      <c r="AC8" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>59195.962436363639</v>
+      </c>
+      <c r="AD8" s="43">
+        <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>16195.962436363636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
         <v>73</v>
       </c>
@@ -1833,67 +1972,96 @@
       </c>
       <c r="F9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N9)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N9)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="G9" s="47">
         <f>F9/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>1.381578947368421</v>
-      </c>
-      <c r="H9" s="72">
-        <f t="shared" si="0"/>
-        <v>0.2949438202247191</v>
+        <v>1.1367521367521367</v>
+      </c>
+      <c r="H9" s="70">
+        <f t="shared" si="0"/>
+        <v>0.24767225325884545</v>
       </c>
       <c r="I9" s="37">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E9,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>2.1419999999999998E-2</v>
+        <v>2.0545161290322578E-2</v>
       </c>
       <c r="J9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E9,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>61455.022222222222</v>
+        <v>60914.387096774197</v>
       </c>
       <c r="K9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[No wages])+SUMIF(Tabla22[Product2],E9,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>52889.740973333341</v>
+        <v>48443.676279032261</v>
       </c>
       <c r="L9" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E9,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>9889.7409733333334</v>
+        <v>5443.6762790322582</v>
       </c>
       <c r="N9" s="61" t="s">
         <v>55</v>
       </c>
       <c r="O9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)</f>
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="P9" s="47">
         <f>IFERROR(O9/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>1.1931818181818181</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="Q9" s="37">
         <f t="shared" si="1"/>
-        <v>0.2949438202247191</v>
+        <v>0.11224489795918367</v>
       </c>
       <c r="R9" s="37">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.1419999999999998E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="S9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>61455.022222222222</v>
+        <v>57843.428571428572</v>
       </c>
       <c r="T9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>52889.740973333341</v>
+        <v>28096.452342857145</v>
       </c>
       <c r="U9" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>9889.7409733333334</v>
-      </c>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-14903.547657142855</v>
+      </c>
+      <c r="W9" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" s="47">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2)</f>
+        <v>122</v>
+      </c>
+      <c r="Y9" s="47">
+        <f>IFERROR(X9/COUNTIF(Tabla22[[Economy ]],$X$2),0)</f>
+        <v>1.2708333333333333</v>
+      </c>
+      <c r="Z9" s="37">
+        <f t="shared" si="2"/>
+        <v>0.27790432801822323</v>
+      </c>
+      <c r="AA9" s="37">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>2.0665454545454546E-2</v>
+      </c>
+      <c r="AB9" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>61305.236363636366</v>
+      </c>
+      <c r="AC9" s="3">
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>51033.322961818187</v>
+      </c>
+      <c r="AD9" s="43">
+        <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>8033.3229618181813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
         <v>67</v>
       </c>
@@ -1902,67 +2070,96 @@
       </c>
       <c r="F10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N10)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N10)</f>
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="G10" s="48">
         <f>F10/COUNTIF(Tabla22[QualityBonus],"&gt;0")</f>
-        <v>2.1315789473684212</v>
-      </c>
-      <c r="H10" s="72">
-        <f t="shared" si="0"/>
-        <v>0.45505617977528096</v>
+        <v>2.1452991452991452</v>
+      </c>
+      <c r="H10" s="70">
+        <f t="shared" si="0"/>
+        <v>0.46741154562383613</v>
       </c>
       <c r="I10" s="45">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[QualityBonus])+SUMIF(Tabla22[Product2],E10,Tabla22[QualityBonus]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>2.1131111111111107E-2</v>
+        <v>1.9766666666666668E-2</v>
       </c>
       <c r="J10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[Base price1])+SUMIF(Tabla22[Product2],E10,Tabla22[Base price2]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>41497.755555555559</v>
+        <v>40964.708333333336</v>
       </c>
       <c r="K10" s="39">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[No wages])+SUMIF(Tabla22[Product2],E10,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>68111.238277777782</v>
+        <v>51005.195638888894</v>
       </c>
       <c r="L10" s="44">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E10,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>25111.238277777775</v>
+        <v>8005.1956388888875</v>
       </c>
       <c r="N10" s="62" t="s">
         <v>54</v>
       </c>
       <c r="O10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)</f>
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="P10" s="48">
         <f>IFERROR(O10/COUNTIF(Tabla22[[Economy ]],$O$2),0)</f>
-        <v>1.8409090909090908</v>
+        <v>2.375</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="1"/>
-        <v>0.45505617977528096</v>
+        <v>0.58163265306122458</v>
       </c>
       <c r="R10" s="45">
         <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>2.1131111111111107E-2</v>
+        <v>1.7550000000000003E-2</v>
       </c>
       <c r="S10" s="39">
         <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>41497.755555555559</v>
+        <v>39182.375</v>
       </c>
       <c r="T10" s="39">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>68111.238277777782</v>
+        <v>22804.335950000001</v>
       </c>
       <c r="U10" s="44">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>25111.238277777775</v>
-      </c>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-20195.664049999999</v>
+      </c>
+      <c r="W10" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" s="48">
+        <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2)</f>
+        <v>194</v>
+      </c>
+      <c r="Y10" s="48">
+        <f>IFERROR(X10/COUNTIF(Tabla22[[Economy ]],$X$2),0)</f>
+        <v>2.0208333333333335</v>
+      </c>
+      <c r="Z10" s="45">
+        <f t="shared" si="2"/>
+        <v>0.44191343963553542</v>
+      </c>
+      <c r="AA10" s="45">
+        <f>IFERROR((SUMIFS(Tabla22[QualityBonus],Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[QualityBonus],Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>2.0399999999999998E-2</v>
+      </c>
+      <c r="AB10" s="39">
+        <f>IFERROR((SUMIFS(Tabla22[Base price1],Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Base price2],Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>41473.946428571428</v>
+      </c>
+      <c r="AC10" s="39">
+        <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>59062.584121428561</v>
+      </c>
+      <c r="AD10" s="44">
+        <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2)),0)</f>
+        <v>16062.584121428572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" s="63" t="s">
         <v>13</v>
       </c>
@@ -1971,31 +2168,31 @@
       </c>
       <c r="F11" s="48">
         <f>SUM(F5:F10)</f>
-        <v>356</v>
+        <v>537</v>
       </c>
       <c r="G11" s="48">
         <f>SUM(G5:G10)</f>
-        <v>4.6842105263157894</v>
-      </c>
-      <c r="H11" s="73">
+        <v>4.5897435897435894</v>
+      </c>
+      <c r="H11" s="71">
         <f>SUM(H5:H10)</f>
         <v>1</v>
       </c>
       <c r="I11" s="57">
         <f>AVERAGE(Tabla22[QualityBonus])</f>
-        <v>2.1505263157894743E-2</v>
+        <v>2.0537606837606835E-2</v>
       </c>
       <c r="J11" s="39">
         <f>SUMPRODUCT(G5:G10,J5:J10)/G11</f>
-        <v>74190.536329588023</v>
+        <v>75476.809034937454</v>
       </c>
       <c r="K11" s="39">
         <f>AVERAGEIF(Tabla22[No wages],"&gt;0")</f>
-        <v>58336.130084210527</v>
+        <v>48868.607044347831</v>
       </c>
       <c r="L11" s="58">
         <f>AVERAGE(Tabla22[profit -wages])</f>
-        <v>15336.130084210532</v>
+        <v>4813.2003735042708</v>
       </c>
       <c r="M11" s="53"/>
       <c r="N11" s="51" t="s">
@@ -2003,36 +2200,65 @@
       </c>
       <c r="O11" s="48">
         <f>SUM(O5:O10)</f>
-        <v>356</v>
+        <v>98</v>
       </c>
       <c r="P11" s="48">
         <f>SUM(P5:P10)</f>
-        <v>4.045454545454545</v>
-      </c>
-      <c r="Q11" s="73">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="Q11" s="71">
         <f>SUM(Q5:Q10)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="R11" s="57">
         <f>IFERROR(AVERAGEIFS(Tabla22[QualityBonus],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>2.1505263157894743E-2</v>
+        <v>1.8985714285714279E-2</v>
       </c>
       <c r="S11" s="39">
         <f>IFERROR(SUMPRODUCT(S5:S10,P5:P10)/P11,0)</f>
-        <v>74190.536329588023</v>
+        <v>67269.430758017494</v>
       </c>
       <c r="T11" s="39">
         <f>IFERROR(AVERAGEIFS(Tabla22[No wages],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>50381.203254545457</v>
+        <v>17672.128016666666</v>
       </c>
       <c r="U11" s="58">
         <f>IFERROR(AVERAGEIFS(Tabla22[profit -wages],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>15336.130084210532</v>
-      </c>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-22803.282266666665</v>
+      </c>
+      <c r="W11" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="X11" s="48">
+        <f>SUM(X5:X10)</f>
+        <v>439</v>
+      </c>
+      <c r="Y11" s="48">
+        <f>SUM(Y5:Y10)</f>
+        <v>4.5729166666666661</v>
+      </c>
+      <c r="Z11" s="71">
+        <f>SUM(Z5:Z10)</f>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="57">
+        <f>IFERROR(AVERAGEIFS(Tabla22[QualityBonus],Tabla22[[Economy ]],$X$2),0)</f>
+        <v>2.0877083333333334E-2</v>
+      </c>
+      <c r="AB11" s="39">
+        <f>IFERROR(SUMPRODUCT(AB5:AB10,Y5:Y10)/Y11,0)</f>
+        <v>77315.728132710137</v>
+      </c>
+      <c r="AC11" s="39">
+        <f>IFERROR(AVERAGEIFS(Tabla22[No wages],Tabla22[[Economy ]],$X$2),0)</f>
+        <v>53854.305951041664</v>
+      </c>
+      <c r="AD11" s="58">
+        <f>IFERROR(AVERAGEIFS(Tabla22[profit -wages],Tabla22[[Economy ]],$X$2),0)</f>
+        <v>10854.305951041664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" s="64" t="s">
         <v>68</v>
       </c>
@@ -2042,7 +2268,7 @@
       <c r="V12" s="46"/>
       <c r="W12" s="46"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L13" s="53"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
@@ -2050,33 +2276,33 @@
       <c r="V13" s="46"/>
       <c r="W13" s="46"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="S14" s="46"/>
       <c r="T14" s="46"/>
       <c r="U14" s="46"/>
       <c r="V14" s="46"/>
       <c r="W14" s="46"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="75" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D15" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78" t="s">
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="81" t="s">
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
@@ -2084,7 +2310,7 @@
       <c r="V15" s="46"/>
       <c r="W15" s="46"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2152,7 +2378,7 @@
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="83">
         <v>124454</v>
       </c>
       <c r="F17" s="4">
@@ -2161,47 +2387,47 @@
       <c r="G17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="83">
         <v>63090</v>
       </c>
       <c r="I17" s="4">
         <v>3</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>313724</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21729.668400000002</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>27538.785</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5454</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>24270</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>78992.453399999999</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>35992.453399999999</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="S17" s="71" t="s">
+      <c r="S17" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="71" t="s">
+      <c r="T17" s="69" t="s">
         <v>77</v>
       </c>
       <c r="U17" s="46"/>
@@ -2220,7 +2446,7 @@
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="83">
         <v>84382</v>
       </c>
       <c r="F18" s="4">
@@ -2229,48 +2455,48 @@
       <c r="G18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="83">
         <v>62008</v>
       </c>
       <c r="I18" s="4">
         <v>4</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>416796</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14108.670399999999</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>25919.343999999997</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4764</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>28032</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>72824.0144</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>29824.0144</v>
       </c>
       <c r="R18" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="70">
+      <c r="S18" s="68">
         <v>858000</v>
       </c>
-      <c r="T18" s="70">
-        <v>6</v>
+      <c r="T18" s="68">
+        <v>4</v>
       </c>
       <c r="U18" s="46"/>
       <c r="V18" s="46"/>
@@ -2288,7 +2514,7 @@
       <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="83">
         <v>85355</v>
       </c>
       <c r="F19" s="4">
@@ -2297,47 +2523,47 @@
       <c r="G19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="83">
         <v>61900</v>
       </c>
       <c r="I19" s="4">
         <v>4</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>332955</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9320.7659999999996</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>33797.4</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>3355</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>27600</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>74073.165999999997</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>31073.165999999997</v>
       </c>
       <c r="R19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="70">
+      <c r="S19" s="68">
         <v>238000</v>
       </c>
-      <c r="T19" s="70">
+      <c r="T19" s="68">
         <v>4</v>
       </c>
       <c r="U19" s="46"/>
@@ -2356,54 +2582,54 @@
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="83">
         <v>59763</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="2">
+      <c r="J20" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>179289</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26176.193999999996</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14289</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>40465.193999999996</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-2534.8060000000041</v>
       </c>
       <c r="R20" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="70">
+      <c r="S20" s="68">
         <v>82000</v>
       </c>
-      <c r="T20" s="70">
+      <c r="T20" s="68">
         <v>4</v>
       </c>
       <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
+      <c r="V20" s="89"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -2418,7 +2644,7 @@
       <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="83">
         <v>121295</v>
       </c>
       <c r="F21" s="4">
@@ -2427,47 +2653,47 @@
       <c r="G21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="83">
         <v>61528</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>244351</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>16229.271000000001</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>13720.744000000001</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>2295</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>13056</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>45301.014999999999</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>2301.0149999999994</v>
       </c>
       <c r="R21" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="70">
+      <c r="S21" s="68">
         <v>55000</v>
       </c>
-      <c r="T21" s="70">
+      <c r="T21" s="68">
         <v>5</v>
       </c>
       <c r="U21" s="46"/>
@@ -2486,7 +2712,7 @@
       <c r="D22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="84">
         <v>120391</v>
       </c>
       <c r="F22" s="40">
@@ -2495,47 +2721,47 @@
       <c r="G22" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="84">
         <v>41297</v>
       </c>
       <c r="I22" s="40">
         <v>2</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="87">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>202985</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="84">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11918.709000000001</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>8176.8060000000005</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="87">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>1391</v>
       </c>
-      <c r="N22" s="39">
+      <c r="N22" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>8394</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="87">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>29880.514999999999</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="84">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-13119.485000000001</v>
       </c>
       <c r="R22" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="70">
+      <c r="S22" s="68">
         <v>37100</v>
       </c>
-      <c r="T22" s="70">
+      <c r="T22" s="68">
         <v>6</v>
       </c>
       <c r="U22" s="46"/>
@@ -2554,50 +2780,50 @@
       <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="83">
         <v>59574</v>
       </c>
       <c r="F23" s="4">
         <v>3</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="2">
+      <c r="J23" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>178722</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24752.996999999999</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13722</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>38474.997000000003</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-4525.002999999997</v>
       </c>
       <c r="R23" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="70">
+      <c r="S23" s="68">
         <v>119000</v>
       </c>
-      <c r="T23" s="70">
+      <c r="T23" s="68">
         <v>6</v>
       </c>
       <c r="U23" s="46"/>
@@ -2616,7 +2842,7 @@
       <c r="D24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="83">
         <v>42425</v>
       </c>
       <c r="F24" s="4">
@@ -2625,37 +2851,37 @@
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="83">
         <v>62774</v>
       </c>
       <c r="I24" s="4">
         <v>4</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>463221</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24691.350000000002</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>24356.312000000002</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26625</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>31096</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>106768.66200000001</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>63768.662000000011</v>
       </c>
@@ -2678,40 +2904,40 @@
       <c r="D25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="83">
         <v>62463</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="83"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="2">
+      <c r="J25" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>62463</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9182.0609999999997</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7463</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>16645.061000000002</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-26354.938999999998</v>
       </c>
@@ -2734,7 +2960,7 @@
       <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="83">
         <v>63155</v>
       </c>
       <c r="F26" s="4">
@@ -2743,37 +2969,37 @@
       <c r="G26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="83">
         <v>121803</v>
       </c>
       <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>306761</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4262.9625000000005</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>19732.085999999999</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8155</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>5606</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>37756.048500000004</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-5243.9514999999956</v>
       </c>
@@ -2796,7 +3022,7 @@
       <c r="D27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="83">
         <v>122297</v>
       </c>
       <c r="F27" s="4">
@@ -2805,37 +3031,37 @@
       <c r="G27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="83">
         <v>62060</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>306654</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>28764.254399999998</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>6081.88</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6594</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>7060</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>48500.134399999995</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>5500.1343999999954</v>
       </c>
@@ -2858,40 +3084,40 @@
       <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="83">
         <v>42060</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="83"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="2">
+      <c r="J28" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>84120</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>10144.871999999999</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9920</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>20064.871999999999</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-22935.128000000001</v>
       </c>
@@ -2914,7 +3140,7 @@
       <c r="D29" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="84">
         <v>82625</v>
       </c>
       <c r="F29" s="40">
@@ -2923,37 +3149,37 @@
       <c r="G29" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="84">
         <v>60733</v>
       </c>
       <c r="I29" s="40">
         <v>3</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="87">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>512699</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="84">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>16260.6</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>11205.238499999999</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="87">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>2500</v>
       </c>
-      <c r="N29" s="39">
+      <c r="N29" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>17199</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="87">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>47164.838499999998</v>
       </c>
-      <c r="P29" s="39">
+      <c r="P29" s="84">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>4164.838499999998</v>
       </c>
@@ -2976,7 +3202,7 @@
       <c r="D30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="83">
         <v>122928</v>
       </c>
       <c r="F30" s="4">
@@ -2985,37 +3211,37 @@
       <c r="G30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="83">
         <v>84564</v>
       </c>
       <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>660840</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>70806.528000000006</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>16236.288</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15712</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>5128</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>107882.81600000001</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>64882.816000000006</v>
       </c>
@@ -3038,7 +3264,7 @@
       <c r="D31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="83">
         <v>41066</v>
       </c>
       <c r="F31" s="4">
@@ -3047,37 +3273,37 @@
       <c r="G31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="83">
         <v>59787</v>
       </c>
       <c r="I31" s="4">
         <v>1</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>141919</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6554.1336000000001</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>3975.8354999999997</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7932</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>4787</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>23248.969100000002</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-19751.030899999998</v>
       </c>
@@ -3100,7 +3326,7 @@
       <c r="D32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="83">
         <v>40811</v>
       </c>
       <c r="F32" s="4">
@@ -3109,37 +3335,37 @@
       <c r="G32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="83">
         <v>119896</v>
       </c>
       <c r="I32" s="4">
         <v>2</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>443847</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>23384.703000000001</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>27480.163199999999</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18555</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>1792</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>71211.866200000004</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>28211.866200000004</v>
       </c>
@@ -3162,7 +3388,7 @@
       <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="83">
         <v>122798</v>
       </c>
       <c r="F33" s="4">
@@ -3171,37 +3397,37 @@
       <c r="G33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="83">
         <v>61610</v>
       </c>
       <c r="I33" s="4">
         <v>1</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>184408</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18640.736399999998</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>7793.665</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>3798</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>6610</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>36842.401400000002</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-6157.5985999999975</v>
       </c>
@@ -3223,7 +3449,7 @@
       <c r="D34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="83">
         <v>86511</v>
       </c>
       <c r="F34" s="4">
@@ -3232,37 +3458,37 @@
       <c r="G34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="83">
         <v>117824</v>
       </c>
       <c r="I34" s="4">
         <v>3</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>526494</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>10242.902400000001</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>31388.313600000001</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9022</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>-3528</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>47125.216</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>4125.2160000000003</v>
       </c>
@@ -3284,7 +3510,7 @@
       <c r="D35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="83">
         <v>41738</v>
       </c>
       <c r="F35" s="4">
@@ -3293,37 +3519,37 @@
       <c r="G35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="83">
         <v>119747</v>
       </c>
       <c r="I35" s="4">
         <v>1</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>286699</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>23339.889600000002</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>16740.6306</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18552</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>747</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>59379.520199999999</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>16379.520199999999</v>
       </c>
@@ -3345,7 +3571,7 @@
       <c r="D36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="83">
         <v>41925</v>
       </c>
       <c r="F36" s="4">
@@ -3354,37 +3580,37 @@
       <c r="G36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="83">
         <v>60640</v>
       </c>
       <c r="I36" s="4">
         <v>2</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>330905</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26035.424999999999</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>12552.48</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24125</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>11280</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>73992.904999999999</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>30992.904999999999</v>
       </c>
@@ -3406,7 +3632,7 @@
       <c r="D37" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="84">
         <v>83391</v>
       </c>
       <c r="F37" s="40">
@@ -3415,37 +3641,37 @@
       <c r="G37" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="84">
         <v>63078</v>
       </c>
       <c r="I37" s="40">
         <v>3</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37" s="87">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>272625</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="84">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9006.2279999999992</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>25546.59</v>
       </c>
-      <c r="M37" s="38">
+      <c r="M37" s="87">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>1391</v>
       </c>
-      <c r="N37" s="39">
+      <c r="N37" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>24234</v>
       </c>
-      <c r="O37" s="38">
+      <c r="O37" s="87">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>60177.817999999999</v>
       </c>
-      <c r="P37" s="39">
+      <c r="P37" s="84">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>17177.817999999999</v>
       </c>
@@ -3467,7 +3693,7 @@
       <c r="D38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="83">
         <v>62248</v>
       </c>
       <c r="F38" s="4">
@@ -3476,37 +3702,37 @@
       <c r="G38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="83">
         <v>41091</v>
       </c>
       <c r="I38" s="4">
         <v>4</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>288860</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7967.7440000000006</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>12623.155200000001</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14496</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>15964</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>51050.8992</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>8050.8991999999998</v>
       </c>
@@ -3528,7 +3754,7 @@
       <c r="D39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="83">
         <v>63084</v>
       </c>
       <c r="F39" s="4">
@@ -3537,37 +3763,37 @@
       <c r="G39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="83">
         <v>40499</v>
       </c>
       <c r="I39" s="4">
         <v>5</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>391747</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>25170.516000000003</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>32318.201999999997</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24252</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>16995</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>98735.717999999993</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>55735.717999999993</v>
       </c>
@@ -3585,7 +3811,7 @@
       <c r="D40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="83">
         <v>226246</v>
       </c>
       <c r="F40" s="4">
@@ -3594,37 +3820,37 @@
       <c r="G40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="83">
         <v>40077</v>
       </c>
       <c r="I40" s="4">
         <v>5</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>652877</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>42172.254400000005</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>28013.823</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-23508</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>14885</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>61563.077400000009</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>18563.077400000009</v>
       </c>
@@ -3642,7 +3868,7 @@
       <c r="D41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="83">
         <v>42129</v>
       </c>
       <c r="F41" s="4">
@@ -3651,37 +3877,37 @@
       <c r="G41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="83">
         <v>84082</v>
       </c>
       <c r="I41" s="4">
         <v>3</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>378633</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>20323.029600000002</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>27040.771199999999</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15087</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>6246</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>68696.800799999997</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>25696.800799999997</v>
       </c>
@@ -3699,7 +3925,7 @@
       <c r="D42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="83">
         <v>41691</v>
       </c>
       <c r="F42" s="4">
@@ -3708,37 +3934,37 @@
       <c r="G42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="83">
         <v>59925</v>
       </c>
       <c r="I42" s="4">
         <v>3</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>388230</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>35145.512999999999</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>25258.387500000001</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>22955</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>14775</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>98133.900500000003</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>55133.900500000003</v>
       </c>
@@ -3756,40 +3982,40 @@
       <c r="D43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="83">
         <v>42580</v>
       </c>
       <c r="F43" s="4">
         <v>4</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
+      <c r="H43" s="83"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="2">
+      <c r="J43" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>170320</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>25854.575999999997</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21920</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>47774.576000000001</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>4774.5760000000009</v>
       </c>
@@ -3807,7 +4033,7 @@
       <c r="D44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="83">
         <v>41608</v>
       </c>
       <c r="F44" s="4">
@@ -3816,37 +4042,37 @@
       <c r="G44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="83">
         <v>62343</v>
       </c>
       <c r="I44" s="4">
         <v>4</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>457412</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14604.408000000001</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>14588.262000000001</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>22540</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>29372</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>81104.67</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>38104.67</v>
       </c>
@@ -3864,40 +4090,40 @@
       <c r="D45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="83">
         <v>42445</v>
       </c>
       <c r="F45" s="4">
         <v>5</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="83"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="2">
+      <c r="J45" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>212225</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>33107.1</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26725</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>59832.1</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>16832.099999999999</v>
       </c>
@@ -3915,7 +4141,7 @@
       <c r="D46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="83">
         <v>41129</v>
       </c>
       <c r="F46" s="4">
@@ -3924,37 +4150,37 @@
       <c r="G46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="83">
         <v>121638</v>
       </c>
       <c r="I46" s="4">
         <v>3</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>447172</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11154.184799999999</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>49482.338399999993</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8058</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>7914</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>76608.523199999996</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>33608.523199999996</v>
       </c>
@@ -3972,7 +4198,7 @@
       <c r="D47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="83">
         <v>60948</v>
       </c>
       <c r="F47" s="4">
@@ -3981,37 +4207,37 @@
       <c r="G47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="83">
         <v>41020</v>
       </c>
       <c r="I47" s="4">
         <v>3</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>184008</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9020.3040000000019</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>21855.456000000002</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5948</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>11760</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>48583.76</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>5583.760000000002</v>
       </c>
@@ -4029,7 +4255,7 @@
       <c r="D48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="83">
         <v>117745</v>
       </c>
       <c r="F48" s="4">
@@ -4038,37 +4264,37 @@
       <c r="G48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="83">
         <v>62072</v>
       </c>
       <c r="I48" s="4">
         <v>2</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>477379</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>37301.615999999995</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>10924.672</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-3765</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>14144</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>58605.287999999993</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>15605.287999999993</v>
       </c>
@@ -4086,40 +4312,40 @@
       <c r="D49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="83">
         <v>62999</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
+      <c r="H49" s="83"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="2">
+      <c r="J49" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>62999</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5354.915</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7999</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>13353.915000000001</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-29646.084999999999</v>
       </c>
@@ -4137,40 +4363,40 @@
       <c r="D50" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="84">
         <v>117232</v>
       </c>
       <c r="F50" s="40">
         <v>1</v>
       </c>
       <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
+      <c r="H50" s="84"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="38">
+      <c r="J50" s="87">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>117232</v>
       </c>
-      <c r="K50" s="39">
+      <c r="K50" s="84">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>19835.654399999999</v>
       </c>
-      <c r="L50" s="39">
+      <c r="L50" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M50" s="38">
+      <c r="M50" s="87">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-1768</v>
       </c>
-      <c r="N50" s="39">
+      <c r="N50" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O50" s="38">
+      <c r="O50" s="87">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>18067.654399999999</v>
       </c>
-      <c r="P50" s="39">
+      <c r="P50" s="84">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-24932.345600000001</v>
       </c>
@@ -4188,7 +4414,7 @@
       <c r="D51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="83">
         <v>82956</v>
       </c>
       <c r="F51" s="4">
@@ -4197,37 +4423,37 @@
       <c r="G51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="83">
         <v>42566</v>
       </c>
       <c r="I51" s="4">
         <v>5</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>544654</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>35173.343999999997</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>33839.97</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>3824</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>27330</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>100167.314</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>57167.313999999998</v>
       </c>
@@ -4245,40 +4471,40 @@
       <c r="D52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="83">
         <v>42329</v>
       </c>
       <c r="F52" s="4">
         <v>4</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="83"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="2">
+      <c r="J52" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>169316</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26413.295999999998</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>20916</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>47329.296000000002</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>4329.2960000000021</v>
       </c>
@@ -4296,7 +4522,7 @@
       <c r="D53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="83">
         <v>41309</v>
       </c>
       <c r="F53" s="4">
@@ -4305,37 +4531,37 @@
       <c r="G53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="83">
         <v>118549</v>
       </c>
       <c r="I53" s="4">
         <v>3</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>438265</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12045.704399999999</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>51853.332599999994</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8418</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>-1353</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>70964.036999999997</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>27964.036999999997</v>
       </c>
@@ -4353,7 +4579,7 @@
       <c r="D54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="83">
         <v>41700</v>
       </c>
       <c r="F54" s="4">
@@ -4362,37 +4588,37 @@
       <c r="G54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="83">
         <v>86334</v>
       </c>
       <c r="I54" s="4">
         <v>1</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>211434</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12610.079999999998</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>5801.6448</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>4334</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>36545.724799999996</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-6454.2752000000037</v>
       </c>
@@ -4410,40 +4636,40 @@
       <c r="D55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="83">
         <v>41268</v>
       </c>
       <c r="F55" s="4">
         <v>2</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="83"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="2">
+      <c r="J55" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>82536</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11538.532800000001</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8336</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>19874.532800000001</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-23125.467199999999</v>
       </c>
@@ -4461,7 +4687,7 @@
       <c r="D56" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="83">
         <v>85536</v>
       </c>
       <c r="F56" s="4">
@@ -4470,37 +4696,37 @@
       <c r="G56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="83">
         <v>42025</v>
       </c>
       <c r="I56" s="4">
         <v>5</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>552269</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>29834.9568</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>27484.35</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14144</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>24625</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>96088.306799999991</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P56" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>53088.306799999991</v>
       </c>
@@ -4518,7 +4744,7 @@
       <c r="D57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="83">
         <v>61103</v>
       </c>
       <c r="F57" s="4">
@@ -4527,37 +4753,37 @@
       <c r="G57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="83">
         <v>42071</v>
       </c>
       <c r="I57" s="4">
         <v>2</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>206348</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12098.394</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>9996.0696000000007</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12206</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>9942</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>44242.463600000003</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>1242.4636000000028</v>
       </c>
@@ -4575,40 +4801,40 @@
       <c r="D58" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="39">
+      <c r="E58" s="84">
         <v>39994</v>
       </c>
       <c r="F58" s="40">
         <v>2</v>
       </c>
       <c r="G58" s="38"/>
-      <c r="H58" s="39"/>
+      <c r="H58" s="84"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="38">
+      <c r="J58" s="87">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>79988</v>
       </c>
-      <c r="K58" s="39">
+      <c r="K58" s="84">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4895.2656000000006</v>
       </c>
-      <c r="L58" s="39">
+      <c r="L58" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M58" s="38">
+      <c r="M58" s="87">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5788</v>
       </c>
-      <c r="N58" s="39">
+      <c r="N58" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O58" s="38">
+      <c r="O58" s="87">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>10683.265600000001</v>
       </c>
-      <c r="P58" s="39">
+      <c r="P58" s="84">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-32316.734400000001</v>
       </c>
@@ -4626,7 +4852,7 @@
       <c r="D59" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="83">
         <v>41087</v>
       </c>
       <c r="F59" s="4">
@@ -4635,37 +4861,37 @@
       <c r="G59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="83">
         <v>118450</v>
       </c>
       <c r="I59" s="4">
         <v>3</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>519698</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>22482.806400000001</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>48611.880000000005</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15948</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>-1650</v>
       </c>
-      <c r="O59" s="2">
+      <c r="O59" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>85392.686400000006</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>42392.686400000006</v>
       </c>
@@ -4683,40 +4909,40 @@
       <c r="D60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="83">
         <v>40290</v>
       </c>
       <c r="F60" s="4">
         <v>5</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="3"/>
+      <c r="H60" s="83"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="2">
+      <c r="J60" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>201450</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21031.379999999997</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15950</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O60" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>36981.379999999997</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-6018.6200000000026</v>
       </c>
@@ -4734,40 +4960,40 @@
       <c r="D61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="83">
         <v>61156</v>
       </c>
       <c r="F61" s="4">
         <v>3</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
+      <c r="H61" s="83"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="2">
+      <c r="J61" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>183468</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>26602.86</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18468</v>
       </c>
-      <c r="N61" s="3">
+      <c r="N61" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>45070.86</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>2070.8600000000006</v>
       </c>
@@ -4785,7 +5011,7 @@
       <c r="D62" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="83">
         <v>40841</v>
       </c>
       <c r="F62" s="4">
@@ -4794,37 +5020,37 @@
       <c r="G62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="83">
         <v>85277</v>
       </c>
       <c r="I62" s="4">
         <v>4</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>463631</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11247.6114</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>20875.809600000001</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>11223</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>13108</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>56454.421000000002</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>13454.421000000002</v>
       </c>
@@ -4842,40 +5068,40 @@
       <c r="D63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="83">
         <v>62292</v>
       </c>
       <c r="F63" s="4">
         <v>2</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="83"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="2">
+      <c r="J63" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>124584</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13019.028</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14584</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N63" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>27603.027999999998</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-15396.972000000002</v>
       </c>
@@ -4893,7 +5119,7 @@
       <c r="D64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="68">
+      <c r="E64" s="85">
         <v>62770</v>
       </c>
       <c r="F64" s="5">
@@ -4902,37 +5128,37 @@
       <c r="G64" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="83">
         <v>84716</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>335796</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>32640.400000000001</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>8810.4639999999999</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>31080</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>2716</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>75246.864000000001</v>
       </c>
-      <c r="P64" s="68">
+      <c r="P64" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>32246.864000000001</v>
       </c>
@@ -4950,7 +5176,7 @@
       <c r="D65" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="68">
+      <c r="E65" s="85">
         <v>42582</v>
       </c>
       <c r="F65" s="5">
@@ -4959,37 +5185,37 @@
       <c r="G65" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="83">
         <v>62487</v>
       </c>
       <c r="I65" s="5">
         <v>2</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>337884</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21844.565999999999</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>10685.277</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>27410</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N65" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>14974</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O65" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>74913.842999999993</v>
       </c>
-      <c r="P65" s="68">
+      <c r="P65" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>31913.842999999993</v>
       </c>
@@ -5007,40 +5233,40 @@
       <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="68">
+      <c r="E66" s="85">
         <v>59416</v>
       </c>
       <c r="F66" s="5">
         <v>2</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
+      <c r="H66" s="83"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="2">
+      <c r="J66" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>118832</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6060.4320000000007</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>8832</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O66" s="2">
+      <c r="O66" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>14892.432000000001</v>
       </c>
-      <c r="P66" s="68">
+      <c r="P66" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-28107.567999999999</v>
       </c>
@@ -5058,40 +5284,40 @@
       <c r="D67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E67" s="85">
         <v>42602</v>
       </c>
       <c r="F67" s="5">
         <v>5</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
+      <c r="H67" s="83"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="2">
+      <c r="J67" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>213010</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>34635.425999999999</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>27510</v>
       </c>
-      <c r="N67" s="3">
+      <c r="N67" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O67" s="2">
+      <c r="O67" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>62145.425999999999</v>
       </c>
-      <c r="P67" s="68">
+      <c r="P67" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>19145.425999999999</v>
       </c>
@@ -5109,7 +5335,7 @@
       <c r="D68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="68">
+      <c r="E68" s="85">
         <v>825825</v>
       </c>
       <c r="F68" s="5">
@@ -5118,39 +5344,39 @@
       <c r="G68" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="83">
         <v>40101</v>
       </c>
       <c r="I68" s="5">
         <v>5</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>2677980</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>437026.58999999997</v>
-      </c>
-      <c r="L68" s="3">
+        <v>291351.06</v>
+      </c>
+      <c r="L68" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>35369.082000000002</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-96525</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N68" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>15005</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O68" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>390875.67199999996</v>
-      </c>
-      <c r="P68" s="68">
+        <v>245200.14199999999</v>
+      </c>
+      <c r="P68" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>347875.67199999996</v>
+        <v>202200.14199999999</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -5166,40 +5392,40 @@
       <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="68">
+      <c r="E69" s="85">
         <v>61467</v>
       </c>
       <c r="F69" s="5">
         <v>1</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="3"/>
+      <c r="H69" s="83"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="2">
+      <c r="J69" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>61467</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9097.1160000000018</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6467</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N69" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O69" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>15564.116000000002</v>
       </c>
-      <c r="P69" s="68">
+      <c r="P69" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-27435.883999999998</v>
       </c>
@@ -5217,7 +5443,7 @@
       <c r="D70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="68">
+      <c r="E70" s="85">
         <v>119307</v>
       </c>
       <c r="F70" s="5">
@@ -5226,37 +5452,37 @@
       <c r="G70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="83">
         <v>42570</v>
       </c>
       <c r="I70" s="5">
         <v>3</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>247017</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13672.582199999999</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>14635.565999999999</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>307</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>16410</v>
       </c>
-      <c r="O70" s="2">
+      <c r="O70" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>45025.148199999996</v>
       </c>
-      <c r="P70" s="68">
+      <c r="P70" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>2025.148199999996</v>
       </c>
@@ -5274,40 +5500,40 @@
       <c r="D71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="83">
         <v>61283</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="3"/>
+      <c r="H71" s="83"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="2">
+      <c r="J71" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>61283</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4933.2815000000001</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6283</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N71" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O71" s="2">
+      <c r="O71" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>11216.281500000001</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-31783.718499999999</v>
       </c>
@@ -5325,7 +5551,7 @@
       <c r="D72" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="84">
         <v>84255</v>
       </c>
       <c r="F72" s="40">
@@ -5334,37 +5560,37 @@
       <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="39">
+      <c r="H72" s="84">
         <v>59249</v>
       </c>
       <c r="I72" s="40">
         <v>1</v>
       </c>
-      <c r="J72" s="38">
+      <c r="J72" s="87">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>143504</v>
       </c>
-      <c r="K72" s="39">
+      <c r="K72" s="84">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7380.7379999999994</v>
       </c>
-      <c r="L72" s="39">
+      <c r="L72" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>6487.7654999999995</v>
       </c>
-      <c r="M72" s="38">
+      <c r="M72" s="87">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>2255</v>
       </c>
-      <c r="N72" s="39">
+      <c r="N72" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>4249</v>
       </c>
-      <c r="O72" s="38">
+      <c r="O72" s="87">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>20372.503499999999</v>
       </c>
-      <c r="P72" s="39">
+      <c r="P72" s="84">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-22627.496500000001</v>
       </c>
@@ -5382,7 +5608,7 @@
       <c r="D73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="68">
+      <c r="E73" s="85">
         <v>62381</v>
       </c>
       <c r="F73" s="5">
@@ -5391,37 +5617,37 @@
       <c r="G73" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="83">
         <v>41862</v>
       </c>
       <c r="I73" s="5">
         <v>3</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>250348</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9856.1980000000021</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>11905.552800000001</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14762</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N73" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>14286</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>50809.750800000002</v>
       </c>
-      <c r="P73" s="68">
+      <c r="P73" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>7809.7508000000016</v>
       </c>
@@ -5439,7 +5665,7 @@
       <c r="D74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="68">
+      <c r="E74" s="85">
         <v>40404</v>
       </c>
       <c r="F74" s="5">
@@ -5448,37 +5674,37 @@
       <c r="G74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="83">
         <v>121380</v>
       </c>
       <c r="I74" s="5">
         <v>2</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>323568</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5866.6607999999997</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>17624.376</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>6608</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>4760</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O74" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>34859.036800000002</v>
       </c>
-      <c r="P74" s="68">
+      <c r="P74" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-8140.9631999999983</v>
       </c>
@@ -5496,7 +5722,7 @@
       <c r="D75" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="68">
+      <c r="E75" s="85">
         <v>62536</v>
       </c>
       <c r="F75" s="5">
@@ -5505,37 +5731,37 @@
       <c r="G75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="83">
         <v>41912</v>
       </c>
       <c r="I75" s="5">
         <v>2</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>333968</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14508.351999999999</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>5834.1503999999995</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>30144</v>
       </c>
-      <c r="N75" s="3">
+      <c r="N75" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>9624</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>60110.502399999998</v>
       </c>
-      <c r="P75" s="68">
+      <c r="P75" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>17110.502399999998</v>
       </c>
@@ -5553,7 +5779,7 @@
       <c r="D76" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="68">
+      <c r="E76" s="85">
         <v>40580</v>
       </c>
       <c r="F76" s="5">
@@ -5562,37 +5788,37 @@
       <c r="G76" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="83">
         <v>59385</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>221705</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>19770.575999999997</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>6027.5774999999994</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13920</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>4385</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>44103.1535</v>
       </c>
-      <c r="P76" s="68">
+      <c r="P76" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>1103.1535000000003</v>
       </c>
@@ -5610,7 +5836,7 @@
       <c r="D77" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="68">
+      <c r="E77" s="85">
         <v>222195</v>
       </c>
       <c r="F77" s="5">
@@ -5619,37 +5845,37 @@
       <c r="G77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H77" s="68">
+      <c r="H77" s="85">
         <v>117614</v>
       </c>
       <c r="I77" s="5">
         <v>3</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>575037</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>19730.916000000001</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>46998.554400000001</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-15805</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N77" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>-4158</v>
       </c>
-      <c r="O77" s="2">
+      <c r="O77" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>46766.470400000006</v>
       </c>
-      <c r="P77" s="68">
+      <c r="P77" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>3766.4704000000056</v>
       </c>
@@ -5667,7 +5893,7 @@
       <c r="D78" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E78" s="68">
+      <c r="E78" s="85">
         <v>120518</v>
       </c>
       <c r="F78" s="5">
@@ -5676,37 +5902,37 @@
       <c r="G78" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H78" s="68">
+      <c r="H78" s="85">
         <v>40446</v>
       </c>
       <c r="I78" s="5">
         <v>3</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>241856</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15402.2004</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>15506.9964</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>1518</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>10038</v>
       </c>
-      <c r="O78" s="2">
+      <c r="O78" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>42465.196799999998</v>
       </c>
-      <c r="P78" s="68">
+      <c r="P78" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-534.80320000000211</v>
       </c>
@@ -5724,7 +5950,7 @@
       <c r="D79" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="68">
+      <c r="E79" s="85">
         <v>40932</v>
       </c>
       <c r="F79" s="5">
@@ -5733,37 +5959,37 @@
       <c r="G79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H79" s="68">
+      <c r="H79" s="85">
         <v>59663</v>
       </c>
       <c r="I79" s="5">
         <v>4</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>320516</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>13507.560000000001</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>32814.65</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7664</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N79" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>18652</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>72638.210000000006</v>
       </c>
-      <c r="P79" s="68">
+      <c r="P79" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>29638.210000000006</v>
       </c>
@@ -5781,7 +6007,7 @@
       <c r="D80" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="68">
+      <c r="E80" s="85">
         <v>40605</v>
       </c>
       <c r="F80" s="5">
@@ -5790,37 +6016,37 @@
       <c r="G80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="68">
+      <c r="H80" s="85">
         <v>62919</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>184734</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14910.156000000003</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>6417.7380000000003</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>10515</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>7919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>39761.894</v>
       </c>
-      <c r="P80" s="68">
+      <c r="P80" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-3238.1059999999998</v>
       </c>
@@ -5838,7 +6064,7 @@
       <c r="D81" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="68">
+      <c r="E81" s="85">
         <v>41913</v>
       </c>
       <c r="F81" s="5">
@@ -5847,37 +6073,37 @@
       <c r="G81" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H81" s="68">
+      <c r="H81" s="85">
         <v>59770</v>
       </c>
       <c r="I81" s="5">
         <v>1</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>143596</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9908.2332000000006</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>5887.3449999999993</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>9626</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>4770</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O81" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>30191.5782</v>
       </c>
-      <c r="P81" s="68">
+      <c r="P81" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-12808.4218</v>
       </c>
@@ -5895,7 +6121,7 @@
       <c r="D82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="68">
+      <c r="E82" s="85">
         <v>59654</v>
       </c>
       <c r="F82" s="5">
@@ -5904,37 +6130,37 @@
       <c r="G82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H82" s="68">
+      <c r="H82" s="85">
         <v>42145</v>
       </c>
       <c r="I82" s="5">
         <v>3</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>365051</v>
       </c>
-      <c r="K82" s="68">
+      <c r="K82" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>30662.155999999999</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>19496.277000000002</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>18616</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>15135</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O82" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>83909.433000000005</v>
       </c>
-      <c r="P82" s="68">
+      <c r="P82" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>40909.433000000005</v>
       </c>
@@ -5952,7 +6178,7 @@
       <c r="D83" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E83" s="68">
+      <c r="E83" s="85">
         <v>42232</v>
       </c>
       <c r="F83" s="5">
@@ -5961,37 +6187,37 @@
       <c r="G83" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H83" s="68">
+      <c r="H83" s="85">
         <v>61628</v>
       </c>
       <c r="I83" s="5">
         <v>4</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>373208</v>
       </c>
-      <c r="K83" s="68">
+      <c r="K83" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>17636.083199999997</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>28595.392</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15396</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>26512</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>88139.475200000001</v>
       </c>
-      <c r="P83" s="68">
+      <c r="P83" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>45139.475200000001</v>
       </c>
@@ -6009,40 +6235,40 @@
       <c r="D84" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="68">
+      <c r="E84" s="85">
         <v>61156</v>
       </c>
       <c r="F84" s="5">
         <v>2</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="68"/>
+      <c r="H84" s="85"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="2">
+      <c r="J84" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>122312</v>
       </c>
-      <c r="K84" s="68">
+      <c r="K84" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>17123.68</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>12312</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N84" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O84" s="2">
+      <c r="O84" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>29435.68</v>
       </c>
-      <c r="P84" s="68">
+      <c r="P84" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-13564.32</v>
       </c>
@@ -6060,7 +6286,7 @@
       <c r="D85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="68">
+      <c r="E85" s="85">
         <v>85384</v>
       </c>
       <c r="F85" s="5">
@@ -6069,37 +6295,37 @@
       <c r="G85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="68">
+      <c r="H85" s="85">
         <v>61275</v>
       </c>
       <c r="I85" s="5">
         <v>2</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>378702</v>
       </c>
-      <c r="K85" s="68">
+      <c r="K85" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>28484.102399999996</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L85" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>17034.45</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>10152</v>
       </c>
-      <c r="N85" s="3">
+      <c r="N85" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>12550</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>68220.5524</v>
       </c>
-      <c r="P85" s="68">
+      <c r="P85" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>25220.5524</v>
       </c>
@@ -6117,40 +6343,40 @@
       <c r="D86" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="68">
+      <c r="E86" s="85">
         <v>42066</v>
       </c>
       <c r="F86" s="5">
         <v>5</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="68"/>
+      <c r="H86" s="85"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="2">
+      <c r="J86" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>210330</v>
       </c>
-      <c r="K86" s="68">
+      <c r="K86" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>37607.004000000001</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24830</v>
       </c>
-      <c r="N86" s="3">
+      <c r="N86" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="2">
+      <c r="O86" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>62437.004000000001</v>
       </c>
-      <c r="P86" s="68">
+      <c r="P86" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>19437.004000000001</v>
       </c>
@@ -6168,8 +6394,8 @@
       <c r="D87" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="68">
-        <v>42607</v>
+      <c r="E87" s="85">
+        <v>42670</v>
       </c>
       <c r="F87" s="5">
         <v>5</v>
@@ -6177,39 +6403,39 @@
       <c r="G87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H87" s="68">
+      <c r="H87" s="85">
         <v>59386</v>
       </c>
       <c r="I87" s="5">
         <v>3</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>391193</v>
-      </c>
-      <c r="K87" s="68">
+        <v>391508</v>
+      </c>
+      <c r="K87" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>29910.113999999998</v>
-      </c>
-      <c r="L87" s="3">
+        <v>29954.339999999997</v>
+      </c>
+      <c r="L87" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>20844.486000000001</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M87" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>27535</v>
-      </c>
-      <c r="N87" s="3">
+        <v>27850</v>
+      </c>
+      <c r="N87" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>13158</v>
       </c>
-      <c r="O87" s="2">
+      <c r="O87" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>91447.6</v>
-      </c>
-      <c r="P87" s="68">
+        <v>91806.826000000001</v>
+      </c>
+      <c r="P87" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>48447.600000000006</v>
+        <v>48806.826000000001</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -6225,40 +6451,40 @@
       <c r="D88" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="68">
+      <c r="E88" s="85">
         <v>121779</v>
       </c>
       <c r="F88" s="5">
         <v>2</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="68"/>
+      <c r="H88" s="85"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="2">
+      <c r="J88" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>243558</v>
       </c>
-      <c r="K88" s="68">
+      <c r="K88" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>24989.050800000001</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L88" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>5558</v>
       </c>
-      <c r="N88" s="3">
+      <c r="N88" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O88" s="2">
+      <c r="O88" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>30547.050800000001</v>
       </c>
-      <c r="P88" s="68">
+      <c r="P88" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-12452.949199999999</v>
       </c>
@@ -6276,7 +6502,7 @@
       <c r="D89" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E89" s="68">
+      <c r="E89" s="85">
         <v>228495</v>
       </c>
       <c r="F89" s="5">
@@ -6285,37 +6511,37 @@
       <c r="G89" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H89" s="68">
+      <c r="H89" s="85">
         <v>62131</v>
       </c>
       <c r="I89" s="5">
         <v>3</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>871878</v>
       </c>
-      <c r="K89" s="68">
+      <c r="K89" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>49080.726000000002</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>16682.173500000001</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>-28515</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>21393</v>
       </c>
-      <c r="O89" s="2">
+      <c r="O89" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>58640.8995</v>
       </c>
-      <c r="P89" s="68">
+      <c r="P89" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>15640.8995</v>
       </c>
@@ -6333,7 +6559,7 @@
       <c r="D90" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E90" s="68">
+      <c r="E90" s="85">
         <v>40769</v>
       </c>
       <c r="F90" s="5">
@@ -6342,39 +6568,39 @@
       <c r="G90" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="68">
+      <c r="H90" s="85">
         <v>844341</v>
       </c>
       <c r="I90" s="5">
         <v>1</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>1007417</v>
       </c>
-      <c r="K90" s="68">
+      <c r="K90" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>17612.207999999999</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>91188.827999999994</v>
-      </c>
-      <c r="M90" s="2">
+        <v>60792.551999999996</v>
+      </c>
+      <c r="M90" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>14676</v>
       </c>
-      <c r="N90" s="3">
+      <c r="N90" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>-13659</v>
       </c>
-      <c r="O90" s="2">
+      <c r="O90" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>109818.03599999999</v>
-      </c>
-      <c r="P90" s="68">
+        <v>79421.759999999995</v>
+      </c>
+      <c r="P90" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>66818.035999999993</v>
+        <v>36421.759999999995</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -6390,7 +6616,7 @@
       <c r="D91" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="83">
         <v>62189</v>
       </c>
       <c r="F91" s="4">
@@ -6399,37 +6625,37 @@
       <c r="G91" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="83">
         <v>227496</v>
       </c>
       <c r="I91" s="4">
         <v>3</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>869055</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>15298.494000000002</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>44771.212800000001</v>
       </c>
-      <c r="M91" s="2">
+      <c r="M91" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>21567</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>-31512</v>
       </c>
-      <c r="O91" s="2">
+      <c r="O91" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>50124.7068</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>7124.7067999999999</v>
       </c>
@@ -6447,7 +6673,7 @@
       <c r="D92" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="39">
+      <c r="E92" s="84">
         <v>62398</v>
       </c>
       <c r="F92" s="40">
@@ -6456,37 +6682,37 @@
       <c r="G92" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H92" s="39">
+      <c r="H92" s="84">
         <v>83725</v>
       </c>
       <c r="I92" s="40">
         <v>3</v>
       </c>
-      <c r="J92" s="38">
+      <c r="J92" s="87">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>313573</v>
       </c>
-      <c r="K92" s="39">
+      <c r="K92" s="84">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>4742.2479999999996</v>
       </c>
-      <c r="L92" s="39">
+      <c r="L92" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>15271.44</v>
       </c>
-      <c r="M92" s="38">
+      <c r="M92" s="87">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>7398</v>
       </c>
-      <c r="N92" s="39">
+      <c r="N92" s="84">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>5175</v>
       </c>
-      <c r="O92" s="38">
+      <c r="O92" s="87">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>32586.688000000002</v>
       </c>
-      <c r="P92" s="39">
+      <c r="P92" s="84">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v>-10413.311999999998</v>
       </c>
@@ -6498,39 +6724,54 @@
       <c r="B93" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="68"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="2">
+      <c r="C93" s="37">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="83">
+        <v>62496</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" s="83">
+        <v>40795</v>
+      </c>
+      <c r="I93" s="4">
+        <v>2</v>
+      </c>
+      <c r="J93" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K93" s="3">
+        <v>144086</v>
+      </c>
+      <c r="K93" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L93" s="3">
+        <v>4624.7040000000006</v>
+      </c>
+      <c r="L93" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="M93" s="74">
+        <v>7245.192</v>
+      </c>
+      <c r="M93" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N93" s="3">
+        <v>7496</v>
+      </c>
+      <c r="N93" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="O93" s="2">
+        <v>7390</v>
+      </c>
+      <c r="O93" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P93" s="3" t="str">
+        <v>26755.896000000001</v>
+      </c>
+      <c r="P93" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>-16244.103999999999</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -6540,39 +6781,54 @@
       <c r="B94" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="67"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="68"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="2">
+      <c r="C94" s="67">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="85">
+        <v>41529</v>
+      </c>
+      <c r="F94" s="5">
+        <v>5</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H94" s="85">
+        <v>59468</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1</v>
+      </c>
+      <c r="J94" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+        <v>267113</v>
+      </c>
+      <c r="K94" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+        <v>23546.942999999999</v>
+      </c>
+      <c r="L94" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="M94" s="2">
+        <v>5619.7259999999997</v>
+      </c>
+      <c r="M94" s="88">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+        <v>22145</v>
+      </c>
+      <c r="N94" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="O94" s="2">
+        <v>4468</v>
+      </c>
+      <c r="O94" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="str">
+        <v>55779.668999999994</v>
+      </c>
+      <c r="P94" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>12779.668999999994</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -6582,39 +6838,54 @@
       <c r="B95" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="67"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="68"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="68"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="2">
+      <c r="C95" s="67">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" s="85">
+        <v>59740</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H95" s="85">
+        <v>120772</v>
+      </c>
+      <c r="I95" s="5">
+        <v>1</v>
+      </c>
+      <c r="J95" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="3">
+        <v>180512</v>
+      </c>
+      <c r="K95" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L95" s="3">
+        <v>5645.43</v>
+      </c>
+      <c r="L95" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="2">
+        <v>13695.5448</v>
+      </c>
+      <c r="M95" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N95" s="3">
+        <v>4740</v>
+      </c>
+      <c r="N95" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="O95" s="2">
+        <v>1772</v>
+      </c>
+      <c r="O95" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P95" s="3" t="str">
+        <v>25852.9748</v>
+      </c>
+      <c r="P95" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>-17147.0252</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -6624,39 +6895,54 @@
       <c r="B96" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="67"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="68"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="2">
+      <c r="C96" s="67">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="85">
+        <v>85997</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" s="85">
+        <v>41336</v>
+      </c>
+      <c r="I96" s="5">
+        <v>3</v>
+      </c>
+      <c r="J96" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+        <v>210005</v>
+      </c>
+      <c r="K96" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+        <v>4368.6476000000002</v>
+      </c>
+      <c r="L96" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="2">
+        <v>9449.409599999999</v>
+      </c>
+      <c r="M96" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
+        <v>3997</v>
+      </c>
+      <c r="N96" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="O96" s="2">
+        <v>12708</v>
+      </c>
+      <c r="O96" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P96" s="3" t="str">
+        <v>30523.057199999999</v>
+      </c>
+      <c r="P96" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>-12476.942800000001</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -6666,39 +6952,54 @@
       <c r="B97" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="67"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="68"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="2">
+      <c r="C97" s="67">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="85">
+        <v>61857</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H97" s="85">
+        <v>227814</v>
+      </c>
+      <c r="I97" s="5">
+        <v>3</v>
+      </c>
+      <c r="J97" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="3">
+        <v>745299</v>
+      </c>
+      <c r="K97" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L97" s="3">
+        <v>6092.914499999999</v>
+      </c>
+      <c r="L97" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="M97" s="2">
+        <v>53855.229599999999</v>
+      </c>
+      <c r="M97" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N97" s="3">
+        <v>6857</v>
+      </c>
+      <c r="N97" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="O97" s="2">
+        <v>-30558</v>
+      </c>
+      <c r="O97" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P97" s="3" t="str">
+        <v>36247.144100000005</v>
+      </c>
+      <c r="P97" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>-6752.855899999995</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -6708,39 +7009,54 @@
       <c r="B98" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="67"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="68"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="2">
+      <c r="C98" s="67">
+        <v>2.63E-2</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E98" s="85">
+        <v>81840</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H98" s="85">
+        <v>123423</v>
+      </c>
+      <c r="I98" s="5">
+        <v>3</v>
+      </c>
+      <c r="J98" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K98" s="3">
+        <v>452109</v>
+      </c>
+      <c r="K98" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L98" s="3">
+        <v>8609.5679999999993</v>
+      </c>
+      <c r="L98" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="2">
+        <v>58428.448199999999</v>
+      </c>
+      <c r="M98" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N98" s="3">
+        <v>-160</v>
+      </c>
+      <c r="N98" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="O98" s="2">
+        <v>13269</v>
+      </c>
+      <c r="O98" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P98" s="3" t="str">
+        <v>80147.016199999998</v>
+      </c>
+      <c r="P98" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>37147.016199999998</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -6750,39 +7066,54 @@
       <c r="B99" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="67"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="68"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="2">
+      <c r="C99" s="67">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="85">
+        <v>41850</v>
+      </c>
+      <c r="F99" s="5">
+        <v>2</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="85">
+        <v>86551</v>
+      </c>
+      <c r="I99" s="5">
+        <v>2</v>
+      </c>
+      <c r="J99" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K99" s="3">
+        <v>256802</v>
+      </c>
+      <c r="K99" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L99" s="3">
+        <v>9491.58</v>
+      </c>
+      <c r="L99" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="2">
+        <v>13086.511200000001</v>
+      </c>
+      <c r="M99" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N99" s="3">
+        <v>9500</v>
+      </c>
+      <c r="N99" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="O99" s="2">
+        <v>9102</v>
+      </c>
+      <c r="O99" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P99" s="3" t="str">
+        <v>41180.091200000003</v>
+      </c>
+      <c r="P99" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>-1819.9087999999974</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -6792,39 +7123,54 @@
       <c r="B100" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="67"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="68"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="2">
+      <c r="C100" s="67">
+        <v>1.24E-2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="85">
+        <v>40715</v>
+      </c>
+      <c r="F100" s="5">
+        <v>4</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100" s="85">
+        <v>116281</v>
+      </c>
+      <c r="I100" s="5">
+        <v>1</v>
+      </c>
+      <c r="J100" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+        <v>279141</v>
+      </c>
+      <c r="K100" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+        <v>12116.784</v>
+      </c>
+      <c r="L100" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="2">
+        <v>8651.3063999999995</v>
+      </c>
+      <c r="M100" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+        <v>14460</v>
+      </c>
+      <c r="N100" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="O100" s="2">
+        <v>-2719</v>
+      </c>
+      <c r="O100" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="str">
+        <v>32509.090400000001</v>
+      </c>
+      <c r="P100" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>-10490.909599999999</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -6834,39 +7180,48 @@
       <c r="B101" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="68"/>
+      <c r="C101" s="67">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="85">
+        <v>59784</v>
+      </c>
+      <c r="F101" s="5">
+        <v>2</v>
+      </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="68"/>
+      <c r="H101" s="85"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="2">
+      <c r="J101" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+        <v>119568</v>
+      </c>
+      <c r="K101" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+        <v>9804.5760000000009</v>
+      </c>
+      <c r="L101" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M101" s="2">
+      <c r="M101" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+        <v>9568</v>
+      </c>
+      <c r="N101" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O101" s="2">
+      <c r="O101" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="str">
+        <v>19372.576000000001</v>
+      </c>
+      <c r="P101" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>-23627.423999999999</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -6876,39 +7231,48 @@
       <c r="B102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="67"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="68"/>
+      <c r="C102" s="67">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="85">
+        <v>40520</v>
+      </c>
+      <c r="F102" s="5">
+        <v>2</v>
+      </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="68"/>
+      <c r="H102" s="85"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="2">
+      <c r="J102" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="6">
+        <v>81040</v>
+      </c>
+      <c r="K102" s="83">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L102" s="68">
+        <v>14052.335999999999</v>
+      </c>
+      <c r="L102" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M102" s="69">
+      <c r="M102" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N102" s="68">
+        <v>6840</v>
+      </c>
+      <c r="N102" s="83">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O102" s="69">
+      <c r="O102" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P102" s="68" t="str">
+        <v>20892.335999999999</v>
+      </c>
+      <c r="P102" s="83">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>-22107.664000000001</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -6918,39 +7282,54 @@
       <c r="B103" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="67"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="68"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="68"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="2">
+      <c r="C103" s="67">
+        <v>1.66E-2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="85">
+        <v>84835</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H103" s="85">
+        <v>60176</v>
+      </c>
+      <c r="I103" s="5">
+        <v>2</v>
+      </c>
+      <c r="J103" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="6">
+        <v>205187</v>
+      </c>
+      <c r="K103" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="L103" s="68">
+        <v>5633.0439999999999</v>
+      </c>
+      <c r="L103" s="85">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="69">
+        <v>9989.2160000000003</v>
+      </c>
+      <c r="M103" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N103" s="68">
+        <v>2835</v>
+      </c>
+      <c r="N103" s="85">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="O103" s="69">
+        <v>10352</v>
+      </c>
+      <c r="O103" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>0</v>
-      </c>
-      <c r="P103" s="68" t="str">
+        <v>28809.260000000002</v>
+      </c>
+      <c r="P103" s="85">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v/>
+        <v>-14190.739999999998</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -6960,43 +7339,1796 @@
       <c r="B104" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="67"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="68"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="68"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="2">
+      <c r="C104" s="67">
+        <v>2.41E-2</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="85">
+        <v>120859</v>
+      </c>
+      <c r="F104" s="5">
+        <v>4</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" s="85">
+        <v>59175</v>
+      </c>
+      <c r="I104" s="5">
+        <v>2</v>
+      </c>
+      <c r="J104" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>601786</v>
+      </c>
+      <c r="K104" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>69904.845600000001</v>
+      </c>
+      <c r="L104" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>14261.174999999999</v>
+      </c>
+      <c r="M104" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>7436</v>
+      </c>
+      <c r="N104" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>8350</v>
+      </c>
+      <c r="O104" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>99952.020600000003</v>
+      </c>
+      <c r="P104" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>56952.020600000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="13">
+        <v>89</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="67">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" s="85">
+        <v>82491</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H105" s="85">
+        <v>42647</v>
+      </c>
+      <c r="I105" s="5">
+        <v>4</v>
+      </c>
+      <c r="J105" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>253079</v>
+      </c>
+      <c r="K105" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>4586.4996000000001</v>
+      </c>
+      <c r="L105" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>14227.039199999999</v>
+      </c>
+      <c r="M105" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>491</v>
+      </c>
+      <c r="N105" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>22188</v>
+      </c>
+      <c r="O105" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>41492.538799999995</v>
+      </c>
+      <c r="P105" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-1507.4612000000052</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
+        <v>90</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="67">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E106" s="85">
+        <v>84532</v>
+      </c>
+      <c r="F106" s="5">
+        <v>4</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H106" s="85">
+        <v>41135</v>
+      </c>
+      <c r="I106" s="5">
+        <v>2</v>
+      </c>
+      <c r="J106" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>420398</v>
+      </c>
+      <c r="K106" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>27455.993599999998</v>
+      </c>
+      <c r="L106" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>10020.485999999999</v>
+      </c>
+      <c r="M106" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>10128</v>
+      </c>
+      <c r="N106" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>8070</v>
+      </c>
+      <c r="O106" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>55674.479599999999</v>
+      </c>
+      <c r="P106" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>12674.479599999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
+        <v>91</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="67">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107" s="85">
+        <v>42019</v>
+      </c>
+      <c r="F107" s="5">
+        <v>2</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107" s="85">
+        <v>83026</v>
+      </c>
+      <c r="I107" s="5">
+        <v>4</v>
+      </c>
+      <c r="J107" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>416142</v>
+      </c>
+      <c r="K107" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>12908.236800000001</v>
+      </c>
+      <c r="L107" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>34007.4496</v>
+      </c>
+      <c r="M107" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>9838</v>
+      </c>
+      <c r="N107" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>4104</v>
+      </c>
+      <c r="O107" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>60857.686399999999</v>
+      </c>
+      <c r="P107" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>17857.686399999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
+        <v>92</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="67">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108" s="85">
+        <v>41823</v>
+      </c>
+      <c r="F108" s="5">
+        <v>3</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>125469</v>
+      </c>
+      <c r="K108" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>8883.2052000000003</v>
+      </c>
+      <c r="L108" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>14169</v>
+      </c>
+      <c r="N108" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O108" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>23052.2052</v>
+      </c>
+      <c r="P108" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-19947.7948</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="13">
+        <v>93</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="67">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" s="85">
+        <v>59933</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H109" s="85">
+        <v>40710</v>
+      </c>
+      <c r="I109" s="5">
+        <v>3</v>
+      </c>
+      <c r="J109" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>182063</v>
+      </c>
+      <c r="K109" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>3985.5445000000004</v>
+      </c>
+      <c r="L109" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>9745.9740000000002</v>
+      </c>
+      <c r="M109" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>4933</v>
+      </c>
+      <c r="N109" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>10830</v>
+      </c>
+      <c r="O109" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>29494.518499999998</v>
+      </c>
+      <c r="P109" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-13505.481500000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="13">
+        <v>94</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="67">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E110" s="85">
+        <v>227734</v>
+      </c>
+      <c r="F110" s="5">
+        <v>4</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H110" s="85">
+        <v>61060</v>
+      </c>
+      <c r="I110" s="5">
+        <v>3</v>
+      </c>
+      <c r="J110" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>1094116</v>
+      </c>
+      <c r="K110" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>62308.022400000002</v>
+      </c>
+      <c r="L110" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>15661.890000000001</v>
+      </c>
+      <c r="M110" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-41064</v>
+      </c>
+      <c r="N110" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>18180</v>
+      </c>
+      <c r="O110" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>55085.912400000001</v>
+      </c>
+      <c r="P110" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>12085.912400000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="13">
+        <v>95</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="37">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E111" s="83">
+        <v>116994</v>
+      </c>
+      <c r="F111" s="4">
+        <v>2</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H111" s="83">
+        <v>62623</v>
+      </c>
+      <c r="I111" s="4">
+        <v>3</v>
+      </c>
+      <c r="J111" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>421857</v>
+      </c>
+      <c r="K111" s="83">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>18110.671200000001</v>
+      </c>
+      <c r="L111" s="83">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>12117.550499999999</v>
+      </c>
+      <c r="M111" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-4012</v>
+      </c>
+      <c r="N111" s="83">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>22869</v>
+      </c>
+      <c r="O111" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>49085.221700000002</v>
+      </c>
+      <c r="P111" s="83">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>6085.2217000000019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="24">
+        <v>96</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="45">
+        <v>2.63E-2</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="84">
+        <v>856479</v>
+      </c>
+      <c r="F112" s="40">
+        <v>1</v>
+      </c>
+      <c r="G112" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H112" s="84">
+        <v>225150</v>
+      </c>
+      <c r="I112" s="40">
+        <v>1</v>
+      </c>
+      <c r="J112" s="87">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>1081629</v>
+      </c>
+      <c r="K112" s="84">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>90101.590800000005</v>
+      </c>
+      <c r="L112" s="84">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>23685.78</v>
+      </c>
+      <c r="M112" s="87">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-1521</v>
+      </c>
+      <c r="N112" s="84">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-12850</v>
+      </c>
+      <c r="O112" s="87">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>99416.370800000004</v>
+      </c>
+      <c r="P112" s="84">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>56416.370800000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="13">
+        <v>97</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="67">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E113" s="85">
+        <v>81535</v>
+      </c>
+      <c r="F113" s="5">
+        <v>2</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>163070</v>
+      </c>
+      <c r="K113" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>16959.28</v>
+      </c>
+      <c r="L113" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-930</v>
+      </c>
+      <c r="N113" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O113" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>16029.279999999999</v>
+      </c>
+      <c r="P113" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-26970.720000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="13">
+        <v>98</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" s="67">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114" s="85">
+        <v>82628</v>
+      </c>
+      <c r="F114" s="5">
+        <v>2</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="85"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>165256</v>
+      </c>
+      <c r="K114" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>18376.467199999999</v>
+      </c>
+      <c r="L114" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M114" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>1256</v>
+      </c>
+      <c r="N114" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O114" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>19632.467199999999</v>
+      </c>
+      <c r="P114" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-23367.532800000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="13">
+        <v>99</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="67">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" s="85">
+        <v>79637</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" s="85">
+        <v>40746</v>
+      </c>
+      <c r="I115" s="5">
+        <v>3</v>
+      </c>
+      <c r="J115" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>201875</v>
+      </c>
+      <c r="K115" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>8314.1028000000006</v>
+      </c>
+      <c r="L115" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>19142.470800000003</v>
+      </c>
+      <c r="M115" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-2363</v>
+      </c>
+      <c r="N115" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>10938</v>
+      </c>
+      <c r="O115" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>36031.573600000003</v>
+      </c>
+      <c r="P115" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-6968.4263999999966</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="13">
+        <v>100</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="67">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" s="85">
+        <v>38220</v>
+      </c>
+      <c r="F116" s="5">
+        <v>5</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H116" s="85">
+        <v>56317</v>
+      </c>
+      <c r="I116" s="5">
+        <v>2</v>
+      </c>
+      <c r="J116" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>303734</v>
+      </c>
+      <c r="K116" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>21097.440000000002</v>
+      </c>
+      <c r="L116" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>10362.328</v>
+      </c>
+      <c r="M116" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>5600</v>
+      </c>
+      <c r="N116" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>2634</v>
+      </c>
+      <c r="O116" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>39693.768000000004</v>
+      </c>
+      <c r="P116" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-3306.2319999999963</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="13">
+        <v>101</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" s="67">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" s="85">
+        <v>78049</v>
+      </c>
+      <c r="F117" s="5">
+        <v>4</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H117" s="85">
+        <v>39312</v>
+      </c>
+      <c r="I117" s="5">
+        <v>3</v>
+      </c>
+      <c r="J117" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>430132</v>
+      </c>
+      <c r="K117" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>17108.340800000002</v>
+      </c>
+      <c r="L117" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>9694.3392000000003</v>
+      </c>
+      <c r="M117" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-15804</v>
+      </c>
+      <c r="N117" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>6636</v>
+      </c>
+      <c r="O117" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>17634.68</v>
+      </c>
+      <c r="P117" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-25365.32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="13">
+        <v>102</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="67">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E118" s="85">
+        <v>110700</v>
+      </c>
+      <c r="F118" s="5">
+        <v>4</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" s="85">
+        <v>40356</v>
+      </c>
+      <c r="I118" s="5">
+        <v>4</v>
+      </c>
+      <c r="J118" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>604224</v>
+      </c>
+      <c r="K118" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>36663.839999999997</v>
+      </c>
+      <c r="L118" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>13365.9072</v>
+      </c>
+      <c r="M118" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-33200</v>
+      </c>
+      <c r="N118" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>13024</v>
+      </c>
+      <c r="O118" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>29853.747199999998</v>
+      </c>
+      <c r="P118" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-13146.252800000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="13">
+        <v>103</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" s="67">
+        <v>2.92E-2</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E119" s="85">
+        <v>206873</v>
+      </c>
+      <c r="F119" s="5">
+        <v>2</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" s="85">
+        <v>80699</v>
+      </c>
+      <c r="I119" s="5">
+        <v>1</v>
+      </c>
+      <c r="J119" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>494445</v>
+      </c>
+      <c r="K119" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>48325.532800000001</v>
+      </c>
+      <c r="L119" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>9425.6432000000004</v>
+      </c>
+      <c r="M119" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-62254</v>
+      </c>
+      <c r="N119" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-1301</v>
+      </c>
+      <c r="O119" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>-5803.8240000000005</v>
+      </c>
+      <c r="P119" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-48803.824000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="13">
+        <v>104</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" s="67">
+        <v>1.66E-2</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E120" s="85">
+        <v>218026</v>
+      </c>
+      <c r="F120" s="5">
+        <v>2</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H120" s="85">
+        <v>39271</v>
+      </c>
+      <c r="I120" s="5">
+        <v>5</v>
+      </c>
+      <c r="J120" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>632407</v>
+      </c>
+      <c r="K120" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>28953.852800000001</v>
+      </c>
+      <c r="L120" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>19556.957999999999</v>
+      </c>
+      <c r="M120" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-39948</v>
+      </c>
+      <c r="N120" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>10855</v>
+      </c>
+      <c r="O120" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>19417.810799999999</v>
+      </c>
+      <c r="P120" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-23582.189200000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="13">
+        <v>105</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" s="67">
+        <v>1.04E-2</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E121" s="85">
+        <v>38755</v>
+      </c>
+      <c r="F121" s="5">
+        <v>5</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H121" s="85">
+        <v>81718</v>
+      </c>
+      <c r="I121" s="5">
+        <v>4</v>
+      </c>
+      <c r="J121" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>520647</v>
+      </c>
+      <c r="K121" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>12091.56</v>
+      </c>
+      <c r="L121" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>13597.875199999999</v>
+      </c>
+      <c r="M121" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>8275</v>
+      </c>
+      <c r="N121" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-1128</v>
+      </c>
+      <c r="O121" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>32836.4352</v>
+      </c>
+      <c r="P121" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-10163.5648</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
+        <v>106</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" s="67">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E122" s="85">
+        <v>38293</v>
+      </c>
+      <c r="F122" s="5">
+        <v>4</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="85"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>153172</v>
+      </c>
+      <c r="K122" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>18196.833600000002</v>
+      </c>
+      <c r="L122" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>4772</v>
+      </c>
+      <c r="N122" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O122" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>22968.833600000002</v>
+      </c>
+      <c r="P122" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-20031.166399999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="13">
+        <v>107</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" s="67">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E123" s="85">
+        <v>56663</v>
+      </c>
+      <c r="F123" s="5">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H123" s="85">
+        <v>38841</v>
+      </c>
+      <c r="I123" s="5">
+        <v>2</v>
+      </c>
+      <c r="J123" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>134345</v>
+      </c>
+      <c r="K123" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>7196.201</v>
+      </c>
+      <c r="L123" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>11838.736799999999</v>
+      </c>
+      <c r="M123" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>1663</v>
+      </c>
+      <c r="N123" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>3482</v>
+      </c>
+      <c r="O123" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>24179.9378</v>
+      </c>
+      <c r="P123" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-18820.0622</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
+        <v>108</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="67">
+        <v>2.23E-2</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" s="85">
+        <v>59037</v>
+      </c>
+      <c r="F124" s="5">
+        <v>2</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="85"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>118074</v>
+      </c>
+      <c r="K124" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>13165.251</v>
+      </c>
+      <c r="L124" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M124" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>8074</v>
+      </c>
+      <c r="N124" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O124" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>21239.251</v>
+      </c>
+      <c r="P124" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-21760.749</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="13">
+        <v>109</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" s="67">
+        <v>1.26E-2</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="85">
+        <v>59421</v>
+      </c>
+      <c r="F125" s="5">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>59421</v>
+      </c>
+      <c r="K125" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>3743.5230000000001</v>
+      </c>
+      <c r="L125" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M125" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>4421</v>
+      </c>
+      <c r="N125" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O125" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>8164.5230000000001</v>
+      </c>
+      <c r="P125" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-34835.476999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
+        <v>110</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" s="67">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E126" s="85">
+        <v>39086</v>
+      </c>
+      <c r="F126" s="5">
+        <v>4</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H126" s="85">
+        <v>217973</v>
+      </c>
+      <c r="I126" s="5">
+        <v>4</v>
+      </c>
+      <c r="J126" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>1028236</v>
+      </c>
+      <c r="K126" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>11069.155200000001</v>
+      </c>
+      <c r="L126" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>41153.3024</v>
+      </c>
+      <c r="M126" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>7944</v>
+      </c>
+      <c r="N126" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-80108</v>
+      </c>
+      <c r="O126" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>-19941.542399999998</v>
+      </c>
+      <c r="P126" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-62941.542399999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="13">
+        <v>111</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" s="67">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E127" s="85">
+        <v>77812</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" s="85">
+        <v>38973</v>
+      </c>
+      <c r="I127" s="5">
+        <v>3</v>
+      </c>
+      <c r="J127" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>194731</v>
+      </c>
+      <c r="K127" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>3983.9744000000001</v>
+      </c>
+      <c r="L127" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>8979.3792000000012</v>
+      </c>
+      <c r="M127" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-4188</v>
+      </c>
+      <c r="N127" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>5619</v>
+      </c>
+      <c r="O127" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>14394.353600000002</v>
+      </c>
+      <c r="P127" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-28605.646399999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="13">
+        <v>112</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" s="67">
+        <v>2.29E-2</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E128" s="85">
+        <v>208692</v>
+      </c>
+      <c r="F128" s="5">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H128" s="85">
+        <v>38524</v>
+      </c>
+      <c r="I128" s="5">
+        <v>2</v>
+      </c>
+      <c r="J128" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>285740</v>
+      </c>
+      <c r="K128" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>19116.1872</v>
+      </c>
+      <c r="L128" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>10586.395200000001</v>
+      </c>
+      <c r="M128" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>-29308</v>
+      </c>
+      <c r="N128" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>2848</v>
+      </c>
+      <c r="O128" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>3242.5823999999993</v>
+      </c>
+      <c r="P128" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-39757.417600000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="13">
+        <v>113</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" s="67">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" s="85">
+        <v>38513</v>
+      </c>
+      <c r="F129" s="5">
+        <v>5</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H129" s="85">
+        <v>56929</v>
+      </c>
+      <c r="I129" s="5">
+        <v>2</v>
+      </c>
+      <c r="J129" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>306423</v>
+      </c>
+      <c r="K129" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>18255.162000000004</v>
+      </c>
+      <c r="L129" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>8994.7820000000011</v>
+      </c>
+      <c r="M129" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>7065</v>
+      </c>
+      <c r="N129" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>3858</v>
+      </c>
+      <c r="O129" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>38172.944000000003</v>
+      </c>
+      <c r="P129" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-4827.0559999999969</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
+        <v>114</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" s="67">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" s="85">
+        <v>39192</v>
+      </c>
+      <c r="F130" s="5">
+        <v>2</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="85"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>78384</v>
+      </c>
+      <c r="K130" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>8841.7152000000006</v>
+      </c>
+      <c r="L130" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>4184</v>
+      </c>
+      <c r="N130" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O130" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>13025.715200000001</v>
+      </c>
+      <c r="P130" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-29974.284800000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="13">
+        <v>115</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="67">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="85">
+        <v>40502</v>
+      </c>
+      <c r="F131" s="5">
+        <v>4</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H131" s="85">
+        <v>79763</v>
+      </c>
+      <c r="I131" s="5">
+        <v>2</v>
+      </c>
+      <c r="J131" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>321534</v>
+      </c>
+      <c r="K131" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>11470.1664</v>
+      </c>
+      <c r="L131" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>7529.6271999999999</v>
+      </c>
+      <c r="M131" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>13608</v>
+      </c>
+      <c r="N131" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>-4474</v>
+      </c>
+      <c r="O131" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>28133.793600000001</v>
+      </c>
+      <c r="P131" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-14866.206399999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="13">
+        <v>116</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="67">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" s="85">
+        <v>38359</v>
+      </c>
+      <c r="F132" s="5">
+        <v>4</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H132" s="85">
+        <v>56809</v>
+      </c>
+      <c r="I132" s="5">
+        <v>2</v>
+      </c>
+      <c r="J132" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>267054</v>
+      </c>
+      <c r="K132" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>16663.149600000001</v>
+      </c>
+      <c r="L132" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>10282.429</v>
+      </c>
+      <c r="M132" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>5036</v>
+      </c>
+      <c r="N132" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>3618</v>
+      </c>
+      <c r="O132" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>35599.578600000001</v>
+      </c>
+      <c r="P132" s="85">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-7400.4213999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="24">
+        <v>117</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="45">
+        <v>2.46E-2</v>
+      </c>
+      <c r="D133" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="84">
+        <v>59728</v>
+      </c>
+      <c r="F133" s="40">
+        <v>1</v>
+      </c>
+      <c r="G133" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H133" s="84">
+        <v>39975</v>
+      </c>
+      <c r="I133" s="40">
+        <v>2</v>
+      </c>
+      <c r="J133" s="87">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>139678</v>
+      </c>
+      <c r="K133" s="84">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>7346.5439999999999</v>
+      </c>
+      <c r="L133" s="84">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>11800.62</v>
+      </c>
+      <c r="M133" s="87">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>4728</v>
+      </c>
+      <c r="N133" s="84">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>5750</v>
+      </c>
+      <c r="O133" s="87">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>29625.164000000001</v>
+      </c>
+      <c r="P133" s="84">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v>-13374.835999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="13">
+        <v>118</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="67"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="85"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="85"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="86">
         <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
         <v>0</v>
       </c>
-      <c r="K104" s="6">
+      <c r="K134" s="85">
         <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
         <v>0</v>
       </c>
-      <c r="L104" s="68">
+      <c r="L134" s="85">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
         <v>0</v>
       </c>
-      <c r="M104" s="69">
+      <c r="M134" s="86">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
         <v>0</v>
       </c>
-      <c r="N104" s="68">
+      <c r="N134" s="85">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
         <v>0</v>
       </c>
-      <c r="O104" s="69">
+      <c r="O134" s="86">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
         <v>0</v>
       </c>
-      <c r="P104" s="68" t="str">
+      <c r="P134" s="85" t="str">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
         <v/>
       </c>
     </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="13">
+        <v>119</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" s="67"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="85"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="85"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K135" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="L135" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M135" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N135" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O135" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P135" s="85" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="13">
+        <v>120</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C136" s="67"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="85"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="85"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="86">
+        <f>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</f>
+        <v>0</v>
+      </c>
+      <c r="K136" s="85">
+        <f>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M136" s="86">
+        <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N136" s="85">
+        <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O136" s="86">
+        <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P136" s="85" t="str">
+        <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="W3:AD3"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="F3:L3"/>
@@ -7004,7 +9136,7 @@
     <mergeCell ref="J15:P15"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:H10">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7014,7 +9146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7024,7 +9156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J10">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7034,7 +9166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L10">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7044,7 +9176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K10">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7054,7 +9186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:Q10">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7064,7 +9196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R10">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7074,6 +9206,81 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S10">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U10">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O10">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17:P136">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q10">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:Z10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -7083,7 +9290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U10">
+  <conditionalFormatting sqref="AA5:AA10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -7093,7 +9300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T10">
+  <conditionalFormatting sqref="AB5:AB10">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -7103,17 +9310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F10">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O10">
+  <conditionalFormatting sqref="AD5:AD10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -7123,12 +9320,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P104">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AC5:AC10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H10">
+  <conditionalFormatting sqref="X5:X10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7138,7 +9340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q10">
+  <conditionalFormatting sqref="Z5:Z10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7149,10 +9351,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 B17:B104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 B17:B136 X2">
       <formula1>$B$10:$B$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D104 G17:G104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D136 G17:G136">
       <formula1>$E$5:$E$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -7212,33 +9414,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="83" t="s">
+      <c r="V5" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="84"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="81"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -9579,33 +11781,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="83" t="s">
+      <c r="I30" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="84"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="81"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="83" t="s">
+      <c r="V30" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="84"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="81"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
@@ -11718,14 +13920,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -11751,7 +13953,7 @@
       </c>
       <c r="M2" s="59">
         <f>Archive!G11</f>
-        <v>4.6842105263157894</v>
+        <v>4.5897435897435894</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -12066,27 +14268,27 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <f t="shared" ref="B18:G18" si="2">B16*$M$2*$M$3</f>
-        <v>26.338710276830604</v>
+        <v>25.807534903918434</v>
       </c>
       <c r="C18" s="25">
         <f t="shared" si="2"/>
-        <v>16.172810407392596</v>
+        <v>15.846651741729248</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="2"/>
-        <v>10.807808396530485</v>
+        <v>10.589846256583167</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>7.4746941069640354</v>
+        <v>7.3239512122687076</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="2"/>
-        <v>3.7580320689293574</v>
+        <v>3.6822434648310987</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="2"/>
-        <v>1.0268921117739722</v>
+        <v>1.0061826770795963</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -12095,27 +14297,27 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <f>B18/2</f>
-        <v>13.169355138415302</v>
+        <v>12.903767451959217</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" ref="C19:F19" si="3">C18/2</f>
-        <v>8.0864052036962981</v>
+        <v>7.9233258708646241</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="3"/>
-        <v>5.4039041982652423</v>
+        <v>5.2949231282915834</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="3"/>
-        <v>3.7373470534820177</v>
+        <v>3.6619756061343538</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="3"/>
-        <v>1.8790160344646787</v>
+        <v>1.8411217324155493</v>
       </c>
       <c r="G19" s="25">
         <f>G18/2</f>
-        <v>0.51344605588698611</v>
+        <v>0.50309133853979815</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Archive" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="93">
   <si>
     <t>QualityBonus</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Demand every 2 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily demand </t>
   </si>
   <si>
     <t>Average units per order</t>
@@ -279,18 +276,49 @@
   <si>
     <t>Units per BFR</t>
   </si>
+  <si>
+    <t xml:space="preserve">Daily demand (calculated) </t>
+  </si>
+  <si>
+    <t>Daily demand (declared in changelog)</t>
+  </si>
+  <si>
+    <t>PRODUCTION TIMES</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>JMB</t>
+  </si>
+  <si>
+    <t>Propulsion Factories</t>
+  </si>
+  <si>
+    <t>Aerospace Factory</t>
+  </si>
+  <si>
+    <t>Aerospace Electronics</t>
+  </si>
+  <si>
+    <t>Hangar</t>
+  </si>
+  <si>
+    <t>PRODUCTION TIMES per order</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -618,7 +646,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -701,6 +729,14 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,7 +770,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1441,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
@@ -1468,17 +1509,17 @@
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M2" s="46"/>
       <c r="N2" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
       <c r="W2" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X2" s="60" t="s">
         <v>13</v>
@@ -1489,35 +1530,35 @@
       <c r="AB2" s="46"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F3" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="N3" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="W3" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
+      <c r="F3" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="N3" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="W3" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -1528,69 +1569,69 @@
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="H4" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>61</v>
-      </c>
       <c r="J4" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="56" t="s">
         <v>63</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>64</v>
       </c>
       <c r="N4" s="54"/>
       <c r="O4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="Q4" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="55" t="s">
-        <v>61</v>
-      </c>
       <c r="S4" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T4" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" s="56" t="s">
         <v>63</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>64</v>
       </c>
       <c r="W4" s="54"/>
       <c r="X4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Z4" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA4" s="55" t="s">
-        <v>61</v>
-      </c>
       <c r="AB4" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="56" t="s">
         <v>63</v>
-      </c>
-      <c r="AD4" s="56" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1690,7 +1731,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E6" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N6)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N6)</f>
@@ -1721,7 +1762,7 @@
         <v>-10590.067557142853</v>
       </c>
       <c r="N6" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O6" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)</f>
@@ -1752,7 +1793,7 @@
         <v>-36443.646742857141</v>
       </c>
       <c r="W6" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X6" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2)</f>
@@ -1785,7 +1826,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E7" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N7)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N7)</f>
@@ -1816,7 +1857,7 @@
         <v>11903.0057875</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)</f>
@@ -1847,7 +1888,7 @@
         <v>13739.540485714289</v>
       </c>
       <c r="W7" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X7" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2)</f>
@@ -1880,7 +1921,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E8" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N8)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N8)</f>
@@ -1911,7 +1952,7 @@
         <v>68.029461904760993</v>
       </c>
       <c r="N8" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)</f>
@@ -1942,7 +1983,7 @@
         <v>-17672.696810000001</v>
       </c>
       <c r="W8" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X8" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2)</f>
@@ -1975,10 +2016,10 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N9)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N9)</f>
@@ -2009,7 +2050,7 @@
         <v>5851.5964164179104</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)</f>
@@ -2040,7 +2081,7 @@
         <v>-4147.9835833333318</v>
       </c>
       <c r="W9" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X9" s="47">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2)</f>
@@ -2073,10 +2114,10 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N10)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N10)</f>
@@ -2107,7 +2148,7 @@
         <v>7849.9237951807208</v>
       </c>
       <c r="N10" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)</f>
@@ -2138,7 +2179,7 @@
         <v>-9183.7420666666676</v>
       </c>
       <c r="W10" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X10" s="48">
         <f>SUMIFS(Tabla22[Req.],Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[Req.2],Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2)</f>
@@ -2174,7 +2215,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="48">
         <f>SUM(F5:F10)</f>
@@ -2206,7 +2247,7 @@
       </c>
       <c r="M11" s="53"/>
       <c r="N11" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O11" s="48">
         <f>SUM(O5:O10)</f>
@@ -2237,7 +2278,7 @@
         <v>-11953.365895238094</v>
       </c>
       <c r="W11" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X11" s="48">
         <f>SUM(X5:X10)</f>
@@ -2270,9 +2311,9 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="93"/>
+        <v>67</v>
+      </c>
+      <c r="P12" s="82"/>
       <c r="S12" s="46"/>
       <c r="T12" s="46"/>
       <c r="U12" s="46"/>
@@ -2295,25 +2336,25 @@
       <c r="W14" s="46"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
@@ -2323,7 +2364,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -2332,16 +2373,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>3</v>
@@ -2350,22 +2391,22 @@
         <v>5</v>
       </c>
       <c r="J16" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="M16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
         <v>51</v>
       </c>
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
       <c r="O16" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16" t="s">
         <v>20</v>
@@ -2387,7 +2428,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="72">
         <v>124454</v>
@@ -2396,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="72">
         <v>63090</v>
@@ -2433,13 +2474,13 @@
         <v>35992.453399999999</v>
       </c>
       <c r="R17" s="69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S17" s="69" t="s">
         <v>2</v>
       </c>
       <c r="T17" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U17" s="46"/>
       <c r="V17" s="46"/>
@@ -2455,7 +2496,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="72">
         <v>84382</v>
@@ -2464,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="72">
         <v>62008</v>
@@ -2523,7 +2564,7 @@
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="72">
         <v>85355</v>
@@ -2532,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="72">
         <v>61900</v>
@@ -2569,7 +2610,7 @@
         <v>31073.165999999997</v>
       </c>
       <c r="R19" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S19" s="68">
         <v>238000</v>
@@ -2591,7 +2632,7 @@
         <v>2.92E-2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="72">
         <v>59763</v>
@@ -2631,7 +2672,7 @@
         <v>-2534.8060000000041</v>
       </c>
       <c r="R20" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S20" s="68">
         <v>82000</v>
@@ -2653,7 +2694,7 @@
         <v>2.23E-2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="72">
         <v>121295</v>
@@ -2662,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="72">
         <v>61528</v>
@@ -2699,7 +2740,7 @@
         <v>2301.0149999999994</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S21" s="68">
         <v>55000</v>
@@ -2721,7 +2762,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="73">
         <v>120391</v>
@@ -2730,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="73">
         <v>41297</v>
@@ -2767,7 +2808,7 @@
         <v>-13119.485000000001</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S22" s="68">
         <v>37100</v>
@@ -2789,7 +2830,7 @@
         <v>2.7699999999999999E-2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="72">
         <v>59574</v>
@@ -2829,7 +2870,7 @@
         <v>-4525.002999999997</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S23" s="68">
         <v>119000</v>
@@ -2851,7 +2892,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="72">
         <v>42425</v>
@@ -2860,7 +2901,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="72">
         <v>62774</v>
@@ -2913,7 +2954,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="72">
         <v>62463</v>
@@ -2969,7 +3010,7 @@
         <v>1.35E-2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="72">
         <v>63155</v>
@@ -2978,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="72">
         <v>121803</v>
@@ -3031,7 +3072,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="72">
         <v>122297</v>
@@ -3040,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="72">
         <v>62060</v>
@@ -3093,7 +3134,7 @@
         <v>2.01E-2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="72">
         <v>42060</v>
@@ -3149,7 +3190,7 @@
         <v>1.23E-2</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="73">
         <v>82625</v>
@@ -3158,7 +3199,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H29" s="73">
         <v>60733</v>
@@ -3211,7 +3252,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="72">
         <v>122928</v>
@@ -3220,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="72">
         <v>84564</v>
@@ -3273,7 +3314,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="72">
         <v>41066</v>
@@ -3282,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31" s="72">
         <v>59787</v>
@@ -3335,7 +3376,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="72">
         <v>40811</v>
@@ -3344,7 +3385,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="72">
         <v>119896</v>
@@ -3397,7 +3438,7 @@
         <v>2.53E-2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="72">
         <v>122798</v>
@@ -3406,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="72">
         <v>61610</v>
@@ -3458,7 +3499,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="72">
         <v>86511</v>
@@ -3467,7 +3508,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" s="72">
         <v>117824</v>
@@ -3519,7 +3560,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="72">
         <v>41738</v>
@@ -3528,7 +3569,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H35" s="72">
         <v>119747</v>
@@ -3580,7 +3621,7 @@
         <v>2.07E-2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="72">
         <v>41925</v>
@@ -3589,7 +3630,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="72">
         <v>60640</v>
@@ -3641,7 +3682,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="73">
         <v>83391</v>
@@ -3650,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H37" s="73">
         <v>63078</v>
@@ -3702,7 +3743,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="72">
         <v>62248</v>
@@ -3711,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38" s="72">
         <v>41091</v>
@@ -3763,7 +3804,7 @@
         <v>2.6599999999999999E-2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="72">
         <v>63084</v>
@@ -3772,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H39" s="72">
         <v>40499</v>
@@ -3820,7 +3861,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="72">
         <v>226246</v>
@@ -3829,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H40" s="72">
         <v>40077</v>
@@ -3877,7 +3918,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="72">
         <v>42129</v>
@@ -3886,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H41" s="72">
         <v>84082</v>
@@ -3934,7 +3975,7 @@
         <v>2.81E-2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="72">
         <v>41691</v>
@@ -3943,7 +3984,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42" s="72">
         <v>59925</v>
@@ -3991,7 +4032,7 @@
         <v>2.53E-2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="72">
         <v>42580</v>
@@ -4042,7 +4083,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="72">
         <v>41608</v>
@@ -4051,7 +4092,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H44" s="72">
         <v>62343</v>
@@ -4099,7 +4140,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" s="72">
         <v>42445</v>
@@ -4150,7 +4191,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="72">
         <v>41129</v>
@@ -4159,7 +4200,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46" s="72">
         <v>121638</v>
@@ -4207,7 +4248,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" s="72">
         <v>60948</v>
@@ -4216,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H47" s="72">
         <v>41020</v>
@@ -4264,7 +4305,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="72">
         <v>117745</v>
@@ -4273,7 +4314,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H48" s="72">
         <v>62072</v>
@@ -4321,7 +4362,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" s="72">
         <v>62999</v>
@@ -4372,7 +4413,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50" s="73">
         <v>117232</v>
@@ -4423,7 +4464,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="72">
         <v>82956</v>
@@ -4432,7 +4473,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H51" s="72">
         <v>42566</v>
@@ -4480,7 +4521,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" s="72">
         <v>42329</v>
@@ -4531,7 +4572,7 @@
         <v>2.4299999999999999E-2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="72">
         <v>41309</v>
@@ -4540,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H53" s="72">
         <v>118549</v>
@@ -4588,7 +4629,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54" s="72">
         <v>41700</v>
@@ -4597,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H54" s="72">
         <v>86334</v>
@@ -4645,7 +4686,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="72">
         <v>41268</v>
@@ -4696,7 +4737,7 @@
         <v>2.18E-2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" s="72">
         <v>85536</v>
@@ -4705,7 +4746,7 @@
         <v>4</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H56" s="72">
         <v>42025</v>
@@ -4753,7 +4794,7 @@
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E57" s="72">
         <v>61103</v>
@@ -4762,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H57" s="72">
         <v>42071</v>
@@ -4810,7 +4851,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E58" s="73">
         <v>39994</v>
@@ -4861,7 +4902,7 @@
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" s="72">
         <v>41087</v>
@@ -4870,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H59" s="72">
         <v>118450</v>
@@ -4918,7 +4959,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" s="72">
         <v>40290</v>
@@ -4969,7 +5010,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" s="72">
         <v>61156</v>
@@ -5020,7 +5061,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E62" s="72">
         <v>40841</v>
@@ -5029,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H62" s="72">
         <v>85277</v>
@@ -5077,7 +5118,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E63" s="72">
         <v>62292</v>
@@ -5128,7 +5169,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" s="74">
         <v>62770</v>
@@ -5137,7 +5178,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H64" s="72">
         <v>84716</v>
@@ -5185,7 +5226,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E65" s="74">
         <v>42582</v>
@@ -5194,7 +5235,7 @@
         <v>5</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H65" s="72">
         <v>62487</v>
@@ -5242,7 +5283,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" s="74">
         <v>59416</v>
@@ -5293,7 +5334,7 @@
         <v>2.7099999999999999E-2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E67" s="74">
         <v>42602</v>
@@ -5353,7 +5394,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H68" s="72">
         <v>40101</v>
@@ -5401,7 +5442,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E69" s="74">
         <v>61467</v>
@@ -5452,7 +5493,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E70" s="74">
         <v>119307</v>
@@ -5461,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H70" s="72">
         <v>42570</v>
@@ -5509,7 +5550,7 @@
         <v>1.61E-2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E71" s="72">
         <v>61283</v>
@@ -5560,7 +5601,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" s="73">
         <v>84255</v>
@@ -5569,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H72" s="73">
         <v>59249</v>
@@ -5617,7 +5658,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E73" s="74">
         <v>62381</v>
@@ -5626,7 +5667,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H73" s="72">
         <v>41862</v>
@@ -5674,7 +5715,7 @@
         <v>1.21E-2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E74" s="74">
         <v>40404</v>
@@ -5683,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H74" s="72">
         <v>121380</v>
@@ -5731,7 +5772,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E75" s="74">
         <v>62536</v>
@@ -5740,7 +5781,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H75" s="72">
         <v>41912</v>
@@ -5788,7 +5829,7 @@
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E76" s="74">
         <v>40580</v>
@@ -5797,7 +5838,7 @@
         <v>4</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H76" s="72">
         <v>59385</v>
@@ -5845,7 +5886,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E77" s="74">
         <v>222195</v>
@@ -5854,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H77" s="74">
         <v>117614</v>
@@ -5902,7 +5943,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E78" s="74">
         <v>120518</v>
@@ -5911,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H78" s="74">
         <v>40446</v>
@@ -5959,7 +6000,7 @@
         <v>2.75E-2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E79" s="74">
         <v>40932</v>
@@ -5968,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H79" s="74">
         <v>59663</v>
@@ -6016,7 +6057,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E80" s="74">
         <v>40605</v>
@@ -6025,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H80" s="74">
         <v>62919</v>
@@ -6073,7 +6114,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E81" s="74">
         <v>41913</v>
@@ -6082,7 +6123,7 @@
         <v>2</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H81" s="74">
         <v>59770</v>
@@ -6130,7 +6171,7 @@
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E82" s="74">
         <v>59654</v>
@@ -6139,7 +6180,7 @@
         <v>4</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H82" s="74">
         <v>42145</v>
@@ -6187,7 +6228,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E83" s="74">
         <v>42232</v>
@@ -6196,7 +6237,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H83" s="74">
         <v>61628</v>
@@ -6244,7 +6285,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E84" s="74">
         <v>61156</v>
@@ -6295,7 +6336,7 @@
         <v>2.7799999999999998E-2</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E85" s="74">
         <v>85384</v>
@@ -6304,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H85" s="74">
         <v>61275</v>
@@ -6352,7 +6393,7 @@
         <v>2.98E-2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E86" s="74">
         <v>42066</v>
@@ -6403,7 +6444,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87" s="74">
         <v>42670</v>
@@ -6412,7 +6453,7 @@
         <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H87" s="74">
         <v>59386</v>
@@ -6460,7 +6501,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E88" s="74">
         <v>121779</v>
@@ -6511,7 +6552,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E89" s="74">
         <v>228495</v>
@@ -6520,7 +6561,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H89" s="74">
         <v>62131</v>
@@ -6568,7 +6609,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E90" s="74">
         <v>40769</v>
@@ -6625,7 +6666,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E91" s="72">
         <v>62189</v>
@@ -6634,7 +6675,7 @@
         <v>3</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H91" s="72">
         <v>227496</v>
@@ -6682,7 +6723,7 @@
         <v>1.52E-2</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E92" s="73">
         <v>62398</v>
@@ -6691,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H92" s="73">
         <v>83725</v>
@@ -6739,7 +6780,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E93" s="72">
         <v>62496</v>
@@ -6748,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H93" s="72">
         <v>40795</v>
@@ -6796,7 +6837,7 @@
         <v>1.89E-2</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E94" s="74">
         <v>41529</v>
@@ -6805,7 +6846,7 @@
         <v>5</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H94" s="74">
         <v>59468</v>
@@ -6853,7 +6894,7 @@
         <v>1.89E-2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E95" s="74">
         <v>59740</v>
@@ -6862,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H95" s="74">
         <v>120772</v>
@@ -6910,7 +6951,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E96" s="74">
         <v>85997</v>
@@ -6919,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H96" s="74">
         <v>41336</v>
@@ -6967,7 +7008,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E97" s="74">
         <v>61857</v>
@@ -6976,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H97" s="74">
         <v>227814</v>
@@ -7024,7 +7065,7 @@
         <v>2.63E-2</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E98" s="74">
         <v>81840</v>
@@ -7033,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H98" s="74">
         <v>123423</v>
@@ -7081,7 +7122,7 @@
         <v>1.89E-2</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E99" s="74">
         <v>41850</v>
@@ -7090,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H99" s="74">
         <v>86551</v>
@@ -7138,7 +7179,7 @@
         <v>1.24E-2</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E100" s="74">
         <v>40715</v>
@@ -7147,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H100" s="74">
         <v>116281</v>
@@ -7195,7 +7236,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E101" s="74">
         <v>59784</v>
@@ -7246,7 +7287,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E102" s="74">
         <v>40520</v>
@@ -7297,7 +7338,7 @@
         <v>1.66E-2</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E103" s="74">
         <v>84835</v>
@@ -7306,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H103" s="74">
         <v>60176</v>
@@ -7354,7 +7395,7 @@
         <v>2.41E-2</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E104" s="74">
         <v>120859</v>
@@ -7363,7 +7404,7 @@
         <v>4</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H104" s="74">
         <v>59175</v>
@@ -7411,7 +7452,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E105" s="74">
         <v>82491</v>
@@ -7420,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H105" s="74">
         <v>42647</v>
@@ -7468,7 +7509,7 @@
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E106" s="74">
         <v>84532</v>
@@ -7477,7 +7518,7 @@
         <v>4</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H106" s="74">
         <v>41135</v>
@@ -7525,7 +7566,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E107" s="74">
         <v>42019</v>
@@ -7534,7 +7575,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H107" s="74">
         <v>83026</v>
@@ -7582,7 +7623,7 @@
         <v>1.18E-2</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E108" s="74">
         <v>41823</v>
@@ -7633,7 +7674,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E109" s="74">
         <v>59933</v>
@@ -7642,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H109" s="74">
         <v>40710</v>
@@ -7690,7 +7731,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E110" s="74">
         <v>227734</v>
@@ -7699,7 +7740,7 @@
         <v>4</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H110" s="74">
         <v>61060</v>
@@ -7747,7 +7788,7 @@
         <v>1.29E-2</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E111" s="72">
         <v>116994</v>
@@ -7756,7 +7797,7 @@
         <v>2</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H111" s="72">
         <v>62623</v>
@@ -7813,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H112" s="73">
         <v>225150</v>
@@ -7855,13 +7896,13 @@
         <v>97</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C113" s="67">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E113" s="74">
         <v>81535</v>
@@ -7906,13 +7947,13 @@
         <v>98</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C114" s="67">
         <v>2.7799999999999998E-2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E114" s="74">
         <v>82628</v>
@@ -7957,13 +7998,13 @@
         <v>99</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" s="67">
         <v>2.6100000000000002E-2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E115" s="74">
         <v>79637</v>
@@ -7972,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H115" s="74">
         <v>40746</v>
@@ -8014,13 +8055,13 @@
         <v>100</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C116" s="67">
         <v>1.84E-2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E116" s="74">
         <v>38220</v>
@@ -8029,7 +8070,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H116" s="74">
         <v>56317</v>
@@ -8071,13 +8112,13 @@
         <v>101</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C117" s="67">
         <v>1.37E-2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E117" s="74">
         <v>78049</v>
@@ -8086,7 +8127,7 @@
         <v>4</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H117" s="74">
         <v>39312</v>
@@ -8128,13 +8169,13 @@
         <v>102</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C118" s="67">
         <v>1.38E-2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E118" s="74">
         <v>110700</v>
@@ -8143,7 +8184,7 @@
         <v>4</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H118" s="74">
         <v>40356</v>
@@ -8185,13 +8226,13 @@
         <v>103</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C119" s="67">
         <v>2.92E-2</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E119" s="74">
         <v>206873</v>
@@ -8200,7 +8241,7 @@
         <v>2</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H119" s="74">
         <v>80699</v>
@@ -8242,13 +8283,13 @@
         <v>104</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C120" s="67">
         <v>1.66E-2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E120" s="74">
         <v>218026</v>
@@ -8257,7 +8298,7 @@
         <v>2</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H120" s="74">
         <v>39271</v>
@@ -8299,13 +8340,13 @@
         <v>105</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C121" s="67">
         <v>1.04E-2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E121" s="74">
         <v>38755</v>
@@ -8314,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H121" s="74">
         <v>81718</v>
@@ -8356,13 +8397,13 @@
         <v>106</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C122" s="67">
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E122" s="74">
         <v>38293</v>
@@ -8407,13 +8448,13 @@
         <v>107</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C123" s="67">
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E123" s="74">
         <v>56663</v>
@@ -8422,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H123" s="74">
         <v>38841</v>
@@ -8464,13 +8505,13 @@
         <v>108</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C124" s="67">
         <v>2.23E-2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E124" s="74">
         <v>59037</v>
@@ -8515,13 +8556,13 @@
         <v>109</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C125" s="67">
         <v>1.26E-2</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E125" s="74">
         <v>59421</v>
@@ -8566,13 +8607,13 @@
         <v>110</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C126" s="67">
         <v>1.18E-2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E126" s="74">
         <v>39086</v>
@@ -8581,7 +8622,7 @@
         <v>4</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H126" s="74">
         <v>217973</v>
@@ -8623,13 +8664,13 @@
         <v>111</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C127" s="67">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E127" s="74">
         <v>77812</v>
@@ -8638,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H127" s="74">
         <v>38973</v>
@@ -8680,13 +8721,13 @@
         <v>112</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C128" s="67">
         <v>2.29E-2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E128" s="74">
         <v>208692</v>
@@ -8695,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H128" s="74">
         <v>38524</v>
@@ -8737,13 +8778,13 @@
         <v>113</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C129" s="67">
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E129" s="74">
         <v>38513</v>
@@ -8752,7 +8793,7 @@
         <v>5</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H129" s="74">
         <v>56929</v>
@@ -8794,13 +8835,13 @@
         <v>114</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C130" s="67">
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E130" s="74">
         <v>39192</v>
@@ -8845,13 +8886,13 @@
         <v>115</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C131" s="67">
         <v>1.18E-2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E131" s="74">
         <v>40502</v>
@@ -8860,7 +8901,7 @@
         <v>4</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H131" s="74">
         <v>79763</v>
@@ -8902,13 +8943,13 @@
         <v>116</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C132" s="67">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E132" s="74">
         <v>38359</v>
@@ -8917,7 +8958,7 @@
         <v>4</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H132" s="74">
         <v>56809</v>
@@ -8959,13 +9000,13 @@
         <v>117</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C133" s="45">
         <v>2.46E-2</v>
       </c>
       <c r="D133" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E133" s="73">
         <v>59728</v>
@@ -8974,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H133" s="73">
         <v>39975</v>
@@ -9016,13 +9057,13 @@
         <v>118</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C134" s="67">
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E134" s="74">
         <v>80674</v>
@@ -9031,7 +9072,7 @@
         <v>2</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H134" s="74">
         <v>58820</v>
@@ -9073,13 +9114,13 @@
         <v>119</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C135" s="67">
         <v>2.8400000000000002E-2</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E135" s="74">
         <v>39677</v>
@@ -9088,7 +9129,7 @@
         <v>3</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H135" s="74">
         <v>83266</v>
@@ -9130,13 +9171,13 @@
         <v>120</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C136" s="67">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E136" s="74">
         <v>81718</v>
@@ -9181,13 +9222,13 @@
         <v>121</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C137" s="67">
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E137" s="74">
         <v>38513</v>
@@ -9232,13 +9273,13 @@
         <v>122</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C138" s="67">
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E138" s="74">
         <v>211109</v>
@@ -9247,7 +9288,7 @@
         <v>3</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H138" s="74">
         <v>112907</v>
@@ -9289,13 +9330,13 @@
         <v>123</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C139" s="67">
         <v>2.46E-2</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E139" s="74">
         <v>57115</v>
@@ -9346,13 +9387,13 @@
         <v>124</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C140" s="67">
         <v>2.24E-2</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E140" s="74">
         <v>40018</v>
@@ -9361,7 +9402,7 @@
         <v>4</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H140" s="74">
         <v>118191</v>
@@ -9403,13 +9444,13 @@
         <v>125</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C141" s="67">
         <v>2.4E-2</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E141" s="74">
         <v>112791</v>
@@ -9418,7 +9459,7 @@
         <v>4</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H141" s="74">
         <v>59968</v>
@@ -9460,13 +9501,13 @@
         <v>126</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" s="67">
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E142" s="74">
         <v>38210</v>
@@ -9475,7 +9516,7 @@
         <v>4</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H142" s="74">
         <v>82313</v>
@@ -9517,13 +9558,13 @@
         <v>127</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C143" s="67">
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E143" s="74">
         <v>56753</v>
@@ -9532,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H143" s="74">
         <v>79406</v>
@@ -9574,13 +9615,13 @@
         <v>128</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C144" s="67">
         <v>2.87E-2</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E144" s="74">
         <v>38878</v>
@@ -9589,7 +9630,7 @@
         <v>5</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H144" s="74">
         <v>118055</v>
@@ -9631,13 +9672,13 @@
         <v>129</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C145" s="67">
         <v>2.6599999999999999E-2</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E145" s="74">
         <v>40165</v>
@@ -9682,13 +9723,13 @@
         <v>130</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C146" s="67">
         <v>2.47E-2</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E146" s="74">
         <v>80261</v>
@@ -9697,7 +9738,7 @@
         <v>3</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H146" s="74">
         <v>38757</v>
@@ -9739,13 +9780,13 @@
         <v>131</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C147" s="67">
         <v>2.24E-2</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E147" s="74">
         <v>38282</v>
@@ -9754,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H147" s="74">
         <v>81208</v>
@@ -9796,13 +9837,13 @@
         <v>132</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C148" s="67">
         <v>2.4799999999999999E-2</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E148" s="74">
         <v>38568</v>
@@ -9811,7 +9852,7 @@
         <v>5</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H148" s="74">
         <v>116188</v>
@@ -9853,13 +9894,13 @@
         <v>133</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C149" s="67">
         <v>2.7E-2</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E149" s="74">
         <v>79349</v>
@@ -9868,7 +9909,7 @@
         <v>4</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H149" s="74">
         <v>40468</v>
@@ -9910,13 +9951,13 @@
         <v>134</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C150" s="67">
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E150" s="74">
         <v>57427</v>
@@ -9925,7 +9966,7 @@
         <v>2</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H150" s="74">
         <v>78594</v>
@@ -9967,13 +10008,13 @@
         <v>135</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C151" s="67">
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E151" s="74">
         <v>78651</v>
@@ -10018,13 +10059,13 @@
         <v>136</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C152" s="67">
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E152" s="74">
         <v>79927</v>
@@ -10033,7 +10074,7 @@
         <v>4</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H152" s="74">
         <v>38587</v>
@@ -10075,13 +10116,13 @@
         <v>137</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C153" s="67">
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E153" s="74">
         <v>216583</v>
@@ -10090,7 +10131,7 @@
         <v>3</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H153" s="74">
         <v>79321</v>
@@ -10132,13 +10173,13 @@
         <v>138</v>
       </c>
       <c r="B154" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C154" s="45">
         <v>2.63E-2</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E154" s="73">
         <v>219216</v>
@@ -10147,7 +10188,7 @@
         <v>3</v>
       </c>
       <c r="G154" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H154" s="73">
         <v>115169</v>
@@ -12312,33 +12353,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="99"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="90" t="s">
+      <c r="V5" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="91"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="99"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -14227,7 +14268,7 @@
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" s="15">
         <v>3.2000000000000001E-2</v>
@@ -14326,7 +14367,7 @@
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="28">
         <v>62</v>
@@ -14428,7 +14469,7 @@
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="30">
         <v>2.4E-2</v>
@@ -14531,13 +14572,13 @@
     <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="E27" s="31" t="s">
         <v>37</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>38</v>
       </c>
       <c r="H27" s="18">
         <v>3.5000000000000003E-2</v>
@@ -14636,7 +14677,7 @@
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="32">
         <v>53</v>
@@ -14650,7 +14691,7 @@
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="32">
         <v>2</v>
@@ -14664,7 +14705,7 @@
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="13">
         <f>$C$25*(1+$C$26*C29)</f>
@@ -14679,37 +14720,37 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="90" t="s">
+      <c r="I30" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="91"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="99"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="90" t="s">
+      <c r="V30" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="91"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="99"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="24">
         <f>C30-C28</f>
@@ -16805,27 +16846,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M25"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -16847,7 +16890,7 @@
         <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="59">
         <f>Archive!G11</f>
@@ -16874,10 +16917,10 @@
         <v>635</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -17131,7 +17174,7 @@
         <v>730768</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -17160,68 +17203,68 @@
         <v>1.5658868478094279E-2</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <f t="shared" ref="B18:G18" si="2">B16*$M$2*$M$3</f>
-        <v>26.403045182245435</v>
+        <v>39.604567773368153</v>
       </c>
       <c r="C18" s="25">
         <f t="shared" si="2"/>
-        <v>16.21231409671207</v>
+        <v>24.318471145068109</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="2"/>
-        <v>10.834207537704229</v>
+        <v>16.251311306556342</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>7.4929517867563282</v>
+        <v>11.239427680134492</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="2"/>
-        <v>3.7672114340220038</v>
+        <v>5.6508171510330056</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="2"/>
-        <v>1.0294003973425458</v>
+        <v>1.5441005960138185</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <f>B18/2</f>
-        <v>13.201522591122718</v>
+        <v>19.802283886684076</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" ref="C19:F19" si="3">C18/2</f>
-        <v>8.1061570483560352</v>
+        <v>12.159235572534055</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="3"/>
-        <v>5.4171037688521144</v>
+        <v>8.1256556532781712</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="3"/>
-        <v>3.7464758933781641</v>
+        <v>5.6197138400672459</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="3"/>
-        <v>1.8836057170110019</v>
+        <v>2.8254085755165028</v>
       </c>
       <c r="G19" s="25">
         <f>G18/2</f>
-        <v>0.51470019867127292</v>
+        <v>0.77205029800690927</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <f>B16/$G$16</f>
         <v>25.648955693437035</v>
@@ -17247,10 +17290,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="65">
         <f>1/B21</f>
         <v>3.8987942119447637E-2</v>
@@ -17276,23 +17319,520 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>25.36</v>
+      </c>
+      <c r="C25" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="D25" s="13">
+        <v>10.47</v>
+      </c>
+      <c r="E25" s="13">
+        <v>7.12</v>
+      </c>
+      <c r="F25" s="13">
+        <v>3.65</v>
+      </c>
+      <c r="G25" s="85">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="11"/>
-      <c r="H25" t="s">
-        <v>83</v>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="86">
+        <f>B25/SUM($B$25:$G$25)</f>
+        <v>0.40190174326465927</v>
+      </c>
+      <c r="C26" s="37">
+        <f t="shared" ref="C26:G26" si="6">C25/SUM($B$25:$G$25)</f>
+        <v>0.24564183835182252</v>
+      </c>
+      <c r="D26" s="37">
+        <f t="shared" si="6"/>
+        <v>0.16592709984152143</v>
+      </c>
+      <c r="E26" s="37">
+        <f t="shared" si="6"/>
+        <v>0.1128367670364501</v>
+      </c>
+      <c r="F26" s="37">
+        <f t="shared" si="6"/>
+        <v>5.7844690966719493E-2</v>
+      </c>
+      <c r="G26" s="37">
+        <f t="shared" si="6"/>
+        <v>1.5847860538827259E-2</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="87">
+        <f>B26*$M$2*$M$3</f>
+        <v>39.631006683662925</v>
+      </c>
+      <c r="C27" s="88">
+        <f t="shared" ref="C27:G27" si="7">C26*$M$2*$M$3</f>
+        <v>24.222421277475373</v>
+      </c>
+      <c r="D27" s="88">
+        <f t="shared" si="7"/>
+        <v>16.361854888720462</v>
+      </c>
+      <c r="E27" s="88">
+        <f t="shared" si="7"/>
+        <v>11.126686419072559</v>
+      </c>
+      <c r="F27" s="88">
+        <f t="shared" si="7"/>
+        <v>5.7039895266312968</v>
+      </c>
+      <c r="G27" s="88">
+        <f t="shared" si="7"/>
+        <v>1.5627368566113142</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="89">
+        <f>B27/47*24</f>
+        <v>20.237109795912982</v>
+      </c>
+      <c r="C28" s="89">
+        <f t="shared" ref="C28:G28" si="8">C27/47*24</f>
+        <v>12.368895971476785</v>
+      </c>
+      <c r="D28" s="89">
+        <f t="shared" si="8"/>
+        <v>8.3549897304104483</v>
+      </c>
+      <c r="E28" s="89">
+        <f t="shared" si="8"/>
+        <v>5.6817122139944978</v>
+      </c>
+      <c r="F28" s="89">
+        <f t="shared" si="8"/>
+        <v>2.9126755029606621</v>
+      </c>
+      <c r="G28" s="89">
+        <f t="shared" si="8"/>
+        <v>0.79799328848237328</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>0.17</v>
+      </c>
+      <c r="D33">
+        <v>0.24</v>
+      </c>
+      <c r="E33">
+        <v>0.44</v>
+      </c>
+      <c r="F33">
+        <v>0.61</v>
+      </c>
+      <c r="I33">
+        <f>C33/24</f>
+        <v>7.0833333333333338E-3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:L36" si="9">D33/24</f>
+        <v>0.01</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="9"/>
+        <v>1.8333333333333333E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>2.5416666666666667E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>1.64</v>
+      </c>
+      <c r="E34">
+        <f>1.49+0.62</f>
+        <v>2.11</v>
+      </c>
+      <c r="F34">
+        <v>8.06</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I36" si="10">C34/24</f>
+        <v>6.8333333333333329E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="9"/>
+        <v>8.7916666666666657E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="9"/>
+        <v>0.33583333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35">
+        <v>2.72</v>
+      </c>
+      <c r="D35">
+        <v>0.24</v>
+      </c>
+      <c r="E35">
+        <v>0.44</v>
+      </c>
+      <c r="F35">
+        <v>5.88</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="10"/>
+        <v>0.11333333333333334</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>1.8333333333333333E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>4.54</v>
+      </c>
+      <c r="D36">
+        <v>1.23</v>
+      </c>
+      <c r="E36">
+        <v>0.88</v>
+      </c>
+      <c r="F36">
+        <v>14.28</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="10"/>
+        <v>0.18916666666666668</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="9"/>
+        <v>5.1249999999999997E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="9"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="9"/>
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <f>C33*$B$28/24</f>
+        <v>0.14334619438771698</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:F39" si="11">D33*$B$28/24</f>
+        <v>0.2023710979591298</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="11"/>
+        <v>0.37101367959173803</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="11"/>
+        <v>0.51435987397945493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <f>C34*$C$28/24</f>
+        <v>0.84520789138424701</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:F40" si="12">D34*$C$28/24</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="12"/>
+        <v>1.0874321041590007</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="12"/>
+        <v>4.1538875637542878</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41">
+        <f>C35*$D$28/24</f>
+        <v>0.94689883611318415</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:F41" si="13">D35*$D$28/24</f>
+        <v>8.354989730410449E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="13"/>
+        <v>0.15317481172419156</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="13"/>
+        <v>2.0469724839505599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="24">
+        <f>C36*$E$28/24</f>
+        <v>1.0747905604806258</v>
+      </c>
+      <c r="D42" s="24">
+        <f t="shared" ref="D42:F42" si="14">D36*$E$28/24</f>
+        <v>0.291187750967218</v>
+      </c>
+      <c r="E42" s="24">
+        <f t="shared" si="14"/>
+        <v>0.20832944784646493</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="14"/>
+        <v>3.3806187673267263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>SUM(C39:C42)</f>
+        <v>3.010243482365774</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:F43" si="15">SUM(D39:D42)</f>
+        <v>0.57710874623045227</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="15"/>
+        <v>1.8199500433213953</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="15"/>
+        <v>10.095838689011028</v>
+      </c>
+      <c r="G43">
+        <f>SUM(C43:F43)</f>
+        <v>15.503140960928651</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="101">
+        <v>7.0833333333333338E-3</v>
+      </c>
+      <c r="D47" s="101">
+        <v>0.01</v>
+      </c>
+      <c r="E47" s="101">
+        <v>1.8333333333333333E-2</v>
+      </c>
+      <c r="F47" s="102">
+        <v>2.5416666666666667E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12.4</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="103">
+        <v>6.8333333333333329E-2</v>
+      </c>
+      <c r="D48" s="103">
+        <v>0</v>
+      </c>
+      <c r="E48" s="103">
+        <v>8.7916666666666657E-2</v>
+      </c>
+      <c r="F48" s="104">
+        <v>0.33583333333333337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8.4</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="103">
+        <v>0.11333333333333334</v>
+      </c>
+      <c r="D49" s="103">
+        <v>0.01</v>
+      </c>
+      <c r="E49" s="103">
+        <v>1.8333333333333333E-2</v>
+      </c>
+      <c r="F49" s="104">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5.7</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="105">
+        <v>0.18916666666666668</v>
+      </c>
+      <c r="D50" s="105">
+        <v>5.1249999999999997E-2</v>
+      </c>
+      <c r="E50" s="105">
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="F50" s="106">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f>SUMPRODUCT($A$47:$A$50,C47:C50)</f>
+        <v>3.0220833333333337</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:F51" si="16">SUMPRODUCT($A$47:$A$50,D47:D50)</f>
+        <v>0.580125</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="16"/>
+        <v>1.8271666666666664</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="16"/>
+        <v>10.132333333333335</v>
+      </c>
+      <c r="G51">
+        <f>SUM(C51:F51)</f>
+        <v>15.561708333333335</v>
       </c>
     </row>
   </sheetData>

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -318,7 +318,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -737,6 +737,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,12 +776,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -784,6 +784,16 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1110,16 +1120,6 @@
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1147,32 +1147,32 @@
   <tableColumns count="16">
     <tableColumn id="1" name="No."/>
     <tableColumn id="23" name="Economy "/>
-    <tableColumn id="2" name="QualityBonus" dataDxfId="22" dataCellStyle="Porcentaje"/>
-    <tableColumn id="3" name="Product" dataDxfId="21" dataCellStyle="Moneda"/>
-    <tableColumn id="7" name="Base price1" dataDxfId="20" dataCellStyle="Moneda"/>
-    <tableColumn id="24" name="Req." dataDxfId="19" dataCellStyle="Millares"/>
-    <tableColumn id="18" name="Product2" dataDxfId="18" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Base price2" dataDxfId="17" dataCellStyle="Moneda"/>
-    <tableColumn id="35" name="Req.2" dataDxfId="16" dataCellStyle="Millares"/>
-    <tableColumn id="12" name="Order price" dataDxfId="15" dataCellStyle="Moneda">
+    <tableColumn id="2" name="QualityBonus" dataDxfId="23" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" name="Product" dataDxfId="22" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Base price1" dataDxfId="21" dataCellStyle="Moneda"/>
+    <tableColumn id="24" name="Req." dataDxfId="20" dataCellStyle="Millares"/>
+    <tableColumn id="18" name="Product2" dataDxfId="19" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Base price2" dataDxfId="18" dataCellStyle="Moneda"/>
+    <tableColumn id="35" name="Req.2" dataDxfId="17" dataCellStyle="Millares"/>
+    <tableColumn id="12" name="Order price" dataDxfId="16" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]]+Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Bonus1" dataDxfId="14" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Bonus1" dataDxfId="15" dataCellStyle="Moneda">
       <calculatedColumnFormula>IFERROR(LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[QualityBonus]]*Tabla22[[#This Row],[Base price1]]*Tabla22[[#This Row],[Req.]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Bonus2" dataDxfId="13" dataCellStyle="Moneda">
+    <tableColumn id="11" name="Bonus2" dataDxfId="14" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$T$18:$T$23)*Tabla22[[#This Row],[Base price2]]*Tabla22[[#This Row],[Req.2]]*Tabla22[[#This Row],[QualityBonus]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="p1" dataDxfId="12" dataCellStyle="Moneda">
+    <tableColumn id="10" name="p1" dataDxfId="13" dataCellStyle="Moneda">
       <calculatedColumnFormula>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="p2" dataDxfId="11" dataCellStyle="Moneda">
+    <tableColumn id="9" name="p2" dataDxfId="12" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="No wages" dataDxfId="10" dataCellStyle="Moneda">
+    <tableColumn id="30" name="No wages" dataDxfId="11" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="profit -wages" dataDxfId="9" dataCellStyle="Moneda">
+    <tableColumn id="36" name="profit -wages" dataDxfId="10" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1181,35 +1181,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="R17:T23"/>
   <sortState ref="T18:V23">
     <sortCondition ref="T17:T23"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Goods sold" dataDxfId="6"/>
-    <tableColumn id="2" name="COGS" dataDxfId="5"/>
-    <tableColumn id="3" name="Q" dataDxfId="4"/>
+    <tableColumn id="1" name="Goods sold" dataDxfId="7"/>
+    <tableColumn id="2" name="COGS" dataDxfId="6"/>
+    <tableColumn id="3" name="Q" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="4" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1530,35 +1530,35 @@
       <c r="AB2" s="46"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="N3" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="W3" s="90" t="s">
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="W3" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -2336,25 +2336,25 @@
       <c r="W14" s="46"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95" t="s">
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="96" t="s">
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
@@ -12195,7 +12195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P200">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12353,33 +12353,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="99"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="105"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="98" t="s">
+      <c r="V5" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="99"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="105"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -14720,33 +14720,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="98" t="s">
+      <c r="I30" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="99"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="105"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="98" t="s">
+      <c r="V30" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="99"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="104"/>
+      <c r="AF30" s="105"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
@@ -16846,998 +16846,958 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="100" t="s">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="59">
+      <c r="N2" s="59">
         <f>Archive!G11</f>
         <v>4.6956521739130439</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3">
         <v>18445</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>20460</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7336</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>9072</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4574</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>635</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="N3" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4">
         <v>29891</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9445</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>13242</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4651</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2510</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1188</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5">
         <v>19315</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>19653</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6885</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9083</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3910</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>29235</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9778</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>13148</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4597</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3034</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1508</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>21002</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>18773</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7065</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8771</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4191</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>27283</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>11070</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>14108</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5558</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2836</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1088</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>22479</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>19404</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>6940</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8009</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4114</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>820</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>27783</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>12290</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>13147</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6203</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3097</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1316</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>22991</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>18022</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6987</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>8034</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4352</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>25478</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>11329</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>14167</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5533</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2912</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>924</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>23336</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>16534</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>6269</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7335</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3293</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>987</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="24">
         <v>26263</v>
       </c>
-      <c r="C14" s="24">
+      <c r="D14" s="24">
         <v>13461</v>
       </c>
-      <c r="D14" s="24">
+      <c r="E14" s="24">
         <v>11141</v>
       </c>
-      <c r="E14" s="24">
+      <c r="F14" s="24">
         <v>6447</v>
       </c>
-      <c r="F14" s="24">
+      <c r="G14" s="24">
         <v>3054</v>
       </c>
-      <c r="G14" s="24">
+      <c r="H14" s="24">
         <v>1011</v>
       </c>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="25">
-        <f>SUM(B3:B14)</f>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="25">
+        <f>SUM(C3:C14)</f>
         <v>293501</v>
       </c>
-      <c r="C15" s="25">
-        <f t="shared" ref="C15:G15" si="0">SUM(C3:C14)</f>
+      <c r="D15" s="25">
+        <f t="shared" ref="D15:H15" si="0">SUM(D3:D14)</f>
         <v>180219</v>
       </c>
-      <c r="D15" s="25">
+      <c r="E15" s="25">
         <f t="shared" si="0"/>
         <v>120435</v>
       </c>
-      <c r="E15" s="25">
+      <c r="F15" s="25">
         <f t="shared" si="0"/>
         <v>83293</v>
       </c>
-      <c r="F15" s="25">
+      <c r="G15" s="25">
         <f t="shared" si="0"/>
         <v>41877</v>
       </c>
-      <c r="G15" s="25">
+      <c r="H15" s="25">
         <f t="shared" si="0"/>
         <v>11443</v>
       </c>
-      <c r="H15" s="26">
-        <f>SUM(B15:G15)</f>
+      <c r="I15" s="26">
+        <f>SUM(C15:H15)</f>
         <v>730768</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
-        <f>B15/$H$15</f>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="27">
+        <f>C15/$I$15</f>
         <v>0.40163362380399797</v>
       </c>
-      <c r="C16" s="27">
-        <f t="shared" ref="C16:G16" si="1">C15/$H$15</f>
+      <c r="D16" s="27">
+        <f t="shared" ref="D16:H16" si="1">D15/$I$15</f>
         <v>0.24661588903728679</v>
       </c>
-      <c r="D16" s="27">
+      <c r="E16" s="27">
         <f t="shared" si="1"/>
         <v>0.16480606704179712</v>
       </c>
-      <c r="E16" s="27">
+      <c r="F16" s="27">
         <f t="shared" si="1"/>
         <v>0.11398008670330392</v>
       </c>
-      <c r="F16" s="27">
+      <c r="G16" s="27">
         <f t="shared" si="1"/>
         <v>5.7305464935519891E-2</v>
       </c>
-      <c r="G16" s="27">
+      <c r="H16" s="27">
         <f t="shared" si="1"/>
         <v>1.5658868478094279E-2</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
-        <f t="shared" ref="B18:G18" si="2">B16*$M$2*$M$3</f>
-        <v>39.604567773368153</v>
-      </c>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="25">
-        <f t="shared" si="2"/>
-        <v>24.318471145068109</v>
+        <f t="shared" ref="C18:H18" si="2">C16*$N$2*$N$3</f>
+        <v>79.209135546736306</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="2"/>
-        <v>16.251311306556342</v>
+        <v>48.636942290136219</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>11.239427680134492</v>
+        <v>32.502622613112685</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="2"/>
-        <v>5.6508171510330056</v>
+        <v>22.478855360268984</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="2"/>
-        <v>1.5441005960138185</v>
-      </c>
-      <c r="H18" t="s">
+        <v>11.301634302066011</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="2"/>
+        <v>3.0882011920276371</v>
+      </c>
+      <c r="I18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
-        <f>B18/2</f>
-        <v>19.802283886684076</v>
-      </c>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="25">
-        <f t="shared" ref="C19:F19" si="3">C18/2</f>
-        <v>12.159235572534055</v>
+        <f>C18/2</f>
+        <v>39.604567773368153</v>
       </c>
       <c r="D19" s="25">
-        <f t="shared" si="3"/>
-        <v>8.1256556532781712</v>
+        <f t="shared" ref="D19:G19" si="3">D18/2</f>
+        <v>24.318471145068109</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="3"/>
-        <v>5.6197138400672459</v>
+        <v>16.251311306556342</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="3"/>
-        <v>2.8254085755165028</v>
+        <v>11.239427680134492</v>
       </c>
       <c r="G19" s="25">
-        <f>G18/2</f>
-        <v>0.77205029800690927</v>
-      </c>
-      <c r="H19" t="s">
+        <f t="shared" si="3"/>
+        <v>5.6508171510330056</v>
+      </c>
+      <c r="H19" s="25">
+        <f>H18/2</f>
+        <v>1.5441005960138185</v>
+      </c>
+      <c r="I19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
-        <f>B16/$G$16</f>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="10">
+        <f>C16/$H$16</f>
         <v>25.648955693437035</v>
       </c>
-      <c r="C21" s="10">
-        <f t="shared" ref="C21:G21" si="4">C16/$G$16</f>
+      <c r="D21" s="10">
+        <f t="shared" ref="D21:H21" si="4">D16/$H$16</f>
         <v>15.749279035218036</v>
       </c>
-      <c r="D21" s="10">
+      <c r="E21" s="10">
         <f t="shared" si="4"/>
         <v>10.524774971598356</v>
       </c>
-      <c r="E21" s="10">
+      <c r="F21" s="10">
         <f t="shared" si="4"/>
         <v>7.2789478283666869</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="10">
         <f t="shared" si="4"/>
         <v>3.6596172332430306</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="65">
-        <f>1/B21</f>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="65">
+        <f>1/C21</f>
         <v>3.8987942119447637E-2</v>
       </c>
-      <c r="C22" s="65">
-        <f t="shared" ref="C22:G22" si="5">1/C21</f>
+      <c r="D22" s="65">
+        <f t="shared" ref="D22:H22" si="5">1/D21</f>
         <v>6.3494970008711626E-2</v>
       </c>
-      <c r="D22" s="65">
+      <c r="E22" s="65">
         <f t="shared" si="5"/>
         <v>9.5013907917133725E-2</v>
       </c>
-      <c r="E22" s="65">
+      <c r="F22" s="65">
         <f t="shared" si="5"/>
         <v>0.13738249312667331</v>
       </c>
-      <c r="F22" s="65">
+      <c r="G22" s="65">
         <f t="shared" si="5"/>
         <v>0.27325262077035128</v>
       </c>
-      <c r="G22" s="65">
+      <c r="H22" s="65">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="83" t="s">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="84"/>
       <c r="D24" s="84"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="84"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
+      <c r="H24" s="84"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
         <v>25.36</v>
       </c>
-      <c r="C25" s="13">
+      <c r="D25" s="13">
         <v>15.5</v>
       </c>
-      <c r="D25" s="13">
+      <c r="E25" s="13">
         <v>10.47</v>
       </c>
-      <c r="E25" s="13">
+      <c r="F25" s="13">
         <v>7.12</v>
       </c>
-      <c r="F25" s="13">
+      <c r="G25" s="13">
         <v>3.65</v>
       </c>
-      <c r="G25" s="85">
+      <c r="H25" s="85">
         <v>1</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="I25" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="86">
-        <f>B25/SUM($B$25:$G$25)</f>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="86">
+        <f>C25/SUM($C$25:$H$25)</f>
         <v>0.40190174326465927</v>
       </c>
-      <c r="C26" s="37">
-        <f t="shared" ref="C26:G26" si="6">C25/SUM($B$25:$G$25)</f>
+      <c r="D26" s="37">
+        <f t="shared" ref="D26:H26" si="6">D25/SUM($C$25:$H$25)</f>
         <v>0.24564183835182252</v>
       </c>
-      <c r="D26" s="37">
+      <c r="E26" s="37">
         <f t="shared" si="6"/>
         <v>0.16592709984152143</v>
       </c>
-      <c r="E26" s="37">
+      <c r="F26" s="37">
         <f t="shared" si="6"/>
         <v>0.1128367670364501</v>
       </c>
-      <c r="F26" s="37">
+      <c r="G26" s="37">
         <f t="shared" si="6"/>
         <v>5.7844690966719493E-2</v>
       </c>
-      <c r="G26" s="37">
+      <c r="H26" s="37">
         <f t="shared" si="6"/>
         <v>1.5847860538827259E-2</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="87">
-        <f>B26*$M$2*$M$3</f>
-        <v>39.631006683662925</v>
-      </c>
-      <c r="C27" s="88">
-        <f t="shared" ref="C27:G27" si="7">C26*$M$2*$M$3</f>
-        <v>24.222421277475373</v>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="87">
+        <f>C26*$N$2*$N$3</f>
+        <v>79.262013367325849</v>
       </c>
       <c r="D27" s="88">
-        <f t="shared" si="7"/>
-        <v>16.361854888720462</v>
+        <f t="shared" ref="D27:H27" si="7">D26*$N$2*$N$3</f>
+        <v>48.444842554950746</v>
       </c>
       <c r="E27" s="88">
         <f t="shared" si="7"/>
-        <v>11.126686419072559</v>
+        <v>32.723709777440924</v>
       </c>
       <c r="F27" s="88">
         <f t="shared" si="7"/>
-        <v>5.7039895266312968</v>
+        <v>22.253372838145118</v>
       </c>
       <c r="G27" s="88">
         <f t="shared" si="7"/>
-        <v>1.5627368566113142</v>
-      </c>
-      <c r="H27" s="13" t="s">
+        <v>11.407979053262594</v>
+      </c>
+      <c r="H27" s="88">
+        <f t="shared" si="7"/>
+        <v>3.1254737132226285</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="89">
-        <f>B27/47*24</f>
-        <v>20.237109795912982</v>
-      </c>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="89">
-        <f t="shared" ref="C28:G28" si="8">C27/47*24</f>
-        <v>12.368895971476785</v>
+        <f>C27/47*24</f>
+        <v>40.474219591825964</v>
       </c>
       <c r="D28" s="89">
-        <f t="shared" si="8"/>
-        <v>8.3549897304104483</v>
+        <f t="shared" ref="D28:H28" si="8">D27/47*24</f>
+        <v>24.737791942953571</v>
       </c>
       <c r="E28" s="89">
         <f t="shared" si="8"/>
-        <v>5.6817122139944978</v>
+        <v>16.709979460820897</v>
       </c>
       <c r="F28" s="89">
         <f t="shared" si="8"/>
-        <v>2.9126755029606621</v>
+        <v>11.363424427988996</v>
       </c>
       <c r="G28" s="89">
         <f t="shared" si="8"/>
-        <v>0.79799328848237328</v>
-      </c>
-      <c r="H28" s="24" t="s">
+        <v>5.8253510059213243</v>
+      </c>
+      <c r="H28" s="89">
+        <f t="shared" si="8"/>
+        <v>1.5959865769647466</v>
+      </c>
+      <c r="I28" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="J28" s="34"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>85</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>89</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>90</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.17</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.24</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.44</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.61</v>
       </c>
-      <c r="I33">
-        <f>C33/24</f>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>1.64</v>
+      </c>
+      <c r="F34">
+        <f>1.49+0.62+8.06</f>
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35">
+        <v>2.72</v>
+      </c>
+      <c r="E35">
+        <v>0.24</v>
+      </c>
+      <c r="F35">
+        <v>0.44</v>
+      </c>
+      <c r="G35">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <v>4.54</v>
+      </c>
+      <c r="E36">
+        <v>1.23</v>
+      </c>
+      <c r="F36">
+        <v>0.88</v>
+      </c>
+      <c r="G36">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <f>D33*$C$28/24</f>
+        <v>0.28669238877543396</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:G39" si="9">E33*$C$28/24</f>
+        <v>0.40474219591825961</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="9"/>
+        <v>0.74202735918347607</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>1.0287197479589099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <f>D34*$D$28/24</f>
+        <v>1.690415782768494</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:G40" si="10">E34*$D$28/24</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>10.482639335826576</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41">
+        <f>D35*$E$28/24</f>
+        <v>1.8937976722263683</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:G41" si="11">E35*$E$28/24</f>
+        <v>0.16709979460820898</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="11"/>
+        <v>0.30634962344838312</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>4.0939449679011197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="24">
+        <f>D36*$G$28/24</f>
+        <v>1.1019622319534506</v>
+      </c>
+      <c r="E42" s="24">
+        <f t="shared" ref="E42:G42" si="12">E36*$G$28/24</f>
+        <v>0.29854923905346786</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="12"/>
+        <v>0.21359620355044853</v>
+      </c>
+      <c r="G42" s="24">
+        <f t="shared" si="12"/>
+        <v>3.4660838485231875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>SUM(D39:D42)</f>
+        <v>4.9728680757237473</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:G43" si="13">SUM(E39:E42)</f>
+        <v>0.87039122957993642</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="13"/>
+        <v>11.744612522008884</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="13"/>
+        <v>8.5887485643832164</v>
+      </c>
+      <c r="H43">
+        <f>SUM(D43:G43)</f>
+        <v>26.176620391695785</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <f>C28*A47</f>
+        <v>40.474219591825964</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="90">
         <v>7.0833333333333338E-3</v>
       </c>
-      <c r="J33">
-        <f t="shared" ref="J33:L36" si="9">D33/24</f>
+      <c r="E47" s="90">
         <v>0.01</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="9"/>
+      <c r="F47" s="90">
         <v>1.8333333333333333E-2</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="9"/>
+      <c r="G47" s="91">
         <v>2.5416666666666667E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="I47">
+        <f>G47*B47</f>
+        <v>1.0287197479589099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <f>D28*A48</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34">
-        <v>1.64</v>
-      </c>
-      <c r="E34">
-        <f>1.49+0.62</f>
-        <v>2.11</v>
-      </c>
-      <c r="F34">
-        <v>8.06</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ref="I34:I36" si="10">C34/24</f>
+      <c r="D48" s="92">
         <v>6.8333333333333329E-2</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="9"/>
-        <v>8.7916666666666657E-2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="9"/>
-        <v>0.33583333333333337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="E48" s="92">
+        <v>0</v>
+      </c>
+      <c r="F48" s="92">
+        <f>0.0879166666666667+0.335833333333333</f>
+        <v>0.42374999999999968</v>
+      </c>
+      <c r="G48" s="93"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <f>E28*A49</f>
+        <v>16.709979460820897</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C35">
-        <v>2.72</v>
-      </c>
-      <c r="D35">
-        <v>0.24</v>
-      </c>
-      <c r="E35">
-        <v>0.44</v>
-      </c>
-      <c r="F35">
-        <v>5.88</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="10"/>
+      <c r="D49" s="92">
         <v>0.11333333333333334</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="9"/>
+      <c r="E49" s="92">
         <v>0.01</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="9"/>
+      <c r="F49" s="92">
         <v>1.8333333333333333E-2</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="9"/>
+      <c r="G49" s="93">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="I49">
+        <f>G49*B49</f>
+        <v>4.0939449679011197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <f>G28*A50</f>
+        <v>5.8253510059213243</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C36">
-        <v>4.54</v>
-      </c>
-      <c r="D36">
-        <v>1.23</v>
-      </c>
-      <c r="E36">
-        <v>0.88</v>
-      </c>
-      <c r="F36">
-        <v>14.28</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="10"/>
+      <c r="D50" s="94">
         <v>0.18916666666666668</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="9"/>
+      <c r="E50" s="94">
         <v>5.1249999999999997E-2</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="9"/>
+      <c r="F50" s="94">
         <v>3.6666666666666667E-2</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="9"/>
+      <c r="G50" s="95">
         <v>0.59499999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39">
-        <f>C33*$B$28/24</f>
-        <v>0.14334619438771698</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ref="D39:F39" si="11">D33*$B$28/24</f>
-        <v>0.2023710979591298</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="11"/>
-        <v>0.37101367959173803</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="11"/>
-        <v>0.51435987397945493</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40">
-        <f>C34*$C$28/24</f>
-        <v>0.84520789138424701</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ref="D40:F40" si="12">D34*$C$28/24</f>
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="12"/>
-        <v>1.0874321041590007</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="12"/>
-        <v>4.1538875637542878</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41">
-        <f>C35*$D$28/24</f>
-        <v>0.94689883611318415</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ref="D41:F41" si="13">D35*$D$28/24</f>
-        <v>8.354989730410449E-2</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="13"/>
-        <v>0.15317481172419156</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="13"/>
-        <v>2.0469724839505599</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="24">
-        <f>C36*$E$28/24</f>
-        <v>1.0747905604806258</v>
-      </c>
-      <c r="D42" s="24">
-        <f t="shared" ref="D42:F42" si="14">D36*$E$28/24</f>
-        <v>0.291187750967218</v>
-      </c>
-      <c r="E42" s="24">
+      <c r="I50">
+        <f>G50*B50</f>
+        <v>3.466083848523188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f>SUMPRODUCT($B$47:$B$50,D47:D50)</f>
+        <v>3.2824522929552531</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:G51" si="14">SUMPRODUCT($B$47:$B$50,E47:E50)</f>
+        <v>0.87039122957993653</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="14"/>
-        <v>0.20832944784646493</v>
-      </c>
-      <c r="F42" s="24">
+        <v>1.2619731861823078</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="14"/>
-        <v>3.3806187673267263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <f>SUM(C39:C42)</f>
-        <v>3.010243482365774</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ref="D43:F43" si="15">SUM(D39:D42)</f>
-        <v>0.57710874623045227</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="15"/>
-        <v>1.8199500433213953</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="15"/>
-        <v>10.095838689011028</v>
-      </c>
-      <c r="G43">
-        <f>SUM(C43:F43)</f>
-        <v>15.503140960928651</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="101">
-        <v>7.0833333333333338E-3</v>
-      </c>
-      <c r="D47" s="101">
-        <v>0.01</v>
-      </c>
-      <c r="E47" s="101">
-        <v>1.8333333333333333E-2</v>
-      </c>
-      <c r="F47" s="102">
-        <v>2.5416666666666667E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>12.4</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="103">
-        <v>6.8333333333333329E-2</v>
-      </c>
-      <c r="D48" s="103">
-        <v>0</v>
-      </c>
-      <c r="E48" s="103">
-        <v>8.7916666666666657E-2</v>
-      </c>
-      <c r="F48" s="104">
-        <v>0.33583333333333337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>8.4</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="103">
-        <v>0.11333333333333334</v>
-      </c>
-      <c r="D49" s="103">
-        <v>0.01</v>
-      </c>
-      <c r="E49" s="103">
-        <v>1.8333333333333333E-2</v>
-      </c>
-      <c r="F49" s="104">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>5.7</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="105">
-        <v>0.18916666666666668</v>
-      </c>
-      <c r="D50" s="105">
-        <v>5.1249999999999997E-2</v>
-      </c>
-      <c r="E50" s="105">
-        <v>3.6666666666666667E-2</v>
-      </c>
-      <c r="F50" s="106">
-        <v>0.59499999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <f>SUMPRODUCT($A$47:$A$50,C47:C50)</f>
-        <v>3.0220833333333337</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ref="D51:F51" si="16">SUMPRODUCT($A$47:$A$50,D47:D50)</f>
-        <v>0.580125</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="16"/>
-        <v>1.8271666666666664</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="16"/>
-        <v>10.132333333333335</v>
-      </c>
-      <c r="G51">
-        <f>SUM(C51:F51)</f>
-        <v>15.561708333333335</v>
+        <v>8.5887485643832164</v>
+      </c>
+      <c r="H51">
+        <f>SUM(D51:G51)</f>
+        <v>14.003565273100714</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Archive" sheetId="4" r:id="rId1"/>
@@ -751,6 +751,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,7 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -793,6 +793,77 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -890,77 +961,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1190,35 +1190,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R17:T23" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
   <autoFilter ref="R17:T23"/>
   <sortState ref="T18:V23">
     <sortCondition ref="T17:T23"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Goods sold" dataDxfId="2"/>
-    <tableColumn id="2" name="COGS" dataDxfId="1"/>
-    <tableColumn id="3" name="Q" dataDxfId="0"/>
+    <tableColumn id="1" name="Goods sold" dataDxfId="6"/>
+    <tableColumn id="2" name="COGS" dataDxfId="5"/>
+    <tableColumn id="3" name="Q" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="8" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B8:E19" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moneda">
   <autoFilter ref="B8:E19"/>
   <sortState ref="B9:E19">
     <sortCondition ref="B8:B19"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Quality"/>
-    <tableColumn id="2" name="Unit price" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="2" name="Unit price" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>$C$3*(1+$C$4*B9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Unit profit" dataDxfId="6" dataCellStyle="Moneda">
+    <tableColumn id="3" name="Unit profit" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>C9-$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total profit" dataDxfId="5" dataCellStyle="Moneda">
+    <tableColumn id="4" name="Total profit" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>D9*$C$6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1491,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
@@ -1539,41 +1539,41 @@
       <c r="AB2" s="45"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="N3" s="95" t="s">
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="N3" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="W3" s="95" t="s">
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="W3" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4" s="95">
         <f>27000+(T11-27000)/2</f>
         <v>38575.84495595238</v>
       </c>
@@ -2346,25 +2346,25 @@
       <c r="W14" s="45"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100" t="s">
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="101" t="s">
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
       <c r="T15" s="45"/>
@@ -12377,33 +12377,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="105"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="103" t="s">
+      <c r="V5" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="105"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -14744,33 +14744,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="103" t="s">
+      <c r="I30" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="105"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="103" t="s">
+      <c r="V30" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="104"/>
+      <c r="AF30" s="105"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
@@ -16872,8 +16872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16885,14 +16885,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -16944,7 +16944,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
@@ -17233,27 +17233,27 @@
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="25">
         <f t="shared" ref="C18:H18" si="2">C16*$N$2*$N$3</f>
-        <v>79.209135546736306</v>
+        <v>92.410658137859016</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="2"/>
-        <v>48.636942290136219</v>
+        <v>56.74309933849225</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>32.502622613112685</v>
+        <v>37.9197263819648</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="2"/>
-        <v>22.478855360268984</v>
+        <v>26.225331253647148</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="2"/>
-        <v>11.301634302066011</v>
+        <v>13.185240019077014</v>
       </c>
       <c r="H18" s="25">
         <f t="shared" si="2"/>
-        <v>3.0882011920276371</v>
+        <v>3.6029013906989102</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -17262,27 +17262,27 @@
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="25">
         <f>C18/2</f>
-        <v>39.604567773368153</v>
+        <v>46.205329068929508</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" ref="D19:G19" si="3">D18/2</f>
-        <v>24.318471145068109</v>
+        <v>28.371549669246125</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="3"/>
-        <v>16.251311306556342</v>
+        <v>18.9598631909824</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="3"/>
-        <v>11.239427680134492</v>
+        <v>13.112665626823574</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" si="3"/>
-        <v>5.6508171510330056</v>
+        <v>6.592620009538507</v>
       </c>
       <c r="H19" s="25">
         <f>H18/2</f>
-        <v>1.5441005960138185</v>
+        <v>1.8014506953494551</v>
       </c>
       <c r="I19" t="s">
         <v>83</v>
@@ -17413,27 +17413,27 @@
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="86">
         <f>C26*$N$2*$N$3</f>
-        <v>79.262013367325849</v>
+        <v>92.472348928546836</v>
       </c>
       <c r="D27" s="87">
         <f t="shared" ref="D27:H27" si="7">D26*$N$2*$N$3</f>
-        <v>48.444842554950746</v>
+        <v>56.518982980775867</v>
       </c>
       <c r="E27" s="87">
         <f t="shared" si="7"/>
-        <v>32.723709777440924</v>
+        <v>38.177661407014412</v>
       </c>
       <c r="F27" s="87">
         <f t="shared" si="7"/>
-        <v>22.253372838145118</v>
+        <v>25.962268311169304</v>
       </c>
       <c r="G27" s="87">
         <f t="shared" si="7"/>
-        <v>11.407979053262594</v>
+        <v>13.309308895473025</v>
       </c>
       <c r="H27" s="87">
         <f t="shared" si="7"/>
-        <v>3.1254737132226285</v>
+        <v>3.6463859987597331</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>28</v>
@@ -17443,27 +17443,27 @@
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="88">
         <f>C27/47*24</f>
-        <v>40.474219591825964</v>
+        <v>47.2199228571303</v>
       </c>
       <c r="D28" s="88">
         <f t="shared" ref="D28:H28" si="8">D27/47*24</f>
-        <v>24.737791942953571</v>
+        <v>28.860757266779164</v>
       </c>
       <c r="E28" s="88">
         <f t="shared" si="8"/>
-        <v>16.709979460820897</v>
+        <v>19.494976037624379</v>
       </c>
       <c r="F28" s="88">
         <f t="shared" si="8"/>
-        <v>11.363424427988996</v>
+        <v>13.257328499320497</v>
       </c>
       <c r="G28" s="88">
         <f t="shared" si="8"/>
-        <v>5.8253510059213243</v>
+        <v>6.7962428402415451</v>
       </c>
       <c r="H28" s="88">
         <f t="shared" si="8"/>
-        <v>1.5959865769647466</v>
+        <v>1.8619843397922042</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>84</v>
@@ -17487,7 +17487,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>22</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>23</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>86</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>87</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>92</v>
       </c>
@@ -17567,34 +17567,34 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>22</v>
       </c>
       <c r="D39">
         <f>D33*$C$28/24</f>
-        <v>0.28669238877543396</v>
+        <v>0.33447445357133959</v>
       </c>
       <c r="E39">
         <f t="shared" ref="E39:G39" si="9">E33*$C$28/24</f>
-        <v>0.40474219591825961</v>
+        <v>0.47219922857130298</v>
       </c>
       <c r="F39">
         <f t="shared" si="9"/>
-        <v>0.74202735918347607</v>
+        <v>0.86569858571405556</v>
       </c>
       <c r="G39">
         <f t="shared" si="9"/>
-        <v>1.0287197479589099</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.2001730392853951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>23</v>
       </c>
       <c r="D40">
         <f>D34*$D$28/24</f>
-        <v>1.690415782768494</v>
+        <v>1.9721517465632428</v>
       </c>
       <c r="E40">
         <f t="shared" ref="E40:G40" si="10">E34*$D$28/24</f>
@@ -17602,78 +17602,78 @@
       </c>
       <c r="F40">
         <f t="shared" si="10"/>
-        <v>10.482639335826576</v>
+        <v>12.22974589179767</v>
       </c>
       <c r="G40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>86</v>
       </c>
       <c r="D41">
         <f>D35*$E$28/24</f>
-        <v>1.8937976722263683</v>
+        <v>2.2094306175974299</v>
       </c>
       <c r="E41">
         <f t="shared" ref="E41:G41" si="11">E35*$E$28/24</f>
-        <v>0.16709979460820898</v>
+        <v>0.19494976037624379</v>
       </c>
       <c r="F41">
         <f t="shared" si="11"/>
-        <v>0.30634962344838312</v>
+        <v>0.35740789402311363</v>
       </c>
       <c r="G41">
         <f t="shared" si="11"/>
-        <v>4.0939449679011197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.7762691292179733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="24">
         <f>D36*$G$28/24</f>
-        <v>1.1019622319534506</v>
+        <v>1.2856226039456924</v>
       </c>
       <c r="E42" s="24">
         <f t="shared" ref="E42:G42" si="12">E36*$G$28/24</f>
-        <v>0.29854923905346786</v>
+        <v>0.34830744556237919</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="12"/>
-        <v>0.21359620355044853</v>
+        <v>0.24919557080885665</v>
       </c>
       <c r="G42" s="24">
         <f t="shared" si="12"/>
-        <v>3.4660838485231875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.0437644899437197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43">
         <f>SUM(D39:D42)</f>
-        <v>4.9728680757237473</v>
+        <v>5.8016794216777052</v>
       </c>
       <c r="E43">
         <f t="shared" ref="E43:G43" si="13">SUM(E39:E42)</f>
-        <v>0.87039122957993642</v>
+        <v>1.015456434509926</v>
       </c>
       <c r="F43">
         <f t="shared" si="13"/>
-        <v>11.744612522008884</v>
+        <v>13.702047942343695</v>
       </c>
       <c r="G43">
         <f t="shared" si="13"/>
-        <v>8.5887485643832164</v>
+        <v>10.020206658447087</v>
       </c>
       <c r="H43">
         <f>SUM(D43:G43)</f>
-        <v>26.176620391695785</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30.539390456978413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>92</v>
       </c>
@@ -17690,13 +17690,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>1</v>
       </c>
       <c r="B47">
         <f>C28*A47</f>
-        <v>40.474219591825964</v>
+        <v>47.2199228571303</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>22</v>
@@ -17713,18 +17713,14 @@
       <c r="G47" s="90">
         <v>2.5416666666666667E-2</v>
       </c>
-      <c r="I47">
-        <f>G47*B47</f>
-        <v>1.0287197479589099</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>1</v>
       </c>
       <c r="B48">
         <f>D28*A48</f>
-        <v>24.737791942953571</v>
+        <v>28.860757266779164</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>23</v>
@@ -17741,13 +17737,13 @@
       </c>
       <c r="G48" s="92"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>1</v>
       </c>
       <c r="B49">
         <f>E28*A49</f>
-        <v>16.709979460820897</v>
+        <v>19.494976037624379</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>86</v>
@@ -17764,18 +17760,14 @@
       <c r="G49" s="92">
         <v>0.245</v>
       </c>
-      <c r="I49">
-        <f>G49*B49</f>
-        <v>4.0939449679011197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>1</v>
       </c>
       <c r="B50">
         <f>G28*A50</f>
-        <v>5.8253510059213243</v>
+        <v>6.7962428402415451</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>87</v>
@@ -17792,31 +17784,27 @@
       <c r="G50" s="94">
         <v>0.59499999999999997</v>
       </c>
-      <c r="I50">
-        <f>G50*B50</f>
-        <v>3.466083848523188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D51">
         <f>SUMPRODUCT($B$47:$B$50,D47:D50)</f>
-        <v>4.9728680757237473</v>
+        <v>5.8016794216777052</v>
       </c>
       <c r="E51">
         <f t="shared" ref="E51:G51" si="14">SUMPRODUCT($B$47:$B$50,E47:E50)</f>
-        <v>0.87039122957993653</v>
+        <v>1.015456434509926</v>
       </c>
       <c r="F51">
         <f t="shared" si="14"/>
-        <v>11.744612522008875</v>
+        <v>13.702047942343686</v>
       </c>
       <c r="G51">
         <f t="shared" si="14"/>
-        <v>8.5887485643832164</v>
+        <v>10.020206658447087</v>
       </c>
       <c r="H51">
         <f>SUM(D51:G51)</f>
-        <v>26.176620391695778</v>
+        <v>30.539390456978403</v>
       </c>
     </row>
   </sheetData>

--- a/SalesOffice_archive.xlsx
+++ b/SalesOffice_archive.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Archive" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="88">
   <si>
     <t>QualityBonus</t>
   </si>
@@ -283,48 +283,26 @@
     <t>Daily demand (declared in changelog)</t>
   </si>
   <si>
-    <t>PRODUCTION TIMES</t>
-  </si>
-  <si>
-    <t>LUX</t>
-  </si>
-  <si>
-    <t>JMB</t>
-  </si>
-  <si>
-    <t>Propulsion Factories</t>
-  </si>
-  <si>
-    <t>Aerospace Factory</t>
-  </si>
-  <si>
-    <t>Aerospace Electronics</t>
-  </si>
-  <si>
-    <t>Hangar</t>
-  </si>
-  <si>
-    <t>PRODUCTION TIMES per order</t>
-  </si>
-  <si>
     <t>others</t>
   </si>
   <si>
     <t>produced by:</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -652,7 +630,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -742,12 +720,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,6 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1488,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,43 +1509,43 @@
       <c r="AB2" s="45"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="N3" s="96" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="W3" s="96" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="W3" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="95">
-        <f>27000+(T11-27000)/2</f>
-        <v>34655.934180357144</v>
+      <c r="C4" s="89">
+        <f>27000+(K11-27000)/2</f>
+        <v>46869.825591772162</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="54" t="s">
@@ -1642,6 +1615,13 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="101">
+        <f>C4/27000-1</f>
+        <v>0.73591946636193195</v>
+      </c>
       <c r="E5" s="60" t="s">
         <v>27</v>
       </c>
@@ -1667,11 +1647,11 @@
       </c>
       <c r="K5" s="23">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[No wages])+SUMIF(Tabla22[Product2],E5,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>135964.45875999998</v>
+        <v>191224.45875999998</v>
       </c>
       <c r="L5" s="41">
         <f>IFERROR((SUMIF(Tabla22[Product],E5,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E5,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E5)+COUNTIF(Tabla22[Product2],E5)),0)</f>
-        <v>101308.52457964284</v>
+        <v>144354.63316822783</v>
       </c>
       <c r="N5" s="60" t="s">
         <v>27</v>
@@ -1698,11 +1678,11 @@
       </c>
       <c r="T5" s="23">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>54408.179299999989</v>
+        <v>119408.17929999999</v>
       </c>
       <c r="U5" s="41">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E5,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E5,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E5,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E5,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>19752.245119642845</v>
+        <v>72538.353708227834</v>
       </c>
       <c r="W5" s="60" t="s">
         <v>27</v>
@@ -1729,11 +1709,11 @@
       </c>
       <c r="AC5" s="23">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>190335.31173333331</v>
+        <v>239101.97839999999</v>
       </c>
       <c r="AD5" s="41">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W5,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W5,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>155679.37755297616</v>
+        <v>192232.15280822781</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1762,11 +1742,11 @@
       </c>
       <c r="K6" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[No wages])+SUMIF(Tabla22[Product2],E6,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>38899.074830303027</v>
+        <v>78480.893012121203</v>
       </c>
       <c r="L6" s="42">
         <f>IFERROR((SUMIF(Tabla22[Product],E6,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E6,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E6)+COUNTIF(Tabla22[Product2],E6)),0)</f>
-        <v>4243.1406499458863</v>
+        <v>31611.067420349053</v>
       </c>
       <c r="N6" s="60" t="s">
         <v>56</v>
@@ -1793,11 +1773,11 @@
       </c>
       <c r="T6" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>16580.944211764705</v>
+        <v>61004.473623529411</v>
       </c>
       <c r="U6" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E6,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E6,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E6,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E6,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>-18074.989968592443</v>
+        <v>14134.648031757253</v>
       </c>
       <c r="W6" s="60" t="s">
         <v>56</v>
@@ -1824,11 +1804,11 @@
       </c>
       <c r="AC6" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>62612.088612500003</v>
+        <v>97049.588612500011</v>
       </c>
       <c r="AD6" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W6,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W6,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>27956.154432142859</v>
+        <v>50179.763020727842</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1857,11 +1837,11 @@
       </c>
       <c r="K7" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[No wages])+SUMIF(Tabla22[Product2],E7,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>78599.388241304361</v>
+        <v>86368.953458695658</v>
       </c>
       <c r="L7" s="42">
         <f>IFERROR((SUMIF(Tabla22[Product],E7,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E7,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E7)+COUNTIF(Tabla22[Product2],E7)),0)</f>
-        <v>43943.454060947202</v>
+        <v>39499.127866923496</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>52</v>
@@ -1888,11 +1868,11 @@
       </c>
       <c r="T7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>71641.409513333347</v>
+        <v>85828.076180000004</v>
       </c>
       <c r="U7" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E7,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E7,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>36985.475332976195</v>
+        <v>38958.250588227842</v>
       </c>
       <c r="W7" s="60" t="s">
         <v>52</v>
@@ -1919,11 +1899,11 @@
       </c>
       <c r="AC7" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>81966.152141935483</v>
+        <v>86630.668270967741</v>
       </c>
       <c r="AD7" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W7,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W7,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>47310.217961578346</v>
+        <v>39760.842679195579</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1952,11 +1932,11 @@
       </c>
       <c r="K8" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[No wages])+SUMIF(Tabla22[Product2],E8,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>52847.864427272725</v>
+        <v>57693.318972727277</v>
       </c>
       <c r="L8" s="42">
         <f>IFERROR((SUMIF(Tabla22[Product],E8,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E8,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E8)+COUNTIF(Tabla22[Product2],E8)),0)</f>
-        <v>18191.930246915585</v>
+        <v>10823.493380955111</v>
       </c>
       <c r="N8" s="60" t="s">
         <v>57</v>
@@ -1983,11 +1963,11 @@
       </c>
       <c r="T8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>39853.410790243906</v>
+        <v>45555.849814634152</v>
       </c>
       <c r="U8" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E8,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E8,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>5197.4766098867576</v>
+        <v>-1313.9757771380166</v>
       </c>
       <c r="W8" s="60" t="s">
         <v>57</v>
@@ -2014,11 +1994,11 @@
       </c>
       <c r="AC8" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>64183.451642553206</v>
+        <v>68281.32398297872</v>
       </c>
       <c r="AD8" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W8,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W8,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>29527.517462196047</v>
+        <v>21411.498391206558</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2050,11 +2030,11 @@
       </c>
       <c r="K9" s="3">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[No wages])+SUMIF(Tabla22[Product2],E9,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>62852.647761904766</v>
+        <v>69700.266809523819</v>
       </c>
       <c r="L9" s="42">
         <f>IFERROR((SUMIF(Tabla22[Product],E9,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E9,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E9)+COUNTIF(Tabla22[Product2],E9)),0)</f>
-        <v>28196.713581547614</v>
+        <v>22830.441217751646</v>
       </c>
       <c r="N9" s="60" t="s">
         <v>54</v>
@@ -2081,11 +2061,11 @@
       </c>
       <c r="T9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>54064.382282608683</v>
+        <v>59560.034456521731</v>
       </c>
       <c r="U9" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E9,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E9,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>19408.44810225155</v>
+        <v>12690.208864749577</v>
       </c>
       <c r="W9" s="60" t="s">
         <v>54</v>
@@ -2112,11 +2092,11 @@
       </c>
       <c r="AC9" s="3">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>65317.649054878049</v>
+        <v>72544.478323170741</v>
       </c>
       <c r="AD9" s="42">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W9,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W9,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>30661.714874520898</v>
+        <v>25674.652731398568</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2148,11 +2128,11 @@
       </c>
       <c r="K10" s="38">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[No wages])+SUMIF(Tabla22[Product2],E10,Tabla22[No wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>58888.055745454534</v>
+        <v>66453.207260606054</v>
       </c>
       <c r="L10" s="43">
         <f>IFERROR((SUMIF(Tabla22[Product],E10,Tabla22[profit -wages])+SUMIF(Tabla22[Product2],E10,Tabla22[profit -wages]))/(COUNTIF(Tabla22[Product],E10)+COUNTIF(Tabla22[Product2],E10)),0)</f>
-        <v>24232.12156509739</v>
+        <v>19583.381668833903</v>
       </c>
       <c r="N10" s="61" t="s">
         <v>53</v>
@@ -2179,11 +2159,11 @@
       </c>
       <c r="T10" s="38">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],N10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],N10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>46513.387720833336</v>
+        <v>55409.221054166672</v>
       </c>
       <c r="U10" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2))/(COUNTIFS(Tabla22[Product],E10,Tabla22[[Economy ]],$O$2)+COUNTIFS(Tabla22[Product2],E10,Tabla22[[Economy ]],$O$2)),0)</f>
-        <v>11857.45354047619</v>
+        <v>8539.3954623945046</v>
       </c>
       <c r="W10" s="61" t="s">
         <v>53</v>
@@ -2210,11 +2190,11 @@
       </c>
       <c r="AC10" s="38">
         <f>IFERROR((SUMIFS(Tabla22[No wages],Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[No wages],Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>65959.294616666652</v>
+        <v>72764.05652142856</v>
       </c>
       <c r="AD10" s="43">
         <f>IFERROR((SUMIFS(Tabla22[profit -wages],Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+SUMIFS(Tabla22[profit -wages],Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2))/(COUNTIFS(Tabla22[Product],W10,Tabla22[[Economy ]],$X$2)+COUNTIFS(Tabla22[Product2],W10,Tabla22[[Economy ]],$X$2)),0)</f>
-        <v>31303.360436309511</v>
+        <v>25894.230929656409</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2246,11 +2226,11 @@
       </c>
       <c r="K11" s="38">
         <f>AVERAGEIF(Tabla22[No wages],"&gt;0")</f>
-        <v>58574.860268240358</v>
+        <v>66739.651183544323</v>
       </c>
       <c r="L11" s="57">
         <f>AVERAGE(Tabla22[profit -wages])</f>
-        <v>22545.320378714576</v>
+        <v>19869.825591772147</v>
       </c>
       <c r="M11" s="52"/>
       <c r="N11" s="50" t="s">
@@ -2278,11 +2258,11 @@
       </c>
       <c r="T11" s="38">
         <f>IFERROR(AVERAGEIFS(Tabla22[No wages],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>42311.868360714281</v>
+        <v>54823.773122619052</v>
       </c>
       <c r="U11" s="57">
         <f>IFERROR(AVERAGEIFS(Tabla22[profit -wages],Tabla22[[Economy ]],$O$2),0)</f>
-        <v>7655.9341803571415</v>
+        <v>7953.9475308468873</v>
       </c>
       <c r="W11" s="50" t="s">
         <v>61</v>
@@ -2309,11 +2289,11 @@
       </c>
       <c r="AC11" s="38">
         <f>IFERROR(AVERAGEIFS(Tabla22[No wages],Tabla22[[Economy ]],$X$2),0)</f>
-        <v>55879.890436871508</v>
+        <v>62637.432336312871</v>
       </c>
       <c r="AD11" s="57">
         <f>IFERROR(AVERAGEIFS(Tabla22[profit -wages],Tabla22[[Economy ]],$X$2),0)</f>
-        <v>30719.885350361812</v>
+        <v>26411.876291887969</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2343,25 +2323,25 @@
       <c r="W14" s="45"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101" t="s">
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="102" t="s">
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
       <c r="T15" s="45"/>
@@ -2478,7 +2458,7 @@
       </c>
       <c r="P17" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>56714.90781964286</v>
+        <v>44501.016408227842</v>
       </c>
       <c r="R17" s="68" t="s">
         <v>75</v>
@@ -2490,7 +2470,7 @@
         <v>76</v>
       </c>
       <c r="U17" s="45" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="V17" s="45"/>
     </row>
@@ -2548,19 +2528,19 @@
       </c>
       <c r="P18" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>58168.080219642856</v>
+        <v>45954.188808227838</v>
       </c>
       <c r="R18" s="45" t="s">
         <v>27</v>
       </c>
       <c r="S18" s="67">
-        <v>858000</v>
+        <v>839000</v>
       </c>
       <c r="T18" s="67">
         <v>4</v>
       </c>
       <c r="U18" s="45" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="V18" s="45"/>
     </row>
@@ -2618,19 +2598,19 @@
       </c>
       <c r="P19" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>55417.231819642853</v>
+        <v>43203.340408227836</v>
       </c>
       <c r="R19" s="45" t="s">
         <v>56</v>
       </c>
       <c r="S19" s="67">
-        <v>235000</v>
+        <v>221000</v>
       </c>
       <c r="T19" s="67">
         <v>4</v>
       </c>
       <c r="U19" s="45" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="V19" s="45"/>
     </row>
@@ -2682,7 +2662,7 @@
       </c>
       <c r="P20" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>14809.259819642852</v>
+        <v>2595.3684082278342</v>
       </c>
       <c r="R20" s="45" t="s">
         <v>57</v>
@@ -2694,7 +2674,7 @@
         <v>4</v>
       </c>
       <c r="U20" s="45" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="V20" s="77"/>
     </row>
@@ -2752,7 +2732,7 @@
       </c>
       <c r="P21" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>20940.202319642856</v>
+        <v>8726.3109082278388</v>
       </c>
       <c r="R21" s="45" t="s">
         <v>54</v>
@@ -2764,7 +2744,7 @@
         <v>5</v>
       </c>
       <c r="U21" s="45" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="V21" s="45"/>
     </row>
@@ -2814,27 +2794,27 @@
       </c>
       <c r="N22" s="72">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>11394</v>
+        <v>14194</v>
       </c>
       <c r="O22" s="75">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>35168.461500000005</v>
+        <v>37968.461500000005</v>
       </c>
       <c r="P22" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>512.52731964286068</v>
+        <v>-8901.3640917721568</v>
       </c>
       <c r="R22" s="45" t="s">
         <v>53</v>
       </c>
       <c r="S22" s="67">
-        <v>35600</v>
+        <v>34200</v>
       </c>
       <c r="T22" s="67">
         <v>4</v>
       </c>
       <c r="U22" s="45" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="V22" s="45"/>
     </row>
@@ -2886,7 +2866,7 @@
       </c>
       <c r="P23" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>12819.062819642859</v>
+        <v>605.17140822784131</v>
       </c>
       <c r="R23" s="45" t="s">
         <v>52</v>
@@ -2898,7 +2878,7 @@
         <v>5</v>
       </c>
       <c r="U23" s="45" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="V23" s="45"/>
     </row>
@@ -2944,7 +2924,7 @@
       </c>
       <c r="M24" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>34125</v>
+        <v>41125</v>
       </c>
       <c r="N24" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -2952,11 +2932,11 @@
       </c>
       <c r="O24" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>118038.212</v>
+        <v>125038.212</v>
       </c>
       <c r="P24" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>83382.277819642855</v>
+        <v>78168.386408227845</v>
       </c>
       <c r="R24" s="45"/>
       <c r="S24" s="45"/>
@@ -3012,7 +2992,7 @@
       </c>
       <c r="P25" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-15010.873180357143</v>
+        <v>-27224.76459177216</v>
       </c>
       <c r="R25" s="45"/>
       <c r="S25" s="45"/>
@@ -3074,7 +3054,7 @@
       </c>
       <c r="P26" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>16811.433319642856</v>
+        <v>4597.5419082278386</v>
       </c>
       <c r="R26" s="45"/>
       <c r="S26" s="45"/>
@@ -3136,7 +3116,7 @@
       </c>
       <c r="P27" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>26050.15781964286</v>
+        <v>13836.266408227842</v>
       </c>
       <c r="R27" s="45"/>
       <c r="S27" s="45"/>
@@ -3180,7 +3160,7 @@
       </c>
       <c r="M28" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>12920</v>
+        <v>15720</v>
       </c>
       <c r="N28" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -3188,11 +3168,11 @@
       </c>
       <c r="O28" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>19683.248</v>
+        <v>22483.248</v>
       </c>
       <c r="P28" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-14972.686180357145</v>
+        <v>-24386.577591772162</v>
       </c>
       <c r="R28" s="45"/>
       <c r="S28" s="45"/>
@@ -3254,7 +3234,7 @@
       </c>
       <c r="P29" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>37508.904319642854</v>
+        <v>25295.012908227836</v>
       </c>
       <c r="R29" s="45"/>
       <c r="S29" s="45"/>
@@ -3316,7 +3296,7 @@
       </c>
       <c r="P30" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>97425.793819642859</v>
+        <v>85211.902408227848</v>
       </c>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
@@ -3366,7 +3346,7 @@
       </c>
       <c r="M31" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>10932</v>
+        <v>13732</v>
       </c>
       <c r="N31" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -3374,11 +3354,11 @@
       </c>
       <c r="O31" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>27064.257899999997</v>
+        <v>29864.257899999997</v>
       </c>
       <c r="P31" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-7591.6762803571473</v>
+        <v>-17005.567691772165</v>
       </c>
       <c r="R31" s="45"/>
       <c r="S31" s="45"/>
@@ -3428,7 +3408,7 @@
       </c>
       <c r="M32" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>26055</v>
+        <v>33055</v>
       </c>
       <c r="N32" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -3436,11 +3416,11 @@
       </c>
       <c r="O32" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>80336.937999999995</v>
+        <v>87336.937999999995</v>
       </c>
       <c r="P32" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>45681.00381964285</v>
+        <v>40467.112408227833</v>
       </c>
       <c r="R32" s="45"/>
       <c r="S32" s="45"/>
@@ -3502,7 +3482,7 @@
       </c>
       <c r="P33" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>9079.6778196428568</v>
+        <v>-3134.2135917721607</v>
       </c>
       <c r="S33" s="45"/>
       <c r="T33" s="45"/>
@@ -3563,7 +3543,7 @@
       </c>
       <c r="P34" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>36237.896219642862</v>
+        <v>24024.004808227844</v>
       </c>
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
@@ -3612,7 +3592,7 @@
       </c>
       <c r="M35" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>24552</v>
+        <v>30152</v>
       </c>
       <c r="N35" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -3620,11 +3600,11 @@
       </c>
       <c r="O35" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>61809.4519</v>
+        <v>67409.4519</v>
       </c>
       <c r="P35" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>27153.517719642856</v>
+        <v>20539.626308227838</v>
       </c>
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
@@ -3673,7 +3653,7 @@
       </c>
       <c r="M36" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>31625</v>
+        <v>38625</v>
       </c>
       <c r="N36" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -3681,11 +3661,11 @@
       </c>
       <c r="O36" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>78814.429999999993</v>
+        <v>85814.43</v>
       </c>
       <c r="P36" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>44158.495819642849</v>
+        <v>38944.604408227831</v>
       </c>
       <c r="S36" s="45"/>
       <c r="T36" s="45"/>
@@ -3746,7 +3726,7 @@
       </c>
       <c r="P37" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>38521.883819642855</v>
+        <v>26307.992408227838</v>
       </c>
       <c r="S37" s="45"/>
       <c r="T37" s="45"/>
@@ -3799,15 +3779,15 @@
       </c>
       <c r="N38" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>21964</v>
+        <v>27564</v>
       </c>
       <c r="O38" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>58843.180800000002</v>
+        <v>64443.180800000002</v>
       </c>
       <c r="P38" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>24187.246619642858</v>
+        <v>17573.35520822784</v>
       </c>
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
@@ -3860,15 +3840,15 @@
       </c>
       <c r="N39" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>24495</v>
+        <v>31495</v>
       </c>
       <c r="O39" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>104462.984</v>
+        <v>111462.984</v>
       </c>
       <c r="P39" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>69807.049819642853</v>
+        <v>64593.158408227835</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -3913,19 +3893,19 @@
       </c>
       <c r="M40" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-17508</v>
+        <v>10492</v>
       </c>
       <c r="N40" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>22385</v>
+        <v>29385</v>
       </c>
       <c r="O40" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>65725.136400000003</v>
+        <v>100725.1364</v>
       </c>
       <c r="P40" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>31069.202219642859</v>
+        <v>53855.310808227841</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -3970,7 +3950,7 @@
       </c>
       <c r="M41" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>19587</v>
+        <v>23787</v>
       </c>
       <c r="N41" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -3978,11 +3958,11 @@
       </c>
       <c r="O41" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>78422.457599999994</v>
+        <v>82622.457599999994</v>
       </c>
       <c r="P41" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>43766.52341964285</v>
+        <v>35752.632008227833</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -4027,7 +4007,7 @@
       </c>
       <c r="M42" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>30455</v>
+        <v>37455</v>
       </c>
       <c r="N42" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4035,11 +4015,11 @@
       </c>
       <c r="O42" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>102918.7295</v>
+        <v>109918.7295</v>
       </c>
       <c r="P42" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>68262.795319642857</v>
+        <v>63048.90390822784</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -4078,7 +4058,7 @@
       </c>
       <c r="M43" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>27920</v>
+        <v>33520</v>
       </c>
       <c r="N43" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4086,11 +4066,11 @@
       </c>
       <c r="O43" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>45156.383999999998</v>
+        <v>50756.383999999998</v>
       </c>
       <c r="P43" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>10500.449819642854</v>
+        <v>3886.5584082278365</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -4135,7 +4115,7 @@
       </c>
       <c r="M44" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>30040</v>
+        <v>37040</v>
       </c>
       <c r="N44" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4143,11 +4123,11 @@
       </c>
       <c r="O44" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>95736.534</v>
+        <v>102736.534</v>
       </c>
       <c r="P44" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>61080.599819642855</v>
+        <v>55866.708408227838</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -4186,7 +4166,7 @@
       </c>
       <c r="M45" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>34225</v>
+        <v>41225</v>
       </c>
       <c r="N45" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4194,11 +4174,11 @@
       </c>
       <c r="O45" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>56296.399999999994</v>
+        <v>63296.399999999994</v>
       </c>
       <c r="P45" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>21640.46581964285</v>
+        <v>16426.574408227832</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -4243,7 +4223,7 @@
       </c>
       <c r="M46" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>11058</v>
+        <v>13858</v>
       </c>
       <c r="N46" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4251,11 +4231,11 @@
       </c>
       <c r="O46" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>88643.405200000008</v>
+        <v>91443.405200000008</v>
       </c>
       <c r="P46" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>53987.471019642864</v>
+        <v>44573.579608227847</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -4304,15 +4284,15 @@
       </c>
       <c r="N47" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>16260</v>
+        <v>20460</v>
       </c>
       <c r="O47" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>48798.608</v>
+        <v>52998.608</v>
       </c>
       <c r="P47" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>14142.673819642856</v>
+        <v>6128.7824082278385</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -4369,7 +4349,7 @@
       </c>
       <c r="P48" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>44732.417819642869</v>
+        <v>32518.526408227852</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -4420,7 +4400,7 @@
       </c>
       <c r="P49" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-18302.019180357143</v>
+        <v>-30515.910591772161</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4471,7 +4451,7 @@
       </c>
       <c r="P50" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-12894.222180357145</v>
+        <v>-25108.113591772162</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -4520,15 +4500,15 @@
       </c>
       <c r="N51" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>34830</v>
+        <v>41830</v>
       </c>
       <c r="O51" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>112387.32399999999</v>
+        <v>119387.32399999999</v>
       </c>
       <c r="P51" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>77731.389819642849</v>
+        <v>72517.498408227839</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4567,7 +4547,7 @@
       </c>
       <c r="M52" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>26916</v>
+        <v>32516</v>
       </c>
       <c r="N52" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4575,11 +4555,11 @@
       </c>
       <c r="O52" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>44524.864000000001</v>
+        <v>50124.864000000001</v>
       </c>
       <c r="P52" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>9868.9298196428572</v>
+        <v>3255.0384082278397</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -4624,7 +4604,7 @@
       </c>
       <c r="M53" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>11418</v>
+        <v>14218</v>
       </c>
       <c r="N53" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4632,11 +4612,11 @@
       </c>
       <c r="O53" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>82306.580099999992</v>
+        <v>85106.580099999992</v>
       </c>
       <c r="P53" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>47650.645919642848</v>
+        <v>38236.75450822783</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -4681,7 +4661,7 @@
       </c>
       <c r="M54" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>18300</v>
+        <v>22500</v>
       </c>
       <c r="N54" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4689,11 +4669,11 @@
       </c>
       <c r="O54" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>40842.364799999996</v>
+        <v>45042.364799999996</v>
       </c>
       <c r="P54" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>6186.4306196428515</v>
+        <v>-1827.460791772166</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -4732,7 +4712,7 @@
       </c>
       <c r="M55" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>11336</v>
+        <v>14136</v>
       </c>
       <c r="N55" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4740,11 +4720,11 @@
       </c>
       <c r="O55" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>19028.355199999998</v>
+        <v>21828.355199999998</v>
       </c>
       <c r="P55" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-15627.578980357146</v>
+        <v>-25041.470391772164</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -4793,15 +4773,15 @@
       </c>
       <c r="N56" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>32125</v>
+        <v>39125</v>
       </c>
       <c r="O56" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>110426.85680000001</v>
+        <v>117426.85680000001</v>
       </c>
       <c r="P56" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>75770.922619642864</v>
+        <v>70557.031208227854</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -4850,15 +4830,15 @@
       </c>
       <c r="N57" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>12942</v>
+        <v>15742</v>
       </c>
       <c r="O57" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>49910.440399999999</v>
+        <v>52710.440399999999</v>
       </c>
       <c r="P57" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>15254.506219642855</v>
+        <v>5840.6148082278378</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -4897,7 +4877,7 @@
       </c>
       <c r="M58" s="75">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>8788</v>
+        <v>11588</v>
       </c>
       <c r="N58" s="72">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4905,11 +4885,11 @@
       </c>
       <c r="O58" s="75">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>12051.510399999999</v>
+        <v>14851.510399999999</v>
       </c>
       <c r="P58" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-22604.423780357145</v>
+        <v>-32018.315191772163</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -4954,7 +4934,7 @@
       </c>
       <c r="M59" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>21948</v>
+        <v>27548</v>
       </c>
       <c r="N59" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -4962,11 +4942,11 @@
       </c>
       <c r="O59" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>96796.437600000005</v>
+        <v>102396.4376</v>
       </c>
       <c r="P59" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>62140.503419642861</v>
+        <v>55526.612008227843</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -5005,7 +4985,7 @@
       </c>
       <c r="M60" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>23450</v>
+        <v>30450</v>
       </c>
       <c r="N60" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -5013,11 +4993,11 @@
       </c>
       <c r="O60" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>37470.92</v>
+        <v>44470.92</v>
       </c>
       <c r="P60" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>2814.985819642854</v>
+        <v>-2398.9055917721635</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -5068,7 +5048,7 @@
       </c>
       <c r="P61" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>19414.925819642856</v>
+        <v>7201.0344082278389</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -5113,7 +5093,7 @@
       </c>
       <c r="M62" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>15723</v>
+        <v>19923</v>
       </c>
       <c r="N62" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -5121,11 +5101,11 @@
       </c>
       <c r="O62" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>73205.217199999999</v>
+        <v>77405.217199999999</v>
       </c>
       <c r="P62" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>38549.283019642855</v>
+        <v>30535.391608227837</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -5176,7 +5156,7 @@
       </c>
       <c r="P63" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-1052.9061803571458</v>
+        <v>-13266.797591772163</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -5233,7 +5213,7 @@
       </c>
       <c r="P64" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>56590.929819642857</v>
+        <v>44377.03840822784</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -5278,7 +5258,7 @@
       </c>
       <c r="M65" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>34910</v>
+        <v>41910</v>
       </c>
       <c r="N65" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -5286,11 +5266,11 @@
       </c>
       <c r="O65" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>81132.320999999996</v>
+        <v>88132.320999999996</v>
       </c>
       <c r="P65" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>46476.386819642852</v>
+        <v>41262.495408227835</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -5341,7 +5321,7 @@
       </c>
       <c r="P66" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-13763.502180357144</v>
+        <v>-25977.393591772161</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -5380,7 +5360,7 @@
       </c>
       <c r="M67" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>35010</v>
+        <v>42010</v>
       </c>
       <c r="N67" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -5388,11 +5368,11 @@
       </c>
       <c r="O67" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>58100.284</v>
+        <v>65100.284</v>
       </c>
       <c r="P67" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>23444.349819642855</v>
+        <v>18230.458408227838</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5437,19 +5417,19 @@
       </c>
       <c r="M68" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-96525</v>
+        <v>-39525</v>
       </c>
       <c r="N68" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>22505</v>
+        <v>29505</v>
       </c>
       <c r="O68" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>240910.44799999997</v>
+        <v>304910.44799999997</v>
       </c>
       <c r="P68" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>206254.51381964283</v>
+        <v>258040.62240822782</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -5500,7 +5480,7 @@
       </c>
       <c r="P69" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-16091.818180357142</v>
+        <v>-28305.70959177216</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -5549,15 +5529,15 @@
       </c>
       <c r="N70" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>20910</v>
+        <v>25110</v>
       </c>
       <c r="O70" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>49367.862500000003</v>
+        <v>53567.862500000003</v>
       </c>
       <c r="P70" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>14711.928319642859</v>
+        <v>6698.0369082278412</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -5608,7 +5588,7 @@
       </c>
       <c r="P71" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-20439.652680357143</v>
+        <v>-32653.544091772161</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -5665,7 +5645,7 @@
       </c>
       <c r="P72" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-7283.4306803571453</v>
+        <v>-19497.322091772163</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -5714,15 +5694,15 @@
       </c>
       <c r="N73" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>18786</v>
+        <v>22986</v>
       </c>
       <c r="O73" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>57341.233200000002</v>
+        <v>61541.233200000002</v>
       </c>
       <c r="P73" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>22685.299019642858</v>
+        <v>14671.407608227841</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -5767,7 +5747,7 @@
       </c>
       <c r="M74" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>9608</v>
+        <v>12408</v>
       </c>
       <c r="N74" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -5775,11 +5755,11 @@
       </c>
       <c r="O74" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>46966.087199999994</v>
+        <v>49766.087199999994</v>
       </c>
       <c r="P74" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>12310.15301964285</v>
+        <v>2896.2616082278328</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5828,15 +5808,15 @@
       </c>
       <c r="N75" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>12624</v>
+        <v>15424</v>
       </c>
       <c r="O75" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>73165.785600000003</v>
+        <v>75965.785600000003</v>
       </c>
       <c r="P75" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>38509.851419642859</v>
+        <v>29095.960008227841</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -5881,7 +5861,7 @@
       </c>
       <c r="M76" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>19920</v>
+        <v>25520</v>
       </c>
       <c r="N76" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -5889,11 +5869,11 @@
       </c>
       <c r="O76" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>46512.961499999998</v>
+        <v>52112.961499999998</v>
       </c>
       <c r="P76" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>11857.027319642853</v>
+        <v>5243.1359082278359</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -5938,7 +5918,7 @@
       </c>
       <c r="M77" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-12805</v>
+        <v>1195</v>
       </c>
       <c r="N77" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -5946,11 +5926,11 @@
       </c>
       <c r="O77" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>62933.377999999997</v>
+        <v>76933.377999999997</v>
       </c>
       <c r="P77" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>28277.443819642853</v>
+        <v>30063.552408227835</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -5999,15 +5979,15 @@
       </c>
       <c r="N78" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>14538</v>
+        <v>18738</v>
       </c>
       <c r="O78" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>46229.164600000004</v>
+        <v>50429.164600000004</v>
       </c>
       <c r="P78" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>11573.230419642859</v>
+        <v>3559.339008227842</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -6052,7 +6032,7 @@
       </c>
       <c r="M79" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>10664</v>
+        <v>13464</v>
       </c>
       <c r="N79" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -6060,11 +6040,11 @@
       </c>
       <c r="O79" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>83135.69</v>
+        <v>85935.69</v>
       </c>
       <c r="P79" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>48479.755819642858</v>
+        <v>39065.864408227841</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -6109,7 +6089,7 @@
       </c>
       <c r="M80" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>15015</v>
+        <v>19215</v>
       </c>
       <c r="N80" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -6117,11 +6097,11 @@
       </c>
       <c r="O80" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>42291.842000000004</v>
+        <v>46491.842000000004</v>
       </c>
       <c r="P80" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>7635.90781964286</v>
+        <v>-377.98359177215752</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -6166,7 +6146,7 @@
       </c>
       <c r="M81" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>12626</v>
+        <v>15426</v>
       </c>
       <c r="N81" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -6174,11 +6154,11 @@
       </c>
       <c r="O81" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>32888.8338</v>
+        <v>35688.8338</v>
       </c>
       <c r="P81" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-1767.1003803571439</v>
+        <v>-11180.991791772161</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -6227,15 +6207,15 @@
       </c>
       <c r="N82" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>19635</v>
+        <v>23835</v>
       </c>
       <c r="O82" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>93910.673999999999</v>
+        <v>98110.673999999999</v>
       </c>
       <c r="P82" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>59254.739819642855</v>
+        <v>51240.848408227837</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -6280,7 +6260,7 @@
       </c>
       <c r="M83" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>19896</v>
+        <v>24096</v>
       </c>
       <c r="N83" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -6288,11 +6268,11 @@
       </c>
       <c r="O83" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>98760.780800000008</v>
+        <v>102960.78080000001</v>
       </c>
       <c r="P83" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>64104.846619642864</v>
+        <v>56090.955208227846</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -6343,7 +6323,7 @@
       </c>
       <c r="P84" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>779.74581964285608</v>
+        <v>-11434.145591772161</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -6400,7 +6380,7 @@
       </c>
       <c r="P85" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>51564.618219642856</v>
+        <v>39350.726808227839</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -6439,7 +6419,7 @@
       </c>
       <c r="M86" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>32330</v>
+        <v>39330</v>
       </c>
       <c r="N86" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -6447,11 +6427,11 @@
       </c>
       <c r="O86" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>57401.336000000003</v>
+        <v>64401.336000000003</v>
       </c>
       <c r="P86" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>22745.401819642859</v>
+        <v>17531.510408227841</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -6496,7 +6476,7 @@
       </c>
       <c r="M87" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>35350</v>
+        <v>42350</v>
       </c>
       <c r="N87" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -6504,11 +6484,11 @@
       </c>
       <c r="O87" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>98322.046000000002</v>
+        <v>105322.046</v>
       </c>
       <c r="P87" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>63666.111819642858</v>
+        <v>58452.22040822784</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -6559,7 +6539,7 @@
       </c>
       <c r="P88" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>5726.2748196428583</v>
+        <v>-6487.6165917721592</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -6604,7 +6584,7 @@
       </c>
       <c r="M89" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-19515</v>
+        <v>22485</v>
       </c>
       <c r="N89" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -6612,11 +6592,11 @@
       </c>
       <c r="O89" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>76640.8995</v>
+        <v>118640.8995</v>
       </c>
       <c r="P89" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>41984.965319642855</v>
+        <v>71771.073908227845</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -6661,19 +6641,19 @@
       </c>
       <c r="M90" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>20676</v>
+        <v>26276</v>
       </c>
       <c r="N90" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-13659</v>
+        <v>5341</v>
       </c>
       <c r="O90" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>79551.02399999999</v>
+        <v>104151.02399999999</v>
       </c>
       <c r="P90" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>44895.089819642846</v>
+        <v>57281.198408227829</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -6722,15 +6702,15 @@
       </c>
       <c r="N91" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-22512</v>
+        <v>19488</v>
       </c>
       <c r="O91" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>68124.7068</v>
+        <v>110124.7068</v>
       </c>
       <c r="P91" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>33468.772619642856</v>
+        <v>63254.881208227838</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -6787,7 +6767,7 @@
       </c>
       <c r="P92" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>12930.753819642858</v>
+        <v>716.86240822784021</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -6836,15 +6816,15 @@
       </c>
       <c r="N93" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>10390</v>
+        <v>13190</v>
       </c>
       <c r="O93" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>30340.832000000002</v>
+        <v>33140.832000000002</v>
       </c>
       <c r="P93" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-4315.1021803571421</v>
+        <v>-13728.99359177216</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -6889,7 +6869,7 @@
       </c>
       <c r="M94" s="76">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>29645</v>
+        <v>36645</v>
       </c>
       <c r="N94" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -6897,11 +6877,11 @@
       </c>
       <c r="O94" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>58430.687999999995</v>
+        <v>65430.687999999995</v>
       </c>
       <c r="P94" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>23774.75381964285</v>
+        <v>18560.862408227833</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -6958,7 +6938,7 @@
       </c>
       <c r="P95" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-1085.550180357146</v>
+        <v>-13299.441591772164</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -7007,15 +6987,15 @@
       </c>
       <c r="N96" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>17208</v>
+        <v>21408</v>
       </c>
       <c r="O96" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>35873.254000000001</v>
+        <v>40073.254000000001</v>
       </c>
       <c r="P96" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>1217.3198196428566</v>
+        <v>-6796.5715917721609</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -7064,15 +7044,15 @@
       </c>
       <c r="N97" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-21558</v>
+        <v>20442</v>
       </c>
       <c r="O97" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>48247.144100000005</v>
+        <v>90247.144100000005</v>
       </c>
       <c r="P97" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>13591.209919642861</v>
+        <v>43377.318508227843</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -7129,7 +7109,7 @@
       </c>
       <c r="P98" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>60753.007319642857</v>
+        <v>48539.115908227839</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -7174,7 +7154,7 @@
       </c>
       <c r="M99" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>12500</v>
+        <v>15300</v>
       </c>
       <c r="N99" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -7182,11 +7162,11 @@
       </c>
       <c r="O99" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>49016.231200000002</v>
+        <v>51816.231200000002</v>
       </c>
       <c r="P99" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>14360.297019642858</v>
+        <v>4946.4056082278403</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -7231,7 +7211,7 @@
       </c>
       <c r="M100" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>20460</v>
+        <v>26060</v>
       </c>
       <c r="N100" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -7239,11 +7219,11 @@
       </c>
       <c r="O100" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>40028.277999999998</v>
+        <v>45628.277999999998</v>
       </c>
       <c r="P100" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>5372.3438196428542</v>
+        <v>-1241.5475917721633</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -7294,7 +7274,7 @@
       </c>
       <c r="P101" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-9283.3581803571433</v>
+        <v>-21497.249591772161</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -7333,7 +7313,7 @@
       </c>
       <c r="M102" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>9840</v>
+        <v>12640</v>
       </c>
       <c r="N102" s="71">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -7341,11 +7321,11 @@
       </c>
       <c r="O102" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>19208.224000000002</v>
+        <v>22008.224000000002</v>
       </c>
       <c r="P102" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-15447.710180357142</v>
+        <v>-24861.60159177216</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -7402,7 +7382,7 @@
       </c>
       <c r="P103" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>4153.3258196428578</v>
+        <v>-8060.5655917721597</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -7459,7 +7439,7 @@
       </c>
       <c r="P104" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>87645.278819642859</v>
+        <v>75431.387408227834</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -7508,15 +7488,15 @@
       </c>
       <c r="N105" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>28188</v>
+        <v>33788</v>
       </c>
       <c r="O105" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>46750.1924</v>
+        <v>52350.1924</v>
       </c>
       <c r="P105" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>12094.258219642856</v>
+        <v>5480.3668082278382</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -7565,15 +7545,15 @@
       </c>
       <c r="N106" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>11070</v>
+        <v>13870</v>
       </c>
       <c r="O106" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>71334.317599999995</v>
+        <v>74134.317599999995</v>
       </c>
       <c r="P106" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>36678.383419642851</v>
+        <v>27264.492008227833</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -7618,7 +7598,7 @@
       </c>
       <c r="M107" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>12838</v>
+        <v>15638</v>
       </c>
       <c r="N107" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -7626,11 +7606,11 @@
       </c>
       <c r="O107" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>75554.940799999997</v>
+        <v>78354.940799999997</v>
       </c>
       <c r="P107" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>40899.006619642852</v>
+        <v>31485.115208227835</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -7669,7 +7649,7 @@
       </c>
       <c r="M108" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>18669</v>
+        <v>22869</v>
       </c>
       <c r="N108" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -7677,11 +7657,11 @@
       </c>
       <c r="O108" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>24591.1368</v>
+        <v>28791.1368</v>
       </c>
       <c r="P108" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-10064.797380357144</v>
+        <v>-18078.688791772161</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -7730,15 +7710,15 @@
       </c>
       <c r="N109" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>15330</v>
+        <v>19530</v>
       </c>
       <c r="O109" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>33745.860500000003</v>
+        <v>37945.860500000003</v>
       </c>
       <c r="P109" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-910.07368035714171</v>
+        <v>-8923.9650917721592</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -7783,7 +7763,7 @@
       </c>
       <c r="M110" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-29064</v>
+        <v>26936</v>
       </c>
       <c r="N110" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -7791,11 +7771,11 @@
       </c>
       <c r="O110" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>76085.912400000001</v>
+        <v>132085.9124</v>
       </c>
       <c r="P110" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>41429.978219642857</v>
+        <v>85216.086808227847</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -7852,7 +7832,7 @@
       </c>
       <c r="P111" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>34410.842319642863</v>
+        <v>22196.950908227846</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -7897,19 +7877,19 @@
       </c>
       <c r="M112" s="75">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-1521</v>
+        <v>17479</v>
       </c>
       <c r="N112" s="72">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-9850</v>
+        <v>4150</v>
       </c>
       <c r="O112" s="75">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>102416.3708</v>
+        <v>135416.3708</v>
       </c>
       <c r="P112" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>67760.43661964286</v>
+        <v>88546.54520822785</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -7960,7 +7940,7 @@
       </c>
       <c r="P113" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-10626.654180357145</v>
+        <v>-22840.545591772163</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -8011,7 +7991,7 @@
       </c>
       <c r="P114" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-7023.4669803571451</v>
+        <v>-19237.358391772163</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -8060,15 +8040,15 @@
       </c>
       <c r="N115" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>15438</v>
+        <v>19638</v>
       </c>
       <c r="O115" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>38150.75</v>
+        <v>42350.75</v>
       </c>
       <c r="P115" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>3494.8158196428558</v>
+        <v>-4519.0755917721617</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -8113,7 +8093,7 @@
       </c>
       <c r="M116" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>13100</v>
+        <v>20100</v>
       </c>
       <c r="N116" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -8121,11 +8101,11 @@
       </c>
       <c r="O116" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>46161.288</v>
+        <v>53161.288</v>
       </c>
       <c r="P116" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>11505.353819642856</v>
+        <v>6291.4624082278388</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -8174,15 +8154,15 @@
       </c>
       <c r="N117" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>11136</v>
+        <v>15336</v>
       </c>
       <c r="O117" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>34903.233600000007</v>
+        <v>39103.233600000007</v>
       </c>
       <c r="P117" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>247.29941964286263</v>
+        <v>-7766.5919917721549</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -8231,15 +8211,15 @@
       </c>
       <c r="N118" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>19024</v>
+        <v>24624</v>
       </c>
       <c r="O118" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>53287.804800000005</v>
+        <v>58887.804800000005</v>
       </c>
       <c r="P118" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>18631.870619642861</v>
+        <v>12017.979208227844</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -8284,7 +8264,7 @@
       </c>
       <c r="M119" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-56254</v>
+        <v>-28254</v>
       </c>
       <c r="N119" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -8292,11 +8272,11 @@
       </c>
       <c r="O119" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>4196.1759999999995</v>
+        <v>32196.175999999999</v>
       </c>
       <c r="P119" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-30459.758180357145</v>
+        <v>-14673.649591772162</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -8341,19 +8321,19 @@
       </c>
       <c r="M120" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-33948</v>
+        <v>-5948</v>
       </c>
       <c r="N120" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>18355</v>
+        <v>25355</v>
       </c>
       <c r="O120" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>26398.824800000002</v>
+        <v>61398.824800000002</v>
       </c>
       <c r="P120" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-8257.1093803571421</v>
+        <v>14528.99920822784</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -8398,7 +8378,7 @@
       </c>
       <c r="M121" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>15775</v>
+        <v>22775</v>
       </c>
       <c r="N121" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -8406,11 +8386,11 @@
       </c>
       <c r="O121" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>52305.915199999996</v>
+        <v>59305.915199999996</v>
       </c>
       <c r="P121" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>17649.981019642852</v>
+        <v>12436.089608227834</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -8449,7 +8429,7 @@
       </c>
       <c r="M122" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>10772</v>
+        <v>16372</v>
       </c>
       <c r="N122" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -8457,11 +8437,11 @@
       </c>
       <c r="O122" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>22903.222399999999</v>
+        <v>28503.222399999999</v>
       </c>
       <c r="P122" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-11752.711780357145</v>
+        <v>-18366.603191772163</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -8510,15 +8490,15 @@
       </c>
       <c r="N123" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>6482</v>
+        <v>9282</v>
       </c>
       <c r="O123" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>26233.692199999998</v>
+        <v>29033.692199999998</v>
       </c>
       <c r="P123" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-8422.2419803571465</v>
+        <v>-17836.133391772164</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -8569,7 +8549,7 @@
       </c>
       <c r="P124" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-7416.683180357144</v>
+        <v>-19630.574591772162</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -8620,7 +8600,7 @@
       </c>
       <c r="P125" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-23491.411180357143</v>
+        <v>-35705.302591772161</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -8665,19 +8645,19 @@
       </c>
       <c r="M126" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>13944</v>
+        <v>19544</v>
       </c>
       <c r="N126" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-68108</v>
+        <v>-12108</v>
       </c>
       <c r="O126" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>-5631.2608000000037</v>
+        <v>55968.739199999996</v>
       </c>
       <c r="P126" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-40287.194980357148</v>
+        <v>9098.9136082278346</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -8726,15 +8706,15 @@
       </c>
       <c r="N127" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>10119</v>
+        <v>14319</v>
       </c>
       <c r="O127" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>19901.227200000001</v>
+        <v>24101.227200000001</v>
       </c>
       <c r="P127" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-14754.706980357143</v>
+        <v>-22768.598391772161</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -8779,19 +8759,19 @@
       </c>
       <c r="M128" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-26308</v>
+        <v>-12308</v>
       </c>
       <c r="N128" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>5848</v>
+        <v>8648</v>
       </c>
       <c r="O128" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>5713.7839999999997</v>
+        <v>22513.784</v>
       </c>
       <c r="P128" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-28942.150180357145</v>
+        <v>-24356.041591772162</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -8836,7 +8816,7 @@
       </c>
       <c r="M129" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>14565</v>
+        <v>21565</v>
       </c>
       <c r="N129" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -8844,11 +8824,11 @@
       </c>
       <c r="O129" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>45587.89</v>
+        <v>52587.89</v>
       </c>
       <c r="P129" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>10931.955819642855</v>
+        <v>5718.0644082278377</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -8887,7 +8867,7 @@
       </c>
       <c r="M130" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>7184</v>
+        <v>9984</v>
       </c>
       <c r="N130" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -8895,11 +8875,11 @@
       </c>
       <c r="O130" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>13078.4768</v>
+        <v>15878.4768</v>
       </c>
       <c r="P130" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-21577.457380357144</v>
+        <v>-30991.348791772161</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -8944,7 +8924,7 @@
       </c>
       <c r="M131" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>19608</v>
+        <v>25208</v>
       </c>
       <c r="N131" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -8952,11 +8932,11 @@
       </c>
       <c r="O131" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>38310.404800000004</v>
+        <v>43910.404800000004</v>
       </c>
       <c r="P131" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>3654.4706196428597</v>
+        <v>-2959.4207917721578</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -9001,7 +8981,7 @@
       </c>
       <c r="M132" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>11036</v>
+        <v>16636</v>
       </c>
       <c r="N132" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9009,11 +8989,11 @@
       </c>
       <c r="O132" s="74">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>42045.195399999997</v>
+        <v>47645.195399999997</v>
       </c>
       <c r="P132" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>7389.2612196428527</v>
+        <v>775.36980822783516</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -9062,15 +9042,15 @@
       </c>
       <c r="N133" s="72">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>8750</v>
+        <v>11550</v>
       </c>
       <c r="O133" s="75">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>31691.624</v>
+        <v>34491.623999999996</v>
       </c>
       <c r="P133" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-2964.3101803571444</v>
+        <v>-12378.201591772166</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -9127,7 +9107,7 @@
       </c>
       <c r="P134" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>21216.466619642859</v>
+        <v>9002.5752082278414</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -9172,7 +9152,7 @@
       </c>
       <c r="M135" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>12231</v>
+        <v>16431</v>
       </c>
       <c r="N135" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9180,11 +9160,11 @@
       </c>
       <c r="O135" s="71">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>55202.9568</v>
+        <v>59402.9568</v>
       </c>
       <c r="P135" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>20547.022619642856</v>
+        <v>12533.131208227838</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -9235,7 +9215,7 @@
       </c>
       <c r="P136" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-25740.669380357143</v>
+        <v>-37954.560791772165</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -9274,7 +9254,7 @@
       </c>
       <c r="M137" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>14565</v>
+        <v>21565</v>
       </c>
       <c r="N137" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9282,11 +9262,11 @@
       </c>
       <c r="O137" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>30817.486000000001</v>
+        <v>37817.486000000004</v>
       </c>
       <c r="P137" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-3838.4481803571434</v>
+        <v>-9052.3395917721573</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -9331,7 +9311,7 @@
       </c>
       <c r="M138" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-71673</v>
+        <v>-29673</v>
       </c>
       <c r="N138" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9339,11 +9319,11 @@
       </c>
       <c r="O138" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>45991.462400000019</v>
+        <v>87991.462400000019</v>
       </c>
       <c r="P138" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>11335.528219642874</v>
+        <v>41121.636808227857</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -9392,15 +9372,15 @@
       </c>
       <c r="N139" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-74492</v>
+        <v>-36492</v>
       </c>
       <c r="O139" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>123452.8222</v>
+        <v>161452.8222</v>
       </c>
       <c r="P139" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>88796.888019642851</v>
+        <v>114582.99660822784</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -9445,7 +9425,7 @@
       </c>
       <c r="M140" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>17672</v>
+        <v>23272</v>
       </c>
       <c r="N140" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9453,11 +9433,11 @@
       </c>
       <c r="O140" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>90299.627200000003</v>
+        <v>95899.627200000003</v>
       </c>
       <c r="P140" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>55643.693019642858</v>
+        <v>49029.801608227841</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
@@ -9514,7 +9494,7 @@
       </c>
       <c r="P141" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>68140.225819642859</v>
+        <v>55926.334408227842</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -9559,7 +9539,7 @@
       </c>
       <c r="M142" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>10440</v>
+        <v>16040</v>
       </c>
       <c r="N142" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9567,11 +9547,11 @@
       </c>
       <c r="O142" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>65275.839200000002</v>
+        <v>70875.839200000002</v>
       </c>
       <c r="P142" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>30619.905019642858</v>
+        <v>24006.01360822784</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -9628,7 +9608,7 @@
       </c>
       <c r="P143" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-13489.541780357144</v>
+        <v>-25703.433191772161</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
@@ -9673,7 +9653,7 @@
       </c>
       <c r="M144" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>16390</v>
+        <v>23390</v>
       </c>
       <c r="N144" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9681,11 +9661,11 @@
       </c>
       <c r="O144" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>107693.6495</v>
+        <v>114693.6495</v>
       </c>
       <c r="P144" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>73037.715319642855</v>
+        <v>67823.823908227845</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -9724,7 +9704,7 @@
       </c>
       <c r="M145" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>9130</v>
+        <v>11930</v>
       </c>
       <c r="N145" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9732,11 +9712,11 @@
       </c>
       <c r="O145" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>17677.112000000001</v>
+        <v>20477.112000000001</v>
       </c>
       <c r="P145" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-16978.822180357143</v>
+        <v>-26392.713591772161</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -9785,15 +9765,15 @@
       </c>
       <c r="N146" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>9471</v>
+        <v>13671</v>
       </c>
       <c r="O146" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>51530.9352</v>
+        <v>55730.9352</v>
       </c>
       <c r="P146" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>16875.001019642856</v>
+        <v>8861.1096082278382</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -9838,7 +9818,7 @@
       </c>
       <c r="M147" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>5364</v>
+        <v>8164</v>
       </c>
       <c r="N147" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9846,11 +9826,11 @@
       </c>
       <c r="O147" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>33192.608</v>
+        <v>35992.608</v>
       </c>
       <c r="P147" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-1463.326180357144</v>
+        <v>-10877.217591772162</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -9895,7 +9875,7 @@
       </c>
       <c r="M148" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>14840</v>
+        <v>21840</v>
       </c>
       <c r="N148" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -9903,11 +9883,11 @@
       </c>
       <c r="O148" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>52565.04</v>
+        <v>59565.04</v>
       </c>
       <c r="P148" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>17909.105819642857</v>
+        <v>12695.214408227839</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
@@ -9956,15 +9936,15 @@
       </c>
       <c r="N149" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>24340</v>
+        <v>31340</v>
       </c>
       <c r="O149" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>85867.487999999998</v>
+        <v>92867.487999999998</v>
       </c>
       <c r="P149" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>51211.553819642853</v>
+        <v>45997.662408227836</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
@@ -10021,7 +10001,7 @@
       </c>
       <c r="P150" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>5777.3850196428539</v>
+        <v>-6436.5063917721636</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -10072,7 +10052,7 @@
       </c>
       <c r="P151" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-18441.704580357145</v>
+        <v>-30655.595991772163</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -10121,15 +10101,15 @@
       </c>
       <c r="N152" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>11948</v>
+        <v>17548</v>
       </c>
       <c r="O152" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>42221.065600000002</v>
+        <v>47821.065600000002</v>
       </c>
       <c r="P152" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>7565.1314196428575</v>
+        <v>951.24000822784001</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -10174,7 +10154,7 @@
       </c>
       <c r="M153" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-55251</v>
+        <v>-13251</v>
       </c>
       <c r="N153" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -10182,11 +10162,11 @@
       </c>
       <c r="O153" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>8721.3311999999933</v>
+        <v>50721.331199999993</v>
       </c>
       <c r="P153" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-25934.602980357151</v>
+        <v>3851.5056082278315</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -10231,7 +10211,7 @@
       </c>
       <c r="M154" s="75">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-47352</v>
+        <v>-5352</v>
       </c>
       <c r="N154" s="80">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -10239,11 +10219,11 @@
       </c>
       <c r="O154" s="72">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>58460.016600000003</v>
+        <v>100460.0166</v>
       </c>
       <c r="P154" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>23804.082419642858</v>
+        <v>53590.191008227841</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -10300,7 +10280,7 @@
       </c>
       <c r="P155" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>21216.466619642859</v>
+        <v>9002.5752082278414</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -10345,7 +10325,7 @@
       </c>
       <c r="M156" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>12231</v>
+        <v>16431</v>
       </c>
       <c r="N156" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -10353,11 +10333,11 @@
       </c>
       <c r="O156" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>43780.436799999996</v>
+        <v>47980.436799999996</v>
       </c>
       <c r="P156" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>9124.5026196428516</v>
+        <v>1110.6112082278341</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
@@ -10408,7 +10388,7 @@
       </c>
       <c r="P157" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-25740.669380357143</v>
+        <v>-37954.560791772165</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -10447,7 +10427,7 @@
       </c>
       <c r="M158" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>14565</v>
+        <v>21565</v>
       </c>
       <c r="N158" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -10455,11 +10435,11 @@
       </c>
       <c r="O158" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>30817.486000000001</v>
+        <v>37817.486000000004</v>
       </c>
       <c r="P158" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-3838.4481803571434</v>
+        <v>-9052.3395917721573</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -10504,7 +10484,7 @@
       </c>
       <c r="M159" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-71673</v>
+        <v>-29673</v>
       </c>
       <c r="N159" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -10512,11 +10492,11 @@
       </c>
       <c r="O159" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>45991.462400000019</v>
+        <v>87991.462400000019</v>
       </c>
       <c r="P159" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>11335.528219642874</v>
+        <v>41121.636808227857</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -10565,15 +10545,15 @@
       </c>
       <c r="N160" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-74492</v>
+        <v>-36492</v>
       </c>
       <c r="O160" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>123452.8222</v>
+        <v>161452.8222</v>
       </c>
       <c r="P160" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>88796.888019642851</v>
+        <v>114582.99660822784</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -10618,7 +10598,7 @@
       </c>
       <c r="M161" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>17672</v>
+        <v>23272</v>
       </c>
       <c r="N161" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -10626,11 +10606,11 @@
       </c>
       <c r="O161" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>90299.627200000003</v>
+        <v>95899.627200000003</v>
       </c>
       <c r="P161" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>55643.693019642858</v>
+        <v>49029.801608227841</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -10687,7 +10667,7 @@
       </c>
       <c r="P162" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>68140.225819642859</v>
+        <v>55926.334408227842</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
@@ -10732,7 +10712,7 @@
       </c>
       <c r="M163" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>10440</v>
+        <v>16040</v>
       </c>
       <c r="N163" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -10740,11 +10720,11 @@
       </c>
       <c r="O163" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>65275.839200000002</v>
+        <v>70875.839200000002</v>
       </c>
       <c r="P163" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>30619.905019642858</v>
+        <v>24006.01360822784</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
@@ -10801,7 +10781,7 @@
       </c>
       <c r="P164" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-13489.541780357144</v>
+        <v>-25703.433191772161</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -10846,7 +10826,7 @@
       </c>
       <c r="M165" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>16390</v>
+        <v>23390</v>
       </c>
       <c r="N165" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -10854,11 +10834,11 @@
       </c>
       <c r="O165" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>107693.6495</v>
+        <v>114693.6495</v>
       </c>
       <c r="P165" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>73037.715319642855</v>
+        <v>67823.823908227845</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
@@ -10897,7 +10877,7 @@
       </c>
       <c r="M166" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>9130</v>
+        <v>11930</v>
       </c>
       <c r="N166" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -10905,11 +10885,11 @@
       </c>
       <c r="O166" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>17677.112000000001</v>
+        <v>20477.112000000001</v>
       </c>
       <c r="P166" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-16978.822180357143</v>
+        <v>-26392.713591772161</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
@@ -10958,15 +10938,15 @@
       </c>
       <c r="N167" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>9471</v>
+        <v>13671</v>
       </c>
       <c r="O167" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>51530.9352</v>
+        <v>55730.9352</v>
       </c>
       <c r="P167" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>16875.001019642856</v>
+        <v>8861.1096082278382</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -11011,7 +10991,7 @@
       </c>
       <c r="M168" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>5364</v>
+        <v>8164</v>
       </c>
       <c r="N168" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -11019,11 +10999,11 @@
       </c>
       <c r="O168" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>33192.608</v>
+        <v>35992.608</v>
       </c>
       <c r="P168" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-1463.326180357144</v>
+        <v>-10877.217591772162</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
@@ -11068,7 +11048,7 @@
       </c>
       <c r="M169" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>14840</v>
+        <v>21840</v>
       </c>
       <c r="N169" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -11076,11 +11056,11 @@
       </c>
       <c r="O169" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>52565.04</v>
+        <v>59565.04</v>
       </c>
       <c r="P169" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>17909.105819642857</v>
+        <v>12695.214408227839</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
@@ -11129,15 +11109,15 @@
       </c>
       <c r="N170" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>24340</v>
+        <v>31340</v>
       </c>
       <c r="O170" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>85867.487999999998</v>
+        <v>92867.487999999998</v>
       </c>
       <c r="P170" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>51211.553819642853</v>
+        <v>45997.662408227836</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
@@ -11194,7 +11174,7 @@
       </c>
       <c r="P171" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>5777.3850196428539</v>
+        <v>-6436.5063917721636</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
@@ -11245,7 +11225,7 @@
       </c>
       <c r="P172" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-18441.704580357145</v>
+        <v>-30655.595991772163</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
@@ -11294,15 +11274,15 @@
       </c>
       <c r="N173" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>11948</v>
+        <v>17548</v>
       </c>
       <c r="O173" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>42221.065600000002</v>
+        <v>47821.065600000002</v>
       </c>
       <c r="P173" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>7565.1314196428575</v>
+        <v>951.24000822784001</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
@@ -11347,7 +11327,7 @@
       </c>
       <c r="M174" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-55251</v>
+        <v>-13251</v>
       </c>
       <c r="N174" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -11355,11 +11335,11 @@
       </c>
       <c r="O174" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>8721.3311999999933</v>
+        <v>50721.331199999993</v>
       </c>
       <c r="P174" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-25934.602980357151</v>
+        <v>3851.5056082278315</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -11404,7 +11384,7 @@
       </c>
       <c r="M175" s="75">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-47352</v>
+        <v>-5352</v>
       </c>
       <c r="N175" s="80">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -11412,11 +11392,11 @@
       </c>
       <c r="O175" s="72">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>58460.016600000003</v>
+        <v>100460.0166</v>
       </c>
       <c r="P175" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>23804.082419642858</v>
+        <v>53590.191008227841</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
@@ -11465,15 +11445,15 @@
       </c>
       <c r="N176" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>10322</v>
+        <v>13122</v>
       </c>
       <c r="O176" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>31631.0088</v>
+        <v>34431.008799999996</v>
       </c>
       <c r="P176" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-3024.9253803571446</v>
+        <v>-12438.816791772166</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
@@ -11518,19 +11498,19 @@
       </c>
       <c r="M177" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-51081</v>
+        <v>-9081</v>
       </c>
       <c r="N177" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>8096</v>
+        <v>10896</v>
       </c>
       <c r="O177" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>-11310.111999999997</v>
+        <v>33489.888000000006</v>
       </c>
       <c r="P177" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-45966.046180357138</v>
+        <v>-13379.937591772155</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
@@ -11575,19 +11555,19 @@
       </c>
       <c r="M178" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-60570</v>
+        <v>-18570</v>
       </c>
       <c r="N178" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>21345</v>
+        <v>28345</v>
       </c>
       <c r="O178" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>28952.020000000004</v>
+        <v>77952.02</v>
       </c>
       <c r="P178" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-5703.9141803571401</v>
+        <v>31082.194408227842</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
@@ -11644,7 +11624,7 @@
       </c>
       <c r="P179" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>26633.130319642863</v>
+        <v>14419.238908227846</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
@@ -11695,7 +11675,7 @@
       </c>
       <c r="P180" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>2727.9602196428605</v>
+        <v>-9485.931191772157</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
@@ -11744,15 +11724,15 @@
       </c>
       <c r="N181" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>24455</v>
+        <v>31455</v>
       </c>
       <c r="O181" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>59489.017999999996</v>
+        <v>66489.017999999996</v>
       </c>
       <c r="P181" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>24833.083819642852</v>
+        <v>19619.192408227835</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
@@ -11803,7 +11783,7 @@
       </c>
       <c r="P182" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>16194.593819642861</v>
+        <v>3980.702408227844</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -11848,7 +11828,7 @@
       </c>
       <c r="M183" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-15232</v>
+        <v>-1232</v>
       </c>
       <c r="N183" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -11856,11 +11836,11 @@
       </c>
       <c r="O183" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>33590.352799999993</v>
+        <v>47590.352799999993</v>
       </c>
       <c r="P183" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-1065.5813803571509</v>
+        <v>720.52720822783158</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
@@ -11909,15 +11889,15 @@
       </c>
       <c r="N184" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>14444</v>
+        <v>20044</v>
       </c>
       <c r="O184" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>70348.722399999999</v>
+        <v>75948.722399999999</v>
       </c>
       <c r="P184" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>35692.788219642855</v>
+        <v>29078.896808227837</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
@@ -11962,7 +11942,7 @@
       </c>
       <c r="M185" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>9018</v>
+        <v>13218</v>
       </c>
       <c r="N185" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -11970,11 +11950,11 @@
       </c>
       <c r="O185" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>68268.033599999995</v>
+        <v>72468.033599999995</v>
       </c>
       <c r="P185" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>33612.099419642851</v>
+        <v>25598.208008227833</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
@@ -12019,7 +11999,7 @@
       </c>
       <c r="M186" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>18740</v>
+        <v>24340</v>
       </c>
       <c r="N186" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -12027,11 +12007,11 @@
       </c>
       <c r="O186" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>83310.64</v>
+        <v>88910.64</v>
       </c>
       <c r="P186" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>48654.705819642855</v>
+        <v>42040.814408227838</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
@@ -12070,7 +12050,7 @@
       </c>
       <c r="M187" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>9214</v>
+        <v>12014</v>
       </c>
       <c r="N187" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -12078,11 +12058,11 @@
       </c>
       <c r="O187" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>14489.1584</v>
+        <v>17289.1584</v>
       </c>
       <c r="P187" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-20166.775780357144</v>
+        <v>-29580.667191772161</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
@@ -12133,7 +12113,7 @@
       </c>
       <c r="P188" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-26034.046180357145</v>
+        <v>-38247.937591772163</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
@@ -12190,7 +12170,7 @@
       </c>
       <c r="P189" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>9776.4278196428568</v>
+        <v>-2437.4635917721607</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
@@ -12235,7 +12215,7 @@
       </c>
       <c r="M190" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>18764</v>
+        <v>24364</v>
       </c>
       <c r="N190" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -12243,11 +12223,11 @@
       </c>
       <c r="O190" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>79547.070800000001</v>
+        <v>85147.070800000001</v>
       </c>
       <c r="P190" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>44891.136619642857</v>
+        <v>38277.24520822784</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
@@ -12296,15 +12276,15 @@
       </c>
       <c r="N191" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>12387</v>
+        <v>16587</v>
       </c>
       <c r="O191" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>63609.883199999997</v>
+        <v>67809.883199999997</v>
       </c>
       <c r="P191" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>28953.949019642852</v>
+        <v>20940.057608227835</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
@@ -12349,7 +12329,7 @@
       </c>
       <c r="M192" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-18360</v>
+        <v>-4360</v>
       </c>
       <c r="N192" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -12357,11 +12337,11 @@
       </c>
       <c r="O192" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>16840.82</v>
+        <v>30840.82</v>
       </c>
       <c r="P192" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-17815.114180357145</v>
+        <v>-16029.005591772162</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
@@ -12412,7 +12392,7 @@
       </c>
       <c r="P193" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>18801.165819642854</v>
+        <v>6587.2744082278368</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
@@ -12457,19 +12437,19 @@
       </c>
       <c r="M194" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-16778</v>
+        <v>-2778</v>
       </c>
       <c r="N194" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-130360</v>
+        <v>-92360</v>
       </c>
       <c r="O194" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>31083.565599999973</v>
+        <v>83083.565599999973</v>
       </c>
       <c r="P194" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-3572.3685803571716</v>
+        <v>36213.740008227811</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
@@ -12508,7 +12488,7 @@
       </c>
       <c r="M195" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-79676</v>
+        <v>-23676</v>
       </c>
       <c r="N195" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -12516,11 +12496,11 @@
       </c>
       <c r="O195" s="71">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>-13947.246400000004</v>
+        <v>42052.753599999996</v>
       </c>
       <c r="P195" s="71">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-48603.180580357148</v>
+        <v>-4817.0719917721653</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
@@ -12565,19 +12545,19 @@
       </c>
       <c r="M196" s="75">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-111148</v>
+        <v>-55148</v>
       </c>
       <c r="N196" s="80">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-214640</v>
+        <v>-138640</v>
       </c>
       <c r="O196" s="72">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>-60356.492800000007</v>
+        <v>71643.507199999993</v>
       </c>
       <c r="P196" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-95012.426980357151</v>
+        <v>24773.681608227831</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
@@ -12634,7 +12614,7 @@
       </c>
       <c r="P197" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>52463.470619642845</v>
+        <v>40249.579208227828</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
@@ -12679,7 +12659,7 @@
       </c>
       <c r="M198" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>14430</v>
+        <v>18630</v>
       </c>
       <c r="N198" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -12687,11 +12667,11 @@
       </c>
       <c r="O198" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>59123.961600000002</v>
+        <v>63323.961600000002</v>
       </c>
       <c r="P198" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>24468.027419642858</v>
+        <v>16454.136008227841</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
@@ -12742,7 +12722,7 @@
       </c>
       <c r="P199" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>4173.4450196428515</v>
+        <v>-8040.446391772166</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
@@ -12787,7 +12767,7 @@
       </c>
       <c r="M200" s="74">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-1497</v>
+        <v>12503</v>
       </c>
       <c r="N200" s="79">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -12795,11 +12775,11 @@
       </c>
       <c r="O200" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>21703.060399999998</v>
+        <v>35703.060400000002</v>
       </c>
       <c r="P200" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-12952.873780357146</v>
+        <v>-11166.76519177216</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
@@ -12856,7 +12836,7 @@
       </c>
       <c r="P201" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>23679.677319642855</v>
+        <v>11465.785908227837</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
@@ -12901,7 +12881,7 @@
       </c>
       <c r="M202" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>13144</v>
+        <v>15944</v>
       </c>
       <c r="N202" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -12909,11 +12889,11 @@
       </c>
       <c r="O202" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>33883.289600000004</v>
+        <v>36683.289600000004</v>
       </c>
       <c r="P202" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-772.64458035714051</v>
+        <v>-10186.535991772158</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
@@ -12964,7 +12944,7 @@
       </c>
       <c r="P203" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>10355.073819642857</v>
+        <v>-1858.8175917721601</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
@@ -13013,15 +12993,15 @@
       </c>
       <c r="N204" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>27230</v>
+        <v>34230</v>
       </c>
       <c r="O204" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>105112.454</v>
+        <v>112112.454</v>
       </c>
       <c r="P204" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>70456.519819642854</v>
+        <v>65242.628408227836</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
@@ -13072,7 +13052,7 @@
       </c>
       <c r="P205" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>14372.94181964286</v>
+        <v>2159.0504082278421</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
@@ -13117,7 +13097,7 @@
       </c>
       <c r="M206" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>30160</v>
+        <v>37160</v>
       </c>
       <c r="N206" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -13125,11 +13105,11 @@
       </c>
       <c r="O206" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>63978.546000000002</v>
+        <v>70978.546000000002</v>
       </c>
       <c r="P206" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>29322.611819642858</v>
+        <v>24108.72040822784</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
@@ -13186,7 +13166,7 @@
       </c>
       <c r="P207" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>104081.10881964286</v>
+        <v>91867.217408227851</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -13235,15 +13215,15 @@
       </c>
       <c r="N208" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>18860</v>
+        <v>24460</v>
       </c>
       <c r="O208" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>61548.077999999994</v>
+        <v>67148.077999999994</v>
       </c>
       <c r="P208" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>26892.14381964285</v>
+        <v>20278.252408227832</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
@@ -13294,7 +13274,7 @@
       </c>
       <c r="P209" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-2360.1121803571441</v>
+        <v>-14574.003591772162</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
@@ -13345,7 +13325,7 @@
       </c>
       <c r="P210" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>83788.327819642844</v>
+        <v>71574.436408227833</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
@@ -13390,7 +13370,7 @@
       </c>
       <c r="M211" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>20632</v>
+        <v>26232</v>
       </c>
       <c r="N211" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -13398,11 +13378,11 @@
       </c>
       <c r="O211" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>102056.31359999999</v>
+        <v>107656.31359999999</v>
       </c>
       <c r="P211" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>67400.37941964285</v>
+        <v>60786.488008227832</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
@@ -13451,15 +13431,15 @@
       </c>
       <c r="N212" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-14349</v>
+        <v>-349</v>
       </c>
       <c r="O212" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>55891.2736</v>
+        <v>69891.2736</v>
       </c>
       <c r="P212" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>21235.339419642856</v>
+        <v>23021.448008227839</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
@@ -13498,7 +13478,7 @@
       </c>
       <c r="M213" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>20500</v>
+        <v>26100</v>
       </c>
       <c r="N213" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -13506,11 +13486,11 @@
       </c>
       <c r="O213" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>32033.32</v>
+        <v>37633.32</v>
       </c>
       <c r="P213" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-2622.6141803571445</v>
+        <v>-9236.505591772162</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
@@ -13549,7 +13529,7 @@
       </c>
       <c r="M214" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>13866</v>
+        <v>16666</v>
       </c>
       <c r="N214" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -13557,11 +13537,11 @@
       </c>
       <c r="O214" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>18357.484799999998</v>
+        <v>21157.484799999998</v>
       </c>
       <c r="P214" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-16298.449380357146</v>
+        <v>-25712.340791772163</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
@@ -13606,7 +13586,7 @@
       </c>
       <c r="M215" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>19263</v>
+        <v>23463</v>
       </c>
       <c r="N215" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -13614,11 +13594,11 @@
       </c>
       <c r="O215" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>64746.854800000001</v>
+        <v>68946.854800000001</v>
       </c>
       <c r="P215" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>30090.920619642857</v>
+        <v>22077.029208227839</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
@@ -13675,7 +13655,7 @@
       </c>
       <c r="P216" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-1771.7791803571454</v>
+        <v>-13985.670591772163</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
@@ -13724,15 +13704,15 @@
       </c>
       <c r="N217" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>16989</v>
+        <v>21189</v>
       </c>
       <c r="O217" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>36367.582600000002</v>
+        <v>40567.582600000002</v>
       </c>
       <c r="P217" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>1711.6484196428573</v>
+        <v>-6302.2429917721602</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
@@ -13771,7 +13751,7 @@
       </c>
       <c r="M218" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>20848</v>
+        <v>26448</v>
       </c>
       <c r="N218" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -13779,11 +13759,11 @@
       </c>
       <c r="O218" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>30512.281600000002</v>
+        <v>36112.281600000002</v>
       </c>
       <c r="P218" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-4143.6525803571421</v>
+        <v>-10757.54399177216</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
@@ -13828,7 +13808,7 @@
       </c>
       <c r="M219" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-36619</v>
+        <v>-17619</v>
       </c>
       <c r="N219" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -13836,11 +13816,11 @@
       </c>
       <c r="O219" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>133482.96280000001</v>
+        <v>152482.96280000001</v>
       </c>
       <c r="P219" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>98827.028619642864</v>
+        <v>105613.13720822785</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
@@ -13891,7 +13871,7 @@
       </c>
       <c r="P220" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>3869.8066196428554</v>
+        <v>-8344.0847917721621</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
@@ -13936,7 +13916,7 @@
       </c>
       <c r="M221" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>27730</v>
+        <v>34730</v>
       </c>
       <c r="N221" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -13944,11 +13924,11 @@
       </c>
       <c r="O221" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>102400.564</v>
+        <v>109400.564</v>
       </c>
       <c r="P221" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>67744.629819642854</v>
+        <v>62530.738408227837</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
@@ -13997,15 +13977,15 @@
       </c>
       <c r="N222" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>14427</v>
+        <v>18627</v>
       </c>
       <c r="O222" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>69476.068800000008</v>
+        <v>73676.068800000008</v>
       </c>
       <c r="P222" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>34820.134619642864</v>
+        <v>26806.243208227846</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
@@ -14062,7 +14042,7 @@
       </c>
       <c r="P223" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>50289.614819642855</v>
+        <v>38075.723408227837</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
@@ -14113,7 +14093,7 @@
       </c>
       <c r="P224" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>8777.8762196428579</v>
+        <v>-3436.0151917721596</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
@@ -14164,7 +14144,7 @@
       </c>
       <c r="P225" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>20126.643419642853</v>
+        <v>7912.7520082278352</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
@@ -14213,15 +14193,15 @@
       </c>
       <c r="N226" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-12466</v>
+        <v>1534</v>
       </c>
       <c r="O226" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>76810.828000000009</v>
+        <v>90810.828000000009</v>
       </c>
       <c r="P226" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>42154.893819642864</v>
+        <v>43941.002408227847</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
@@ -14266,7 +14246,7 @@
       </c>
       <c r="M227" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>27725</v>
+        <v>34725</v>
       </c>
       <c r="N227" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -14274,11 +14254,11 @@
       </c>
       <c r="O227" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>102390.9556</v>
+        <v>109390.9556</v>
       </c>
       <c r="P227" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>67735.021419642857</v>
+        <v>62521.130008227839</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
@@ -14323,7 +14303,7 @@
       </c>
       <c r="M228" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>27120</v>
+        <v>32720</v>
       </c>
       <c r="N228" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -14331,11 +14311,11 @@
       </c>
       <c r="O228" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>96749.823999999993</v>
+        <v>102349.82399999999</v>
       </c>
       <c r="P228" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>62093.889819642849</v>
+        <v>55479.998408227832</v>
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
@@ -14374,7 +14354,7 @@
       </c>
       <c r="M229" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>21596</v>
+        <v>27196</v>
       </c>
       <c r="N229" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -14382,11 +14362,11 @@
       </c>
       <c r="O229" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>30648.5792</v>
+        <v>36248.5792</v>
       </c>
       <c r="P229" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-4007.3549803571441</v>
+        <v>-10621.246391772162</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
@@ -14431,7 +14411,7 @@
       </c>
       <c r="M230" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>25428</v>
+        <v>31028</v>
       </c>
       <c r="N230" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -14439,11 +14419,11 @@
       </c>
       <c r="O230" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>78553.716</v>
+        <v>84153.716</v>
       </c>
       <c r="P230" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>43897.781819642856</v>
+        <v>37283.890408227839</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
@@ -14492,15 +14472,15 @@
       </c>
       <c r="N231" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-6334</v>
+        <v>21666</v>
       </c>
       <c r="O231" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>56087.806000000004</v>
+        <v>84087.806000000011</v>
       </c>
       <c r="P231" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>21431.87181964286</v>
+        <v>37217.98040822785</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
@@ -14551,7 +14531,7 @@
       </c>
       <c r="P232" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-6612.2149803571447</v>
+        <v>-18826.106391772162</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
@@ -14602,7 +14582,7 @@
       </c>
       <c r="P233" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-7110.9613803571447</v>
+        <v>-19324.852791772162</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
@@ -14651,15 +14631,15 @@
       </c>
       <c r="N234" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>17802</v>
+        <v>22002</v>
       </c>
       <c r="O234" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>40827.937599999997</v>
+        <v>45027.937599999997</v>
       </c>
       <c r="P234" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>6172.0034196428533</v>
+        <v>-1841.8879917721642</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
@@ -14704,7 +14684,7 @@
       </c>
       <c r="M235" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-21318</v>
+        <v>6682</v>
       </c>
       <c r="N235" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -14712,11 +14692,11 @@
       </c>
       <c r="O235" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>42846.208000000006</v>
+        <v>70846.208000000013</v>
       </c>
       <c r="P235" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>8190.2738196428618</v>
+        <v>23976.382408227852</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
@@ -14765,15 +14745,15 @@
       </c>
       <c r="N236" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-25720</v>
+        <v>30280</v>
       </c>
       <c r="O236" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>103936.336</v>
+        <v>159936.33600000001</v>
       </c>
       <c r="P236" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>69280.401819642851</v>
+        <v>113066.51040822786</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
@@ -14818,7 +14798,7 @@
       </c>
       <c r="M237" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>29550</v>
+        <v>36550</v>
       </c>
       <c r="N237" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -14826,11 +14806,11 @@
       </c>
       <c r="O237" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>77035.024799999999</v>
+        <v>84035.024799999999</v>
       </c>
       <c r="P237" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>42379.090619642855</v>
+        <v>37165.199208227838</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
@@ -14879,15 +14859,15 @@
       </c>
       <c r="N238" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>31285</v>
+        <v>38285</v>
       </c>
       <c r="O238" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>130799.65</v>
+        <v>137799.65</v>
       </c>
       <c r="P238" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>96143.71581964285</v>
+        <v>90929.82440822784</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
@@ -14936,15 +14916,15 @@
       </c>
       <c r="N239" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>18268</v>
+        <v>23868</v>
       </c>
       <c r="O239" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>53773.8004</v>
+        <v>59373.8004</v>
       </c>
       <c r="P239" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>19117.866219642856</v>
+        <v>12503.974808227838</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
@@ -14993,15 +14973,15 @@
       </c>
       <c r="N240" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>26325</v>
+        <v>33325</v>
       </c>
       <c r="O240" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>90860.896399999998</v>
+        <v>97860.896399999998</v>
       </c>
       <c r="P240" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>56204.962219642854</v>
+        <v>50991.070808227836</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
@@ -15046,7 +15026,7 @@
       </c>
       <c r="M241" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>22704</v>
+        <v>28304</v>
       </c>
       <c r="N241" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -15054,11 +15034,11 @@
       </c>
       <c r="O241" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>97799.922399999996</v>
+        <v>103399.9224</v>
       </c>
       <c r="P241" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>63143.988219642852</v>
+        <v>56530.096808227834</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
@@ -15107,15 +15087,15 @@
       </c>
       <c r="N242" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>29870</v>
+        <v>36870</v>
       </c>
       <c r="O242" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>87035.851999999999</v>
+        <v>94035.851999999999</v>
       </c>
       <c r="P242" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>52379.917819642855</v>
+        <v>47166.026408227837</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
@@ -15164,15 +15144,15 @@
       </c>
       <c r="N243" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>20736</v>
+        <v>26336</v>
       </c>
       <c r="O243" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>58370.804400000001</v>
+        <v>63970.804400000001</v>
       </c>
       <c r="P243" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>23714.870219642857</v>
+        <v>17100.978808227839</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.25">
@@ -15217,7 +15197,7 @@
       </c>
       <c r="M244" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>8974</v>
+        <v>11774</v>
       </c>
       <c r="N244" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -15225,11 +15205,11 @@
       </c>
       <c r="O244" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>23698.132399999999</v>
+        <v>26498.132399999999</v>
       </c>
       <c r="P244" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-10957.801780357146</v>
+        <v>-20371.693191772163</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
@@ -15274,7 +15254,7 @@
       </c>
       <c r="M245" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>25764</v>
+        <v>31364</v>
       </c>
       <c r="N245" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -15282,11 +15262,11 @@
       </c>
       <c r="O245" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>111338.224</v>
+        <v>116938.224</v>
       </c>
       <c r="P245" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>76682.289819642858</v>
+        <v>70068.398408227833</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.25">
@@ -15331,19 +15311,19 @@
       </c>
       <c r="M246" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>33405</v>
+        <v>40405</v>
       </c>
       <c r="N246" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-9396</v>
+        <v>32604</v>
       </c>
       <c r="O246" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>65368.610400000005</v>
+        <v>114368.61040000001</v>
       </c>
       <c r="P246" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>30712.676219642861</v>
+        <v>67498.784808227851</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
@@ -15394,7 +15374,7 @@
       </c>
       <c r="P247" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-19039.150980357146</v>
+        <v>-31253.042391772164</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
@@ -15451,7 +15431,7 @@
       </c>
       <c r="P248" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>8415.0178196428533</v>
+        <v>-3798.8735917721642</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
@@ -15496,7 +15476,7 @@
       </c>
       <c r="M249" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-28640</v>
+        <v>-640</v>
       </c>
       <c r="N249" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -15504,11 +15484,11 @@
       </c>
       <c r="O249" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>15785.148000000001</v>
+        <v>43785.148000000001</v>
       </c>
       <c r="P249" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-18870.786180357143</v>
+        <v>-3084.6775917721607</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
@@ -15559,7 +15539,7 @@
       </c>
       <c r="P250" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>-21520.700580357145</v>
+        <v>-33734.591991772162</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.25">
@@ -15608,15 +15588,15 @@
       </c>
       <c r="N251" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-43356</v>
+        <v>12644</v>
       </c>
       <c r="O251" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>63190.599400000006</v>
+        <v>119190.59940000001</v>
       </c>
       <c r="P251" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>28534.665219642862</v>
+        <v>72320.773808227852</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.25">
@@ -15661,7 +15641,7 @@
       </c>
       <c r="M252" s="73">
         <f>IFERROR((Tabla22[[#This Row],[Base price1]]-LOOKUP(Tabla22[[#This Row],[Product]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.]],0)</f>
-        <v>-154644</v>
+        <v>-78644</v>
       </c>
       <c r="N252" s="73">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
@@ -15669,11 +15649,11 @@
       </c>
       <c r="O252" s="73">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>241868.04559999995</v>
+        <v>317868.04559999995</v>
       </c>
       <c r="P252" s="73">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>207212.11141964281</v>
+        <v>270998.2200082278</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
@@ -15722,15 +15702,15 @@
       </c>
       <c r="N253" s="72">
         <f>IF(Tabla22[[#This Row],[Req.2]]&gt;0,(Tabla22[[#This Row],[Base price2]]-LOOKUP(Tabla22[[#This Row],[Product2]],$R$18:$R$23,$S$18:$S$23))*Tabla22[[#This Row],[Req.2]],0)</f>
-        <v>-26968</v>
+        <v>49032</v>
       </c>
       <c r="O253" s="72">
         <f>SUM(Tabla22[[#This Row],[Bonus1]:[p2]])</f>
-        <v>343783.01919999998</v>
+        <v>419783.01919999998</v>
       </c>
       <c r="P253" s="72">
         <f>IF(Tabla22[[#This Row],[QualityBonus]]&gt;0,Tabla22[[#This Row],[No wages]]-$C$4,"")</f>
-        <v>309127.08501964284</v>
+        <v>372913.19360822783</v>
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.25">
@@ -17049,7 +17029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2 B17:B279">
       <formula1>$B$10:$B$12</formula1>
     </dataValidation>
@@ -17069,7 +17049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AF54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -17113,33 +17093,33 @@
         <v>63</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="105"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="99"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="104" t="s">
+      <c r="V5" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="105"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="99"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -19480,33 +19460,33 @@
         <v>70.928000000000011</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="104" t="s">
+      <c r="I30" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="105"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="99"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="104" t="s">
+      <c r="V30" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="104"/>
-      <c r="AF30" s="105"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="99"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
@@ -21606,10 +21586,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="C1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21621,14 +21601,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -22206,344 +22186,24 @@
       </c>
       <c r="J28" s="34"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D33">
-        <v>0.17</v>
-      </c>
-      <c r="E33">
-        <v>0.24</v>
-      </c>
-      <c r="F33">
-        <v>0.44</v>
-      </c>
-      <c r="G33">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="D34">
-        <v>1.64</v>
-      </c>
-      <c r="F34">
-        <f>1.49+0.62+8.06</f>
-        <v>10.17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35">
-        <v>2.72</v>
-      </c>
-      <c r="E35">
-        <v>0.24</v>
-      </c>
-      <c r="F35">
-        <v>0.44</v>
-      </c>
-      <c r="G35">
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36">
-        <v>4.54</v>
-      </c>
-      <c r="E36">
-        <v>1.23</v>
-      </c>
-      <c r="F36">
-        <v>0.88</v>
-      </c>
-      <c r="G36">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39">
-        <f>D33*$C$28/24</f>
-        <v>0.34653571004291123</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ref="E39:G39" si="9">E33*$C$28/24</f>
-        <v>0.48922688476646287</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="9"/>
-        <v>0.89691595540518199</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="9"/>
-        <v>1.2434516654480932</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40">
-        <f>D34*$D$28/24</f>
-        <v>2.0432681734298574</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ref="E40:G40" si="10">E34*$D$28/24</f>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="10"/>
-        <v>12.670754465720519</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41">
-        <f>D35*$E$28/24</f>
-        <v>2.2891033969396091</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ref="E41:G41" si="11">E35*$E$28/24</f>
-        <v>0.20197971149467134</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="11"/>
-        <v>0.37029613774023079</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="11"/>
-        <v>4.9485029316194487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="24">
-        <f>D36*$G$28/24</f>
-        <v>1.3319825689184175</v>
-      </c>
-      <c r="E42" s="24">
-        <f t="shared" ref="E42:G42" si="12">E36*$G$28/24</f>
-        <v>0.36086752417833773</v>
-      </c>
-      <c r="F42" s="24">
-        <f t="shared" si="12"/>
-        <v>0.2581816433145831</v>
-      </c>
-      <c r="G42" s="24">
-        <f t="shared" si="12"/>
-        <v>4.1895839392411895</v>
-      </c>
-      <c r="K42">
-        <v>3311355488</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <f>SUM(D39:D42)</f>
-        <v>6.0108898493307956</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ref="E43:G43" si="13">SUM(E39:E42)</f>
-        <v>1.0520741204394719</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="13"/>
-        <v>14.196148202180515</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="13"/>
-        <v>10.381538536308732</v>
-      </c>
-      <c r="H43">
-        <f>SUM(D43:G43)</f>
-        <v>31.640650708259514</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <f>C28*A47</f>
-        <v>48.922688476646286</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="89">
-        <v>7.0833333333333338E-3</v>
-      </c>
-      <c r="E47" s="89">
-        <v>0.01</v>
-      </c>
-      <c r="F47" s="89">
-        <v>1.8333333333333333E-2</v>
-      </c>
-      <c r="G47" s="90">
-        <v>2.5416666666666667E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <f>D28*A48</f>
-        <v>29.901485464827182</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="91">
-        <v>6.8333333333333329E-2</v>
-      </c>
-      <c r="E48" s="91">
-        <v>0</v>
-      </c>
-      <c r="F48" s="91">
-        <f>0.0879166666666667+0.335833333333333</f>
-        <v>0.42374999999999968</v>
-      </c>
-      <c r="G48" s="92"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <f>E28*A49</f>
-        <v>20.197971149467136</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="91">
-        <v>0.11333333333333334</v>
-      </c>
-      <c r="E49" s="91">
-        <v>0.01</v>
-      </c>
-      <c r="F49" s="91">
-        <v>1.8333333333333333E-2</v>
-      </c>
-      <c r="G49" s="92">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <f>G28*A50</f>
-        <v>7.0413175449431762</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="93">
-        <v>0.18916666666666668</v>
-      </c>
-      <c r="E50" s="93">
-        <v>5.1249999999999997E-2</v>
-      </c>
-      <c r="F50" s="93">
-        <v>3.6666666666666667E-2</v>
-      </c>
-      <c r="G50" s="94">
-        <v>0.59499999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D51">
-        <f>SUMPRODUCT($B$47:$B$50,D47:D50)</f>
-        <v>6.0108898493307956</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ref="E51:G51" si="14">SUMPRODUCT($B$47:$B$50,E47:E50)</f>
-        <v>1.0520741204394719</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="14"/>
-        <v>14.196148202180506</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="14"/>
-        <v>10.381538536308732</v>
-      </c>
-      <c r="H51">
-        <f>SUM(D51:G51)</f>
-        <v>31.640650708259507</v>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
